--- a/Codelists/Codelists - Import.xlsx
+++ b/Codelists/Codelists - Import.xlsx
@@ -47,6 +47,7 @@
     <sheet name="10282" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="11000" sheetId="39" state="visible" r:id="rId39"/>
     <sheet name="11038" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="50001" sheetId="41" state="visible" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35273,6 +35274,4745 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D337"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>DK001-0001</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Kollund Mole (EN)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>DK002-0001</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Ebeltoft, Mols-Liniens Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>DK003-0001</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Odden Færgehavn (EN)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>DK109-0001</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Mariager Akzo Nobel Salt - Akzo Nobel Salt (EN)</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>DK110-0001</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Avedore - Avedorevaerkets Havn (EN)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>DK112-0002</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Glatved, Havnepier (EN)</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>DK250-0001</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Store Heddinge, Stevns Pier - Omya A/S  (EN)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>DK380-0001</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Tejn - Kaj no. 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>DK644-0001</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Odense Steel Shipyard - Vaerftskajen (EN)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>DK706-0001</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Rømø Havn, RSL-terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>DKAAB-0001</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Aabenraa - Havnefacilitet A (EN)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>DKAAB-0002</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Aabenraa - Havnefacilitet B (EN)</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>DKAAB-0003</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Aabenraa - Havnefacilitet C (EN)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>DKAAB-0004</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Aabenraa - Havnefacilitet D (EN)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>DKAAB-0005</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Aabenraa - Havnefacilitet E (EN)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>DKAAL-0001</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Aalborg - Bulkterminalen, Osthavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>DKAAL-0002</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Aalborg - Container- og ACO Terminal, Osthavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>DKAAL-0004</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Aalborg - Multigods terminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>DKAAL-0005</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Aalborg - Multiterminalen, Osthavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>DKAAL-0006</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Aalborg - Nordhavnen, Nr. Sundby (EN)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>DKAAL-0007</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Aalborg - Oliehavnen, Centrale trafikhavn (EN)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>DKAAL-0008</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Aalborg - Sydhavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>DKAAL-0009</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Aalborg - Trafikhavn, Nord (EN)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>DKAAL-0594</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Aalborg Lufthavn, Aalborg Handling (EN)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>DKAAL-3100</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Skattecenter Aalborg, Skibsbyggerivej 5 Forudanmeldelsessted Godkendt modtager (EN)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>DKAAL-3106</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Postcenter Nordjylland (EN)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>DKAAR-0001</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus Havn - Aarhus United (EN)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>DKAAR-0002</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Aarhus Havn - Ad-Hoc (EN)</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>DKAAR-0004</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus Havn - Container Ost - (APM Terminal) (EN)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>DKAAR-0005</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Aarhus Havn - Multi-Bulk (EN)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>DKAAR-0006</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Aarhus Havn - Oliefaciliteten (EN)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>DKAAR-0007</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Århus, Mols Liniens terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>DKAAR-0008</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Århus, CS-Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>DKAAR-1425</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Aarhus Lufthavn Handling (EN)</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>DKAAR-4700</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Skattecenter Århus, Lyseng Allé 1 Forudanmeldelsessted Godkendt modtager (EN)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>DKAAR-4701</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Århus, Østhavnsvej 31 (EN)</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>DKAAR-4770</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Godkendt modtager, Midtjylland  (EN)</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>DKAAR-4774</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>SKAT reserveret ekspedionssted (1)  (EN)</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>DKAGE-0001</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Allinge - Kaj nr. 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>DKAGE-0002</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Allinge - Kaj nr. 2 (EN)</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>DKARK-0001</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Ærøskøbing - Beddingskaj (EN)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>DKASH-0001</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Aggersund - Aggersund Kalkvaerk (EN)</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>DKASN-0001</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Assens - Havnefacilitet 1 (HF-1) (EN)</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>DKASN-0002</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Assens - Havnefacilitet 2 (HF-2) (EN)</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>DKASN-0003</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Assens - Havnefacilitet 5 (HF-5) (EN)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>DKASN-0004</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Assens - Havnefacilitet 8 (HF-8) (EN)</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>DKASV-0001</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Kalundborg, Asnaesvaerket (EN)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>DKBDX-0001</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Bandholm - Ostkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>DKBDX-0010</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Bandholm - Midtermolen (EN)</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>DKBDX-0011</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Bandholm - Vestkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>DKBLL-0128</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Billund Lufthavn, Cargo Center (EN)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>DKBLL-1346</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Billund Lufthavn Spirit Air Cargo Handling (EN)</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>DKBLL-2012</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Billund Lufthavn DHL Handling (EN)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>DKBLL-5606</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Billund (EN)</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0001</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>København - Amagervaerket (EN)</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0002</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>København - Christiansholm (EN)</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0003</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>København - Containerterminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0004</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>København - DFDS Terminal in Mellembassinet (EN)</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0005</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>København - H.C. Orstedsvaerket (EN)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0006</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>København - Kaj 239 (EN)</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0007</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>København - Kaj 245, Sundkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n"/>
+      <c r="D62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0008</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>København - Kaj 250-254, Orientkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0009</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>København - Kaj 400-401 (EN)</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0010</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>København - Kaj 825 (EN)</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0011</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>København - Langelinie (EN)</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n"/>
+      <c r="D66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0012</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>København - Provestenen - torbulk (EN)</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0013</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>København - Provestenen - vaadbulk (EN)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0014</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>København - Rodovre Jern, kaj 391-392 (EN)</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0015</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>København - Uniscrap (EN)</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0016</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>København Nordre Toldbod (EN)</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0017</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>København, Naval Base Copenhagen (EN)</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n"/>
+      <c r="D72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0018</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>København, Fortkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0033</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn,  DHL Aviation Kystvejen 24 Kastrup (EN)</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-0034</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn,  DHL Aviation Kystvejen 18 Kastrup (EN)</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-0493</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn, Post Danmark (EN)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-1034</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn, Federal Express Corporation (EN)</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-1296</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn, WFS Worldwide Flight Services (EN)</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n"/>
+      <c r="D78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-1345</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn, Swissport Cargo (EN)</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-1347</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn, Spirit Air Cargo (EN)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n"/>
+      <c r="D80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-1349</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn, Jetpak Kastrup (EN)</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-6670</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>SKAT reserveret ekspedionssted (3)  (EN)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n"/>
+      <c r="D82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-7900</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Skattecenter København, Sluseholmen 8 (EN)</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-7901</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Toldekspedition Kvæsthusbroen, Terminal Dampfærgevej 30-32 (EN)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-7902</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Frihavnen, Lüdersvej 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-7903</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Toldekspedition Københavns Lufthavn, Kystvejen 16 (EN)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-7905</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition DSB-kombiterminal, Vasbygade 18 (EN)</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-7906</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> International postcenter-København (EN)</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n"/>
+      <c r="D88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-7970</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Kurervirksomheder, Sluseholmen 8 (EN)</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-7971</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Godkendt modtager, København (EN)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>DKCPH-7972</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>SKAT reserveret ekspedionssted (5)  (EN)</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>DKCPH-7974</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>SKAT reserveret ekspedionssted (4)  (EN)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n"/>
+      <c r="D92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>DKDAN-0001</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Mariager, Dania (EN)</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>DKEBJ-0002</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Esbjerg - DFDS, Esbjerg Container Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n"/>
+      <c r="D94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>DKEBJ-0003</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Esbjerg - Soenderhavn (EN)</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>DKEBJ-0004</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Esbjerg - Tankskibsterminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n"/>
+      <c r="D96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>DKEBJ-0005</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Esbjerg - Trafikhavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>DKEBJ-0006</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Esbjerg Kaj 69 (EN)</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>DKEBJ-0007</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>Esbjerg Offshore Base (EN)</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>DKEBJ-0010</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Esbjerg, Skippergade (EN)</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>DKEBJ-0183</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Esbjerg Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>DKEBJ-5607</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Toldekspedition Esbjerg, Adgangsvejen 3 (EN)</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n"/>
+      <c r="D102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>DKENS-0001</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>Aabenraa - Enstedvaerket (EN)</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>DKFAA-0001</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Faaborg - Oestkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n"/>
+      <c r="D104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>DKFAA-0002</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>Faaborg, Nedlagt Færgeleje (EN)</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>DKFAA-0003</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Faaborg, Kulkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n"/>
+      <c r="D106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>DKFAK-0001</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>FAKSE LADEPLADS (EN)</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>DKFDH-0001</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Andelskajen / Tvaerkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n"/>
+      <c r="D108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>DKFDH-0002</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Color Line Terminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>DKFDH-0003</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Jernbanefaergeleje (EN)</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n"/>
+      <c r="D110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>DKFDH-0004</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Mellemkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>DKFDH-0005</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Naval Base (EN)</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="n"/>
+      <c r="D112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>DKFDH-0007</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Nordre Kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>DKFDH-0008</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Oliepieren (EN)</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n"/>
+      <c r="D114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>DKFDH-0009</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Orskov Nord (EN)</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>DKFDH-0010</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Orskov Syd (EN)</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="n"/>
+      <c r="D116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>DKFDH-0011</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Pier 3 og 4 (EN)</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>DKFDH-0012</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Pier 5 Nord (EN)</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n"/>
+      <c r="D118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>DKFDH-0013</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Pier 6 (EN)</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="n"/>
+      <c r="D119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>DKFDH-0015</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Frederikshavn - Stena Line Terminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>DKFDH-3101</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Frederikshavn, Færgehavnsvej 31 (EN)</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>DKFDV-0001</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Frederiksvaerk - Staalvaerkshavn (EN)</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="n"/>
+      <c r="D122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>DKFRC-0001</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Fredericia, Facility 2 - Kastelshavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>DKFRC-0002</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Fredericia, Facility 4 - Fredericia Skibsvaerft (EN)</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="n"/>
+      <c r="D124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>DKFRC-0003</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>Fredericia, Facility 5 - Vesthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="n"/>
+      <c r="D125" s="3" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>DKFRC-0004</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Fredericia, Facility 6 - Faergeterminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="n"/>
+      <c r="D126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>DKFRC-0005</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>Fredericia, Facility 7 - Centerhavn (EN)</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>DKFRC-0006</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Fredericia, Facility 8 - Kaj 23 (EN)</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="n"/>
+      <c r="D128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>DKFRC-0007</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>Fredericia, Facility 9 - Mollebugthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>DKFRC-0008</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Fredericia - Shell Terminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="n"/>
+      <c r="D130" s="2" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>DKFRC-5601</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>Postcenter Sydjylland (EN)</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="n"/>
+      <c r="D131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>DKFRC-5602</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Toldekspedition Centerhavn, Centerhavn 23 (EN)</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="n"/>
+      <c r="D132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>DKFRC-5675</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>DB Schenker Rail Scandinavia (EN)</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>DKFRE-0001</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Fredensborg - Grønholdt Flyveplads (EN)</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="n"/>
+      <c r="D134" s="2" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>DKFRI-0001</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>FRIHAVNEN (EN)</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>DKFUR-001</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>FUR (EN)</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="n"/>
+      <c r="D136" s="2" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>DKGDM-0001</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>Yderbassin (EN)</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="n"/>
+      <c r="D137" s="3" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>DKGDM-0002</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Norresand, SV-mole (EN)</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="n"/>
+      <c r="D138" s="2" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>DKGED-0001</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>Gedser - Faergeterminal (EN)</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="n"/>
+      <c r="D139" s="3" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>DKGFH-0001</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Skælskør, Gulfhavn (EN)</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="n"/>
+      <c r="D140" s="2" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>DKGRE-0001</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>Grenaa Havn - Facility 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="n"/>
+      <c r="D141" s="3" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>DKGRE-0002</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Grenaa Havn - Facility 2, Stena Line (EN)</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="n"/>
+      <c r="D142" s="2" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>DKGRE-0003</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>Grenaa Havn - Facility 3 (EN)</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="n"/>
+      <c r="D143" s="3" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>DKGRE-0004</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Grenaa Havn - Facility 4 (EN)</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="n"/>
+      <c r="D144" s="2" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>DKGRE-0006</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>Grenaa, Lyngsbaek Bro (EN)</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="n"/>
+      <c r="D145" s="3" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>DKGRT-001</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>GRÅSTEN (EN)</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="n"/>
+      <c r="D146" s="2" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>DKHAN-0001</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>Hanstholm - Færgefacilitet (EN)</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="n"/>
+      <c r="D147" s="3" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>DKHAN-0002</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Hanstholm - Kaj 12 (EN)</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="n"/>
+      <c r="D148" s="2" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>DKHAN-0003</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>Hanstholm - Kaj 18/81 (EN)</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="n"/>
+      <c r="D149" s="3" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>DKHAN-0004</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Hanstholm - Kaj 19/85 (EN)</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="n"/>
+      <c r="D150" s="2" t="n"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>DKHAN-0005</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>Hanstholm - kaj 23 (EN)</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="n"/>
+      <c r="D151" s="3" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>DKHAN-0006</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Hanstholm - Kaj 24 (EN)</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="n"/>
+      <c r="D152" s="2" t="n"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>DKHAN-0007</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>Hanstholm - Kaj 38 (EN)</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="n"/>
+      <c r="D153" s="3" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>DKHAN-0008</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Hanstholm - Kaj 41 (EN)</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="n"/>
+      <c r="D154" s="2" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>DKHAS-0001</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>Hals - Ostmolen (EN)</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="n"/>
+      <c r="D155" s="3" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>DKHBK-0001</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Holbæk - H.J. Hansen (EN)</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="n"/>
+      <c r="D156" s="2" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>DKHBK-0002</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>Holbæk - Ostlig Trafikhavn (EN)</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="n"/>
+      <c r="D157" s="3" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>DKHBO-0001</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Hobro - Nordre Kajgade (EN)</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="n"/>
+      <c r="D158" s="2" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>DKHIR-0001</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>Hirtshals - Pier 2 (EN)</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="n"/>
+      <c r="D159" s="3" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>DKHIR-0002</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Hirtshals - Color Line (EN)</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n"/>
+      <c r="D160" s="2" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>DKHIR-0003</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>Hirtshals - Frysehuskajen (EN)</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="n"/>
+      <c r="D161" s="3" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>DKHIR-0004</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Hirtshals - Nordsoterminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n"/>
+      <c r="D162" s="2" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>DKHIR-0005</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>Hirtshals - Sildekajen (EN)</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="n"/>
+      <c r="D163" s="3" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>DKHIR-0006</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>Hirtshals - Tvaerkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="n"/>
+      <c r="D164" s="2" t="n"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>DKHIR-3102</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Hirtshals, Norgeskajen 2 (EN)</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="n"/>
+      <c r="D165" s="3" t="n"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>DKHLS-0001</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Helsingør - HH-Ferries Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n"/>
+      <c r="D166" s="2" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>DKHLS-0002</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>Helsingør - Kaj 1 + 3 (EN)</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="n"/>
+      <c r="D167" s="3" t="n"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>DKHLS-0003</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Helsingør - Kaj 10 (EN)</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n"/>
+      <c r="D168" s="2" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>DKHLS-0004</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>Helsingør - Kaj 2 + 4 (EN)</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="n"/>
+      <c r="D169" s="3" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>DKHLS-0005</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Helsingør - Kaj 7 (EN)</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n"/>
+      <c r="D170" s="2" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>DKHLS-0006</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>Helsingør - Scandlines Havn (EN)</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="n"/>
+      <c r="D171" s="3" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>DKHLS-0007</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Helsingør - ACE Link (EN)</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="n"/>
+      <c r="D172" s="2" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>DKHLS-7908</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Kvistgård, Oldenvej 10 (EN)</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="n"/>
+      <c r="D173" s="3" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>DKHOR-0001</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Horsens Havn - Facilitet B (EN)</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="n"/>
+      <c r="D174" s="2" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>DKHOR-0003</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>Horsens Havn - Facilitet D (EN)</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="n"/>
+      <c r="D175" s="3" t="n"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>DKHOR-0004</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Horsens Havn - Facilitet E (EN)</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="n"/>
+      <c r="D176" s="2" t="n"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>DKHUN-0001</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>Hundested - Trafikhavn (EN)</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="n"/>
+      <c r="D177" s="3" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>DKHVS-0001</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Hvide Sande - Industrikaj i Nordhavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="n"/>
+      <c r="D178" s="2" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>DKJUE-0001</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>Juelsminde - Stormolen (EN)</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="n"/>
+      <c r="D179" s="3" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>DKKAL-0001</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Kalundborg - Osthavnen Havne Facilitet, Kaj 4-5-6 og 7 (EN)</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="n"/>
+      <c r="D180" s="2" t="n"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>DKKAL-0002</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>Kalundborg - Osthavnen Havne Facilitet, Kaj 9 og 10 (EN)</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="n"/>
+      <c r="D181" s="3" t="n"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>DKKAL-0004</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Kalundborg - Sydhavnen Havne Facilitet, Kaj 11 - Tankfacilitet (EN)</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="n"/>
+      <c r="D182" s="2" t="n"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
+        <is>
+          <t>DKKAL-0005</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>Kalundborg - Sydhavnen Havne Facilitet, Kaj 12 og 13 (EN)</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="n"/>
+      <c r="D183" s="3" t="n"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>DKKAL-0006</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Kalundborg - Sydhavnen Havne Facilitet, Kaj 14 og 15 - NKT Fabrik (EN)</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="n"/>
+      <c r="D184" s="2" t="n"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>DKKAL-0007</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>Kalundborg - Vesthavnen havnefacilitet, Kaj 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="n"/>
+      <c r="D185" s="3" t="n"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>DKKAL-0008</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Kalundborg, Mols Liniens Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="n"/>
+      <c r="D186" s="2" t="n"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>DKKAL-0009</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>Samsø Liniens Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="n"/>
+      <c r="D187" s="3" t="n"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>DKKBY-0001</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Jægerpris, Kyndby - Kyndbyvaerkets Havn (EN)</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="n"/>
+      <c r="D188" s="2" t="n"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>DKKLH-0001</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>Vordingborg - Klintholm Havn (EN)</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="n"/>
+      <c r="D189" s="3" t="n"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>DKKOG-0001</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Køge Havn - Gammel Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="n"/>
+      <c r="D190" s="2" t="n"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="inlineStr">
+        <is>
+          <t>DKKOG-0002</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>Køge Havn - Sydterminalen (EN)</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="n"/>
+      <c r="D191" s="3" t="n"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>DKKOG-0004</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Køge Havn - Baltic Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="n"/>
+      <c r="D192" s="2" t="n"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="inlineStr">
+        <is>
+          <t>DKKOG-0025</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>Køge Havn - Center Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="n"/>
+      <c r="D193" s="3" t="n"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>DKKOG-6600</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Godkendt modtager, Midt- og Sydsjælland (EN)</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="n"/>
+      <c r="D194" s="2" t="n"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>DKKOK-0001</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>Faergepier (EN)</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="n"/>
+      <c r="D195" s="3" t="n"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>DKKOK-0002</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Vestkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="n"/>
+      <c r="D196" s="2" t="n"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>DKKOK-0003</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>Samsø Liniens Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="n"/>
+      <c r="D197" s="3" t="n"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>DKKOL-0001</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Kolding - Havnefacilitet A (EN)</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="n"/>
+      <c r="D198" s="2" t="n"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>DKKOL-0002</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>Kolding - Havnefacilitet B (EN)</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="n"/>
+      <c r="D199" s="3" t="n"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>DKKOL-0003</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Kolding - Havnefacilitet C (EN)</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="n"/>
+      <c r="D200" s="2" t="n"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>DKKOL-0004</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>Kolding - Havnefacilitet D (EN)</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="n"/>
+      <c r="D201" s="3" t="n"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>DKKOL-5674</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>SKAT reserveret ekspedionssted (2)  (EN)</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="n"/>
+      <c r="D202" s="2" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>DKKON-0001</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>Kongsdal, Cementfabrikken Kongsdal Havn (EN)</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="n"/>
+      <c r="D203" s="3" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>DKKRP-0001</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Karup Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="n"/>
+      <c r="D204" s="2" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>DKKRR-0001</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>Korsør - Amerikakajen (EN)</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="n"/>
+      <c r="D205" s="3" t="n"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>DKKRR-0002</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Korsør - Faestningen/byen (EN)</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="n"/>
+      <c r="D206" s="2" t="n"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>DKKRR-0003</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>Korsør - Inderhavn Nord (EN)</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="n"/>
+      <c r="D207" s="3" t="n"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>DKKRR-0004</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Korsør - Inderhavn Syd (EN)</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="n"/>
+      <c r="D208" s="2" t="n"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="inlineStr">
+        <is>
+          <t>DKKRR-0005</t>
+        </is>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>Korsør - Naval Base (EN)</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="n"/>
+      <c r="D209" s="3" t="n"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>DKLGS-001</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>LØGSTØR (EN)</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="n"/>
+      <c r="D210" s="2" t="n"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>DKLIN-0001</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>Lindø   (EN)</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="n"/>
+      <c r="D211" s="3" t="n"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>DKLIP-0001</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>Lindø Industripark (EN)</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="n"/>
+      <c r="D212" s="2" t="n"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="inlineStr">
+        <is>
+          <t>DKLVG-0001</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>Lemvig - Oestkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="n"/>
+      <c r="D213" s="3" t="n"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>DKMID-0001</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>Middelfart Trafikhavn, ADP A/S (EN)</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="n"/>
+      <c r="D214" s="2" t="n"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>DKMID-5600</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>Skattecenter Middelfart, Teglgårdsparken 99 (EN)</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="n"/>
+      <c r="D215" s="3" t="n"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>DKMRS-0001</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>Marstal - Honnorkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="n"/>
+      <c r="D216" s="2" t="n"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>DKMRW-0001</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>Lolland Falster Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="n"/>
+      <c r="D217" s="3" t="n"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>DKNAK-0001</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>Nakskov - Facilitet 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="n"/>
+      <c r="D218" s="2" t="n"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="inlineStr">
+        <is>
+          <t>DKNAK-0002</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>Nakskov - Facilitet 11 (EN)</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="n"/>
+      <c r="D219" s="3" t="n"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>DKNAK-0003</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>Nakskov - Facilitet 12-13 (EN)</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="n"/>
+      <c r="D220" s="2" t="n"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="inlineStr">
+        <is>
+          <t>DKNAK-0004</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>Nakskov - Facilitet 2 (EN)</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="n"/>
+      <c r="D221" s="3" t="n"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>DKNAK-0005</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Nakskov - Facilitet 3-4 (EN)</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="n"/>
+      <c r="D222" s="2" t="n"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>DKNAK-0006</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>Nakskov - Facilitet 5 (EN)</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="n"/>
+      <c r="D223" s="3" t="n"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>DKNAK-0007</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Nakskov - Facilitet 8 (EN)</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="n"/>
+      <c r="D224" s="2" t="n"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
+          <t>DKNAV-0001</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>Nørre Alslev, Karrebaeksminde Kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="n"/>
+      <c r="D225" s="3" t="n"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>DKNAV-0002</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>Næstved - Mollekajen (EN)</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="n"/>
+      <c r="D226" s="2" t="n"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
+        <is>
+          <t>DKNAV-0003</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>Næstved - Nykaj (EN)</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="n"/>
+      <c r="D227" s="3" t="n"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>DKNAV-0004</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Næstved - Vestre Kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="n"/>
+      <c r="D228" s="2" t="n"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="inlineStr">
+        <is>
+          <t>DKNAV-0005</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>Næstved - Vestre Mellemkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="n"/>
+      <c r="D229" s="3" t="n"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>DKNAV-6602</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Toldekspedition, Nørre Alslev, Cargovej 7 (EN)</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="n"/>
+      <c r="D230" s="2" t="n"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>DKNBG-0002</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>Nyborg - Avernakke (EN)</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="n"/>
+      <c r="D231" s="3" t="n"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>DKNBG-0003</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>Nyborg - Honnoerkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="n"/>
+      <c r="D232" s="2" t="n"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>DKNBG-0004</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>Nyborg - Lindholm (EN)</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="n"/>
+      <c r="D233" s="3" t="n"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>DKNBG-0005</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Nyborg - Sydkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="n"/>
+      <c r="D234" s="2" t="n"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="inlineStr">
+        <is>
+          <t>DKNBH-001</t>
+        </is>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>Nyborg, Lindholm (EN)</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="n"/>
+      <c r="D235" s="3" t="n"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>DKNEX-0001</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Nekso - Damskibskaj and Vestkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="n"/>
+      <c r="D236" s="2" t="n"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
+          <t>DKNEX-0002</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>Nekso - Klokkemolen and Ostre Kajgade (EN)</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="n"/>
+      <c r="D237" s="3" t="n"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>DKNVD-0001</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Næstved, Møllekajen (EN)</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="n"/>
+      <c r="D238" s="2" t="n"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="inlineStr">
+        <is>
+          <t>DKNVD-0003</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>Næstved, Nykaj (EN)</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="n"/>
+      <c r="D239" s="3" t="n"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>DKNVD-0006</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Næstved, Vestre Kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="n"/>
+      <c r="D240" s="2" t="n"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="inlineStr">
+        <is>
+          <t>DKNVD-0007</t>
+        </is>
+      </c>
+      <c r="B241" s="3" t="inlineStr">
+        <is>
+          <t>Næstved, Vestre Mellemkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="n"/>
+      <c r="D241" s="3" t="n"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>DKNVD-0008</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>Næstved, Karrebæksminde kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="n"/>
+      <c r="D242" s="2" t="n"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>DKNYF-0001</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>Nykobing Falster - Erhvervshavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="n"/>
+      <c r="D243" s="3" t="n"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>DKNYM-0001</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>Nykobing (Mors) - Osthavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="n"/>
+      <c r="D244" s="2" t="n"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t>DKODE-0001</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>Odense - Fynsvaerket (EN)</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="n"/>
+      <c r="D245" s="3" t="n"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>DKODE-0002</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>Odense Havn - Bassin 3 (EN)</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="n"/>
+      <c r="D246" s="2" t="n"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>DKODE-0003</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>Odense Havn - H.J.Hansen (EN)</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="n"/>
+      <c r="D247" s="3" t="n"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>DKODE-0004</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>Odense Havn - Lindoe Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="n"/>
+      <c r="D248" s="2" t="n"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>DKODE-0005</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>Odense Havn - Norgekaj (EN)</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="n"/>
+      <c r="D249" s="3" t="n"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>DKODE-0006</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>Odense Havn - Oliekaj (EN)</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="n"/>
+      <c r="D250" s="2" t="n"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>DKODE-0007</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>Odense Havn - Ostre Kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="n"/>
+      <c r="D251" s="3" t="n"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>DKODE-1000</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>Odense Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="n"/>
+      <c r="D252" s="2" t="n"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="inlineStr">
+        <is>
+          <t>DKODE-5672</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>Godkendt modtager, Syddanmark (EN)</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="n"/>
+      <c r="D253" s="3" t="n"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>DKORE-0001</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>Orehoved Havn - Erhvervshavn (EN)</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="n"/>
+      <c r="D254" s="2" t="n"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="inlineStr">
+        <is>
+          <t>DKPAD-5604</t>
+        </is>
+      </c>
+      <c r="B255" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Padborg, Toldbodvej 8 (EN)</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="n"/>
+      <c r="D255" s="3" t="n"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>DKQSB-001</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>ØSTERBY (EN)</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="n"/>
+      <c r="D256" s="2" t="n"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="inlineStr">
+        <is>
+          <t>DKQSY-001</t>
+        </is>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>ØSTERBY (EN)</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="n"/>
+      <c r="D257" s="3" t="n"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>DKRAN-0001</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>Randers - Energikajen (EN)</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="n"/>
+      <c r="D258" s="2" t="n"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="inlineStr">
+        <is>
+          <t>DKRAN-0002</t>
+        </is>
+      </c>
+      <c r="B259" s="3" t="inlineStr">
+        <is>
+          <t>Randers - Godningskajen (EN)</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="n"/>
+      <c r="D259" s="3" t="n"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>DKRAN-0003</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>Randers - Granitkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="n"/>
+      <c r="D260" s="2" t="n"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>DKRAN-0004</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>Randers - Kaj 1, 2 and 3 (EN)</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="n"/>
+      <c r="D261" s="3" t="n"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>DKRAN-0005</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>Randers - Kornkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="n"/>
+      <c r="D262" s="2" t="n"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="inlineStr">
+        <is>
+          <t>DKRAN-0006</t>
+        </is>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>Randers - Kulkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="n"/>
+      <c r="D263" s="3" t="n"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>DKRAN-0007</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>Randers - Melassekajen (EN)</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="n"/>
+      <c r="D264" s="2" t="n"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="inlineStr">
+        <is>
+          <t>DKRAN-0008</t>
+        </is>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>Randers - Skrotkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="n"/>
+      <c r="D265" s="3" t="n"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>DKRAN-0009</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>Randers - Tronholmskajen (EN)</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="n"/>
+      <c r="D266" s="2" t="n"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t>DKRKB-0001</t>
+        </is>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>Rudkobing - Nordre Bassin (EN)</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="n"/>
+      <c r="D267" s="3" t="n"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>DKRKB-0002</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>Rudkobing - Sondre Bassin (EN)</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="n"/>
+      <c r="D268" s="2" t="n"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>DKRKE-0001</t>
+        </is>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>Københavns Lufthavn, Roskilde (EN)</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="n"/>
+      <c r="D269" s="3" t="n"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>DKRNN-0001</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>Rønne, F1 - Vesthavnen kaj 27-30 (EN)</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="n"/>
+      <c r="D270" s="2" t="n"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="inlineStr">
+        <is>
+          <t>DKRNN-0002</t>
+        </is>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>Rønne, F2 - Vesthavnen, leje 3 og kaj 26 (EN)</t>
+        </is>
+      </c>
+      <c r="C271" s="3" t="n"/>
+      <c r="D271" s="3" t="n"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>DKRNN-0003</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>Rønne, F3 - BHT Leje 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="n"/>
+      <c r="D272" s="2" t="n"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>DKRNN-0004</t>
+        </is>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>Rønne, F4 - Nordhavnen kaj 7-9 (EN)</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="n"/>
+      <c r="D273" s="3" t="n"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>DKRNN-0005</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>Rønne, F5 - Nordhavn kaj 10 (EN)</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="n"/>
+      <c r="D274" s="2" t="n"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="inlineStr">
+        <is>
+          <t>DKRNN-0006</t>
+        </is>
+      </c>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t>Rønne, F6 - Oliepier (EN)</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="n"/>
+      <c r="D275" s="3" t="n"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>DKRNN-0007</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>Rønne, F7 - Kulkajen kaj 13-15 (EN)</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="n"/>
+      <c r="D276" s="2" t="n"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>DKRNN-0008</t>
+        </is>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>Rønne, F8 - Sydhavn kaj 17 (EN)</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="n"/>
+      <c r="D277" s="3" t="n"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>DKRNN-0009</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>Rønne, F9 - Tværmolen kaj 22-23 (EN)</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="n"/>
+      <c r="D278" s="2" t="n"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="inlineStr">
+        <is>
+          <t>DKRNN-0010</t>
+        </is>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>Rønne, F10 - Krydstogtskajen (EN)</t>
+        </is>
+      </c>
+      <c r="C279" s="3" t="n"/>
+      <c r="D279" s="3" t="n"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>DKRNN-1000</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>Bornholms Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="n"/>
+      <c r="D280" s="2" t="n"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="inlineStr">
+        <is>
+          <t>DKRNN-7909</t>
+        </is>
+      </c>
+      <c r="B281" s="3" t="inlineStr">
+        <is>
+          <t>Toldekspedition Bornholm, Munch Petersensvej 8 (EN)</t>
+        </is>
+      </c>
+      <c r="C281" s="3" t="n"/>
+      <c r="D281" s="3" t="n"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>DKROD-0001</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>Rodbyhavn - Nordre Kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="n"/>
+      <c r="D282" s="2" t="n"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="inlineStr">
+        <is>
+          <t>DKROD-0002</t>
+        </is>
+      </c>
+      <c r="B283" s="3" t="inlineStr">
+        <is>
+          <t>Rodbyhavn - Ostre Kaj (EN)</t>
+        </is>
+      </c>
+      <c r="C283" s="3" t="n"/>
+      <c r="D283" s="3" t="n"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
+        <is>
+          <t>DKROD-0003</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>Rødbyhavn, Scandlines Terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="n"/>
+      <c r="D284" s="2" t="n"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="inlineStr">
+        <is>
+          <t>DKROD-0004</t>
+        </is>
+      </c>
+      <c r="B285" s="3" t="inlineStr">
+        <is>
+          <t>Rødby Fiskerihavn (EN)</t>
+        </is>
+      </c>
+      <c r="C285" s="3" t="n"/>
+      <c r="D285" s="3" t="n"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr">
+        <is>
+          <t>DKROR-0001</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>Aalborg - Cement-kulkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="n"/>
+      <c r="D286" s="2" t="n"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="inlineStr">
+        <is>
+          <t>DKSBK-0001</t>
+        </is>
+      </c>
+      <c r="B287" s="3" t="inlineStr">
+        <is>
+          <t>STUBBEKØBING (EN)</t>
+        </is>
+      </c>
+      <c r="C287" s="3" t="n"/>
+      <c r="D287" s="3" t="n"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>DKSGD-0001</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>Sønderborg - Ewers bulk terminal (EN)</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="n"/>
+      <c r="D288" s="2" t="n"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="inlineStr">
+        <is>
+          <t>DKSGD-0002</t>
+        </is>
+      </c>
+      <c r="B289" s="3" t="inlineStr">
+        <is>
+          <t>Sønderborg - Kulkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C289" s="3" t="n"/>
+      <c r="D289" s="3" t="n"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>DKSGD-0003</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>Sønderborg - Passagerkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="n"/>
+      <c r="D290" s="2" t="n"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="inlineStr">
+        <is>
+          <t>DKSGD-0004</t>
+        </is>
+      </c>
+      <c r="B291" s="3" t="inlineStr">
+        <is>
+          <t>Sønderborg - Slotskajen (EN)</t>
+        </is>
+      </c>
+      <c r="C291" s="3" t="n"/>
+      <c r="D291" s="3" t="n"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>DKSGD-0005</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>Sønderborg - Sønderborg Bulkterminal (EN)</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="n"/>
+      <c r="D292" s="2" t="n"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="inlineStr">
+        <is>
+          <t>DKSGD-0006</t>
+        </is>
+      </c>
+      <c r="B293" s="3" t="inlineStr">
+        <is>
+          <t>Sønderborg - Storkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C293" s="3" t="n"/>
+      <c r="D293" s="3" t="n"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>DKSGD-0007</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>Sønderborg - Unicon (EN)</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="n"/>
+      <c r="D294" s="2" t="n"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="inlineStr">
+        <is>
+          <t>DKSGD-1000</t>
+        </is>
+      </c>
+      <c r="B295" s="3" t="inlineStr">
+        <is>
+          <t>Sønderborg Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C295" s="3" t="n"/>
+      <c r="D295" s="3" t="n"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>DKSIN-0001</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>Sindal Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="n"/>
+      <c r="D296" s="2" t="n"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="inlineStr">
+        <is>
+          <t>DKSJO-0001</t>
+        </is>
+      </c>
+      <c r="B297" s="3" t="inlineStr">
+        <is>
+          <t>Odden Færgehavn (EN)</t>
+        </is>
+      </c>
+      <c r="C297" s="3" t="n"/>
+      <c r="D297" s="3" t="n"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>DKSKA-0001</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>Skagen - Cruise Facility (EN)</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="n"/>
+      <c r="D298" s="2" t="n"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="inlineStr">
+        <is>
+          <t>DKSKA-0002</t>
+        </is>
+      </c>
+      <c r="B299" s="3" t="inlineStr">
+        <is>
+          <t>Skagen - Tobiskaj/Fragtvej (EN)</t>
+        </is>
+      </c>
+      <c r="C299" s="3" t="n"/>
+      <c r="D299" s="3" t="n"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr">
+        <is>
+          <t>DKSKA-0003</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>Skagen - Sildemelskaj/Fabrikskaj (EN)</t>
+        </is>
+      </c>
+      <c r="C300" s="2" t="n"/>
+      <c r="D300" s="2" t="n"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="inlineStr">
+        <is>
+          <t>DKSKA-0005</t>
+        </is>
+      </c>
+      <c r="B301" s="3" t="inlineStr">
+        <is>
+          <t>Skagen, Kaj 6 Notkajen og Kaj 7 Coasterkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C301" s="3" t="n"/>
+      <c r="D301" s="3" t="n"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t>DKSKB-0001</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="inlineStr">
+        <is>
+          <t>Skærbaek - Skaerbæk (EN)</t>
+        </is>
+      </c>
+      <c r="C302" s="2" t="n"/>
+      <c r="D302" s="2" t="n"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="inlineStr">
+        <is>
+          <t>DKSKS-0001</t>
+        </is>
+      </c>
+      <c r="B303" s="3" t="inlineStr">
+        <is>
+          <t>Vojens Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C303" s="3" t="n"/>
+      <c r="D303" s="3" t="n"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="inlineStr">
+        <is>
+          <t>DKSKV-0001</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="inlineStr">
+        <is>
+          <t>Skive - Fjordkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C304" s="2" t="n"/>
+      <c r="D304" s="2" t="n"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="inlineStr">
+        <is>
+          <t>DKSKV-0002</t>
+        </is>
+      </c>
+      <c r="B305" s="3" t="inlineStr">
+        <is>
+          <t>Skive - Sohavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C305" s="3" t="n"/>
+      <c r="D305" s="3" t="n"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="inlineStr">
+        <is>
+          <t>DKSOB-0001</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="inlineStr">
+        <is>
+          <t>Søby Shiyard (EN)</t>
+        </is>
+      </c>
+      <c r="C306" s="2" t="n"/>
+      <c r="D306" s="2" t="n"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="inlineStr">
+        <is>
+          <t>DKSPB-0001</t>
+        </is>
+      </c>
+      <c r="B307" s="3" t="inlineStr">
+        <is>
+          <t>Spodsbjeg Færgehavn (EN)</t>
+        </is>
+      </c>
+      <c r="C307" s="3" t="n"/>
+      <c r="D307" s="3" t="n"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="inlineStr">
+        <is>
+          <t>DKSSV-0001</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="inlineStr">
+        <is>
+          <t>Skødstrup, Studstrup - Studstrupvaerkets Havn (EN)</t>
+        </is>
+      </c>
+      <c r="C308" s="2" t="n"/>
+      <c r="D308" s="2" t="n"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="inlineStr">
+        <is>
+          <t>DKSTA-0001</t>
+        </is>
+      </c>
+      <c r="B309" s="3" t="inlineStr">
+        <is>
+          <t>Stauning Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C309" s="3" t="n"/>
+      <c r="D309" s="3" t="n"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="inlineStr">
+        <is>
+          <t>DKSTG-0001</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="inlineStr">
+        <is>
+          <t>Skælskør, Stignaesvaerkets Havn (EN)</t>
+        </is>
+      </c>
+      <c r="C310" s="2" t="n"/>
+      <c r="D310" s="2" t="n"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="inlineStr">
+        <is>
+          <t>DKSTR-0001</t>
+        </is>
+      </c>
+      <c r="B311" s="3" t="inlineStr">
+        <is>
+          <t>Holstebro-Struer - Nordkajen / Oliekajen (EN)</t>
+        </is>
+      </c>
+      <c r="C311" s="3" t="n"/>
+      <c r="D311" s="3" t="n"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="inlineStr">
+        <is>
+          <t>DKSTR-0002</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="inlineStr">
+        <is>
+          <t>Holstebro-Struer Sydkajen/Jernkajen (EN)</t>
+        </is>
+      </c>
+      <c r="C312" s="2" t="n"/>
+      <c r="D312" s="2" t="n"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="inlineStr">
+        <is>
+          <t>DKSTT-001</t>
+        </is>
+      </c>
+      <c r="B313" s="3" t="inlineStr">
+        <is>
+          <t>Kalundborg - Statoils Pier (EN)</t>
+        </is>
+      </c>
+      <c r="C313" s="3" t="n"/>
+      <c r="D313" s="3" t="n"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="inlineStr">
+        <is>
+          <t>DKSTY-001</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="inlineStr">
+        <is>
+          <t>STRANDBY (NORDJYLLAND) (EN)</t>
+        </is>
+      </c>
+      <c r="C314" s="2" t="n"/>
+      <c r="D314" s="2" t="n"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="inlineStr">
+        <is>
+          <t>DKSVA-0001</t>
+        </is>
+      </c>
+      <c r="B315" s="3" t="inlineStr">
+        <is>
+          <t>Svaneke - Kaj no. 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C315" s="3" t="n"/>
+      <c r="D315" s="3" t="n"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="inlineStr">
+        <is>
+          <t>DKSVE-0001</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="inlineStr">
+        <is>
+          <t>Svendborg - Facilitet 1 (EN)</t>
+        </is>
+      </c>
+      <c r="C316" s="2" t="n"/>
+      <c r="D316" s="2" t="n"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="inlineStr">
+        <is>
+          <t>DKSVE-0002</t>
+        </is>
+      </c>
+      <c r="B317" s="3" t="inlineStr">
+        <is>
+          <t>Svendborg - Facilitet 2 (EN)</t>
+        </is>
+      </c>
+      <c r="C317" s="3" t="n"/>
+      <c r="D317" s="3" t="n"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>DKTED-0001</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>Thisted - Ostkaj (EN)</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="n"/>
+      <c r="D318" s="2" t="n"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="inlineStr">
+        <is>
+          <t>DKTED-0002</t>
+        </is>
+      </c>
+      <c r="B319" s="3" t="inlineStr">
+        <is>
+          <t>Thisted Lufthavn (EN)</t>
+        </is>
+      </c>
+      <c r="C319" s="3" t="n"/>
+      <c r="D319" s="3" t="n"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
+          <t>DKTRS-0001</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>Tårs Færgehavn (EN)</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="n"/>
+      <c r="D320" s="2" t="n"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="inlineStr">
+        <is>
+          <t>DKTYB-0001</t>
+        </is>
+      </c>
+      <c r="B321" s="3" t="inlineStr">
+        <is>
+          <t>Thyboron - Industrifiskerihavn, kaj nr. 1019 - 1020 (EN)</t>
+        </is>
+      </c>
+      <c r="C321" s="3" t="n"/>
+      <c r="D321" s="3" t="n"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>DKTYB-0002</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>Thyboron - Lossebro nr. 1 i Yderhavn kan nr. 805 (EN)</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="n"/>
+      <c r="D322" s="2" t="n"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="inlineStr">
+        <is>
+          <t>DKTYB-0003</t>
+        </is>
+      </c>
+      <c r="B323" s="3" t="inlineStr">
+        <is>
+          <t>Thyboron - Sydhavnskaj i Sydhavnen, kaj nr. 2002 - 2002 NB tjek (EN)</t>
+        </is>
+      </c>
+      <c r="C323" s="3" t="n"/>
+      <c r="D323" s="3" t="n"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr">
+        <is>
+          <t>DKTYB-0004</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>Thyborøn - Tankskibsbro i Yderhavn, kaj nr. 800 (EN)</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="n"/>
+      <c r="D324" s="2" t="n"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="inlineStr">
+        <is>
+          <t>DKTYB-0005</t>
+        </is>
+      </c>
+      <c r="B325" s="3" t="inlineStr">
+        <is>
+          <t>Thyboron - Tankskibskaj i Yderhavn, kaj nr. 809 - 810 (EN)</t>
+        </is>
+      </c>
+      <c r="C325" s="3" t="n"/>
+      <c r="D325" s="3" t="n"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr">
+        <is>
+          <t>DKTYB-0006</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>Thyboron - Tobiskaj i Industrifiskerihavn, kaj nr. 903 (EN)</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="n"/>
+      <c r="D326" s="2" t="n"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="inlineStr">
+        <is>
+          <t>DKTYB-0007</t>
+        </is>
+      </c>
+      <c r="B327" s="3" t="inlineStr">
+        <is>
+          <t>Thyboron - Vaerftskaj i Vaerftshavn, kan nr. 1009 - 1010 (EN)</t>
+        </is>
+      </c>
+      <c r="C327" s="3" t="n"/>
+      <c r="D327" s="3" t="n"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>DKTYB-0008</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>Thyborøn - Limfjordskaj (EN)</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="n"/>
+      <c r="D328" s="2" t="n"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="inlineStr">
+        <is>
+          <t>DKUNX-0001</t>
+        </is>
+      </c>
+      <c r="B329" s="3" t="inlineStr">
+        <is>
+          <t>Vordingborg, Masnedø Gødningshavn (EN)</t>
+        </is>
+      </c>
+      <c r="C329" s="3" t="n"/>
+      <c r="D329" s="3" t="n"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr">
+        <is>
+          <t>DKVEJ-0001</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>Vejle - Nord (N) (EN)</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="n"/>
+      <c r="D330" s="2" t="n"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="inlineStr">
+        <is>
+          <t>DKVEJ-0002</t>
+        </is>
+      </c>
+      <c r="B331" s="3" t="inlineStr">
+        <is>
+          <t>Vejle - Syd (S1) (EN)</t>
+        </is>
+      </c>
+      <c r="C331" s="3" t="n"/>
+      <c r="D331" s="3" t="n"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="inlineStr">
+        <is>
+          <t>DKVEJ-0003</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>Vejle - Syd 2 (S2) (EN)</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="n"/>
+      <c r="D332" s="2" t="n"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="inlineStr">
+        <is>
+          <t>DKVEJ-0004</t>
+        </is>
+      </c>
+      <c r="B333" s="3" t="inlineStr">
+        <is>
+          <t>Vejle - Vest (V) (EN)</t>
+        </is>
+      </c>
+      <c r="C333" s="3" t="n"/>
+      <c r="D333" s="3" t="n"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr">
+        <is>
+          <t>DKVEQ-001</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>VESTERØ (EN)</t>
+        </is>
+      </c>
+      <c r="C334" s="2" t="n"/>
+      <c r="D334" s="2" t="n"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="inlineStr">
+        <is>
+          <t>DKVOR-0001</t>
+        </is>
+      </c>
+      <c r="B335" s="3" t="inlineStr">
+        <is>
+          <t>Vordingborg, Masnedo Godningshavn (EN)</t>
+        </is>
+      </c>
+      <c r="C335" s="3" t="n"/>
+      <c r="D335" s="3" t="n"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="inlineStr">
+        <is>
+          <t>DKVOR-0002</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="inlineStr">
+        <is>
+          <t>Vordingborg, Vesthavnen (EN)</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="n"/>
+      <c r="D336" s="2" t="n"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="inlineStr">
+        <is>
+          <t>DKVSV-0001</t>
+        </is>
+      </c>
+      <c r="B337" s="3" t="inlineStr">
+        <is>
+          <t>V. Hassing, Norjyllandsvarkets havn (EN)</t>
+        </is>
+      </c>
+      <c r="C337" s="3" t="n"/>
+      <c r="D337" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Codelists/Codelists - Import.xlsx
+++ b/Codelists/Codelists - Import.xlsx
@@ -1186,7 +1186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,12 +2291,12 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>KPW</t>
+          <t>KMF</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>North Korean Won</t>
+          <t>KMF</t>
         </is>
       </c>
       <c r="C79" s="3" t="n"/>
@@ -2305,12 +2305,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>KRW</t>
+          <t>KPW</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Won</t>
+          <t>North Korean Won</t>
         </is>
       </c>
       <c r="C80" s="2" t="n"/>
@@ -2319,12 +2319,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>KWD</t>
+          <t>KRW</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Kuwaiti Dinar</t>
+          <t>Won</t>
         </is>
       </c>
       <c r="C81" s="3" t="n"/>
@@ -2333,12 +2333,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>KYD</t>
+          <t>KWD</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Cayman Islands Dollar</t>
+          <t>Kuwaiti Dinar</t>
         </is>
       </c>
       <c r="C82" s="2" t="n"/>
@@ -2347,12 +2347,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>KZT</t>
+          <t>KYD</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Tenge</t>
+          <t>Cayman Islands Dollar</t>
         </is>
       </c>
       <c r="C83" s="3" t="n"/>
@@ -2361,12 +2361,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>LAK</t>
+          <t>KZT</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Lao Kip</t>
+          <t>Tenge</t>
         </is>
       </c>
       <c r="C84" s="2" t="n"/>
@@ -2375,12 +2375,12 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>LBP</t>
+          <t>LAK</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Lebanese Pound</t>
+          <t>Lao Kip</t>
         </is>
       </c>
       <c r="C85" s="3" t="n"/>
@@ -2389,12 +2389,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>LKR</t>
+          <t>LBP</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Sri Lanka Rupee</t>
+          <t>Lebanese Pound</t>
         </is>
       </c>
       <c r="C86" s="2" t="n"/>
@@ -2403,12 +2403,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>LRD</t>
+          <t>LKR</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Liberian Dollar</t>
+          <t>Sri Lanka Rupee</t>
         </is>
       </c>
       <c r="C87" s="3" t="n"/>
@@ -2417,12 +2417,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>LSL</t>
+          <t>LRD</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Loti</t>
+          <t>Liberian Dollar</t>
         </is>
       </c>
       <c r="C88" s="2" t="n"/>
@@ -2431,12 +2431,12 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>LYD</t>
+          <t>LSL</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Libyan Dinar</t>
+          <t>Loti</t>
         </is>
       </c>
       <c r="C89" s="3" t="n"/>
@@ -2445,12 +2445,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LYD</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Moroccan Dirham</t>
+          <t>Libyan Dinar</t>
         </is>
       </c>
       <c r="C90" s="2" t="n"/>
@@ -2459,12 +2459,12 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>MDL</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Moldovan Leu</t>
+          <t>Moroccan Dirham</t>
         </is>
       </c>
       <c r="C91" s="3" t="n"/>
@@ -2473,12 +2473,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>MGA</t>
+          <t>MDL</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Malagasy Ariary</t>
+          <t>Moldovan Leu</t>
         </is>
       </c>
       <c r="C92" s="2" t="n"/>
@@ -2487,12 +2487,12 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>MGA</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Denar</t>
+          <t>Malagasy Ariary</t>
         </is>
       </c>
       <c r="C93" s="3" t="n"/>
@@ -2501,12 +2501,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>MMK</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Kyat</t>
+          <t>Denar</t>
         </is>
       </c>
       <c r="C94" s="2" t="n"/>
@@ -2515,12 +2515,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>MMK</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Tugrik</t>
+          <t>Kyat</t>
         </is>
       </c>
       <c r="C95" s="3" t="n"/>
@@ -2529,12 +2529,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>MOP</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Pataca</t>
+          <t>Tugrik</t>
         </is>
       </c>
       <c r="C96" s="2" t="n"/>
@@ -2543,12 +2543,12 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>MRU</t>
+          <t>MOP</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Ouguiya</t>
+          <t>Pataca</t>
         </is>
       </c>
       <c r="C97" s="3" t="n"/>
@@ -2557,12 +2557,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>MUR</t>
+          <t>MRU</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Mauritius Rupee</t>
+          <t>Ouguiya</t>
         </is>
       </c>
       <c r="C98" s="2" t="n"/>
@@ -2571,12 +2571,12 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>MVR</t>
+          <t>MUR</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Rufiyaa</t>
+          <t>Mauritius Rupee</t>
         </is>
       </c>
       <c r="C99" s="3" t="n"/>
@@ -2585,12 +2585,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>MWK</t>
+          <t>MVR</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Malawi Kwacha</t>
+          <t>Rufiyaa</t>
         </is>
       </c>
       <c r="C100" s="2" t="n"/>
@@ -2599,12 +2599,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>MXN</t>
+          <t>MWK</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Mexican Peso</t>
+          <t>Malawi Kwacha</t>
         </is>
       </c>
       <c r="C101" s="3" t="n"/>
@@ -2613,12 +2613,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>MXV</t>
+          <t>MXN</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Mexican Unidad de Inversion (UDI)</t>
+          <t>Mexican Peso</t>
         </is>
       </c>
       <c r="C102" s="2" t="n"/>
@@ -2627,12 +2627,12 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>MYR</t>
+          <t>MXV</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Malaysian Ringgit</t>
+          <t>Mexican Unidad de Inversion (UDI)</t>
         </is>
       </c>
       <c r="C103" s="3" t="n"/>
@@ -2641,12 +2641,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>MZN</t>
+          <t>MYR</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Mozambique Metical</t>
+          <t>Malaysian Ringgit</t>
         </is>
       </c>
       <c r="C104" s="2" t="n"/>
@@ -2655,12 +2655,12 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>NAD</t>
+          <t>MZN</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Namibia Dollar</t>
+          <t>Mozambique Metical</t>
         </is>
       </c>
       <c r="C105" s="3" t="n"/>
@@ -2669,12 +2669,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>NGN</t>
+          <t>NAD</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Naira</t>
+          <t>Namibia Dollar</t>
         </is>
       </c>
       <c r="C106" s="2" t="n"/>
@@ -2683,12 +2683,12 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NGN</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Cordoba Oro</t>
+          <t>Naira</t>
         </is>
       </c>
       <c r="C107" s="3" t="n"/>
@@ -2697,12 +2697,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Norwegian Krone</t>
+          <t>Cordoba Oro</t>
         </is>
       </c>
       <c r="C108" s="2" t="n"/>
@@ -2711,12 +2711,12 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>NPR</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Nepalese Rupee</t>
+          <t>Norwegian Krone</t>
         </is>
       </c>
       <c r="C109" s="3" t="n"/>
@@ -2725,12 +2725,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>NZD</t>
+          <t>NPR</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>New Zealand Dollar</t>
+          <t>Nepalese Rupee</t>
         </is>
       </c>
       <c r="C110" s="2" t="n"/>
@@ -2739,12 +2739,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>OMR</t>
+          <t>NZD</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Rial Omani</t>
+          <t>New Zealand Dollar</t>
         </is>
       </c>
       <c r="C111" s="3" t="n"/>
@@ -2753,12 +2753,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>PAB</t>
+          <t>OMR</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Balboa</t>
+          <t>Rial Omani</t>
         </is>
       </c>
       <c r="C112" s="2" t="n"/>
@@ -2767,12 +2767,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>PEN</t>
+          <t>PAB</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Sol</t>
+          <t>Balboa</t>
         </is>
       </c>
       <c r="C113" s="3" t="n"/>
@@ -2781,12 +2781,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>PGK</t>
+          <t>PEN</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Kina</t>
+          <t>Sol</t>
         </is>
       </c>
       <c r="C114" s="2" t="n"/>
@@ -2795,12 +2795,12 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>PGK</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Philippine Peso</t>
+          <t>Kina</t>
         </is>
       </c>
       <c r="C115" s="3" t="n"/>
@@ -2809,12 +2809,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>PKR</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Pakistan Rupee</t>
+          <t>Philippine Peso</t>
         </is>
       </c>
       <c r="C116" s="2" t="n"/>
@@ -2823,12 +2823,12 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>PLN</t>
+          <t>PKR</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Zloty</t>
+          <t>Pakistan Rupee</t>
         </is>
       </c>
       <c r="C117" s="3" t="n"/>
@@ -2837,12 +2837,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>PYG</t>
+          <t>PLN</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Zloty</t>
         </is>
       </c>
       <c r="C118" s="2" t="n"/>
@@ -2851,12 +2851,12 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>QAR</t>
+          <t>PYG</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Qatari Rial</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="C119" s="3" t="n"/>
@@ -2865,12 +2865,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>QAR</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Romanian Leu</t>
+          <t>Qatari Rial</t>
         </is>
       </c>
       <c r="C120" s="2" t="n"/>
@@ -2879,12 +2879,12 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>RSD</t>
+          <t>RON</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Serbian Dinar</t>
+          <t>Romanian Leu</t>
         </is>
       </c>
       <c r="C121" s="3" t="n"/>
@@ -2893,12 +2893,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>RSD</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Russian Ruble</t>
+          <t>Serbian Dinar</t>
         </is>
       </c>
       <c r="C122" s="2" t="n"/>
@@ -2907,12 +2907,12 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>RWF</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Rwanda Franc</t>
+          <t>Russian Ruble</t>
         </is>
       </c>
       <c r="C123" s="3" t="n"/>
@@ -2921,12 +2921,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>RWF</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Saudi Riyal</t>
+          <t>Rwanda Franc</t>
         </is>
       </c>
       <c r="C124" s="2" t="n"/>
@@ -2935,12 +2935,12 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>SBD</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Solomon Islands Dollar</t>
+          <t>Saudi Riyal</t>
         </is>
       </c>
       <c r="C125" s="3" t="n"/>
@@ -2949,12 +2949,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>SBD</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Seychelles Rupee</t>
+          <t>Solomon Islands Dollar</t>
         </is>
       </c>
       <c r="C126" s="2" t="n"/>
@@ -2963,12 +2963,12 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>SDG</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Sudanese Pound</t>
+          <t>Seychelles Rupee</t>
         </is>
       </c>
       <c r="C127" s="3" t="n"/>
@@ -2977,12 +2977,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>SEK</t>
+          <t>SDG</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Swedish Krona</t>
+          <t>Sudanese Pound</t>
         </is>
       </c>
       <c r="C128" s="2" t="n"/>
@@ -2991,12 +2991,12 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>SGD</t>
+          <t>SEK</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Singapore Dollar</t>
+          <t>Swedish Krona</t>
         </is>
       </c>
       <c r="C129" s="3" t="n"/>
@@ -3005,12 +3005,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>SHP</t>
+          <t>SGD</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Saint Helena Pound</t>
+          <t>Singapore Dollar</t>
         </is>
       </c>
       <c r="C130" s="2" t="n"/>
@@ -3019,12 +3019,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>SHP</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Leone</t>
+          <t>Saint Helena Pound</t>
         </is>
       </c>
       <c r="C131" s="3" t="n"/>
@@ -3033,12 +3033,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>SOS</t>
+          <t>SLL</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Somali Shilling</t>
+          <t>Leone</t>
         </is>
       </c>
       <c r="C132" s="2" t="n"/>
@@ -3047,12 +3047,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>SRD</t>
+          <t>SOS</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Surinam Dollar</t>
+          <t>Somali Shilling</t>
         </is>
       </c>
       <c r="C133" s="3" t="n"/>
@@ -3061,12 +3061,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>SSP</t>
+          <t>SRD</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>South Sudanese Pound</t>
+          <t>Surinam Dollar</t>
         </is>
       </c>
       <c r="C134" s="2" t="n"/>
@@ -3075,12 +3075,12 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>SSP</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Dobra</t>
+          <t>South Sudanese Pound</t>
         </is>
       </c>
       <c r="C135" s="3" t="n"/>
@@ -3089,12 +3089,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>STN</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>El Salvador Colon</t>
+          <t>Dobra</t>
         </is>
       </c>
       <c r="C136" s="2" t="n"/>
@@ -3103,12 +3103,12 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>SYP</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Syrian Pound</t>
+          <t>El Salvador Colon</t>
         </is>
       </c>
       <c r="C137" s="3" t="n"/>
@@ -3117,12 +3117,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>SYP</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Lilangeni</t>
+          <t>Syrian Pound</t>
         </is>
       </c>
       <c r="C138" s="2" t="n"/>
@@ -3131,12 +3131,12 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>THB</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Baht</t>
+          <t>Lilangeni</t>
         </is>
       </c>
       <c r="C139" s="3" t="n"/>
@@ -3145,12 +3145,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>TJS</t>
+          <t>THB</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Somoni</t>
+          <t>Baht</t>
         </is>
       </c>
       <c r="C140" s="2" t="n"/>
@@ -3159,12 +3159,12 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>TJS</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Turkmenistan New Manat</t>
+          <t>Somoni</t>
         </is>
       </c>
       <c r="C141" s="3" t="n"/>
@@ -3173,12 +3173,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>TND</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Tunisian Dinar</t>
+          <t>Turkmenistan New Manat</t>
         </is>
       </c>
       <c r="C142" s="2" t="n"/>
@@ -3187,12 +3187,12 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>TND</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Pa’anga</t>
+          <t>Tunisian Dinar</t>
         </is>
       </c>
       <c r="C143" s="3" t="n"/>
@@ -3201,12 +3201,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>TOP</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Turkish Lira</t>
+          <t>Pa’anga</t>
         </is>
       </c>
       <c r="C144" s="2" t="n"/>
@@ -3215,12 +3215,12 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago Dollar</t>
+          <t>Turkish Lira</t>
         </is>
       </c>
       <c r="C145" s="3" t="n"/>
@@ -3229,12 +3229,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>TWD</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>New Taiwan Dollar</t>
+          <t>Trinidad and Tobago Dollar</t>
         </is>
       </c>
       <c r="C146" s="2" t="n"/>
@@ -3243,12 +3243,12 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>TZS</t>
+          <t>TWD</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Tanzanian Shilling</t>
+          <t>New Taiwan Dollar</t>
         </is>
       </c>
       <c r="C147" s="3" t="n"/>
@@ -3257,12 +3257,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>UAH</t>
+          <t>TZS</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Hryvnia</t>
+          <t>Tanzanian Shilling</t>
         </is>
       </c>
       <c r="C148" s="2" t="n"/>
@@ -3271,12 +3271,12 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>UGX</t>
+          <t>UAH</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Uganda Shilling</t>
+          <t>Hryvnia</t>
         </is>
       </c>
       <c r="C149" s="3" t="n"/>
@@ -3285,12 +3285,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>UGX</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>US Dollar</t>
+          <t>Uganda Shilling</t>
         </is>
       </c>
       <c r="C150" s="2" t="n"/>
@@ -3299,12 +3299,12 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>USN</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>US Dollar (Next day)</t>
+          <t>US Dollar</t>
         </is>
       </c>
       <c r="C151" s="3" t="n"/>
@@ -3313,12 +3313,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>UYI</t>
+          <t>USN</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Uruguay Peso en Unidades Indexadas (UI)</t>
+          <t>US Dollar (Next day)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n"/>
@@ -3327,12 +3327,12 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>UYU</t>
+          <t>UYI</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Peso Uruguayo</t>
+          <t>Uruguay Peso en Unidades Indexadas (UI)</t>
         </is>
       </c>
       <c r="C153" s="3" t="n"/>
@@ -3341,12 +3341,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>UYW</t>
+          <t>UYU</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Unidad Previsional</t>
+          <t>Peso Uruguayo</t>
         </is>
       </c>
       <c r="C154" s="2" t="n"/>
@@ -3355,12 +3355,12 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>UZS</t>
+          <t>UYW</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Uzbekistan Sum</t>
+          <t>Unidad Previsional</t>
         </is>
       </c>
       <c r="C155" s="3" t="n"/>
@@ -3369,12 +3369,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>VED</t>
+          <t>UZS</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Bolívar Soberano</t>
+          <t>Uzbekistan Sum</t>
         </is>
       </c>
       <c r="C156" s="2" t="n"/>
@@ -3383,7 +3383,7 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>VES</t>
+          <t>VED</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -3397,12 +3397,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>VES</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Dong</t>
+          <t>Bolívar Soberano</t>
         </is>
       </c>
       <c r="C158" s="2" t="n"/>
@@ -3411,12 +3411,12 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>VUV</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Vatu</t>
+          <t>Dong</t>
         </is>
       </c>
       <c r="C159" s="3" t="n"/>
@@ -3425,12 +3425,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>VUV</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Tala</t>
+          <t>Vatu</t>
         </is>
       </c>
       <c r="C160" s="2" t="n"/>
@@ -3439,12 +3439,12 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>XAF</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>CFA Franc BEAC</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C161" s="3" t="n"/>
@@ -3453,12 +3453,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>XAG</t>
+          <t>XAF</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>CFA Franc BEAC</t>
         </is>
       </c>
       <c r="C162" s="2" t="n"/>
@@ -3467,12 +3467,12 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>XAU</t>
+          <t>XAG</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="C163" s="3" t="n"/>
@@ -3481,12 +3481,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>XBA</t>
+          <t>XAU</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Bond Markets Unit European Composite Unit (EURCO)</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="C164" s="2" t="n"/>
@@ -3495,12 +3495,12 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>XBB</t>
+          <t>XBA</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Bond Markets Unit European Monetary Unit (E.M.U.-6)</t>
+          <t>Bond Markets Unit European Composite Unit (EURCO)</t>
         </is>
       </c>
       <c r="C165" s="3" t="n"/>
@@ -3509,12 +3509,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>XBC</t>
+          <t>XBB</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Bond Markets Unit European Unit of Account 9 (E.U.A.-9)</t>
+          <t>Bond Markets Unit European Monetary Unit (E.M.U.-6)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n"/>
@@ -3523,12 +3523,12 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>XBD</t>
+          <t>XBC</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Bond Markets Unit European Unit of Account 17 (E.U.A.-17)</t>
+          <t>Bond Markets Unit European Unit of Account 9 (E.U.A.-9)</t>
         </is>
       </c>
       <c r="C167" s="3" t="n"/>
@@ -3537,12 +3537,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>XCD</t>
+          <t>XBD</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>East Caribbean Dollar</t>
+          <t>Bond Markets Unit European Unit of Account 17 (E.U.A.-17)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n"/>
@@ -3551,12 +3551,12 @@
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>XDR</t>
+          <t>XCD</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>SDR (Special Drawing Right)</t>
+          <t>East Caribbean Dollar</t>
         </is>
       </c>
       <c r="C169" s="3" t="n"/>
@@ -3565,12 +3565,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>XOF</t>
+          <t>XDR</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>CFA Franc BCEAO</t>
+          <t>SDR (Special Drawing Right)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n"/>
@@ -3579,12 +3579,12 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>XPD</t>
+          <t>XOF</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Palladium</t>
+          <t>CFA Franc BCEAO</t>
         </is>
       </c>
       <c r="C171" s="3" t="n"/>
@@ -3593,12 +3593,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>XPF</t>
+          <t>XPD</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>CFP Franc</t>
+          <t>Palladium</t>
         </is>
       </c>
       <c r="C172" s="2" t="n"/>
@@ -3607,12 +3607,12 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>XPT</t>
+          <t>XPF</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>CFP Franc</t>
         </is>
       </c>
       <c r="C173" s="3" t="n"/>
@@ -3621,12 +3621,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>XSU</t>
+          <t>XPT</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Sucre</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="C174" s="2" t="n"/>
@@ -3635,12 +3635,12 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>XTS</t>
+          <t>XSU</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Codes specifically reserved for testing purposes</t>
+          <t>Sucre</t>
         </is>
       </c>
       <c r="C175" s="3" t="n"/>
@@ -3649,12 +3649,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>XUA</t>
+          <t>XTS</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>ADB Unit of Account</t>
+          <t>Codes specifically reserved for testing purposes</t>
         </is>
       </c>
       <c r="C176" s="2" t="n"/>
@@ -3663,12 +3663,12 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XUA</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>The codes assigned for transactions where no currency is involved</t>
+          <t>ADB Unit of Account</t>
         </is>
       </c>
       <c r="C177" s="3" t="n"/>
@@ -3677,12 +3677,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>YER</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Yemeni Rial</t>
+          <t>The codes assigned for transactions where no currency is involved</t>
         </is>
       </c>
       <c r="C178" s="2" t="n"/>
@@ -3691,12 +3691,12 @@
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>ZAR</t>
+          <t>YER</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Rand</t>
+          <t>Yemeni Rial</t>
         </is>
       </c>
       <c r="C179" s="3" t="n"/>
@@ -3705,12 +3705,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>ZMW</t>
+          <t>ZAR</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Zambian Kwacha</t>
+          <t>Rand</t>
         </is>
       </c>
       <c r="C180" s="2" t="n"/>
@@ -3719,16 +3719,30 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>ZWL</t>
+          <t>ZMW</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Zimbabwe Dollar</t>
+          <t>Zambian Kwacha</t>
         </is>
       </c>
       <c r="C181" s="3" t="n"/>
       <c r="D181" s="3" t="n"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>ZWL</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Zimbabwe Dollar</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="n"/>
+      <c r="D182" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Codelists/Codelists - Import.xlsx
+++ b/Codelists/Codelists - Import.xlsx
@@ -18,38 +18,39 @@
     <sheet name="10035" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="10038" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="10057" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10171" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="10175" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10183" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="10187" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="10203" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="10209" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="10213" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="10214" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="10218" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="10223" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="10226" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="10227" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="10230" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="10234" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="10236" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="10238" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="10239" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="10240" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="10242" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="10243" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="10250" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="10268" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="10272" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="10273" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="10274" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="10275" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="10276" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="10282" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="11000" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="11034" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="11038" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="50001" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="10146" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10171" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10175" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="10183" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="10187" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="10203" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="10209" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="10213" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="10214" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="10218" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="10223" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="10226" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="10227" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="10230" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="10234" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="10236" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="10238" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="10239" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="10240" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="10242" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="10243" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="10250" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="10268" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="10272" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="10273" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="10274" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="10275" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="10276" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="10282" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="11000" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="11034" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="11038" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="50001" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1186,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,12 +1214,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AED</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>UAE Dirham</t>
+          <t>Free circulation of goods</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -1227,12 +1228,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>AFN</t>
+          <t>02</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Afghani</t>
+          <t>Free circulation of goods (IP drawback system).</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -1241,12 +1242,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Lek</t>
+          <t>Free circulation with simultaneous placing of goods under a warehousing procedure other than a customs warehousing procedure.</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -1255,12 +1256,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Armenian Dram</t>
+          <t>Permanent export</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -1269,12 +1270,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>ANG</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Netherlands Antillean Guilder</t>
+          <t>Export of compensating products</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -1283,12 +1284,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>AOA</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Kwanza</t>
+          <t>Temporary export under OP</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -1297,12 +1298,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Argentine Peso</t>
+          <t>Temporary export other than 21</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -1311,12 +1312,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Australian Dollar</t>
+          <t>Temporary export for return in the unaltered state.</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -1325,12 +1326,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>AWG</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Aruban Florin</t>
+          <t>Re-export.</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -1339,12 +1340,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Azerbaijan Manat</t>
+          <t>Simultaneous release for free circulation and home use of goods not VAT-exempt supply</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -1353,12 +1354,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Convertible Mark</t>
+          <t>Simultaneous release for free circulation and home use of goods (IP drawback system).</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -1367,12 +1368,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BBD</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Barbados Dollar</t>
+          <t>Simultaneous release for free circulation and home use of goods which are the subject of a VAT-exempt supply to another Member State.</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -1381,12 +1382,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Taka</t>
+          <t>Simultaneous release for free circulation and home use of goods subject to specific measures connected with the collection of an amount during  the transitional period following the accession of new Member States.</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -1395,12 +1396,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BGN</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Bulgarian Lev</t>
+          <t>End-use Release for free circulation and home use under a duty exemption or at a reduced rate of duty on account of their specific use.</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -1409,12 +1410,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BHD</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Bahraini Dinar</t>
+          <t>Release of goods for free circulation and home use for either VAT or excise duties and their placing under the tax warehouse procedure.</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -1423,12 +1424,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BIF</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Burundi Franc</t>
+          <t>Import of processed products obtained from equivalent goods under the outward- processing procedure before exportation of goods they are replacing.</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -1437,12 +1438,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BMD</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Bermudian Dollar</t>
+          <t>Entry for home use with simultaneous release for free circulation of replacement goods under the customs outward processing procedure prior to the export of the temporary export goods.</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
@@ -1451,12 +1452,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>BND</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Brunei Dollar</t>
+          <t>Entry for home use of Community goods in the context of trade between parts of the customs territory</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -1465,12 +1466,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BOB</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Boliviano</t>
+          <t>Inward processing procedure (suspension system).</t>
         </is>
       </c>
       <c r="C20" s="2" t="n"/>
@@ -1479,12 +1480,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>BOV</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Mvdol</t>
+          <t>Import under temporary import procedure.</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -1493,12 +1494,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BRL</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Brazilian Real</t>
+          <t>Re-importation with simultaneous release for free circulation and home use of goods which are not the subject of a VAT-exempt supply.</t>
         </is>
       </c>
       <c r="C22" s="2" t="n"/>
@@ -1507,12 +1508,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>BSD</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Bahamian Dollar</t>
+          <t>Re-importation with simultaneous release for free circulation and home use of goods which are the subject of a VAT-exempt supply to another  Member State</t>
         </is>
       </c>
       <c r="C23" s="3" t="n"/>
@@ -1521,12 +1522,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Ngultrum</t>
+          <t>Re-importation with partial entry for home use and simultaneous entry for free circulation and placing of goods under a warehousing procedure  other than a customs warehousing procedure.</t>
         </is>
       </c>
       <c r="C24" s="2" t="n"/>
@@ -1535,12 +1536,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>BWP</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Pula</t>
+          <t>Placing of goods under the customs warehousing procedure.</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -1549,12 +1550,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BYN</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Belarusian Ruble</t>
+          <t>Placing of goods under the customs warehousing procedure in order to obtain payment of special export refunds prior to exportation.</t>
         </is>
       </c>
       <c r="C26" s="2" t="n"/>
@@ -1563,12 +1564,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>BZD</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Belize Dollar</t>
+          <t>Manufacturing of goods under supervision by the customs authorities and under customs control (within the meaning of Article 4(13) and (14) of the Code) prior to exportation and payment of export refunds</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -1577,12 +1578,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Canadian Dollar</t>
+          <t>Placing of goods under processing under customs control.</t>
         </is>
       </c>
       <c r="C28" s="2" t="n"/>
@@ -1591,12 +1592,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>CDF</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Congolese Franc</t>
+          <t>Processing under customs control in another Member State (without release for free circulation in that Member State).</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
@@ -1605,12 +1606,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>WIR Euro</t>
+          <t>Placing of Union Goods under a warehousing procedure other than a customs warehousing procedure where neither VAT nor, when applicable, excise duties have been paid.</t>
         </is>
       </c>
       <c r="C30" s="2" t="n"/>
@@ -1619,2130 +1620,16 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>CHF</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Swiss Franc</t>
+          <t>Placing of Union Goods under a warehousing procedure other than a customs warehousing procedure where either VAT or, when applicable, excise duties have been paid and the payment of the other tax is suspended.</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>CHW</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>WIR Franc</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>CLF</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>Unidad de Fomento</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>CLP</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>Chilean Peso</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Yuan Renminbi</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>COP</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Colombian Peso</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n"/>
-      <c r="D36" s="2" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>COU</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>Unidad de Valor Real</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>CRC</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>Costa Rican Colon</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>CUC</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>Peso Convertible</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="3" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>Cuban Peso</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>CVE</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>Cabo Verde Escudo</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>CZK</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Czech Koruna</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>DJF</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Djibouti Franc</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="3" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>DKK</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Danish Krone</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>DOP</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>Dominican Peso</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>DZD</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Algerian Dinar</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>Egyptian Pound</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="n"/>
-      <c r="D47" s="3" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>ERN</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Nakfa</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n"/>
-      <c r="D48" s="2" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>ETB</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>Ethiopian Birr</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="n"/>
-      <c r="D49" s="3" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Euro</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="n"/>
-      <c r="D50" s="2" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>FJD</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>Fiji Dollar</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="n"/>
-      <c r="D51" s="3" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>FKP</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>Falkland Islands Pound</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="n"/>
-      <c r="D52" s="2" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>Pound Sterling</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="n"/>
-      <c r="D53" s="3" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>GEL</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Lari</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>Ghana Cedi</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="n"/>
-      <c r="D55" s="3" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>GIP</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>Gibraltar Pound</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>GMD</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>Dalasi</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="n"/>
-      <c r="D57" s="3" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>GNF</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Guinean Franc</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="n"/>
-      <c r="D58" s="2" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>GTQ</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>Quetzal</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="n"/>
-      <c r="D59" s="3" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>GYD</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>Guyana Dollar</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="n"/>
-      <c r="D60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>HKD</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>Hong Kong Dollar</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="n"/>
-      <c r="D61" s="3" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>HNL</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Lempira</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="n"/>
-      <c r="D62" s="2" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>HRK</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>Kuna</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="n"/>
-      <c r="D63" s="3" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>HTG</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>Gourde</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="n"/>
-      <c r="D64" s="2" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>HUF</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>Forint</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="n"/>
-      <c r="D65" s="3" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>IDR</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Rupiah</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="n"/>
-      <c r="D66" s="2" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>ILS</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>New Israeli Sheqel</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="n"/>
-      <c r="D67" s="3" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>INR</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>Indian Rupee</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="n"/>
-      <c r="D68" s="2" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>IQD</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>Iraqi Dinar</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="n"/>
-      <c r="D69" s="3" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>IRR</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>Iranian Rial</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="n"/>
-      <c r="D70" s="2" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>ISK</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>Iceland Krona</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="n"/>
-      <c r="D71" s="3" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>JMD</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>Jamaican Dollar</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="n"/>
-      <c r="D72" s="2" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>JOD</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>Jordanian Dinar</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="n"/>
-      <c r="D73" s="3" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>JPY</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Yen</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="n"/>
-      <c r="D74" s="2" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>KES</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>Kenyan Shilling</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="n"/>
-      <c r="D75" s="3" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>KGS</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>Som</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="n"/>
-      <c r="D76" s="2" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>KHR</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>Riel</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="n"/>
-      <c r="D77" s="3" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> KMF</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>Comorian Franc</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="n"/>
-      <c r="D78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>KMF</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>KMF</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="n"/>
-      <c r="D79" s="3" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>KPW</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>North Korean Won</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="n"/>
-      <c r="D80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>KRW</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>Won</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="n"/>
-      <c r="D81" s="3" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>KWD</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>Kuwaiti Dinar</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="n"/>
-      <c r="D82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>KYD</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>Cayman Islands Dollar</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="n"/>
-      <c r="D83" s="3" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>KZT</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>Tenge</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="n"/>
-      <c r="D84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>LAK</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>Lao Kip</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="n"/>
-      <c r="D85" s="3" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>LBP</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Lebanese Pound</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="n"/>
-      <c r="D86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>LKR</t>
-        </is>
-      </c>
-      <c r="B87" s="3" t="inlineStr">
-        <is>
-          <t>Sri Lanka Rupee</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="n"/>
-      <c r="D87" s="3" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>LRD</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>Liberian Dollar</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="n"/>
-      <c r="D88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>LSL</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t>Loti</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="n"/>
-      <c r="D89" s="3" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>LYD</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Libyan Dinar</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="n"/>
-      <c r="D90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>MAD</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>Moroccan Dirham</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="n"/>
-      <c r="D91" s="3" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>MDL</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>Moldovan Leu</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="n"/>
-      <c r="D92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>MGA</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>Malagasy Ariary</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="n"/>
-      <c r="D93" s="3" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>MKD</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>Denar</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="n"/>
-      <c r="D94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>MMK</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t>Kyat</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="n"/>
-      <c r="D95" s="3" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>MNT</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>Tugrik</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="n"/>
-      <c r="D96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>MOP</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t>Pataca</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="n"/>
-      <c r="D97" s="3" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>MRU</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Ouguiya</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="n"/>
-      <c r="D98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>MUR</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>Mauritius Rupee</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="n"/>
-      <c r="D99" s="3" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>MVR</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>Rufiyaa</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="n"/>
-      <c r="D100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>MWK</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t>Malawi Kwacha</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="n"/>
-      <c r="D101" s="3" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>MXN</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>Mexican Peso</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="n"/>
-      <c r="D102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>MXV</t>
-        </is>
-      </c>
-      <c r="B103" s="3" t="inlineStr">
-        <is>
-          <t>Mexican Unidad de Inversion (UDI)</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="n"/>
-      <c r="D103" s="3" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>MYR</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>Malaysian Ringgit</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="n"/>
-      <c r="D104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>MZN</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>Mozambique Metical</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="n"/>
-      <c r="D105" s="3" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>NAD</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>Namibia Dollar</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="n"/>
-      <c r="D106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>NGN</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>Naira</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="n"/>
-      <c r="D107" s="3" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>NIO</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>Cordoba Oro</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="n"/>
-      <c r="D108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>NOK</t>
-        </is>
-      </c>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t>Norwegian Krone</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="n"/>
-      <c r="D109" s="3" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>NPR</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>Nepalese Rupee</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="n"/>
-      <c r="D110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="inlineStr">
-        <is>
-          <t>NZD</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>New Zealand Dollar</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="n"/>
-      <c r="D111" s="3" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>OMR</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Rial Omani</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="n"/>
-      <c r="D112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="inlineStr">
-        <is>
-          <t>PAB</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>Balboa</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="n"/>
-      <c r="D113" s="3" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>PEN</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>Sol</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="n"/>
-      <c r="D114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>PGK</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>Kina</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="n"/>
-      <c r="D115" s="3" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>Philippine Peso</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="n"/>
-      <c r="D116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>PKR</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t>Pakistan Rupee</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="n"/>
-      <c r="D117" s="3" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>PLN</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>Zloty</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="n"/>
-      <c r="D118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="inlineStr">
-        <is>
-          <t>PYG</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="n"/>
-      <c r="D119" s="3" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>QAR</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>Qatari Rial</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="n"/>
-      <c r="D120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>Romanian Leu</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="n"/>
-      <c r="D121" s="3" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>RSD</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>Serbian Dinar</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="n"/>
-      <c r="D122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>RUB</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>Russian Ruble</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="n"/>
-      <c r="D123" s="3" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>RWF</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Rwanda Franc</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="n"/>
-      <c r="D124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>Saudi Riyal</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="n"/>
-      <c r="D125" s="3" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>SBD</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Solomon Islands Dollar</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="n"/>
-      <c r="D126" s="2" t="n"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="3" t="inlineStr">
-        <is>
-          <t>SCR</t>
-        </is>
-      </c>
-      <c r="B127" s="3" t="inlineStr">
-        <is>
-          <t>Seychelles Rupee</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="n"/>
-      <c r="D127" s="3" t="n"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>SDG</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Sudanese Pound</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="n"/>
-      <c r="D128" s="2" t="n"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="inlineStr">
-        <is>
-          <t>SEK</t>
-        </is>
-      </c>
-      <c r="B129" s="3" t="inlineStr">
-        <is>
-          <t>Swedish Krona</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="n"/>
-      <c r="D129" s="3" t="n"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>SGD</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Singapore Dollar</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="n"/>
-      <c r="D130" s="2" t="n"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="3" t="inlineStr">
-        <is>
-          <t>SHP</t>
-        </is>
-      </c>
-      <c r="B131" s="3" t="inlineStr">
-        <is>
-          <t>Saint Helena Pound</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="n"/>
-      <c r="D131" s="3" t="n"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>SLL</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Leone</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="n"/>
-      <c r="D132" s="2" t="n"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>SOS</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>Somali Shilling</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="n"/>
-      <c r="D133" s="3" t="n"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>SRD</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Surinam Dollar</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="n"/>
-      <c r="D134" s="2" t="n"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="3" t="inlineStr">
-        <is>
-          <t>SSP</t>
-        </is>
-      </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t>South Sudanese Pound</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="n"/>
-      <c r="D135" s="3" t="n"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>STN</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>Dobra</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="n"/>
-      <c r="D136" s="2" t="n"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>El Salvador Colon</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="n"/>
-      <c r="D137" s="3" t="n"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>SYP</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>Syrian Pound</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="n"/>
-      <c r="D138" s="2" t="n"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="3" t="inlineStr">
-        <is>
-          <t>SZL</t>
-        </is>
-      </c>
-      <c r="B139" s="3" t="inlineStr">
-        <is>
-          <t>Lilangeni</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="n"/>
-      <c r="D139" s="3" t="n"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>THB</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Baht</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="n"/>
-      <c r="D140" s="2" t="n"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="3" t="inlineStr">
-        <is>
-          <t>TJS</t>
-        </is>
-      </c>
-      <c r="B141" s="3" t="inlineStr">
-        <is>
-          <t>Somoni</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="n"/>
-      <c r="D141" s="3" t="n"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>TMT</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Turkmenistan New Manat</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="n"/>
-      <c r="D142" s="2" t="n"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="3" t="inlineStr">
-        <is>
-          <t>TND</t>
-        </is>
-      </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t>Tunisian Dinar</t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="n"/>
-      <c r="D143" s="3" t="n"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>TOP</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Pa’anga</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="n"/>
-      <c r="D144" s="2" t="n"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="3" t="inlineStr">
-        <is>
-          <t>TRY</t>
-        </is>
-      </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t>Turkish Lira</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="n"/>
-      <c r="D145" s="3" t="n"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>TTD</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago Dollar</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="n"/>
-      <c r="D146" s="2" t="n"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="3" t="inlineStr">
-        <is>
-          <t>TWD</t>
-        </is>
-      </c>
-      <c r="B147" s="3" t="inlineStr">
-        <is>
-          <t>New Taiwan Dollar</t>
-        </is>
-      </c>
-      <c r="C147" s="3" t="n"/>
-      <c r="D147" s="3" t="n"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>TZS</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>Tanzanian Shilling</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="n"/>
-      <c r="D148" s="2" t="n"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="3" t="inlineStr">
-        <is>
-          <t>UAH</t>
-        </is>
-      </c>
-      <c r="B149" s="3" t="inlineStr">
-        <is>
-          <t>Hryvnia</t>
-        </is>
-      </c>
-      <c r="C149" s="3" t="n"/>
-      <c r="D149" s="3" t="n"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>UGX</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>Uganda Shilling</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="n"/>
-      <c r="D150" s="2" t="n"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="3" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="B151" s="3" t="inlineStr">
-        <is>
-          <t>US Dollar</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="n"/>
-      <c r="D151" s="3" t="n"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>USN</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>US Dollar (Next day)</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="n"/>
-      <c r="D152" s="2" t="n"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="3" t="inlineStr">
-        <is>
-          <t>UYI</t>
-        </is>
-      </c>
-      <c r="B153" s="3" t="inlineStr">
-        <is>
-          <t>Uruguay Peso en Unidades Indexadas (UI)</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="n"/>
-      <c r="D153" s="3" t="n"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>UYU</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>Peso Uruguayo</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="n"/>
-      <c r="D154" s="2" t="n"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>UYW</t>
-        </is>
-      </c>
-      <c r="B155" s="3" t="inlineStr">
-        <is>
-          <t>Unidad Previsional</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="n"/>
-      <c r="D155" s="3" t="n"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>UZS</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>Uzbekistan Sum</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="n"/>
-      <c r="D156" s="2" t="n"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>VED</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t>Bolívar Soberano</t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="n"/>
-      <c r="D157" s="3" t="n"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>VES</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>Bolívar Soberano</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="n"/>
-      <c r="D158" s="2" t="n"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="3" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="B159" s="3" t="inlineStr">
-        <is>
-          <t>Dong</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="n"/>
-      <c r="D159" s="3" t="n"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="inlineStr">
-        <is>
-          <t>VUV</t>
-        </is>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>Vatu</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="n"/>
-      <c r="D160" s="2" t="n"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="3" t="inlineStr">
-        <is>
-          <t>WST</t>
-        </is>
-      </c>
-      <c r="B161" s="3" t="inlineStr">
-        <is>
-          <t>Tala</t>
-        </is>
-      </c>
-      <c r="C161" s="3" t="n"/>
-      <c r="D161" s="3" t="n"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>XAF</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>CFA Franc BEAC</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="n"/>
-      <c r="D162" s="2" t="n"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="3" t="inlineStr">
-        <is>
-          <t>XAG</t>
-        </is>
-      </c>
-      <c r="B163" s="3" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="n"/>
-      <c r="D163" s="3" t="n"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>XAU</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="n"/>
-      <c r="D164" s="2" t="n"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="3" t="inlineStr">
-        <is>
-          <t>XBA</t>
-        </is>
-      </c>
-      <c r="B165" s="3" t="inlineStr">
-        <is>
-          <t>Bond Markets Unit European Composite Unit (EURCO)</t>
-        </is>
-      </c>
-      <c r="C165" s="3" t="n"/>
-      <c r="D165" s="3" t="n"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>XBB</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>Bond Markets Unit European Monetary Unit (E.M.U.-6)</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="n"/>
-      <c r="D166" s="2" t="n"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="3" t="inlineStr">
-        <is>
-          <t>XBC</t>
-        </is>
-      </c>
-      <c r="B167" s="3" t="inlineStr">
-        <is>
-          <t>Bond Markets Unit European Unit of Account 9 (E.U.A.-9)</t>
-        </is>
-      </c>
-      <c r="C167" s="3" t="n"/>
-      <c r="D167" s="3" t="n"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>XBD</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>Bond Markets Unit European Unit of Account 17 (E.U.A.-17)</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="n"/>
-      <c r="D168" s="2" t="n"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="3" t="inlineStr">
-        <is>
-          <t>XCD</t>
-        </is>
-      </c>
-      <c r="B169" s="3" t="inlineStr">
-        <is>
-          <t>East Caribbean Dollar</t>
-        </is>
-      </c>
-      <c r="C169" s="3" t="n"/>
-      <c r="D169" s="3" t="n"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>XDR</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>SDR (Special Drawing Right)</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="n"/>
-      <c r="D170" s="2" t="n"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="3" t="inlineStr">
-        <is>
-          <t>XOF</t>
-        </is>
-      </c>
-      <c r="B171" s="3" t="inlineStr">
-        <is>
-          <t>CFA Franc BCEAO</t>
-        </is>
-      </c>
-      <c r="C171" s="3" t="n"/>
-      <c r="D171" s="3" t="n"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>XPD</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>Palladium</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="n"/>
-      <c r="D172" s="2" t="n"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="3" t="inlineStr">
-        <is>
-          <t>XPF</t>
-        </is>
-      </c>
-      <c r="B173" s="3" t="inlineStr">
-        <is>
-          <t>CFP Franc</t>
-        </is>
-      </c>
-      <c r="C173" s="3" t="n"/>
-      <c r="D173" s="3" t="n"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>XPT</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="n"/>
-      <c r="D174" s="2" t="n"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="3" t="inlineStr">
-        <is>
-          <t>XSU</t>
-        </is>
-      </c>
-      <c r="B175" s="3" t="inlineStr">
-        <is>
-          <t>Sucre</t>
-        </is>
-      </c>
-      <c r="C175" s="3" t="n"/>
-      <c r="D175" s="3" t="n"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>XTS</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>Codes specifically reserved for testing purposes</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="n"/>
-      <c r="D176" s="2" t="n"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="3" t="inlineStr">
-        <is>
-          <t>XUA</t>
-        </is>
-      </c>
-      <c r="B177" s="3" t="inlineStr">
-        <is>
-          <t>ADB Unit of Account</t>
-        </is>
-      </c>
-      <c r="C177" s="3" t="n"/>
-      <c r="D177" s="3" t="n"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>XXX</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>The codes assigned for transactions where no currency is involved</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="n"/>
-      <c r="D178" s="2" t="n"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="3" t="inlineStr">
-        <is>
-          <t>YER</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="inlineStr">
-        <is>
-          <t>Yemeni Rial</t>
-        </is>
-      </c>
-      <c r="C179" s="3" t="n"/>
-      <c r="D179" s="3" t="n"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>ZAR</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>Rand</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="n"/>
-      <c r="D180" s="2" t="n"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="3" t="inlineStr">
-        <is>
-          <t>ZMW</t>
-        </is>
-      </c>
-      <c r="B181" s="3" t="inlineStr">
-        <is>
-          <t>Zambian Kwacha</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="n"/>
-      <c r="D181" s="3" t="n"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>ZWL</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>Zimbabwe Dollar</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="n"/>
-      <c r="D182" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3750,6 +1637,2561 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>UAE Dirham</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Afghani</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Lek</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Armenian Dram</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ANG</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Netherlands Antillean Guilder</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>AOA</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Kwanza</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>ARS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Argentine Peso</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Australian Dollar</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>AWG</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Aruban Florin</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>AZN</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Azerbaijan Manat</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>BAM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Convertible Mark</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>BBD</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Barbados Dollar</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>BDT</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Taka</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>BGN</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Bulgarian Lev</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>BHD</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Bahraini Dinar</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>BIF</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Burundi Franc</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>BMD</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Bermudian Dollar</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>BND</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Brunei Dollar</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>BOB</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Boliviano</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>BOV</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Mvdol</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Brazilian Real</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>BSD</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Bahamian Dollar</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Ngultrum</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>BWP</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Pula</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>BYN</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Belarusian Ruble</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>BZD</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Belize Dollar</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Canadian Dollar</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>CDF</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Congolese Franc</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>WIR Euro</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Swiss Franc</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>CHW</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>WIR Franc</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>CLF</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Unidad de Fomento</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Chilean Peso</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Yuan Renminbi</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Colombian Peso</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>COU</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Unidad de Valor Real</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Costa Rican Colon</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>CUC</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Peso Convertible</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Cuban Peso</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>CVE</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Cabo Verde Escudo</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>CZK</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Czech Koruna</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>DJF</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Djibouti Franc</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>DKK</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Danish Krone</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>DOP</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Dominican Peso</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>DZD</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Algerian Dinar</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Egyptian Pound</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>ERN</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Nakfa</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>ETB</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Ethiopian Birr</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>FJD</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Fiji Dollar</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>FKP</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Falkland Islands Pound</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Pound Sterling</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>GEL</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Lari</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>GHS</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Ghana Cedi</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>GIP</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Gibraltar Pound</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>GMD</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>Dalasi</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>GNF</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Guinean Franc</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>GTQ</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Quetzal</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>GYD</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Guyana Dollar</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Hong Kong Dollar</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Lempira</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n"/>
+      <c r="D62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>HRK</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>Kuna</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>HTG</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Gourde</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>HUF</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Forint</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>IDR</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Rupiah</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n"/>
+      <c r="D66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>ILS</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>New Israeli Sheqel</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Indian Rupee</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>IQD</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Iraqi Dinar</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>IRR</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Iranian Rial</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>ISK</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Iceland Krona</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>JMD</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Jamaican Dollar</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n"/>
+      <c r="D72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>JOD</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Jordanian Dinar</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Yen</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>KES</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Kenyan Shilling</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>KGS</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Som</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>KHR</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Riel</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>KMF</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>KMF</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n"/>
+      <c r="D78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>KPW</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>North Korean Won</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>KRW</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n"/>
+      <c r="D80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>KWD</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>Kuwaiti Dinar</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>KYD</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Cayman Islands Dollar</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n"/>
+      <c r="D82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>KZT</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Tenge</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>LAK</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Lao Kip</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>LBP</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Lebanese Pound</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>LKR</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Sri Lanka Rupee</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>LRD</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>Liberian Dollar</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>LSL</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Loti</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n"/>
+      <c r="D88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>LYD</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Libyan Dinar</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Moroccan Dirham</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>MDL</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Moldovan Leu</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>MGA</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Malagasy Ariary</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n"/>
+      <c r="D92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>MKD</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Denar</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>MMK</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Kyat</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n"/>
+      <c r="D94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Tugrik</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>MOP</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Pataca</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n"/>
+      <c r="D96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>MRU</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Ouguiya</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>MUR</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Mauritius Rupee</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>MVR</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>Rufiyaa</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>MWK</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Malawi Kwacha</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>MXN</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Mexican Peso</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>MXV</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Mexican Unidad de Inversion (UDI)</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n"/>
+      <c r="D102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>MYR</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>Malaysian Ringgit</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>MZN</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Mozambique Metical</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n"/>
+      <c r="D104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>NAD</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>Namibia Dollar</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>NGN</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Naira</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n"/>
+      <c r="D106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>Cordoba Oro</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>NOK</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Norwegian Krone</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n"/>
+      <c r="D108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>NPR</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>Nepalese Rupee</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>NZD</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>New Zealand Dollar</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n"/>
+      <c r="D110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>OMR</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>Rial Omani</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>PAB</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Balboa</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="n"/>
+      <c r="D112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>Sol</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>PGK</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Kina</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n"/>
+      <c r="D114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>Philippine Peso</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>PKR</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Pakistan Rupee</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="n"/>
+      <c r="D116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Zloty</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>PYG</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n"/>
+      <c r="D118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>QAR</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Qatari Rial</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="n"/>
+      <c r="D119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Romanian Leu</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>RSD</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Serbian Dinar</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Russian Ruble</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="n"/>
+      <c r="D122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>RWF</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Rwanda Franc</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Saudi Riyal</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="n"/>
+      <c r="D124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>SBD</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>Solomon Islands Dollar</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="n"/>
+      <c r="D125" s="3" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Seychelles Rupee</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="n"/>
+      <c r="D126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>SDG</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>Sudanese Pound</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>SEK</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Swedish Krona</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="n"/>
+      <c r="D128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>Singapore Dollar</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>SHP</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Saint Helena Pound</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="n"/>
+      <c r="D130" s="2" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>SLL</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>Leone</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="n"/>
+      <c r="D131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>SOS</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Somali Shilling</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="n"/>
+      <c r="D132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>SRD</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>Surinam Dollar</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>SSP</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>South Sudanese Pound</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="n"/>
+      <c r="D134" s="2" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>STN</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>Dobra</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>El Salvador Colon</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="n"/>
+      <c r="D136" s="2" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>SYP</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>Syrian Pound</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="n"/>
+      <c r="D137" s="3" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>SZL</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Lilangeni</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="n"/>
+      <c r="D138" s="2" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>Baht</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="n"/>
+      <c r="D139" s="3" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>TJS</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Somoni</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="n"/>
+      <c r="D140" s="2" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>TMT</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>Turkmenistan New Manat</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="n"/>
+      <c r="D141" s="3" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>TND</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Tunisian Dinar</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="n"/>
+      <c r="D142" s="2" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>TOP</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>Pa’anga</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="n"/>
+      <c r="D143" s="3" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Turkish Lira</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="n"/>
+      <c r="D144" s="2" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago Dollar</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="n"/>
+      <c r="D145" s="3" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>TWD</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>New Taiwan Dollar</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="n"/>
+      <c r="D146" s="2" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>TZS</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>Tanzanian Shilling</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="n"/>
+      <c r="D147" s="3" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>UAH</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Hryvnia</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="n"/>
+      <c r="D148" s="2" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t>UGX</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>Uganda Shilling</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="n"/>
+      <c r="D149" s="3" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>US Dollar</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="n"/>
+      <c r="D150" s="2" t="n"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>US Dollar (Next day)</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="n"/>
+      <c r="D151" s="3" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>UYI</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Uruguay Peso en Unidades Indexadas (UI)</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="n"/>
+      <c r="D152" s="2" t="n"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>UYU</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>Peso Uruguayo</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="n"/>
+      <c r="D153" s="3" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>UYW</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Unidad Previsional</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="n"/>
+      <c r="D154" s="2" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>UZS</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>Uzbekistan Sum</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="n"/>
+      <c r="D155" s="3" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>VED</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Bolívar Soberano</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="n"/>
+      <c r="D156" s="2" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>VES</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>Bolívar Soberano</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="n"/>
+      <c r="D157" s="3" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Dong</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="n"/>
+      <c r="D158" s="2" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>VUV</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>Vatu</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="n"/>
+      <c r="D159" s="3" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Tala</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n"/>
+      <c r="D160" s="2" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>XAF</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>CFA Franc BEAC</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="n"/>
+      <c r="D161" s="3" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>XAG</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n"/>
+      <c r="D162" s="2" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>XAU</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="n"/>
+      <c r="D163" s="3" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>XBA</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>Bond Markets Unit European Composite Unit (EURCO)</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="n"/>
+      <c r="D164" s="2" t="n"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>XBB</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>Bond Markets Unit European Monetary Unit (E.M.U.-6)</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="n"/>
+      <c r="D165" s="3" t="n"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>XBC</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Bond Markets Unit European Unit of Account 9 (E.U.A.-9)</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n"/>
+      <c r="D166" s="2" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>XBD</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>Bond Markets Unit European Unit of Account 17 (E.U.A.-17)</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="n"/>
+      <c r="D167" s="3" t="n"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>XCD</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>East Caribbean Dollar</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n"/>
+      <c r="D168" s="2" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>XDR</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>SDR (Special Drawing Right)</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="n"/>
+      <c r="D169" s="3" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>XOF</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>CFA Franc BCEAO</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n"/>
+      <c r="D170" s="2" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>XPD</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>Palladium</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="n"/>
+      <c r="D171" s="3" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>XPF</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>CFP Franc</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="n"/>
+      <c r="D172" s="2" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>XPT</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="n"/>
+      <c r="D173" s="3" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>XSU</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Sucre</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="n"/>
+      <c r="D174" s="2" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>XTS</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>Codes specifically reserved for testing purposes</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="n"/>
+      <c r="D175" s="3" t="n"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>XUA</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>ADB Unit of Account</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="n"/>
+      <c r="D176" s="2" t="n"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>XXX</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>The codes assigned for transactions where no currency is involved</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="n"/>
+      <c r="D177" s="3" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>YER</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Yemeni Rial</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="n"/>
+      <c r="D178" s="2" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="inlineStr">
+        <is>
+          <t>ZAR</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>Rand</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="n"/>
+      <c r="D179" s="3" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>ZMW</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Zambian Kwacha</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="n"/>
+      <c r="D180" s="2" t="n"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>ZWL</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>Zimbabwe Dollar</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="n"/>
+      <c r="D181" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3974,181 +4416,6 @@
       </c>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>BOD</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Bill Of Discharge</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>BULK_GPR</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Bulk GPR</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Request Correction/Amendment</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>GPR</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Notify Goods Presentation</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>I2GPR</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Present Goods via I2 declaration</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>INV</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Request Invalidation</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>INV4C</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Request Invalidation &amp; Remission (4c)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>RDG</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Request for Disposal of Goods</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>RRA</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Repayment/Remission 4c</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>SUP</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Supplementary declaration after incomplete</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4188,12 +4455,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>IM 122 - Goods, which have been sold under a distance contract and have been released for free circulation, have been returned</t>
+          <t>Bill Of Discharge</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -4202,12 +4469,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>BULK_GPR</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>IM, EX, TR 123 - Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
+          <t>Bulk GPR</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -4216,12 +4483,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>IM, EX, TR 124 - Where goods have been erroneously declared under more than one customs declaration</t>
+          <t>Request Correction/Amendment</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -4230,12 +4497,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>GPR</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IM 125 - Postal low value consignments returned on basis of barcode S10</t>
+          <t>Notify Goods Presentation</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -4244,12 +4511,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>I2GPR</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>IM, EX, TR 126 - Accepted declaration with goods to be placed under another customs procedure</t>
+          <t>Present Goods via I2 declaration</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -4258,12 +4525,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IM 127 - Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
+          <t>Request Invalidation</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -4272,12 +4539,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>INV4C</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>IM 129 - Goods declared in error to a customs procedure incurring a customs debt</t>
+          <t>Request Invalidation &amp; Remission (4c)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -4286,12 +4553,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>RDG</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IM 130 - Goods declared in error instead of other goods incurring a customs debt</t>
+          <t>Request for Disposal of Goods</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -4300,12 +4567,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>RRA</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>IM, EX 131 - Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+          <t>Repayment/Remission 4c</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -4314,12 +4581,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>SUP</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IM 145 Invalidation of declaration for temperary storage, where the goods has not yet been presented to the customs authorities, upon application by the declarant</t>
+          <t>Supplementary declaration after incomplete</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -4331,6 +4598,181 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>IM 122 - Goods, which have been sold under a distance contract and have been released for free circulation, have been returned</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 123 - Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 124 - Where goods have been erroneously declared under more than one customs declaration</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>IM 125 - Postal low value consignments returned on basis of barcode S10</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 126 - Accepted declaration with goods to be placed under another customs procedure</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IM 127 - Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IM 129 - Goods declared in error to a customs procedure incurring a customs debt</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IM 130 - Goods declared in error instead of other goods incurring a customs debt</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX 131 - Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IM 145 Invalidation of declaration for temperary storage, where the goods has not yet been presented to the customs authorities, upon application by the declarant</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7893,7 +8335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8684,7 +9126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8817,7 +9259,1162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>% vol</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ASVX</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>%vol per hectolitre</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>CCT</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ct/l</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>CEN</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>100 p/st</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>CMQ</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Cubic centimeter</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>CTM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>c/k Carats</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Decatonne, corrected according to polarisation</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>kg DHS</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>DKK</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Danish Krone</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>DTN</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>100 kg</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>DTNE</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Hectokilogram of drained net weight</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>DTNF</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Hectokilogram of common wheat</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>DTNG</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Hectokilogram , gross</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>DTNL</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Hectokilogram of live weight</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>DTNM</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Hectokilogram net of dry matter</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>DTNR</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Hectokilogram of the standard quality</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>DTNS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Hectokilogram of sugar with a yield in white sugar of 92%</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>DTNZ</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Hectokilogram per 1% by weight of sucrose</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>ENP</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>For each Euro or Member State national currency of the net, free-at-Union-frontier price, before duty of the product concerned</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>EUR / 100 kg</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>GFI</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>gi F/S</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>GRM</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>GRT</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>HMT</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>100 m</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>KAC</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Kilogram net of acesulfame potassium</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>KCC</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>kg C@5H@1@4</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>KCL</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>tonne KCl</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>KGM</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>KGMA</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Kilogram total alcohol</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>KGME</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Kilogram of drained net weight</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>KGMG</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Kilogram , gross</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>KGMP</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Kilogram of lactic matter</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>KGMS</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Kilogram of sugar with a yield in white sugar of 92%</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>KGMT</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Kilogram of dry lactic matter</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>KLT</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>1000 l</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>KMA</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>kg methylamines</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>KMT</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Kilometre</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>KNI</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>kg N</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>KNS</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>kg H@2O@2</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>KP</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>kg P@2O@5</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>KPH</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>kg KOH</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>KPO</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>kg K@2O</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>KPP</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Kilogram of diphosphorus pentaoxide</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>KSD</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>kg 90% sdt</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>KSH</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>kg NaOH</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>KUR</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>kg U</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>LEF</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Leaf</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>l alc.</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>LTR</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>LTRA</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Litre total alcohol</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>1000 p/st</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>MLT</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Milliliter</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>MMR</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>MPR</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>1000 pa</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>MTC</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>1000 m$3</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>MTK</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>m$2</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>MTQ</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>m$3</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>MTQC</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Cubic metre 1 000</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n"/>
+      <c r="D62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>MTR</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>MWH</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>1000 kWh</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>NAR</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>p/st</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>NARB</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Number of items per flask</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n"/>
+      <c r="D66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>NCL</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>ce/el</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>NPR</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>pa</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>STW</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Straw</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>TCE</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Tonne of CO₂ equivalent of hydrofluorocarbons (HFCs)</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>TJO</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>TJ</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n"/>
+      <c r="D72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>TNE</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>1000 kg</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>TNEE</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Tonne of drained net weight</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>TNEI</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Tonne of biodiesel content</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>TNEJ</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Tonne of fuel content (usually in form of tallow, stearin, paraffin wax or other waxes, including the wick)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>TNEK</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Tonne of bioethanol content</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>TNEM</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Tonne net of dry matter</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n"/>
+      <c r="D78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>TNER</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Tonne of the standard quality</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>TNEZ</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Tonne per 1% by weight of sucrose</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n"/>
+      <c r="D80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>Number of Watt</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9006,672 +10603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>ASV</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>% vol</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>CCT</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>ct/l</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>CEN</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>100 p/st</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>CMR</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>CTM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>c/k Carats</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>kg DHS</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>DKK</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Danish Krone</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>DTN</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>100 kg</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>ETN</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>EUR / 100 kg</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>GFI</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>gi F/S</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>GRM</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>GRT</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>HLT</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>HMT</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>100 m</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>KCC</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>kg C@5H@1@4</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>KCL</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>tonne KCl</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>KGM</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>KLT</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>1000 l</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>KMA</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>kg methylamines</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>KMT</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Kilometre</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>KNI</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>kg N</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>KNS</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>kg H@2O@2</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>KP</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>kg P@2O@5</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>KPH</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>kg KOH</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>KPO</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>kg K@2O</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>KSD</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>kg 90% sdt</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>KSH</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>kg NaOH</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>KUR</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>kg U</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>LPA</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>l alc.</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>LTR</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>1000 p/st</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>MMR</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>MPR</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>1000 pa</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>MTC</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>1000 m$3</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n"/>
-      <c r="D36" s="2" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>MTK</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>m$2</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>MTQ</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>m$3</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>MTR</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="3" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>MWH</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>1000 kWh</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>NAR</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>p/st</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>NCL</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>ce/el</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>NPR</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>pa</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="3" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>TJO</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>TJ</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>TNE</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>1000 kg</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10616,7 +11548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11043,7 +11975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11260,7 +12192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11337,7 +12269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11974,7 +12906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12457,7 +13389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16328,7 +17260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16503,7 +17435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16616,97 +17548,6 @@
       </c>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Designated location</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Authorised place</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Approved place (requires permission)</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Other (requires permission)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22438,6 +23279,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Designated location</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Authorised place</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Approved place (requires permission)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Other (requires permission)</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22705,7 +23637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22796,7 +23728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22915,7 +23847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24364,7 +25296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24864,7 +25796,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Goods labelled according to the provisions of Article 12, paragraph 1 of Regulation (EU) No 517/2014</t>
+          <t>Goods labelled according to the provisions of Article 12 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -25452,7 +26384,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Undertaking registered according to Art. 19 of Regulation (EU) No 517/2014, and Article 1.2 of Commission Implementing Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
+          <t>Undertaking registered in the F-Gas Portal according to Article 20 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C77" s="3" t="n"/>
@@ -25690,7 +26622,7 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Goods labelled according to the provisions of Article 12, paragraph 8 of Regulation (EU) No 517/2014</t>
+          <t>Goods labelled according to the provisions of Article 12, paragraph 1 and 9 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C94" s="2" t="n"/>
@@ -25858,7 +26790,7 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Dental amalgam used for special medical needs</t>
+          <t>Dental amalgam used for specific medical needs</t>
         </is>
       </c>
       <c r="C106" s="2" t="n"/>
@@ -27482,7 +28414,7 @@
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3g.1 of Regulation (EU) No 833/2014</t>
+          <t>Evidence of the country of origin of the iron and steel inputs used for processing of the product in a third country</t>
         </is>
       </c>
       <c r="C222" s="2" t="n"/>
@@ -27776,7 +28708,7 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>Iron and steel products processed in a third country, not incorporating iron and steel products originating in Russia as listed in Annex XVII of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cb)</t>
         </is>
       </c>
       <c r="C243" s="3" t="n"/>
@@ -28378,7 +29310,7 @@
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Export to the following territories of Member States (Greenland, New Caledonia and Dependencies, French Polynesia, French Southern and Antarctic Territories, Wallis and Futuna Islands, Mayotte, St Pierre and Miquelon, Büsingen), provided that the goods are used by an authority in charge of law enforcement in both the country or territory of destin</t>
+          <t>Export to the following territories of Member States (Greenland, New Caledonia and Dependencies, French Polynesia, French Southern and Antarctic Territories, Wallis and Futuna Islands, Mayotte, St Pierre and Miquelon, Büsingen), provided that the goods are used by an authority in charge of law enforcement in both the country or territory of destination and the metropolitan part of the Member State to which that territory belongs</t>
         </is>
       </c>
       <c r="C286" s="2" t="n"/>
@@ -28392,7 +29324,7 @@
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Regulation (EC) No. 1984/2003 (and/or Reg. (EU) No. 640/2010).</t>
+          <t>Goods not concerned by Regulation (EC) No. 1984/2003</t>
         </is>
       </c>
       <c r="C287" s="3" t="n"/>
@@ -28406,7 +29338,7 @@
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Bigeye tuna taken by seiners or baitboats and intended mainly for the canning industry in the areas of application of the Agreement for the establishment of the Indian Ocean Tuna Commission (IOTC Agreement) and the ICCAT Convention.</t>
+          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
         </is>
       </c>
       <c r="C288" s="2" t="n"/>
@@ -28574,7 +29506,7 @@
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by import prohibition on fluorinated greenhouse gases</t>
+          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C300" s="2" t="n"/>
@@ -28616,7 +29548,7 @@
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EC) No 834/2007 (organic products)</t>
+          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
         </is>
       </c>
       <c r="C303" s="3" t="n"/>
@@ -28630,7 +29562,7 @@
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Decision 2007/275/EC and Commission Implementing Regulation (EU) 2019/2007</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
         </is>
       </c>
       <c r="C304" s="2" t="n"/>
@@ -28644,7 +29576,7 @@
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 6.1b of Commission Decision (EC) No 275/2007</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
         </is>
       </c>
       <c r="C305" s="3" t="n"/>
@@ -28826,7 +29758,7 @@
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>Goods other than pre-charged equipment with hydrofluorocarbons</t>
+          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
         </is>
       </c>
       <c r="C318" s="2" t="n"/>
@@ -28840,7 +29772,7 @@
       </c>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>Exemptions from the Reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2 of Regulation (EU) No 517/2014</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C319" s="3" t="n"/>
@@ -29176,7 +30108,7 @@
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>Exemption by virtue of Article 1(5) of Regulation (EU) 2021/111 - last 3 subparagraphs: donation or resale, humanitarian emergency response, exports to facilities located on the continental shelf of a Member State or the exclusive economic zone declared by a Member State pursuant to UNCLOS</t>
+          <t>Exemption by virtue of Article 1(9) of Regulation (EU) 2021/442: (c) exports of goods purchased and/or delivered through COVAX, UNICEF and PAHO with destination to any other COVAX participating country, (d) donation or resale, (e) humanitarian emergency response</t>
         </is>
       </c>
       <c r="C343" s="3" t="n"/>
@@ -29341,7 +30273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29894,7 +30826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30391,7 +31323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30975,7 +31907,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Certificate of authenticity as mentioned in Regulation (EU) No 593/2013 (OJ L 170)</t>
+          <t>Certificate of authenticity as mentioned in Implementing Regulation (EU) 2020/761</t>
         </is>
       </c>
       <c r="C41" s="3" t="n"/>
@@ -31017,7 +31949,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Certificate of authenticity as mentioned in Regulation (EU) No 481/2012 (OJ L 148)</t>
+          <t>Certificate of authenticity Beef and Veal, Implementing Regulation (EU) 2020/1988</t>
         </is>
       </c>
       <c r="C44" s="2" t="n"/>
@@ -31045,7 +31977,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Attestation of equivalence as mentioned in Regulation (EC) No 1295/2008 (OJ L 340)</t>
+          <t>Attestation of equivalence as mentioned in Regulation (EU) 2023/2834</t>
         </is>
       </c>
       <c r="C46" s="2" t="n"/>
@@ -31073,7 +32005,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Document issued by the competent authority or agency in the third country of origin [Article 5(3) of Regulation (EU) 1354/2011]</t>
+          <t>Document issued by the competent authority or agency in the third country of origin, Implementing Regulation (EU) 2020/1988</t>
         </is>
       </c>
       <c r="C48" s="2" t="n"/>
@@ -31241,7 +32173,7 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>ICCAT bigeye tuna statistical document or IOTC bigeye tuna statistical document</t>
+          <t>ICCAT, IOTC or IATTC bigeye tuna statistical document</t>
         </is>
       </c>
       <c r="C60" s="2" t="n"/>
@@ -31255,7 +32187,7 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ICCAT bluefin tuna re-export certificate (Reg 640/2010, L 194)</t>
+          <t>ICCAT bluefin tuna re-export certificate (BFTRC) [Reg. (EU) 2023/2833]</t>
         </is>
       </c>
       <c r="C61" s="3" t="n"/>
@@ -31283,7 +32215,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>ICCAT bigeye tuna re-export certificate or IOTC bigeye tuna re-export certificate</t>
+          <t>ICCAT, IOTC or IATTC bigeye tuna re-export certificate</t>
         </is>
       </c>
       <c r="C63" s="3" t="n"/>
@@ -31717,7 +32649,7 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Exemption by virtue of Articles 3 and 4 of regulation 2019/2122 (animals intended for scientific purposes, research and diagnostic samples)</t>
+          <t>Exemption by virtue of Articles 3 and 4 of regulation 2019/2122 (animals intended for scientific purposes, research and diagnostic samples, and samples for product analysis and quality testing)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n"/>
@@ -32403,7 +33335,7 @@
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Common Veterinary Entry Document (CVED) in accordance with Commission Regulation (EC) No. 282/2004, used for veterinary checks on live animals</t>
+          <t>Common Health Entry Document for Animals (CHED-A) (as set out in Part 2, Section A of Annex II to Commission Implementing Regulation (EU) 2019/1715 (OJ L 261))</t>
         </is>
       </c>
       <c r="C143" s="3" t="n"/>
@@ -32487,7 +33419,7 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Electronic administrative document (e-AD), as referred to in Article 3(1) of Reg. (EC) No 684/2009</t>
+          <t>Electronic administrative document (e-AD), as referred to in Article 3 of Reg. (EU) 2022/1636</t>
         </is>
       </c>
       <c r="C149" s="3" t="n"/>
@@ -32543,7 +33475,7 @@
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Fallback Accompanying Document for movements of excise goods under suspension of excise duty (FAD), as referred to in Article 8(1) Reg. (EC) No 684/2009</t>
+          <t>Fallback Document for movements of excise goods under suspension of excise duty, as referred to in Article 9(1) of Commission Delegated Regulation (EU) 2022/1636</t>
         </is>
       </c>
       <c r="C153" s="3" t="n"/>
@@ -32669,7 +33601,7 @@
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Certificate issued by the USA wet milling industry in accordance with Regulation (EC) No 1375/2007 before 7.3.2017</t>
+          <t>Certificate issued by the USA wet milling industry</t>
         </is>
       </c>
       <c r="C162" s="2" t="n"/>
@@ -32767,7 +33699,7 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Common entry document (CED) (model of which is set out in Annex II of the Regulation (EC) No 669/2009 (OJ L 194))</t>
+          <t>Common Health Entry Document for Feed and Food of Non-Animal Origin (CHED-D) (as set out in Part 2, Section D of Annex II to Commission Implementing Regulation (EU) 2019/1715 (OJ L 261))</t>
         </is>
       </c>
       <c r="C169" s="3" t="n"/>
@@ -33061,7 +33993,7 @@
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Commercial invoice within the framework of undertakings and Export Undertaking Certificate issued by CCCME (Annex III of Regulation 513/2013 as amended by Regulation 748/2013)</t>
+          <t>Commercial invoice within the framework of undertakings and Export Undertaking Certificate</t>
         </is>
       </c>
       <c r="C190" s="2" t="n"/>
@@ -33103,7 +34035,7 @@
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Commercial invoice and mill certificate as defined in Regulation 2015/1953</t>
+          <t>Commercial invoice and mill certificate as defined in Regulation 2022/58</t>
         </is>
       </c>
       <c r="C193" s="3" t="n"/>
@@ -33453,7 +34385,7 @@
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Certificate of analysis (Regulation (EC) No 1064/2009)</t>
+          <t>Certificate of analysis (Commission Implementing Regulation (EU) 2020/1988)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n"/>
@@ -33467,7 +34399,7 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Certificate of conformity (Regulation (EC) No 1064/2009)</t>
+          <t>Certificate of conformity (Commission Implementing Regulation (EU) 2020/1988)</t>
         </is>
       </c>
       <c r="C219" s="3" t="n"/>
@@ -33831,7 +34763,7 @@
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>Summary declaration for temporary storage</t>
+          <t>Temporary storage declaration</t>
         </is>
       </c>
       <c r="C245" s="3" t="n"/>
@@ -33985,7 +34917,7 @@
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>Common Veterinary Entry Document (CVED) in accordance with Regulation (EC) No. 136/2004, used for veterinary check on products</t>
+          <t>Common Health Entry Document for Products (CHED-P) (as set out in Part 2, Section B of Annex II to Commission Implementing Regulation (EU) 2019/1715 (OJ L 261))</t>
         </is>
       </c>
       <c r="C256" s="2" t="n"/>
@@ -33999,7 +34931,7 @@
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>Preference certificate of origin (declaration of preferential origin on the invoice; EUR.2)</t>
+          <t>Invoice declaration or origin declaration made out by any exporter on invoice or any other commercial document</t>
         </is>
       </c>
       <c r="C257" s="3" t="n"/>
@@ -34265,7 +35197,7 @@
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>Certificate EUR 1. bearing the endorsement "Derogation-Decision No 1/2012 of the ESA-EU Customs Cooperation Committee of 29/11/2012" or "Dérogation - Décision No 1/2012 du Comité de Coopération Douanière AfOA-UE du 29/11/2012"</t>
+          <t>Certificate EUR 1. bearing the endorsement ''Derogation — Decision No 1/2022 of the ESA-EU Customs Cooperation Committee of 19 October 2022'' or ''Dérogation — Décision no 1/2022 du comité de coopération douanière AfOA-UE du 19 octobre 2022''</t>
         </is>
       </c>
       <c r="C276" s="2" t="n"/>
@@ -34363,7 +35295,7 @@
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>Movement certificate EUR. 1 bearing the following statement in English in Box 7: "REVISED RULES"</t>
+          <t>Movement certificate EUR. 1 bearing the following statement in English in Box 7: 'REVISED RULES'</t>
         </is>
       </c>
       <c r="C283" s="3" t="n"/>
@@ -34377,7 +35309,7 @@
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>Origin declaration bearing the following statement in English after the text of the declaration: "REVISED RULES"</t>
+          <t>Origin declaration bearing the following statement in English after the text of the declaration: 'REVISED RULES'</t>
         </is>
       </c>
       <c r="C284" s="2" t="n"/>
@@ -34419,7 +35351,7 @@
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>Movement certificate EUR. 1 - Movement certificate EUR-MED (under the condition that in box 7 the remark "no cumulation applied" is marked with a cross) stating European Community origin, in the context of the agreement between the European Economic Community and the Swiss Confederation (codification/key: U090)</t>
+          <t>Movement certificate EUR. 1 or Movement certificate EUR-MED (under the condition that in box 7 the remark &amp;quot;no cumulation applied&amp;quot; is marked with a cross) stating European Community origin, in the context of the agreement between the European Union and the Swiss Confederation</t>
         </is>
       </c>
       <c r="C287" s="3" t="n"/>
@@ -34433,7 +35365,7 @@
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Invoice declaration - Invoice declaration EUR-MED (under the condition the declaration contains the remark "no cumulation applied"), stating European Community origin, in the context of the agreement between the European Economic Community and the Swiss Confederation</t>
+          <t>Invoice declaration or Invoice declaration EUR-MED (under the condition the declaration contains the remark ''no cumulation applied'', stating European Community origin, in the context of the agreement between the European Union and the Swiss Confederation</t>
         </is>
       </c>
       <c r="C288" s="2" t="n"/>
@@ -34559,7 +35491,7 @@
       </c>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>Statement on Origin (Article ORIG.19 of the EU-UK TCA)</t>
+          <t>Statement on Origin (Article 56 (4) point (a) of the EU-UK TCA)</t>
         </is>
       </c>
       <c r="C297" s="3" t="n"/>
@@ -34573,7 +35505,7 @@
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>Importer’s knowledge (Article ORIG.21 of the EU-UK TCA)</t>
+          <t>Importer’s knowledge (Article 58 of the EU-UK TCA)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n"/>
@@ -34587,7 +35519,7 @@
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>Statement on Origin for multiple shipments of identical products (Article ORIG.19 of the EU-UK TCA)</t>
+          <t>Statement on Origin for multiple shipments of identical products (Article 56 (4) point (b) of the EU-UK TCA)</t>
         </is>
       </c>
       <c r="C299" s="3" t="n"/>
@@ -34797,7 +35729,7 @@
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>Replacement origin declaration or replacement invoice declaration made out by an approved exporter where the total value of originating product in the initial consignment to be split does not exceed the applicable value threshold, according to Art. 69(2a) of Reg. 2015/2447</t>
+          <t>Replacement origin declaration, replacement invoice declaration or replacement statement on origin made out by an APPROVED exporter or by a REGISTERED exporter where the total value of originating product in the initial consignment to be split does not exceed the applicable value threshold, according to Art. 69(2a) of Reg. 2015/2447</t>
         </is>
       </c>
       <c r="C314" s="2" t="n"/>
@@ -34811,7 +35743,7 @@
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t>Replacement origin declaration or replacement invoice declaration made out by an approved exporter where the total value of originating product in the initial consignment to be split exceeds the applicable value threshold, according to Art. 69(2a) of Reg. 2015/2447</t>
+          <t>Replacement origin declaration, replacement invoice declaration or replacement statement on origin made out by an APPROVED exporter or by a REGISTERED exporter where the total value of originating product in the initial consignment to be split exceeds the applicable value threshold, according to Art. 69(2a) of Reg. 2015/2447</t>
         </is>
       </c>
       <c r="C315" s="3" t="n"/>
@@ -34853,7 +35785,7 @@
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>Certificate EUR.1 bearing the endorsement "Derogation — Decision No 1/2019 of the ESA-EU Customs Cooperation Committee of 14 January 2019" or "Dérogation — Décision no 1/2019 du Comité de Coopération Douanière AfOA-UE du 14 janvier 2019"</t>
+          <t>Certificate EUR.1 bearing the endorsement "Derogation - Decision No 1/2021 of the ESA-EU Customs Cooperation Committee of 2 August 2021" or "Dérogation - Décision n° 1/2021 du Comité de Coopération Douanière AfOA-UE du 2 août 2021"</t>
         </is>
       </c>
       <c r="C318" s="2" t="n"/>
@@ -38664,7 +39596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39001,55 +39933,6 @@
       </c>
       <c r="C23" s="3" t="n"/>
       <c r="D23" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1782</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>No obligation to fill out GRN</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -39125,6 +40008,55 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>No obligation to fill out GRN</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39227,7 +40159,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IP and the relevant authorisation number or INF number</t>
+          <t>Discharge of inward processing. IP’ and the relevant authorisation number or INF number</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -39241,7 +40173,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>IP CPM</t>
+          <t>Discharge of inward processing (specific commercial policy measures)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -39255,7 +40187,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TA and the relevant authorisation number</t>
+          <t>Discharge of temporary admission. ‘TA’ and the relevant authorisation number</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -39658,7 +40590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40001,7 +40933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40078,7 +41010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -46017,7 +46949,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>B01</t>
+          <t>Re-import after outward processing according to Article 260a of the Code.</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -46955,7 +47887,7 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Presents customarily given on the occasion of a marriage entered for free circulation in the last two months before the wedding (duty relief subject to the lodging of appropriate security)</t>
+          <t>Presents customarily given on the occasion of a marriage entered for free circulation not earlier than two months before the wedding (duty relief subject to lodging of appropriate guarantee)</t>
         </is>
       </c>
       <c r="C99" s="3" t="n"/>
@@ -47865,7 +48797,7 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>F50</t>
+          <t>Import of goods contained in consignments, for which the standard 2,5 % flat rate ad valorem customs duty is applicable set out in Part one, Section II, letter D (1) and (2) of Council Regulation (EEC) No 2658/87 of 23 July 1987 on the tariff and statistical nomenclature and on the Common Customs Tariff</t>
         </is>
       </c>
       <c r="C164" s="2" t="n"/>
@@ -47879,7 +48811,7 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>F51</t>
+          <t>Import of goods contained in consignments, for which the person concerned requests to apply the customs duties appropriate to specific goods instead of the standard 2,5 % flat rate ad valorem customs duty set out in Part one, Section II, letter D (3) of Council Regulation (EEC) No 2658/87 of 23 July 1987 on the tariff and statistical nomenclature and on the Common Customs Tariff.</t>
         </is>
       </c>
       <c r="C165" s="3" t="n"/>
@@ -47893,7 +48825,7 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>Relief from import duty for returned goods that have been exported from Turkey (Article 30 of the Decision No 1/2006 of the EC-Turkey Customs Cooperation Committee of 26 September 2006 laying down detailed rules for the application of Decision No 1/95 of the EC-Turkey Association Council (OJ L 265, 26.9.2006, p. 18)).</t>
         </is>
       </c>
       <c r="C166" s="2" t="n"/>

--- a/Codelists/Codelists - Import.xlsx
+++ b/Codelists/Codelists - Import.xlsx
@@ -18,39 +18,42 @@
     <sheet name="10035" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="10038" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="10057" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="10146" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="10171" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="10175" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="10183" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="10187" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="10203" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="10209" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="10213" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="10214" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="10218" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="10223" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="10226" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="10227" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="10230" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="10234" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="10236" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="10238" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="10239" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="10240" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="10242" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="10243" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="10250" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="10268" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="10272" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="10273" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="10274" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="10275" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="10276" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="10282" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="11000" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="11034" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="11038" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="50001" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="10066" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="10146" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="10171" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="10175" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="10183" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="10187" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="10203" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="10209" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="10213" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="10214" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="10218" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="10223" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="10226" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="10227" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="10230" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="10234" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="10236" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="10238" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="10239" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="10240" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="10242" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="10243" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="10250" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="10268" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="10272" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="10273" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="10274" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="10275" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="10276" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="10282" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="11000" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="11034" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="11038" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="11068" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="11082" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="50001" sheetId="47" state="visible" r:id="rId47"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -900,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,7 +935,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Corrected  by Customs</t>
+          <t>Corrected by Customs (No Risk Assessment)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -955,12 +958,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Corrected - by DMS</t>
+          <t>Corrected by Customs (Risk Assessment)</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -969,12 +972,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation</t>
+          <t>Corrected - by DMS</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -983,12 +986,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 22 Goods, which has been sold under a distance contract and have been released for free circulation, have been returned</t>
+          <t>Partial invalidation</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -997,12 +1000,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 23 Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
+          <t>Partial invalidation - IM 22 Goods, which has been sold under a distance contract and have been released for free circulation, have been returned</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -1011,12 +1014,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 24 Where goods have been erroneously declared under more than one customs declaration</t>
+          <t>Partial invalidation - IM EX TR 23 Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -1025,12 +1028,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 25 Postal low value consignments returned on basis of barcode S10</t>
+          <t>Partial invalidation - IM EX TR 24 Where goods have been erroneously declared under more than one customs declaration</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -1039,12 +1042,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 26 Accepted declaration with goods to be placed under another customs procedure</t>
+          <t>Partial invalidation - IM 25 Postal low value consignments returned on basis of barcode S10</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -1053,12 +1056,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 27 Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
+          <t>Partial invalidation - IM EX TR 26 Accepted declaration with goods to be placed under another customs procedure</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -1067,12 +1070,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 28 Where goods to be destroyed, abandoned to the State, seized or confiscated are already subject to a customs declaration.</t>
+          <t>Partial invalidation - IM 27 Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -1081,12 +1084,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 29 Goods declared in error to a customs procedure incurring a customs debt</t>
+          <t>Partial invalidation - IM EX TR 28 Where goods to be destroyed, abandoned to the State, seized or confiscated are already subject to a customs declaration.</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -1095,12 +1098,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 30 Goods declared in error instead of other goods incurring a customs debt</t>
+          <t>Partial invalidation - IM 29 Goods declared in error to a customs procedure incurring a customs debt</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -1109,12 +1112,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX 31 Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+          <t>Partial invalidation - IM 30 Goods declared in error instead of other goods incurring a customs debt</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -1123,12 +1126,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Corrected by declarant</t>
+          <t>Partial invalidation - IM EX 31 Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -1137,12 +1140,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Addition of missing data element (obsolete- no longer needed)</t>
+          <t>Corrected by declarant</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -1151,12 +1154,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Mistaken Customs Procedure</t>
+          <t>Addition of missing data element (obsolete- no longer needed)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
@@ -1165,16 +1168,30 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Special circumstances that do not justify placement</t>
+          <t>Mistaken Customs Procedure</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Special circumstances that do not justify placement</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1182,6 +1199,335 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>IM 122 - Goods, which have been sold under a distance contract and have been released for free circulation, have been returned</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 123 - Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 124 - Where goods have been erroneously declared under more than one customs declaration</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>IM 125 - Postal low value consignments returned on basis of barcode S10</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 126 - Accepted declaration with goods to be placed under another customs procedure</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IM 127 - Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 128 - Where goods to be destroyed, abandoned to the State, seized or confiscated are already subject to a customs declaration</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IM 129 - Goods declared in error to a customs procedure incurring a customs debt</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>IM 130 - Goods declared in error instead of other goods incurring a customs debt</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IM, EX 131 - Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>EX 132 - Where the discrepancy in the nature of the goods released for export, re-export or outward processing compared to those presented to the customs office of exit, the customs office of export, shall invalidate the declaration concerned</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>EX 133 - Where, after a period of 150 days from the date of release of the goods, the customs office of export has received neither information on the exit of the goods nor evidence that the goods have left the customs territory of the Union</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>EX 134 - The declarant informs the customs office of export, that the goods released for export, re-export or outwards processing, will not leave the Union</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>EX 135 - Where union goods have been placed under the customs warehousing procedure in accordance with article 237(2) of the code and can no longer be placed under that procedure in accordance with article 237(2) of the code</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>EX 136 - The customs office of export has been informed that the goods were not taken out of the territory of the Union</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>EX 138 - Goods for which an exit summary declaration has been lodged, which have not yet left the Union</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>EX 139 - Goods for which a re-export notification has been lodged, which have not yet left the Union</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>EX 141 - Where the goods for which an exit summary declaration has been lodged are not taken out of the customs territory of the Union within 150 days after the lodging of the declaration</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>EX 142 - Where the goods for which a re-export notification has been lodged are not taken out of the customs territory of the Union within 150 days after the lodging of the declaration</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IM 145 Invalidation of declaration for temperary storage, where the goods has not yet been presented to the customs authorities, upon application by the declarant</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>IM 146 Invalidation of declaration for temperory storage, where the goods has not yet been presented to the customs authorities 30 days after the declaration was lodged</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1636,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4191,7 +4537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4416,181 +4762,6 @@
       </c>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>BOD</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Bill Of Discharge</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>BULK_GPR</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Bulk GPR</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>COR</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Request Correction/Amendment</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>GPR</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Notify Goods Presentation</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>I2GPR</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Present Goods via I2 declaration</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>INV</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Request Invalidation</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>INV4C</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Request Invalidation &amp; Remission (4c)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>RDG</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Request for Disposal of Goods</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>RRA</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Repayment/Remission 4c</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>SUP</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Supplementary declaration after incomplete</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4630,12 +4801,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>IM 122 - Goods, which have been sold under a distance contract and have been released for free circulation, have been returned</t>
+          <t>Bill Of Discharge</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -4644,12 +4815,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>BULK_GPR</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>IM, EX, TR 123 - Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
+          <t>Bulk GPR</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -4658,12 +4829,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>IM, EX, TR 124 - Where goods have been erroneously declared under more than one customs declaration</t>
+          <t>Request Correction/Amendment</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -4672,12 +4843,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>GPR</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IM 125 - Postal low value consignments returned on basis of barcode S10</t>
+          <t>Notify Goods Presentation</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -4686,12 +4857,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>I2GPR</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>IM, EX, TR 126 - Accepted declaration with goods to be placed under another customs procedure</t>
+          <t>Present Goods via I2 declaration</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -4700,12 +4871,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IM 127 - Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
+          <t>Request Invalidation</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -4714,12 +4885,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>INV4C</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>IM 129 - Goods declared in error to a customs procedure incurring a customs debt</t>
+          <t>Request Invalidation &amp; Remission (4c)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -4728,12 +4899,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>RDG</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IM 130 - Goods declared in error instead of other goods incurring a customs debt</t>
+          <t>Request for Disposal of Goods</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -4742,12 +4913,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>RRA</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>IM, EX 131 - Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+          <t>Repayment/Remission 4c</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -4756,12 +4927,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>SUP</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IM 145 Invalidation of declaration for temperary storage, where the goods has not yet been presented to the customs authorities, upon application by the declarant</t>
+          <t>Supplementary declaration after incomplete</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -4773,6 +4944,237 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>IM 122 - Goods, which have been sold under a distance contract and have been released for free circulation, have been returned</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 123 - Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 124 - Where goods have been erroneously declared under more than one customs declaration</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>IM 125 - Postal low value consignments returned on basis of barcode S10</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX, TR 126 - Accepted declaration with goods to be placed under another customs procedure</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>IM 127 - Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IM 129 - Goods declared in error to a customs procedure incurring a customs debt</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IM 130 - Goods declared in error instead of other goods incurring a customs debt</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>IM, EX 131 - Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>EX 134 - The declarant informs the customs office of export, that the goods released for export, re-export or outwards processing, will not leave the Union</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>EX 135 - Where union goods have been placed under the customs warehousing procedure in accordance with article 237(2) of the code and can no longer be placed under that procedure in accordance with article 237(2) of the code</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>EX 138 - Goods for which an exit summary declaration has been lodged, which have not yet left the Union</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>EX 139 - Goods for which a re-export notification has been lodged, which have not yet left the Union</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IM 145 Invalidation of declaration for temperary storage, where the goods has not yet been presented to the customs authorities, upon application by the declarant</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8335,7 +8737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9120,139 +9522,6 @@
       </c>
       <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Public customs warehouse type I</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Public customs warehouse type II</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Public customs warehouse type III</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Private customs warehouse</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Storage facilities for the temporary storage of goods</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Non-customs warehouse</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Free zone</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10235,7 +10504,7 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>%</t>
         </is>
       </c>
       <c r="C69" s="3" t="n"/>
@@ -10415,6 +10684,139 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Public customs warehouse type I</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Public customs warehouse type II</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Public customs warehouse type III</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Private customs warehouse</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Storage facilities for the temporary storage of goods</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Non-customs warehouse</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Free zone</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10603,7 +11005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11548,7 +11950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11975,7 +12377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12192,7 +12594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12269,7 +12671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12906,7 +13308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13389,7 +13791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17260,7 +17662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17429,125 +17831,6 @@
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>UN/LOCODE</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Customs office identifier</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>GPS coordinates</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>EORI number</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Authorisation number</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23279,6 +23562,125 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>UN/LOCODE</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Customs office identifier</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>GPS coordinates</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>EORI number</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Authorisation number</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23364,7 +23766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23637,7 +24039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23728,7 +24130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23847,7 +24249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25296,7 +25698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30273,7 +30675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30826,7 +31228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31323,7 +31725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39590,349 +39992,6 @@
       </c>
       <c r="C589" s="3" t="n"/>
       <c r="D589" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>C613</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Consignment Note CIM T2</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>C614</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Consignment Note CIM T2F</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>N235</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Container list</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>N270</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Delivery Note</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>N271</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Packing list</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>N325</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Proforma invoice</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>N380</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Commercial invoice</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>N703</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>House waybill</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>N704</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Master bill of lading</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>N705</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Bill of lading</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>N710</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Bill of lading (T1)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>N714</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>House bill of lading</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>N720</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Consignment note CIM</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>N722</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Road list - SMGS</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>N730</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Road consignment note</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>N740</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Air waybill</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>N741</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Master airwaybill</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>N750</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Movement by post including parcel post</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>N760</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Multimodal / combined transport document</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>N785</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Cargo manifest</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>N787</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Bordereau (cargo load list)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>N955</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>ATA carnet</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40008,6 +40067,349 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>C613</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Consignment Note CIM T2</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>C614</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Consignment Note CIM T2F</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>N235</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Container list</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>N270</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Delivery Note</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>N271</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Packing list</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>N325</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Proforma invoice</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>N380</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Commercial invoice</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>N703</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>House waybill</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>N704</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Master bill of lading</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>N705</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Bill of lading</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>N710</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Bill of lading (T1)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>N714</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>House bill of lading</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>N720</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Consignment note CIM</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>N722</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Road list - SMGS</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>N730</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Road consignment note</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>N740</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Air waybill</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>N741</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Master airwaybill</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>N750</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Movement by post including parcel post</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>N760</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Multimodal / combined transport document</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>N785</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Cargo manifest</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>N787</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Bordereau (cargo load list)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>N955</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>ATA carnet</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40051,7 +40453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40590,7 +40992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40933,7 +41335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -41010,7 +41412,735 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>C057</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Copy of the declaration of conformity - Option A, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>C079</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Copy of the declaration of conformity - Option B, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>C082</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Copy of the declaration of conformity - Option C, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>C085</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>CHED-PP - Common Health Entry Document for Plants and Plant Products</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>C400</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Presentation of the required 'CITES' certificate</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>CITES Export permit or Re-export certificate issued by a third country</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>C638</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>CITES Import permit</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>C640</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>CHED-A - Common Health Entry Document for Animals</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>C644</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>COI - Certificate of inspection for organic products</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>C646</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>NOA - Notification of Arrival (Common Health Entry Document for Food and Feed of Non-Animal Origin, Food Contact Materials and Plant Protection Products)</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>C678</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>CHED-D - Common Health Entry Document for Feed and Food of Non-Animal Origin</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>C690</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>FLEGT - Forest Law Enforcement, Governance and Trade</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>E013</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>ODS Export - Export license "controlled substances" (ozone), issued by the Commission</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>L049</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ICGL - Import licence for cultural goods, issued in accordance with Article 4 of Regulation (EU) 2019/880</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>L050</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>ICGS - Importer statement for cultural goods (Article 5 of Regulation (EU) 2019/880)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>L065</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ICGS - Importer statement for cultural goods, presented in lieu of a licence, for cultural goods that have been placed under the temporary admission procedure (Article 3.5 of Regulation (EU) 2019/880)</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>L100</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>ODS Import - Import license "controlled substances" (ozone), issued by the Commission</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>N853</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>CHED-P - Common Health Entry Document for Animal Products</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>X060</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>DUES Individual Export Authorisation - Article 12(1)(a) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>X061</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU001 - ANNEX II A - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>X062</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU002 - ANNEX II B - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>X063</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU003 - ANNEX II C - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>X064</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU004 - ANNEX II D - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>X065</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU005 - ANNEX II E - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>X066</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU006 - ANNEX II F - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>X067</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU007 - ANNEX II G - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>X068</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU008 - ANNEX II H - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>X070</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>DUES Global Export Authorisation - referred to in Article 12(1)(b) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>X071</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>DUES National General Export Authorisations in national Official Journals - ANNEX III C - referred to in Article 12(6) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>X072</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>DUES Transit Licence for dual Use Items - referred to in Article 7 of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Y120</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Undertaking importing less than 100 tonnes of CO2 equivalent of hydrofluorocarbons per year and exempted from the reduction of the quantity of hydrofluorocarbons placed on the EU market according to article 15.2 first sub paragraph</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Y123</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>FGAS - Undertaking registered in the F-Gas Portal according to Article 20 of Regulation (EU) 2024/573/573</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Y124</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Undertaking importing smaller amount of fluorinated greenhouse gases per year than that specified in Article 19.1 for bulk imports and 19.4 for products and equipment imports, and therefore not covered by the registration requirement</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Y125</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Import falling under Article 15.1 of Regulation (EU) N° 517/2014 on the reduction of the quantity of hydrofluorocarbons placed on the EU market</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Y128</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>CBAM - Unique Account Number of the Authorised CBAM Declarant, in accordance with Article 16.1 of Regulation (EU) 2023/956</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Y139</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>ICGD - Derogation for goods imported as per Article 3.4(b) and (c) of Regulation (EU) 2019/880</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Y152</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Y154</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Art.11.3 Reg. 2024/573</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Y161</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from export prohibition according to Article 22.3, second subparagraph of Regulation (EU) 2024/573</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Y951</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2 (a) to (f) of Regulation (EU) No 517/2014</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Y972</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Y986</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) N° 517/2014</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Y121</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>FGAS Tones of CO2 equivalent of bulk gases and of gases contained in products or equipment, and parts thereof</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Y163</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>FGAS Net mass of F-gases charged in products and equipment</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Y797</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ODS - Licensing system registration identification number as defined in Article 17.3 (a)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Y798</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>ODS - Declaration of net mass of ozone -depleting substance(s), when included in products and equipment</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Y799</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>ODS - net mass of the ODS multiplied by the ODP of the ozone-depleting substance(s), also when included in products and equipment</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Codelists/Codelists - Import.xlsx
+++ b/Codelists/Codelists - Import.xlsx
@@ -54,9 +54,10 @@
     <sheet name="11000" sheetId="45" state="visible" r:id="rId45"/>
     <sheet name="11034" sheetId="46" state="visible" r:id="rId46"/>
     <sheet name="11038" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="11068" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="11082" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="50001" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="11052" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="11068" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="11082" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="50001" sheetId="51" state="visible" r:id="rId51"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26197,7 +26198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D358"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27330,12 +27331,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>Y129</t>
+          <t>Y128</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the provisions of Regulation (EU) 2023/1115 on deforestation and forest degradation</t>
+          <t>CBAM - Unique Account Number of the Authorised CBAM Declarant, in accordance with Article 16.1 of Regulation (EU) 2023/956</t>
         </is>
       </c>
       <c r="C81" s="3" t="n"/>
@@ -27344,12 +27345,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Y132</t>
+          <t>Y129</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the provisions of Regulation (EU) 2023/1115 on deforestation and forest degradation by virtue of paragraph 2 of Article 1</t>
+          <t>Goods other than those falling under the provisions of Regulation (EU) 2023/1115 on deforestation and forest degradation</t>
         </is>
       </c>
       <c r="C82" s="2" t="n"/>
@@ -27358,12 +27359,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>Y133</t>
+          <t>Y132</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Exemption from the provisions of Regulation (EU) 2023/1115 on deforestation and forest degradation by virtue of the second explanatory paragraph of Annex I (goods produced from material that has completed its lifecycle)</t>
+          <t>Exemption from the provisions of Regulation (EU) 2023/1115 on deforestation and forest degradation by virtue of paragraph 2 of Article 1</t>
         </is>
       </c>
       <c r="C83" s="3" t="n"/>
@@ -27372,12 +27373,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Y138</t>
+          <t>Y133</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
+          <t>Exemption from the provisions of Regulation (EU) 2023/1115 on deforestation and forest degradation by virtue of the second explanatory paragraph of Annex I (goods produced from material that has completed its lifecycle)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n"/>
@@ -27386,12 +27387,12 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Y139</t>
+          <t>Y138</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods under temporary admission as per Article 3.4(c) of Regulation (EU) 2019/880</t>
+          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C85" s="3" t="n"/>
@@ -27400,12 +27401,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>Y141</t>
+          <t>Y139</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Exemption for operators, as defined in Article 38(3) of Regulation (EU) 2023/1115</t>
+          <t>ICGD - Derogation for goods under temporary admission as per Article 3.4(c) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C86" s="2" t="n"/>
@@ -27414,12 +27415,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Y142</t>
+          <t>Y141</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Exemption for non-commercial activity (Article 2 (15), 2(17) and 2(18) of Regulation (EU) 2023/1115)</t>
+          <t>Exemption for operators, as defined in Article 38(3) of Regulation (EU) 2023/1115</t>
         </is>
       </c>
       <c r="C87" s="3" t="n"/>
@@ -27428,12 +27429,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Y150</t>
+          <t>Y142</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Exemption by virtue paragraph 2 Article 2 of Regulation (EU) 649/2012</t>
+          <t>Exemption for non-commercial activity (Article 2 (15), 2(17) and 2(18) of Regulation (EU) 2023/1115)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n"/>
@@ -27442,12 +27443,12 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Y151</t>
+          <t>Y150</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Goods with EU origin coming from outermost regions, according to the relevant EU legislation</t>
+          <t>Exemption by virtue paragraph 2 Article 2 of Regulation (EU) 649/2012</t>
         </is>
       </c>
       <c r="C89" s="3" t="n"/>
@@ -27456,12 +27457,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Y152</t>
+          <t>Y151</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
+          <t>Goods with EU origin coming from outermost regions, according to the relevant EU legislation</t>
         </is>
       </c>
       <c r="C90" s="2" t="n"/>
@@ -27470,12 +27471,12 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Y154</t>
+          <t>Y152</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Article 11.3 of Regulation (EU) 2024/573</t>
+          <t>Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C91" s="3" t="n"/>
@@ -27484,12 +27485,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Y155</t>
+          <t>Y154</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Products exported directly or indirectly from the Russian Federation or Belarus</t>
+          <t>Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Article 11.3 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C92" s="2" t="n"/>
@@ -27498,12 +27499,12 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Y160</t>
+          <t>Y155</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the provisions of Regulation (EU) 2024/573</t>
+          <t>Products exported directly or indirectly from the Russian Federation or Belarus</t>
         </is>
       </c>
       <c r="C93" s="3" t="n"/>
@@ -27512,12 +27513,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Y162</t>
+          <t>Y160</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the presentation of a valid licence to the customs authorities for the import or exports of products and equipment that are personal effects (Article 22(1), second subparagraph of Regulation (UE) 2024/573)</t>
+          <t>Goods other than those falling under the provisions of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C94" s="2" t="n"/>
@@ -27526,12 +27527,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Y163</t>
+          <t>Y162</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Net mass of fluorinated greenhouse gases charged in products and equipment</t>
+          <t>Exemption from the presentation of a valid licence to the customs authorities for the import or exports of products and equipment that are personal effects (Article 22(1), second subparagraph of Regulation (UE) 2024/573)</t>
         </is>
       </c>
       <c r="C95" s="3" t="n"/>
@@ -27540,12 +27541,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Y164</t>
+          <t>Y163</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Goods labelled according to the provisions of Article 12, paragraph 1 and 9 of Regulation (EU) 2024/573</t>
+          <t>Net mass of fluorinated greenhouse gases charged in products and equipment</t>
         </is>
       </c>
       <c r="C96" s="2" t="n"/>
@@ -27554,12 +27555,12 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Y165</t>
+          <t>Y164</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Special entries on the statement on origin made out by the exporter</t>
+          <t>Goods labelled according to the provisions of Article 12, paragraph 1 and 9 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C97" s="3" t="n"/>
@@ -27568,12 +27569,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Y166</t>
+          <t>Y165</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Metered dose inhalers labelling according to the provisions of Article 12 of Regulation (EU) 2024/573, submitted to special approval by the European Medicines Agency or national authorities - See footnote CD807</t>
+          <t>Special entries on the statement on origin made out by the exporter</t>
         </is>
       </c>
       <c r="C98" s="2" t="n"/>
@@ -27582,12 +27583,12 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Y167</t>
+          <t>Y166</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition according to Article 11.5 of Regulation (EU) 2024/573 (goods described in the associated TM footnote)</t>
+          <t>Metered dose inhalers labelling according to the provisions of Article 12 of Regulation (EU) 2024/573, submitted to special approval by the European Medicines Agency or national authorities - See footnote CD807</t>
         </is>
       </c>
       <c r="C99" s="3" t="n"/>
@@ -27596,12 +27597,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>Y170</t>
+          <t>Y167</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
+          <t>Exemption from import prohibition according to Article 11.5 of Regulation (EU) 2024/573 (goods described in the associated TM footnote)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n"/>
@@ -27610,12 +27611,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Y171</t>
+          <t>Y170</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C101" s="3" t="n"/>
@@ -27624,12 +27625,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>Y172</t>
+          <t>Y171</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C102" s="2" t="n"/>
@@ -27638,12 +27639,12 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Y173</t>
+          <t>Y172</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C103" s="3" t="n"/>
@@ -27652,12 +27653,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>Y174</t>
+          <t>Y173</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C104" s="2" t="n"/>
@@ -27666,12 +27667,12 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Y175</t>
+          <t>Y174</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C105" s="3" t="n"/>
@@ -27680,12 +27681,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>Y176</t>
+          <t>Y175</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C106" s="2" t="n"/>
@@ -27694,12 +27695,12 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Y177</t>
+          <t>Y176</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C107" s="3" t="n"/>
@@ -27708,12 +27709,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>Y178</t>
+          <t>Y177</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Dental amalgam used for specific medical needs</t>
+          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C108" s="2" t="n"/>
@@ -27722,12 +27723,12 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Y185</t>
+          <t>Y178</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
+          <t>Dental amalgam used for specific medical needs</t>
         </is>
       </c>
       <c r="C109" s="3" t="n"/>
@@ -27736,12 +27737,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>Y200</t>
+          <t>Y185</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Belgium - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
         </is>
       </c>
       <c r="C110" s="2" t="n"/>
@@ -27750,12 +27751,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Y201</t>
+          <t>Y200</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Bulgaria - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Belgium - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C111" s="3" t="n"/>
@@ -27764,12 +27765,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>Y202</t>
+          <t>Y201</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Denmark - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Bulgaria - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n"/>
@@ -27778,12 +27779,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Y203</t>
+          <t>Y202</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Germany - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Denmark - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C113" s="3" t="n"/>
@@ -27792,12 +27793,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>Y204</t>
+          <t>Y203</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Estonia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Germany - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n"/>
@@ -27806,12 +27807,12 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Y205</t>
+          <t>Y204</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Ireland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Estonia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C115" s="3" t="n"/>
@@ -27820,12 +27821,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>Y206</t>
+          <t>Y205</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Greece - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Ireland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n"/>
@@ -27834,12 +27835,12 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Y207</t>
+          <t>Y206</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Spain - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Greece - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C117" s="3" t="n"/>
@@ -27848,12 +27849,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>Y208</t>
+          <t>Y207</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>France - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Spain - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n"/>
@@ -27862,12 +27863,12 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Y209</t>
+          <t>Y208</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Croatia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>France - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C119" s="3" t="n"/>
@@ -27876,12 +27877,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>Y210</t>
+          <t>Y209</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Italy - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Croatia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n"/>
@@ -27890,12 +27891,12 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Y211</t>
+          <t>Y210</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Cyprus - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Italy - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C121" s="3" t="n"/>
@@ -27904,12 +27905,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>Y212</t>
+          <t>Y211</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Latvia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Cyprus - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n"/>
@@ -27918,12 +27919,12 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Y213</t>
+          <t>Y212</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Lithuania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Latvia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C123" s="3" t="n"/>
@@ -27932,12 +27933,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>Y214</t>
+          <t>Y213</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Malta - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Lithuania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n"/>
@@ -27946,12 +27947,12 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Y215</t>
+          <t>Y214</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>The Netherlands - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Malta - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C125" s="3" t="n"/>
@@ -27960,12 +27961,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Y216</t>
+          <t>Y215</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Poland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>The Netherlands - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n"/>
@@ -27974,12 +27975,12 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Y217</t>
+          <t>Y216</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Portugal - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Poland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C127" s="3" t="n"/>
@@ -27988,12 +27989,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>Y218</t>
+          <t>Y217</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Romania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Portugal - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n"/>
@@ -28002,12 +28003,12 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Y219</t>
+          <t>Y218</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Slovenia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Romania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C129" s="3" t="n"/>
@@ -28016,12 +28017,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>Y220</t>
+          <t>Y219</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Finland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Slovenia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n"/>
@@ -28030,12 +28031,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Y221</t>
+          <t>Y220</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Sweden - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Finland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C131" s="3" t="n"/>
@@ -28044,12 +28045,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>Y223</t>
+          <t>Y221</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Exemption from safeguard measure by virtue of Art. 2 of Reg. (EU) 2019/67</t>
+          <t>Sweden - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n"/>
@@ -28058,12 +28059,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Y227</t>
+          <t>Y223</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
+          <t>Exemption from safeguard measure by virtue of Art. 2 of Reg. (EU) 2019/67</t>
         </is>
       </c>
       <c r="C133" s="3" t="n"/>
@@ -28072,12 +28073,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>Y228</t>
+          <t>Y227</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
+          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C134" s="2" t="n"/>
@@ -28086,12 +28087,12 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Y229</t>
+          <t>Y228</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
+          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
         </is>
       </c>
       <c r="C135" s="3" t="n"/>
@@ -28100,12 +28101,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>Y230</t>
+          <t>Y229</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C136" s="2" t="n"/>
@@ -28114,12 +28115,12 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Y231</t>
+          <t>Y230</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
+          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C137" s="3" t="n"/>
@@ -28128,12 +28129,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>Y232</t>
+          <t>Y231</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n"/>
@@ -28142,12 +28143,12 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Y235</t>
+          <t>Y232</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C139" s="3" t="n"/>
@@ -28156,12 +28157,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>Y300</t>
+          <t>Y235</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Council Decision 2013/798/CFSP concerning restrictive measures against the Central African Republic</t>
+          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C140" s="2" t="n"/>
@@ -28170,12 +28171,12 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Y301</t>
+          <t>Y300</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Goods excepted from the prohibition, according to Article 2.1 of Council Decision 2013/798/CFSP</t>
+          <t>Goods not concerned by Council Decision 2013/798/CFSP concerning restrictive measures against the Central African Republic</t>
         </is>
       </c>
       <c r="C141" s="3" t="n"/>
@@ -28184,12 +28185,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>Y698</t>
+          <t>Y301</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
+          <t>Goods excepted from the prohibition, according to Article 2.1 of Council Decision 2013/798/CFSP</t>
         </is>
       </c>
       <c r="C142" s="2" t="n"/>
@@ -28198,12 +28199,12 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Y699</t>
+          <t>Y698</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
+          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
         </is>
       </c>
       <c r="C143" s="3" t="n"/>
@@ -28212,12 +28213,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>Y703</t>
+          <t>Y699</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
+          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n"/>
@@ -28226,12 +28227,12 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Y704</t>
+          <t>Y703</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
+          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
         </is>
       </c>
       <c r="C145" s="3" t="n"/>
@@ -28240,12 +28241,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>Y705</t>
+          <t>Y704</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
+          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n"/>
@@ -28254,12 +28255,12 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Y706</t>
+          <t>Y705</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
+          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
         </is>
       </c>
       <c r="C147" s="3" t="n"/>
@@ -28268,12 +28269,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>Y707</t>
+          <t>Y706</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n"/>
@@ -28282,12 +28283,12 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Y708</t>
+          <t>Y707</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
         </is>
       </c>
       <c r="C149" s="3" t="n"/>
@@ -28296,12 +28297,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>Y709</t>
+          <t>Y708</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the European Union</t>
+          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n"/>
@@ -28310,12 +28311,12 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Y710</t>
+          <t>Y709</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the third country</t>
+          <t>Evidence of the date of initial importation into the European Union</t>
         </is>
       </c>
       <c r="C151" s="3" t="n"/>
@@ -28324,12 +28325,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>Y711</t>
+          <t>Y710</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Evidence of the date of final processing or manufacturing in the third country</t>
+          <t>Evidence of the date of initial importation into the third country</t>
         </is>
       </c>
       <c r="C152" s="2" t="n"/>
@@ -28338,12 +28339,12 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Y712</t>
+          <t>Y711</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
+          <t>Evidence of the date of final processing or manufacturing in the third country</t>
         </is>
       </c>
       <c r="C153" s="3" t="n"/>
@@ -28352,12 +28353,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>Y713</t>
+          <t>Y712</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
+          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n"/>
@@ -28366,12 +28367,12 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Y714</t>
+          <t>Y713</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
+          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
         </is>
       </c>
       <c r="C155" s="3" t="n"/>
@@ -28380,12 +28381,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>Y715</t>
+          <t>Y714</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Goods exported from Ukraine prior to 1 March 2014</t>
+          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n"/>
@@ -28394,12 +28395,12 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Y716</t>
+          <t>Y715</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Goods returned to their legitimate owners in Ukraine</t>
+          <t>Goods exported from Ukraine prior to 1 March 2014</t>
         </is>
       </c>
       <c r="C157" s="3" t="n"/>
@@ -28408,12 +28409,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>Y717</t>
+          <t>Y716</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
+          <t>Goods returned to their legitimate owners in Ukraine</t>
         </is>
       </c>
       <c r="C158" s="2" t="n"/>
@@ -28422,12 +28423,12 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Y718</t>
+          <t>Y717</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
+          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
         </is>
       </c>
       <c r="C159" s="3" t="n"/>
@@ -28436,12 +28437,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>Y719</t>
+          <t>Y718</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n"/>
@@ -28450,12 +28451,12 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Y720</t>
+          <t>Y719</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
         </is>
       </c>
       <c r="C161" s="3" t="n"/>
@@ -28464,12 +28465,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>Y721</t>
+          <t>Y720</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
+          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n"/>
@@ -28478,12 +28479,12 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Y722</t>
+          <t>Y721</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
         </is>
       </c>
       <c r="C163" s="3" t="n"/>
@@ -28492,12 +28493,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>Y723</t>
+          <t>Y722</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n"/>
@@ -28506,12 +28507,12 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Y724</t>
+          <t>Y723</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
+          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
         </is>
       </c>
       <c r="C165" s="3" t="n"/>
@@ -28520,12 +28521,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>Y725</t>
+          <t>Y724</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n"/>
@@ -28534,12 +28535,12 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Y726</t>
+          <t>Y725</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
+          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
         </is>
       </c>
       <c r="C167" s="3" t="n"/>
@@ -28548,12 +28549,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>Y727</t>
+          <t>Y726</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
+          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n"/>
@@ -28562,12 +28563,12 @@
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Y728</t>
+          <t>Y727</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
         </is>
       </c>
       <c r="C169" s="3" t="n"/>
@@ -28576,12 +28577,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>Y729</t>
+          <t>Y728</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n"/>
@@ -28590,12 +28591,12 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Y730</t>
+          <t>Y729</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
         </is>
       </c>
       <c r="C171" s="3" t="n"/>
@@ -28604,12 +28605,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>Y731</t>
+          <t>Y730</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
+          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n"/>
@@ -28618,12 +28619,12 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Y732</t>
+          <t>Y731</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
         </is>
       </c>
       <c r="C173" s="3" t="n"/>
@@ -28632,12 +28633,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>Y733</t>
+          <t>Y732</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
+          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n"/>
@@ -28646,12 +28647,12 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Y734</t>
+          <t>Y733</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
+          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
         </is>
       </c>
       <c r="C175" s="3" t="n"/>
@@ -28660,12 +28661,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>Y735</t>
+          <t>Y734</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n"/>
@@ -28674,12 +28675,12 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Y736</t>
+          <t>Y735</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C177" s="3" t="n"/>
@@ -28688,12 +28689,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>Y737</t>
+          <t>Y736</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C178" s="2" t="n"/>
@@ -28702,12 +28703,12 @@
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Y738</t>
+          <t>Y737</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C179" s="3" t="n"/>
@@ -28716,12 +28717,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>Y739</t>
+          <t>Y738</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C180" s="2" t="n"/>
@@ -28730,12 +28731,12 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Y740</t>
+          <t>Y739</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C181" s="3" t="n"/>
@@ -28744,12 +28745,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>Y741</t>
+          <t>Y740</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C182" s="2" t="n"/>
@@ -28758,12 +28759,12 @@
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Y742</t>
+          <t>Y741</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
         </is>
       </c>
       <c r="C183" s="3" t="n"/>
@@ -28772,12 +28773,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>Y743</t>
+          <t>Y742</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n"/>
@@ -28786,12 +28787,12 @@
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Y744</t>
+          <t>Y743</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
         </is>
       </c>
       <c r="C185" s="3" t="n"/>
@@ -28800,12 +28801,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>Y745</t>
+          <t>Y744</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n"/>
@@ -28814,12 +28815,12 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Y746</t>
+          <t>Y745</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
         </is>
       </c>
       <c r="C187" s="3" t="n"/>
@@ -28828,12 +28829,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>Y747</t>
+          <t>Y746</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C188" s="2" t="n"/>
@@ -28842,12 +28843,12 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Y748</t>
+          <t>Y747</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C189" s="3" t="n"/>
@@ -28856,12 +28857,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>Y750</t>
+          <t>Y748</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 267/2012, Annex II</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C190" s="2" t="n"/>
@@ -28870,12 +28871,12 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Y784</t>
+          <t>Y750</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 267/2012, Annex II</t>
         </is>
       </c>
       <c r="C191" s="3" t="n"/>
@@ -28884,12 +28885,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>Y785</t>
+          <t>Y784</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
+          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C192" s="2" t="n"/>
@@ -28898,12 +28899,12 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Y786</t>
+          <t>Y785</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
+          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C193" s="3" t="n"/>
@@ -28912,12 +28913,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>Y787</t>
+          <t>Y786</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n"/>
@@ -28926,12 +28927,12 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Y788</t>
+          <t>Y787</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C195" s="3" t="n"/>
@@ -28940,12 +28941,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>Y789</t>
+          <t>Y788</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n"/>
@@ -28954,12 +28955,12 @@
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Y790</t>
+          <t>Y789</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C197" s="3" t="n"/>
@@ -28968,12 +28969,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>Y791</t>
+          <t>Y790</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used for essential laboratory and analytical uses (articles 8, 13.1(c) (import) and article 14.1(a) (export) of regulation (EU) 2024/590), and for products and equipment (articles 11.1 and 13.1(j) (import) and 14.1(g) (export) of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n"/>
@@ -28982,12 +28983,12 @@
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Y792</t>
+          <t>Y791</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Substances, products, equipment, other than those falling within the scope of Regulation (EU) 2024/590</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used for essential laboratory and analytical uses (articles 8, 13.1(c) (import) and article 14.1(a) (export) of regulation (EU) 2024/590), and for products and equipment (articles 11.1 and 13.1(j) (import) and 14.1(g) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C199" s="3" t="n"/>
@@ -28996,12 +28997,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>Y793</t>
+          <t>Y792</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
+          <t>Substances, products, equipment, other than those falling within the scope of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C200" s="2" t="n"/>
@@ -29010,12 +29011,12 @@
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Y794</t>
+          <t>Y793</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
+          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C201" s="3" t="n"/>
@@ -29024,12 +29025,12 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>Y795</t>
+          <t>Y794</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
+          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n"/>
@@ -29038,12 +29039,12 @@
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Y796</t>
+          <t>Y795</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
+          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
         </is>
       </c>
       <c r="C203" s="3" t="n"/>
@@ -29052,12 +29053,12 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>Y797</t>
+          <t>Y796</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Licensing system registration identification number as defined in Article 17.3 (a) of Regulation (EU) 2024/590</t>
+          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C204" s="2" t="n"/>
@@ -29066,12 +29067,12 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Y798</t>
+          <t>Y797</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Declaration of net mass of ozone-depleting substance(s), when included in products and equipment</t>
+          <t>Licensing system registration identification number as defined in Article 17.3 (a) of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C205" s="3" t="n"/>
@@ -29080,12 +29081,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>Y799</t>
+          <t>Y798</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Net mass of the ozone-depleting substance multiplied by the ODP of the ozone-depleting substance(s), also when included in products and equipment</t>
+          <t>Declaration of net mass of ozone-depleting substance(s), when included in products and equipment</t>
         </is>
       </c>
       <c r="C206" s="2" t="n"/>
@@ -29094,12 +29095,12 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Y800</t>
+          <t>Y799</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Goods not consigned from Bangladesh</t>
+          <t>Net mass of the ozone-depleting substance multiplied by the ODP of the ozone-depleting substance(s), also when included in products and equipment</t>
         </is>
       </c>
       <c r="C207" s="3" t="n"/>
@@ -29108,12 +29109,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>Y801</t>
+          <t>Y800</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006</t>
+          <t>Goods not consigned from Bangladesh</t>
         </is>
       </c>
       <c r="C208" s="2" t="n"/>
@@ -29122,12 +29123,12 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Y802</t>
+          <t>Y801</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006 do not apply (see exemptions in articles 1e.3 and 1f.3)</t>
+          <t>Goods other than those concerned by the prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C209" s="3" t="n"/>
@@ -29136,12 +29137,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>Y805</t>
+          <t>Y802</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1o of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1o.2)</t>
+          <t>The prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006 do not apply (see exemptions in articles 1e.3 and 1f.3)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n"/>
@@ -29150,12 +29151,12 @@
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Y806</t>
+          <t>Y805</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1p of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1p.2)</t>
+          <t>The prohibitions defined in article 1o of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1o.2)</t>
         </is>
       </c>
       <c r="C211" s="3" t="n"/>
@@ -29164,12 +29165,12 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>Y807</t>
+          <t>Y806</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1q of Council Regulation (EC) No765/2006apply (see contractual exemptions in article 1q.2)</t>
+          <t>The prohibitions defined in article 1p of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1p.2)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n"/>
@@ -29178,12 +29179,12 @@
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Y808</t>
+          <t>Y807</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1r of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1r.2)</t>
+          <t>The prohibitions defined in article 1q of Council Regulation (EC) No765/2006apply (see contractual exemptions in article 1q.2)</t>
         </is>
       </c>
       <c r="C213" s="3" t="n"/>
@@ -29192,12 +29193,12 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>Y809</t>
+          <t>Y808</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1s of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1s.2)</t>
+          <t>The prohibitions defined in article 1r of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1r.2)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n"/>
@@ -29206,12 +29207,12 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>Y810</t>
+          <t>Y809</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 5i.1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 1s of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1s.2)</t>
         </is>
       </c>
       <c r="C215" s="3" t="n"/>
@@ -29220,12 +29221,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>Y811</t>
+          <t>Y810</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1s.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1s.2)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 5i.1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C216" s="2" t="n"/>
@@ -29234,12 +29235,12 @@
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>Y812</t>
+          <t>Y811</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5i paragraph 1 of Council Regulation (EU) No 2014/833 do not apply (see exemptions in article 5i paragraph 2)</t>
+          <t>The prohibitions defined in article 1s.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1s.2)</t>
         </is>
       </c>
       <c r="C217" s="3" t="n"/>
@@ -29248,12 +29249,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>Y813</t>
+          <t>Y812</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1za.1 of Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 5i paragraph 1 of Council Regulation (EU) No 2014/833 do not apply (see exemptions in article 5i paragraph 2)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n"/>
@@ -29262,12 +29263,12 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>Y814</t>
+          <t>Y813</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1za paragraph 1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1za paragraph 2)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1za.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C219" s="3" t="n"/>
@@ -29276,12 +29277,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>Y815</t>
+          <t>Y814</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3f paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 1za paragraph 1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1za paragraph 2)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n"/>
@@ -29290,12 +29291,12 @@
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>Y816</t>
+          <t>Y815</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3f paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3f paragraph 3)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3f paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C221" s="3" t="n"/>
@@ -29304,12 +29305,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>Y818</t>
+          <t>Y816</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3 paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3 paragraph 6)</t>
+          <t>The prohibitions defined in article 3f paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3f paragraph 3)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n"/>
@@ -29318,12 +29319,12 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>Y820</t>
+          <t>Y818</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 3.1 and 3.2 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3.4)</t>
+          <t>The prohibitions defined in article 3 paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3 paragraph 6)</t>
         </is>
       </c>
       <c r="C223" s="3" t="n"/>
@@ -29332,12 +29333,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>Y821</t>
+          <t>Y820</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3h.1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in articles 3.1 and 3.2 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3.4)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n"/>
@@ -29346,12 +29347,12 @@
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>Y822</t>
+          <t>Y821</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3h.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 3h.2 and 3h.3)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3h.1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C225" s="3" t="n"/>
@@ -29360,12 +29361,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>Y824</t>
+          <t>Y822</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>Evidence of the country of origin of the iron and steel inputs used for processing of the product in a third country</t>
+          <t>The prohibitions defined in article 3h.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 3h.2 and 3h.3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n"/>
@@ -29374,12 +29375,12 @@
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>Y825</t>
+          <t>Y824</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.2)</t>
+          <t>Evidence of the country of origin of the iron and steel inputs used for processing of the product in a third country</t>
         </is>
       </c>
       <c r="C227" s="3" t="n"/>
@@ -29388,12 +29389,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>Y831</t>
+          <t>Y825</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3)</t>
+          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.2)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n"/>
@@ -29402,12 +29403,12 @@
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>Y832</t>
+          <t>Y831</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3a)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3)</t>
         </is>
       </c>
       <c r="C229" s="3" t="n"/>
@@ -29416,12 +29417,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>Y833</t>
+          <t>Y832</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3a)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n"/>
@@ -29430,12 +29431,12 @@
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>Y835</t>
+          <t>Y833</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3i paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4)</t>
         </is>
       </c>
       <c r="C231" s="3" t="n"/>
@@ -29444,12 +29445,12 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>Y838</t>
+          <t>Y835</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3j.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3j.3)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3i paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C232" s="2" t="n"/>
@@ -29458,12 +29459,12 @@
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>Y839</t>
+          <t>Y838</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
+          <t>The prohibitions defined in article 3j.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3j.3)</t>
         </is>
       </c>
       <c r="C233" s="3" t="n"/>
@@ -29472,12 +29473,12 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>Y840</t>
+          <t>Y839</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3m.3)</t>
+          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n"/>
@@ -29486,12 +29487,12 @@
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>Y841</t>
+          <t>Y840</t>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.3 (d) and 3m.4)</t>
+          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3m.3)</t>
         </is>
       </c>
       <c r="C235" s="3" t="n"/>
@@ -29500,12 +29501,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>Y842</t>
+          <t>Y841</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.9)</t>
+          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.3 (d) and 3m.4)</t>
         </is>
       </c>
       <c r="C236" s="2" t="n"/>
@@ -29514,12 +29515,12 @@
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>Y843</t>
+          <t>Y842</t>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3o.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3o.5,6,7)</t>
+          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.9)</t>
         </is>
       </c>
       <c r="C237" s="3" t="n"/>
@@ -29528,12 +29529,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>Y844</t>
+          <t>Y843</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
+          <t>The prohibitions defined in article 3o.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3o.5,6,7)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n"/>
@@ -29542,12 +29543,12 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>Y845</t>
+          <t>Y844</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3o of Regulation (EU) No 833/2014</t>
+          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
         </is>
       </c>
       <c r="C239" s="3" t="n"/>
@@ -29556,12 +29557,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>Y846</t>
+          <t>Y845</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 2aa of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3o of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C240" s="2" t="n"/>
@@ -29570,12 +29571,12 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>Y847</t>
+          <t>Y846</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3c of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 2aa of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C241" s="3" t="n"/>
@@ -29584,12 +29585,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>Y848</t>
+          <t>Y847</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5a)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3c of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C242" s="2" t="n"/>
@@ -29598,12 +29599,12 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>Y849</t>
+          <t>Y848</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.3)</t>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5a)</t>
         </is>
       </c>
       <c r="C243" s="3" t="n"/>
@@ -29612,12 +29613,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>Y850</t>
+          <t>Y849</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3b)</t>
+          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.3)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n"/>
@@ -29626,12 +29627,12 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>Y851</t>
+          <t>Y850</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3a)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3b)</t>
         </is>
       </c>
       <c r="C245" s="3" t="n"/>
@@ -29640,12 +29641,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>Y852</t>
+          <t>Y851</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3a)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n"/>
@@ -29654,12 +29655,12 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>Y853</t>
+          <t>Y852</t>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cb)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
         </is>
       </c>
       <c r="C247" s="3" t="n"/>
@@ -29668,12 +29669,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>Y854</t>
+          <t>Y853</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2020/1158.</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cb)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n"/>
@@ -29682,12 +29683,12 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>Y855</t>
+          <t>Y854</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>Exemption from import restrictions by virtue of Article 1(2) of Commission Implementing Regulation (EU) 2020/1158 (Chernobyl accident).</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2020/1158.</t>
         </is>
       </c>
       <c r="C249" s="3" t="n"/>
@@ -29696,12 +29697,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>Y856</t>
+          <t>Y855</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5c)</t>
+          <t>Exemption from import restrictions by virtue of Article 1(2) of Commission Implementing Regulation (EU) 2020/1158 (Chernobyl accident).</t>
         </is>
       </c>
       <c r="C250" s="2" t="n"/>
@@ -29710,12 +29711,12 @@
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>Y857</t>
+          <t>Y856</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3d)</t>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5c)</t>
         </is>
       </c>
       <c r="C251" s="3" t="n"/>
@@ -29724,12 +29725,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>Y858</t>
+          <t>Y857</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3c)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3d)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n"/>
@@ -29738,12 +29739,12 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>Y859</t>
+          <t>Y858</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 12e of Regulation (EU) No 833/2014)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3c)</t>
         </is>
       </c>
       <c r="C253" s="3" t="n"/>
@@ -29752,12 +29753,12 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>Y860</t>
+          <t>Y859</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5b)</t>
+          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 12e of Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n"/>
@@ -29766,12 +29767,12 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>Y861</t>
+          <t>Y860</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3ba)</t>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5b)</t>
         </is>
       </c>
       <c r="C255" s="3" t="n"/>
@@ -29780,12 +29781,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>Y862</t>
+          <t>Y861</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3ba)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n"/>
@@ -29794,12 +29795,12 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>Y863</t>
+          <t>Y862</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3k paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
         </is>
       </c>
       <c r="C257" s="3" t="n"/>
@@ -29808,12 +29809,12 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>Y864</t>
+          <t>Y863</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3k paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C258" s="2" t="n"/>
@@ -29822,12 +29823,12 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>Y865</t>
+          <t>Y864</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
+          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
         </is>
       </c>
       <c r="C259" s="3" t="n"/>
@@ -29836,12 +29837,12 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>Y866</t>
+          <t>Y865</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n"/>
@@ -29850,12 +29851,12 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>Y867</t>
+          <t>Y866</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
         </is>
       </c>
       <c r="C261" s="3" t="n"/>
@@ -29864,12 +29865,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>Y868</t>
+          <t>Y867</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n"/>
@@ -29878,12 +29879,12 @@
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>Y869</t>
+          <t>Y868</t>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C263" s="3" t="n"/>
@@ -29892,12 +29893,12 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>Y870</t>
+          <t>Y869</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
+          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n"/>
@@ -29906,12 +29907,12 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>Y872</t>
+          <t>Y870</t>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
         </is>
       </c>
       <c r="C265" s="3" t="n"/>
@@ -29920,12 +29921,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>Y873</t>
+          <t>Y872</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>Goods not transited via the territory of Russia</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C266" s="2" t="n"/>
@@ -29934,12 +29935,12 @@
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>Y874</t>
+          <t>Y873</t>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
+          <t>Goods not transited via the territory of Russia</t>
         </is>
       </c>
       <c r="C267" s="3" t="n"/>
@@ -29948,12 +29949,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>Y875</t>
+          <t>Y874</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
         </is>
       </c>
       <c r="C268" s="2" t="n"/>
@@ -29962,12 +29963,12 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>Y876</t>
+          <t>Y875</t>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
         </is>
       </c>
       <c r="C269" s="3" t="n"/>
@@ -29976,12 +29977,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>Y877</t>
+          <t>Y876</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C270" s="2" t="n"/>
@@ -29990,12 +29991,12 @@
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t>Y878</t>
+          <t>Y877</t>
         </is>
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
         </is>
       </c>
       <c r="C271" s="3" t="n"/>
@@ -30004,12 +30005,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>Y879</t>
+          <t>Y878</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C272" s="2" t="n"/>
@@ -30018,12 +30019,12 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>Y882</t>
+          <t>Y879</t>
         </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t>Goods not imported via a terminal (Article 3u of Council Regulation (EU) No 833/2014)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C273" s="3" t="n"/>
@@ -30032,12 +30033,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>Y890</t>
+          <t>Y882</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
+          <t>Goods not imported via a terminal (Article 3u of Council Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C274" s="2" t="n"/>
@@ -30046,12 +30047,12 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>Y891</t>
+          <t>Y890</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
         </is>
       </c>
       <c r="C275" s="3" t="n"/>
@@ -30060,12 +30061,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>Y892</t>
+          <t>Y891</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n"/>
@@ -30074,12 +30075,12 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>Y893</t>
+          <t>Y892</t>
         </is>
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
+          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
         </is>
       </c>
       <c r="C277" s="3" t="n"/>
@@ -30088,12 +30089,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>Y894</t>
+          <t>Y893</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n"/>
@@ -30102,12 +30103,12 @@
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
         <is>
-          <t>Y895</t>
+          <t>Y894</t>
         </is>
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
         </is>
       </c>
       <c r="C279" s="3" t="n"/>
@@ -30116,12 +30117,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>Y896</t>
+          <t>Y895</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
         </is>
       </c>
       <c r="C280" s="2" t="n"/>
@@ -30130,12 +30131,12 @@
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
         <is>
-          <t>Y897</t>
+          <t>Y896</t>
         </is>
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
         </is>
       </c>
       <c r="C281" s="3" t="n"/>
@@ -30144,12 +30145,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>Y898</t>
+          <t>Y897</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
+          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
         </is>
       </c>
       <c r="C282" s="2" t="n"/>
@@ -30158,12 +30159,12 @@
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>Y900</t>
+          <t>Y898</t>
         </is>
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
+          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
         </is>
       </c>
       <c r="C283" s="3" t="n"/>
@@ -30172,12 +30173,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>Y901</t>
+          <t>Y900</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>Product not included in the dual use list</t>
+          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n"/>
@@ -30186,12 +30187,12 @@
     <row r="285">
       <c r="A285" s="3" t="inlineStr">
         <is>
-          <t>Y902</t>
+          <t>Y901</t>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
+          <t>Product not included in the dual use list</t>
         </is>
       </c>
       <c r="C285" s="3" t="n"/>
@@ -30200,12 +30201,12 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>Y903</t>
+          <t>Y902</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Declared goods are not included in the list of cultural goods</t>
+          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C286" s="2" t="n"/>
@@ -30214,12 +30215,12 @@
     <row r="287">
       <c r="A287" s="3" t="inlineStr">
         <is>
-          <t>Y904</t>
+          <t>Y903</t>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure</t>
+          <t>Declared goods are not included in the list of cultural goods</t>
         </is>
       </c>
       <c r="C287" s="3" t="n"/>
@@ -30228,12 +30229,12 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>Y906</t>
+          <t>Y904</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C288" s="2" t="n"/>
@@ -30242,12 +30243,12 @@
     <row r="289">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>Y907</t>
+          <t>Y906</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
         <is>
-          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
         </is>
       </c>
       <c r="C289" s="3" t="n"/>
@@ -30256,12 +30257,12 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>Y908</t>
+          <t>Y907</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>Export to the following territories of Member States (Greenland, New Caledonia and Dependencies, French Polynesia, French Southern and Antarctic Territories, Wallis and Futuna Islands, Mayotte, St Pierre and Miquelon, Büsingen), provided that the goods are used by an authority in charge of law enforcement in both the country or territory of destination and the metropolitan part of the Member State to which that territory belongs</t>
+          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
         </is>
       </c>
       <c r="C290" s="2" t="n"/>
@@ -30270,12 +30271,12 @@
     <row r="291">
       <c r="A291" s="3" t="inlineStr">
         <is>
-          <t>Y909</t>
+          <t>Y908</t>
         </is>
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EC) No. 1984/2003</t>
+          <t>Export to the following territories of Member States (Greenland, New Caledonia and Dependencies, French Polynesia, French Southern and Antarctic Territories, Wallis and Futuna Islands, Mayotte, St Pierre and Miquelon, Büsingen), provided that the goods are used by an authority in charge of law enforcement in both the country or territory of destination and the metropolitan part of the Member State to which that territory belongs</t>
         </is>
       </c>
       <c r="C291" s="3" t="n"/>
@@ -30284,12 +30285,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>Y910</t>
+          <t>Y909</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
+          <t>Goods not concerned by Regulation (EC) No. 1984/2003</t>
         </is>
       </c>
       <c r="C292" s="2" t="n"/>
@@ -30298,12 +30299,12 @@
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
         <is>
-          <t>Y915</t>
+          <t>Y910</t>
         </is>
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>Reference Identification Number</t>
+          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
         </is>
       </c>
       <c r="C293" s="3" t="n"/>
@@ -30312,12 +30313,12 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>Y916</t>
+          <t>Y915</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
+          <t>Reference Identification Number</t>
         </is>
       </c>
       <c r="C294" s="2" t="n"/>
@@ -30326,12 +30327,12 @@
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
         <is>
-          <t>Y917</t>
+          <t>Y916</t>
         </is>
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
         </is>
       </c>
       <c r="C295" s="3" t="n"/>
@@ -30340,12 +30341,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>Y918</t>
+          <t>Y917</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
         </is>
       </c>
       <c r="C296" s="2" t="n"/>
@@ -30354,12 +30355,12 @@
     <row r="297">
       <c r="A297" s="3" t="inlineStr">
         <is>
-          <t>Y919</t>
+          <t>Y918</t>
         </is>
       </c>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
         </is>
       </c>
       <c r="C297" s="3" t="n"/>
@@ -30368,12 +30369,12 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>Y920</t>
+          <t>Y919</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure</t>
+          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
         </is>
       </c>
       <c r="C298" s="2" t="n"/>
@@ -30382,12 +30383,12 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>Y921</t>
+          <t>Y920</t>
         </is>
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>Goods exempted from the prohibition</t>
+          <t>Goods other than those described in the footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C299" s="3" t="n"/>
@@ -30396,12 +30397,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>Y922</t>
+          <t>Y921</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
+          <t>Goods exempted from the prohibition</t>
         </is>
       </c>
       <c r="C300" s="2" t="n"/>
@@ -30410,12 +30411,12 @@
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
         <is>
-          <t>Y923</t>
+          <t>Y922</t>
         </is>
       </c>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
+          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
         </is>
       </c>
       <c r="C301" s="3" t="n"/>
@@ -30424,12 +30425,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>Y924</t>
+          <t>Y923</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2017/852</t>
+          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
         </is>
       </c>
       <c r="C302" s="2" t="n"/>
@@ -30438,12 +30439,12 @@
     <row r="303">
       <c r="A303" s="3" t="inlineStr">
         <is>
-          <t>Y925</t>
+          <t>Y924</t>
         </is>
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>Export for laboratory-scale research or laboratory analysis (Article 3 (3) of Regulation (EU) 2017/852)</t>
+          <t>Goods not concerned by Regulation (EU) 2017/852</t>
         </is>
       </c>
       <c r="C303" s="3" t="n"/>
@@ -30452,12 +30453,12 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>Y926</t>
+          <t>Y925</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
+          <t>Export for laboratory-scale research or laboratory analysis (Article 3 (3) of Regulation (EU) 2017/852)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n"/>
@@ -30466,12 +30467,12 @@
     <row r="305">
       <c r="A305" s="3" t="inlineStr">
         <is>
-          <t>Y927</t>
+          <t>Y926</t>
         </is>
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
+          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C305" s="3" t="n"/>
@@ -30480,12 +30481,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>Y928</t>
+          <t>Y927</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1787</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
         </is>
       </c>
       <c r="C306" s="2" t="n"/>
@@ -30494,12 +30495,12 @@
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>Y929</t>
+          <t>Y928</t>
         </is>
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1787</t>
         </is>
       </c>
       <c r="C307" s="3" t="n"/>
@@ -30508,12 +30509,12 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>Y930</t>
+          <t>Y929</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
+          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
         </is>
       </c>
       <c r="C308" s="2" t="n"/>
@@ -30522,12 +30523,12 @@
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
         <is>
-          <t>Y931</t>
+          <t>Y930</t>
         </is>
       </c>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
         </is>
       </c>
       <c r="C309" s="3" t="n"/>
@@ -30536,12 +30537,12 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>Y932</t>
+          <t>Y931</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
         </is>
       </c>
       <c r="C310" s="2" t="n"/>
@@ -30550,12 +30551,12 @@
     <row r="311">
       <c r="A311" s="3" t="inlineStr">
         <is>
-          <t>Y934</t>
+          <t>Y932</t>
         </is>
       </c>
       <c r="B311" s="3" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 258/2012 for export of firearms, their parts and components and ammunition</t>
+          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
         </is>
       </c>
       <c r="C311" s="3" t="n"/>
@@ -30564,12 +30565,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>Y935</t>
+          <t>Y934</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 258/2012 for export of firearms, their parts and components and ammunition</t>
         </is>
       </c>
       <c r="C312" s="2" t="n"/>
@@ -30578,12 +30579,12 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>Y937</t>
+          <t>Y935</t>
         </is>
       </c>
       <c r="B313" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
+          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
         </is>
       </c>
       <c r="C313" s="3" t="n"/>
@@ -30592,12 +30593,12 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>Y939</t>
+          <t>Y937</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C314" s="2" t="n"/>
@@ -30606,12 +30607,12 @@
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>Y942</t>
+          <t>Y939</t>
         </is>
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
+          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
         </is>
       </c>
       <c r="C315" s="3" t="n"/>
@@ -30620,12 +30621,12 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>Y944</t>
+          <t>Y942</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
         </is>
       </c>
       <c r="C316" s="2" t="n"/>
@@ -30634,12 +30635,12 @@
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>Y945</t>
+          <t>Y944</t>
         </is>
       </c>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C317" s="3" t="n"/>
@@ -30648,12 +30649,12 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>Y946</t>
+          <t>Y945</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
+          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n"/>
@@ -30662,12 +30663,12 @@
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>Y947</t>
+          <t>Y946</t>
         </is>
       </c>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
+          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C319" s="3" t="n"/>
@@ -30676,12 +30677,12 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>Y948</t>
+          <t>Y947</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
+          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n"/>
@@ -30690,12 +30691,12 @@
     <row r="321">
       <c r="A321" s="3" t="inlineStr">
         <is>
-          <t>Y949</t>
+          <t>Y948</t>
         </is>
       </c>
       <c r="B321" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
+          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C321" s="3" t="n"/>
@@ -30704,12 +30705,12 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>Y950</t>
+          <t>Y949</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
+          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n"/>
@@ -30718,12 +30719,12 @@
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>Y951</t>
+          <t>Y950</t>
         </is>
       </c>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
+          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
         </is>
       </c>
       <c r="C323" s="3" t="n"/>
@@ -30732,12 +30733,12 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>Y952</t>
+          <t>Y951</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C324" s="2" t="n"/>
@@ -30746,12 +30747,12 @@
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>Y953</t>
+          <t>Y952</t>
         </is>
       </c>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
+          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
         </is>
       </c>
       <c r="C325" s="3" t="n"/>
@@ -30760,12 +30761,12 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>Y955</t>
+          <t>Y953</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
+          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
         </is>
       </c>
       <c r="C326" s="2" t="n"/>
@@ -30774,12 +30775,12 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>Y956</t>
+          <t>Y955</t>
         </is>
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
+          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C327" s="3" t="n"/>
@@ -30788,12 +30789,12 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>Y957</t>
+          <t>Y956</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C328" s="2" t="n"/>
@@ -30802,12 +30803,12 @@
     <row r="329">
       <c r="A329" s="3" t="inlineStr">
         <is>
-          <t>Y958</t>
+          <t>Y957</t>
         </is>
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C329" s="3" t="n"/>
@@ -30816,12 +30817,12 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>Y959</t>
+          <t>Y958</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C330" s="2" t="n"/>
@@ -30830,12 +30831,12 @@
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>Y960</t>
+          <t>Y959</t>
         </is>
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C331" s="3" t="n"/>
@@ -30844,12 +30845,12 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>Y961</t>
+          <t>Y960</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C332" s="2" t="n"/>
@@ -30858,12 +30859,12 @@
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>Y962</t>
+          <t>Y961</t>
         </is>
       </c>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C333" s="3" t="n"/>
@@ -30872,12 +30873,12 @@
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>Y963</t>
+          <t>Y962</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C334" s="2" t="n"/>
@@ -30886,12 +30887,12 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>Y964</t>
+          <t>Y963</t>
         </is>
       </c>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C335" s="3" t="n"/>
@@ -30900,12 +30901,12 @@
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>Y965</t>
+          <t>Y964</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C336" s="2" t="n"/>
@@ -30914,12 +30915,12 @@
     <row r="337">
       <c r="A337" s="3" t="inlineStr">
         <is>
-          <t>Y966</t>
+          <t>Y965</t>
         </is>
       </c>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Missile Technology Control Regime list - Annex III of Reg. (EU) 267/2012)</t>
+          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C337" s="3" t="n"/>
@@ -30928,12 +30929,12 @@
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>Y967</t>
+          <t>Y966</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XId (Refined petroleum products) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Missile Technology Control Regime list - Annex III of Reg. (EU) 267/2012)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n"/>
@@ -30942,12 +30943,12 @@
     <row r="339">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>Y968</t>
+          <t>Y967</t>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>Goods not exceeding a sales price of 50 € per litre</t>
+          <t>Goods other than those described in Annex XId (Refined petroleum products) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C339" s="3" t="n"/>
@@ -30956,12 +30957,12 @@
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>Y969</t>
+          <t>Y968</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
+          <t>Goods not exceeding a sales price of 50 € per litre</t>
         </is>
       </c>
       <c r="C340" s="2" t="n"/>
@@ -30970,12 +30971,12 @@
     <row r="341">
       <c r="A341" s="3" t="inlineStr">
         <is>
-          <t>Y970</t>
+          <t>Y969</t>
         </is>
       </c>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
+          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
         </is>
       </c>
       <c r="C341" s="3" t="n"/>
@@ -30984,12 +30985,12 @@
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>Y971</t>
+          <t>Y970</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n"/>
@@ -30998,12 +30999,12 @@
     <row r="343">
       <c r="A343" s="3" t="inlineStr">
         <is>
-          <t>Y972</t>
+          <t>Y971</t>
         </is>
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C343" s="3" t="n"/>
@@ -31012,12 +31013,12 @@
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>Y976</t>
+          <t>Y972</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C344" s="2" t="n"/>
@@ -31026,12 +31027,12 @@
     <row r="345">
       <c r="A345" s="3" t="inlineStr">
         <is>
-          <t>Y978</t>
+          <t>Y976</t>
         </is>
       </c>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
+          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
         </is>
       </c>
       <c r="C345" s="3" t="n"/>
@@ -31040,12 +31041,12 @@
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>Y980</t>
+          <t>Y978</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
+          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C346" s="2" t="n"/>
@@ -31054,12 +31055,12 @@
     <row r="347">
       <c r="A347" s="3" t="inlineStr">
         <is>
-          <t>Y981</t>
+          <t>Y980</t>
         </is>
       </c>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t>Exemption by virtue of Article 1(9) of Regulation (EU) 2021/442: (c) exports of goods purchased and/or delivered through COVAX, UNICEF and PAHO with destination to any other COVAX participating country, (d) donation or resale, (e) humanitarian emergency response</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
         </is>
       </c>
       <c r="C347" s="3" t="n"/>
@@ -31068,12 +31069,12 @@
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>Y983</t>
+          <t>Y981</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
+          <t>Exemption by virtue of Article 1(9) of Regulation (EU) 2021/442: (c) exports of goods purchased and/or delivered through COVAX, UNICEF and PAHO with destination to any other COVAX participating country, (d) donation or resale, (e) humanitarian emergency response</t>
         </is>
       </c>
       <c r="C348" s="2" t="n"/>
@@ -31082,12 +31083,12 @@
     <row r="349">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>Y984</t>
+          <t>Y983</t>
         </is>
       </c>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
+          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
         </is>
       </c>
       <c r="C349" s="3" t="n"/>
@@ -31096,12 +31097,12 @@
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>Y986</t>
+          <t>Y984</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
+          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
         </is>
       </c>
       <c r="C350" s="2" t="n"/>
@@ -31110,12 +31111,12 @@
     <row r="351">
       <c r="A351" s="3" t="inlineStr">
         <is>
-          <t>Y987</t>
+          <t>Y986</t>
         </is>
       </c>
       <c r="B351" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
+          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C351" s="3" t="n"/>
@@ -31124,12 +31125,12 @@
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>Y988</t>
+          <t>Y987</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
+          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
         </is>
       </c>
       <c r="C352" s="2" t="n"/>
@@ -31138,12 +31139,12 @@
     <row r="353">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>Y993</t>
+          <t>Y988</t>
         </is>
       </c>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3b.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3b.3)</t>
+          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
         </is>
       </c>
       <c r="C353" s="3" t="n"/>
@@ -31152,12 +31153,12 @@
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>Y994</t>
+          <t>Y993</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3c.5)</t>
+          <t>The prohibitions defined in article 3b.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3b.3)</t>
         </is>
       </c>
       <c r="C354" s="2" t="n"/>
@@ -31166,12 +31167,12 @@
     <row r="355">
       <c r="A355" s="3" t="inlineStr">
         <is>
-          <t>Y995</t>
+          <t>Y994</t>
         </is>
       </c>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in articles 2.1 and 2a.1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3c.5)</t>
         </is>
       </c>
       <c r="C355" s="3" t="n"/>
@@ -31180,12 +31181,12 @@
     <row r="356">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>Y996</t>
+          <t>Y995</t>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3b.1 of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in articles 2.1 and 2a.1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C356" s="2" t="n"/>
@@ -31194,12 +31195,12 @@
     <row r="357">
       <c r="A357" s="3" t="inlineStr">
         <is>
-          <t>Y997</t>
+          <t>Y996</t>
         </is>
       </c>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t>Goods not originating from or destined to Crimea or Sevastopol (Articles 2.a and 2b.1 of Council Regulation (EU) No 692/2014)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3b.1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C357" s="3" t="n"/>
@@ -31208,16 +31209,30 @@
     <row r="358">
       <c r="A358" s="2" t="inlineStr">
         <is>
-          <t>Y998</t>
+          <t>Y997</t>
         </is>
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>There are no reasonable grounds to determine that the goods are to be used in Crimea or Sevastopol (Article 2b.3 of Council Regulation (EU) No 692/2014)</t>
+          <t>Goods not originating from or destined to Crimea or Sevastopol (Articles 2.a and 2b.1 of Council Regulation (EU) No 692/2014)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n"/>
       <c r="D358" s="2" t="n"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="inlineStr">
+        <is>
+          <t>Y998</t>
+        </is>
+      </c>
+      <c r="B359" s="3" t="inlineStr">
+        <is>
+          <t>There are no reasonable grounds to determine that the goods are to be used in Crimea or Sevastopol (Article 2b.3 of Council Regulation (EU) No 692/2014)</t>
+        </is>
+      </c>
+      <c r="C359" s="3" t="n"/>
+      <c r="D359" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31230,7 +31245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31257,12 +31272,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2GRE</t>
+          <t>1REF</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Goods Registration</t>
+          <t>Previous Declaration outside DMS</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -31271,12 +31286,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>C512</t>
+          <t>2GRE</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>C512</t>
+          <t>Goods Registration</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -31285,12 +31300,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>C605</t>
+          <t>C512</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Information sheet INF3</t>
+          <t>C512</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -31299,12 +31314,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>C612</t>
+          <t>C605</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Internal Community transit Declaration — Article 227 of the Code</t>
+          <t>Information sheet INF3</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -31313,12 +31328,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>C620</t>
+          <t>C612</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Proof of the customs status of Union goods T2LF</t>
+          <t>Internal Community transit Declaration — Article 227 of the Code</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -31327,12 +31342,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>C651</t>
+          <t>C620</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>AAD - Administrative Accompanying Document (EMCS)</t>
+          <t>Proof of the customs status of Union goods T2LF</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -31341,12 +31356,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>C658</t>
+          <t>C651</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>FAD - Fallback e-AD (EMCS)</t>
+          <t>AAD - Administrative Accompanying Document (EMCS)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -31355,12 +31370,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>C710</t>
+          <t>C658</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Information sheet</t>
+          <t>FAD - Fallback e-AD (EMCS)</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -31369,12 +31384,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>N235</t>
+          <t>C710</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Container list</t>
+          <t>Information sheet</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -31383,12 +31398,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>N270</t>
+          <t>N235</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Delivery note</t>
+          <t>Container list</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -31397,12 +31412,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>N271</t>
+          <t>N270</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Packing list</t>
+          <t>Delivery note</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -31411,12 +31426,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>N325</t>
+          <t>N271</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Proforma invoice</t>
+          <t>Packing list</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -31425,12 +31440,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>N337</t>
+          <t>N325</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Temporary storage declaration</t>
+          <t>Proforma invoice</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -31439,12 +31454,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>N355</t>
+          <t>N337</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Entry summary declaration</t>
+          <t>Temporary storage declaration</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -31453,12 +31468,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>N380</t>
+          <t>N355</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Commercial invoice</t>
+          <t>Entry summary declaration</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -31467,12 +31482,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>N703</t>
+          <t>N380</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>House waybill</t>
+          <t>Commercial invoice</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -31481,12 +31496,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>N704</t>
+          <t>N703</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Master bill of lading</t>
+          <t>House waybill</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
@@ -31495,12 +31510,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>N705</t>
+          <t>N704</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Bill of lading</t>
+          <t>Master bill of lading</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -31509,12 +31524,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>N714</t>
+          <t>N705</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>House bill of lading</t>
+          <t>Bill of lading</t>
         </is>
       </c>
       <c r="C20" s="2" t="n"/>
@@ -31523,12 +31538,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>N722</t>
+          <t>N714</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Road list SMGS</t>
+          <t>House bill of lading</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -31537,12 +31552,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>N730</t>
+          <t>N722</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Road consignment note</t>
+          <t>Road list SMGS</t>
         </is>
       </c>
       <c r="C22" s="2" t="n"/>
@@ -31551,12 +31566,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>N740</t>
+          <t>N730</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Air waybill</t>
+          <t>Road consignment note</t>
         </is>
       </c>
       <c r="C23" s="3" t="n"/>
@@ -31565,12 +31580,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>N741</t>
+          <t>N740</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Master air waybill</t>
+          <t>Air waybill</t>
         </is>
       </c>
       <c r="C24" s="2" t="n"/>
@@ -31579,12 +31594,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>N750</t>
+          <t>N741</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Movement by post including parcel post</t>
+          <t>Master air waybill</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -31593,12 +31608,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>N760</t>
+          <t>N750</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Multimodal/combined transport document</t>
+          <t>Movement by post including parcel post</t>
         </is>
       </c>
       <c r="C26" s="2" t="n"/>
@@ -31607,12 +31622,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>N785</t>
+          <t>N760</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Cargo manifest</t>
+          <t>Multimodal/combined transport document</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -31621,12 +31636,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>N787</t>
+          <t>N785</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Bordereau (cargo load list)</t>
+          <t>Cargo manifest</t>
         </is>
       </c>
       <c r="C28" s="2" t="n"/>
@@ -31635,12 +31650,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>N820</t>
+          <t>N787</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Transit declaration "T"</t>
+          <t>Bordereau (cargo load list)</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
@@ -31649,12 +31664,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>N821</t>
+          <t>N820</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>External Community transit declaration / common transit, T1</t>
+          <t>Transit declaration "T"</t>
         </is>
       </c>
       <c r="C30" s="2" t="n"/>
@@ -31663,12 +31678,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>N822</t>
+          <t>N821</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Internal Community transit declaration T2</t>
+          <t>External Community transit declaration / common transit, T1</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
@@ -31677,12 +31692,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>N825</t>
+          <t>N822</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>T2L document</t>
+          <t>Internal Community transit declaration T2</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -31691,12 +31706,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>N830</t>
+          <t>N825</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Goods declaration for exportation</t>
+          <t>T2L document</t>
         </is>
       </c>
       <c r="C33" s="3" t="n"/>
@@ -31705,12 +31720,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>N952</t>
+          <t>N830</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>TIR carnet</t>
+          <t>Goods declaration for exportation</t>
         </is>
       </c>
       <c r="C34" s="2" t="n"/>
@@ -31719,12 +31734,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>N955</t>
+          <t>N952</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ATA carnet</t>
+          <t>TIR carnet</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -31733,12 +31748,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>NCLE</t>
+          <t>N955</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Reference/date of entry in the declarant’s records</t>
+          <t>ATA carnet</t>
         </is>
       </c>
       <c r="C36" s="2" t="n"/>
@@ -31747,12 +31762,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>NMNS</t>
+          <t>NCLE</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Cargo manifest — simplified procedure</t>
+          <t>Reference/date of entry in the declarant’s records</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
@@ -31761,16 +31776,30 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>NMRN</t>
+          <t>NMNS</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Declaration / notification MRN</t>
+          <t>Cargo manifest — simplified procedure</t>
         </is>
       </c>
       <c r="C38" s="2" t="n"/>
       <c r="D38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>NMRN</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Declaration / notification MRN</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -32343,7 +32372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D597"/>
+  <dimension ref="A1:D600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38298,12 +38327,12 @@
     <row r="425">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>Y138</t>
+          <t>Y128</t>
         </is>
       </c>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
+          <t>CBAM - Unique Account Number of the Authorised CBAM Declarant, in accordance with Article 16.1 of Regulation (EU) 2023/956</t>
         </is>
       </c>
       <c r="C425" s="3" t="n"/>
@@ -38312,12 +38341,12 @@
     <row r="426">
       <c r="A426" s="2" t="inlineStr">
         <is>
-          <t>Y139</t>
+          <t>Y138</t>
         </is>
       </c>
       <c r="B426" s="2" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods under temporary admission as per Article 3.4(c) of Regulation (EU) 2019/880</t>
+          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C426" s="2" t="n"/>
@@ -38326,12 +38355,12 @@
     <row r="427">
       <c r="A427" s="3" t="inlineStr">
         <is>
-          <t>Y150</t>
+          <t>Y139</t>
         </is>
       </c>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>Exemption by virtue paragraph 2 Article 2 of Regulation (EU) 649/2012</t>
+          <t>ICGD - Derogation for goods under temporary admission as per Article 3.4(c) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C427" s="3" t="n"/>
@@ -38340,12 +38369,12 @@
     <row r="428">
       <c r="A428" s="2" t="inlineStr">
         <is>
-          <t>Y151</t>
+          <t>Y150</t>
         </is>
       </c>
       <c r="B428" s="2" t="inlineStr">
         <is>
-          <t>Goods with EU origin coming from outermost regions, according to the relevant EU legislation</t>
+          <t>Exemption by virtue paragraph 2 Article 2 of Regulation (EU) 649/2012</t>
         </is>
       </c>
       <c r="C428" s="2" t="n"/>
@@ -38354,12 +38383,12 @@
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>Y152</t>
+          <t>Y151</t>
         </is>
       </c>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
+          <t>Goods with EU origin coming from outermost regions, according to the relevant EU legislation</t>
         </is>
       </c>
       <c r="C429" s="3" t="n"/>
@@ -38368,12 +38397,12 @@
     <row r="430">
       <c r="A430" s="2" t="inlineStr">
         <is>
-          <t>Y154</t>
+          <t>Y152</t>
         </is>
       </c>
       <c r="B430" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Article 11.3 of Regulation (EU) 2024/573</t>
+          <t>Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C430" s="2" t="n"/>
@@ -38382,12 +38411,12 @@
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
         <is>
-          <t>Y155</t>
+          <t>Y154</t>
         </is>
       </c>
       <c r="B431" s="3" t="inlineStr">
         <is>
-          <t>Products exported directly or indirectly from the Russian Federation or Belarus</t>
+          <t>Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Article 11.3 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C431" s="3" t="n"/>
@@ -38396,12 +38425,12 @@
     <row r="432">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>Y162</t>
+          <t>Y155</t>
         </is>
       </c>
       <c r="B432" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the presentation of a valid licence to the customs authorities for the import or exports of products and equipment that are personal effects (Article 22(1), second subparagraph of Regulation (UE) 2024/573)</t>
+          <t>Products exported directly or indirectly from the Russian Federation or Belarus</t>
         </is>
       </c>
       <c r="C432" s="2" t="n"/>
@@ -38410,12 +38439,12 @@
     <row r="433">
       <c r="A433" s="3" t="inlineStr">
         <is>
-          <t>Y164</t>
+          <t>Y161</t>
         </is>
       </c>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>Goods labelled according to the provisions of Article 12, paragraph 8 of Regulation (EU) No 517/2014</t>
+          <t>FGAS - Exemption from export prohibition according to Article 22.3, second subparagraph of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C433" s="3" t="n"/>
@@ -38424,12 +38453,12 @@
     <row r="434">
       <c r="A434" s="2" t="inlineStr">
         <is>
-          <t>Y165</t>
+          <t>Y162</t>
         </is>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>Special entries on the statement on origin made out by the exporter</t>
+          <t>Exemption from the presentation of a valid licence to the customs authorities for the import or exports of products and equipment that are personal effects (Article 22(1), second subparagraph of Regulation (UE) 2024/573)</t>
         </is>
       </c>
       <c r="C434" s="2" t="n"/>
@@ -38438,12 +38467,12 @@
     <row r="435">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>Y170</t>
+          <t>Y164</t>
         </is>
       </c>
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
+          <t>Goods labelled according to the provisions of Article 12, paragraph 8 of Regulation (EU) No 517/2014</t>
         </is>
       </c>
       <c r="C435" s="3" t="n"/>
@@ -38452,12 +38481,12 @@
     <row r="436">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t>Y171</t>
+          <t>Y165</t>
         </is>
       </c>
       <c r="B436" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
+          <t>Special entries on the statement on origin made out by the exporter</t>
         </is>
       </c>
       <c r="C436" s="2" t="n"/>
@@ -38466,12 +38495,12 @@
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>Y172</t>
+          <t>Y168</t>
         </is>
       </c>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
+          <t>FGAS - Military exemption from export prohibition (Article 22.3. para 2 of Reg (EU) 2024/573)</t>
         </is>
       </c>
       <c r="C437" s="3" t="n"/>
@@ -38480,12 +38509,12 @@
     <row r="438">
       <c r="A438" s="2" t="inlineStr">
         <is>
-          <t>Y173</t>
+          <t>Y170</t>
         </is>
       </c>
       <c r="B438" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C438" s="2" t="n"/>
@@ -38494,12 +38523,12 @@
     <row r="439">
       <c r="A439" s="3" t="inlineStr">
         <is>
-          <t>Y174</t>
+          <t>Y171</t>
         </is>
       </c>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C439" s="3" t="n"/>
@@ -38508,12 +38537,12 @@
     <row r="440">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>Y175</t>
+          <t>Y172</t>
         </is>
       </c>
       <c r="B440" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C440" s="2" t="n"/>
@@ -38522,12 +38551,12 @@
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>Y176</t>
+          <t>Y173</t>
         </is>
       </c>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C441" s="3" t="n"/>
@@ -38536,12 +38565,12 @@
     <row r="442">
       <c r="A442" s="2" t="inlineStr">
         <is>
-          <t>Y177</t>
+          <t>Y174</t>
         </is>
       </c>
       <c r="B442" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C442" s="2" t="n"/>
@@ -38550,12 +38579,12 @@
     <row r="443">
       <c r="A443" s="3" t="inlineStr">
         <is>
-          <t>Y185</t>
+          <t>Y175</t>
         </is>
       </c>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
+          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C443" s="3" t="n"/>
@@ -38564,12 +38593,12 @@
     <row r="444">
       <c r="A444" s="2" t="inlineStr">
         <is>
-          <t>Y199</t>
+          <t>Y176</t>
         </is>
       </c>
       <c r="B444" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2019/880 on import of cultural goods</t>
+          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C444" s="2" t="n"/>
@@ -38578,12 +38607,12 @@
     <row r="445">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>Y227</t>
+          <t>Y177</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
+          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C445" s="3" t="n"/>
@@ -38592,12 +38621,12 @@
     <row r="446">
       <c r="A446" s="2" t="inlineStr">
         <is>
-          <t>Y228</t>
+          <t>Y185</t>
         </is>
       </c>
       <c r="B446" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
+          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
         </is>
       </c>
       <c r="C446" s="2" t="n"/>
@@ -38606,12 +38635,12 @@
     <row r="447">
       <c r="A447" s="3" t="inlineStr">
         <is>
-          <t>Y229</t>
+          <t>Y199</t>
         </is>
       </c>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
+          <t>Goods not concerned by Regulation (EU) 2019/880 on import of cultural goods</t>
         </is>
       </c>
       <c r="C447" s="3" t="n"/>
@@ -38620,12 +38649,12 @@
     <row r="448">
       <c r="A448" s="2" t="inlineStr">
         <is>
-          <t>Y230</t>
+          <t>Y227</t>
         </is>
       </c>
       <c r="B448" s="2" t="inlineStr">
         <is>
-          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
+          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C448" s="2" t="n"/>
@@ -38634,12 +38663,12 @@
     <row r="449">
       <c r="A449" s="3" t="inlineStr">
         <is>
-          <t>Y231</t>
+          <t>Y228</t>
         </is>
       </c>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
+          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
         </is>
       </c>
       <c r="C449" s="3" t="n"/>
@@ -38648,12 +38677,12 @@
     <row r="450">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>Y232</t>
+          <t>Y229</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C450" s="2" t="n"/>
@@ -38662,12 +38691,12 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>Y235</t>
+          <t>Y230</t>
         </is>
       </c>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
+          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C451" s="3" t="n"/>
@@ -38676,12 +38705,12 @@
     <row r="452">
       <c r="A452" s="2" t="inlineStr">
         <is>
-          <t>Y698</t>
+          <t>Y231</t>
         </is>
       </c>
       <c r="B452" s="2" t="inlineStr">
         <is>
-          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
+          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n"/>
@@ -38690,12 +38719,12 @@
     <row r="453">
       <c r="A453" s="3" t="inlineStr">
         <is>
-          <t>Y699</t>
+          <t>Y232</t>
         </is>
       </c>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C453" s="3" t="n"/>
@@ -38704,12 +38733,12 @@
     <row r="454">
       <c r="A454" s="2" t="inlineStr">
         <is>
-          <t>Y703</t>
+          <t>Y235</t>
         </is>
       </c>
       <c r="B454" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
+          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C454" s="2" t="n"/>
@@ -38718,12 +38747,12 @@
     <row r="455">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>Y704</t>
+          <t>Y698</t>
         </is>
       </c>
       <c r="B455" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
+          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
         </is>
       </c>
       <c r="C455" s="3" t="n"/>
@@ -38732,12 +38761,12 @@
     <row r="456">
       <c r="A456" s="2" t="inlineStr">
         <is>
-          <t>Y705</t>
+          <t>Y699</t>
         </is>
       </c>
       <c r="B456" s="2" t="inlineStr">
         <is>
-          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
+          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C456" s="2" t="n"/>
@@ -38746,12 +38775,12 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>Y706</t>
+          <t>Y703</t>
         </is>
       </c>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
+          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
         </is>
       </c>
       <c r="C457" s="3" t="n"/>
@@ -38760,12 +38789,12 @@
     <row r="458">
       <c r="A458" s="2" t="inlineStr">
         <is>
-          <t>Y707</t>
+          <t>Y704</t>
         </is>
       </c>
       <c r="B458" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
+          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
         </is>
       </c>
       <c r="C458" s="2" t="n"/>
@@ -38774,12 +38803,12 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>Y708</t>
+          <t>Y705</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
+          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
         </is>
       </c>
       <c r="C459" s="3" t="n"/>
@@ -38788,12 +38817,12 @@
     <row r="460">
       <c r="A460" s="2" t="inlineStr">
         <is>
-          <t>Y709</t>
+          <t>Y706</t>
         </is>
       </c>
       <c r="B460" s="2" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the European Union</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n"/>
@@ -38802,12 +38831,12 @@
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>Y710</t>
+          <t>Y707</t>
         </is>
       </c>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the third country</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
         </is>
       </c>
       <c r="C461" s="3" t="n"/>
@@ -38816,12 +38845,12 @@
     <row r="462">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>Y711</t>
+          <t>Y708</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
         <is>
-          <t>Evidence of the date of final processing or manufacturing in the third country</t>
+          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n"/>
@@ -38830,12 +38859,12 @@
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>Y712</t>
+          <t>Y709</t>
         </is>
       </c>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
+          <t>Evidence of the date of initial importation into the European Union</t>
         </is>
       </c>
       <c r="C463" s="3" t="n"/>
@@ -38844,12 +38873,12 @@
     <row r="464">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>Y713</t>
+          <t>Y710</t>
         </is>
       </c>
       <c r="B464" s="2" t="inlineStr">
         <is>
-          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
+          <t>Evidence of the date of initial importation into the third country</t>
         </is>
       </c>
       <c r="C464" s="2" t="n"/>
@@ -38858,12 +38887,12 @@
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>Y714</t>
+          <t>Y711</t>
         </is>
       </c>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
+          <t>Evidence of the date of final processing or manufacturing in the third country</t>
         </is>
       </c>
       <c r="C465" s="3" t="n"/>
@@ -38872,12 +38901,12 @@
     <row r="466">
       <c r="A466" s="2" t="inlineStr">
         <is>
-          <t>Y715</t>
+          <t>Y712</t>
         </is>
       </c>
       <c r="B466" s="2" t="inlineStr">
         <is>
-          <t>Goods exported from Ukraine prior to 1 March 2014</t>
+          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
         </is>
       </c>
       <c r="C466" s="2" t="n"/>
@@ -38886,12 +38915,12 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>Y716</t>
+          <t>Y713</t>
         </is>
       </c>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>Goods returned to their legitimate owners in Ukraine</t>
+          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
         </is>
       </c>
       <c r="C467" s="3" t="n"/>
@@ -38900,12 +38929,12 @@
     <row r="468">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>Y717</t>
+          <t>Y714</t>
         </is>
       </c>
       <c r="B468" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
+          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
         </is>
       </c>
       <c r="C468" s="2" t="n"/>
@@ -38914,12 +38943,12 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>Y718</t>
+          <t>Y715</t>
         </is>
       </c>
       <c r="B469" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
+          <t>Goods exported from Ukraine prior to 1 March 2014</t>
         </is>
       </c>
       <c r="C469" s="3" t="n"/>
@@ -38928,12 +38957,12 @@
     <row r="470">
       <c r="A470" s="2" t="inlineStr">
         <is>
-          <t>Y719</t>
+          <t>Y716</t>
         </is>
       </c>
       <c r="B470" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
+          <t>Goods returned to their legitimate owners in Ukraine</t>
         </is>
       </c>
       <c r="C470" s="2" t="n"/>
@@ -38942,12 +38971,12 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>Y720</t>
+          <t>Y717</t>
         </is>
       </c>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
+          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
         </is>
       </c>
       <c r="C471" s="3" t="n"/>
@@ -38956,12 +38985,12 @@
     <row r="472">
       <c r="A472" s="2" t="inlineStr">
         <is>
-          <t>Y721</t>
+          <t>Y718</t>
         </is>
       </c>
       <c r="B472" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n"/>
@@ -38970,12 +38999,12 @@
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>Y722</t>
+          <t>Y719</t>
         </is>
       </c>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
         </is>
       </c>
       <c r="C473" s="3" t="n"/>
@@ -38984,12 +39013,12 @@
     <row r="474">
       <c r="A474" s="2" t="inlineStr">
         <is>
-          <t>Y723</t>
+          <t>Y720</t>
         </is>
       </c>
       <c r="B474" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
+          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n"/>
@@ -38998,12 +39027,12 @@
     <row r="475">
       <c r="A475" s="3" t="inlineStr">
         <is>
-          <t>Y724</t>
+          <t>Y721</t>
         </is>
       </c>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
         </is>
       </c>
       <c r="C475" s="3" t="n"/>
@@ -39012,12 +39041,12 @@
     <row r="476">
       <c r="A476" s="2" t="inlineStr">
         <is>
-          <t>Y725</t>
+          <t>Y722</t>
         </is>
       </c>
       <c r="B476" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
         </is>
       </c>
       <c r="C476" s="2" t="n"/>
@@ -39026,12 +39055,12 @@
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>Y726</t>
+          <t>Y723</t>
         </is>
       </c>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
+          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
         </is>
       </c>
       <c r="C477" s="3" t="n"/>
@@ -39040,12 +39069,12 @@
     <row r="478">
       <c r="A478" s="2" t="inlineStr">
         <is>
-          <t>Y727</t>
+          <t>Y724</t>
         </is>
       </c>
       <c r="B478" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
         </is>
       </c>
       <c r="C478" s="2" t="n"/>
@@ -39054,12 +39083,12 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>Y728</t>
+          <t>Y725</t>
         </is>
       </c>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
+          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
         </is>
       </c>
       <c r="C479" s="3" t="n"/>
@@ -39068,12 +39097,12 @@
     <row r="480">
       <c r="A480" s="2" t="inlineStr">
         <is>
-          <t>Y729</t>
+          <t>Y726</t>
         </is>
       </c>
       <c r="B480" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
+          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n"/>
@@ -39082,12 +39111,12 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>Y730</t>
+          <t>Y727</t>
         </is>
       </c>
       <c r="B481" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
         </is>
       </c>
       <c r="C481" s="3" t="n"/>
@@ -39096,12 +39125,12 @@
     <row r="482">
       <c r="A482" s="2" t="inlineStr">
         <is>
-          <t>Y731</t>
+          <t>Y728</t>
         </is>
       </c>
       <c r="B482" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
         </is>
       </c>
       <c r="C482" s="2" t="n"/>
@@ -39110,12 +39139,12 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>Y732</t>
+          <t>Y729</t>
         </is>
       </c>
       <c r="B483" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
         </is>
       </c>
       <c r="C483" s="3" t="n"/>
@@ -39124,12 +39153,12 @@
     <row r="484">
       <c r="A484" s="2" t="inlineStr">
         <is>
-          <t>Y733</t>
+          <t>Y730</t>
         </is>
       </c>
       <c r="B484" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
+          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n"/>
@@ -39138,12 +39167,12 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>Y734</t>
+          <t>Y731</t>
         </is>
       </c>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
         </is>
       </c>
       <c r="C485" s="3" t="n"/>
@@ -39152,12 +39181,12 @@
     <row r="486">
       <c r="A486" s="2" t="inlineStr">
         <is>
-          <t>Y735</t>
+          <t>Y732</t>
         </is>
       </c>
       <c r="B486" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n"/>
@@ -39166,12 +39195,12 @@
     <row r="487">
       <c r="A487" s="3" t="inlineStr">
         <is>
-          <t>Y736</t>
+          <t>Y733</t>
         </is>
       </c>
       <c r="B487" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
         </is>
       </c>
       <c r="C487" s="3" t="n"/>
@@ -39180,12 +39209,12 @@
     <row r="488">
       <c r="A488" s="2" t="inlineStr">
         <is>
-          <t>Y737</t>
+          <t>Y734</t>
         </is>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
         </is>
       </c>
       <c r="C488" s="2" t="n"/>
@@ -39194,12 +39223,12 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>Y738</t>
+          <t>Y735</t>
         </is>
       </c>
       <c r="B489" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C489" s="3" t="n"/>
@@ -39208,12 +39237,12 @@
     <row r="490">
       <c r="A490" s="2" t="inlineStr">
         <is>
-          <t>Y739</t>
+          <t>Y736</t>
         </is>
       </c>
       <c r="B490" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C490" s="2" t="n"/>
@@ -39222,12 +39251,12 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>Y740</t>
+          <t>Y737</t>
         </is>
       </c>
       <c r="B491" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C491" s="3" t="n"/>
@@ -39236,12 +39265,12 @@
     <row r="492">
       <c r="A492" s="2" t="inlineStr">
         <is>
-          <t>Y741</t>
+          <t>Y738</t>
         </is>
       </c>
       <c r="B492" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C492" s="2" t="n"/>
@@ -39250,12 +39279,12 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>Y742</t>
+          <t>Y739</t>
         </is>
       </c>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C493" s="3" t="n"/>
@@ -39264,12 +39293,12 @@
     <row r="494">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>Y743</t>
+          <t>Y740</t>
         </is>
       </c>
       <c r="B494" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C494" s="2" t="n"/>
@@ -39278,12 +39307,12 @@
     <row r="495">
       <c r="A495" s="3" t="inlineStr">
         <is>
-          <t>Y744</t>
+          <t>Y741</t>
         </is>
       </c>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
         </is>
       </c>
       <c r="C495" s="3" t="n"/>
@@ -39292,12 +39321,12 @@
     <row r="496">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>Y745</t>
+          <t>Y742</t>
         </is>
       </c>
       <c r="B496" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
         </is>
       </c>
       <c r="C496" s="2" t="n"/>
@@ -39306,12 +39335,12 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>Y746</t>
+          <t>Y743</t>
         </is>
       </c>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
         </is>
       </c>
       <c r="C497" s="3" t="n"/>
@@ -39320,12 +39349,12 @@
     <row r="498">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>Y747</t>
+          <t>Y744</t>
         </is>
       </c>
       <c r="B498" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
         </is>
       </c>
       <c r="C498" s="2" t="n"/>
@@ -39334,12 +39363,12 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>Y748</t>
+          <t>Y745</t>
         </is>
       </c>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
         </is>
       </c>
       <c r="C499" s="3" t="n"/>
@@ -39348,12 +39377,12 @@
     <row r="500">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>Y784</t>
+          <t>Y746</t>
         </is>
       </c>
       <c r="B500" s="2" t="inlineStr">
         <is>
-          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C500" s="2" t="n"/>
@@ -39362,12 +39391,12 @@
     <row r="501">
       <c r="A501" s="3" t="inlineStr">
         <is>
-          <t>Y785</t>
+          <t>Y747</t>
         </is>
       </c>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C501" s="3" t="n"/>
@@ -39376,12 +39405,12 @@
     <row r="502">
       <c r="A502" s="2" t="inlineStr">
         <is>
-          <t>Y786</t>
+          <t>Y748</t>
         </is>
       </c>
       <c r="B502" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C502" s="2" t="n"/>
@@ -39390,12 +39419,12 @@
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>Y787</t>
+          <t>Y784</t>
         </is>
       </c>
       <c r="B503" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
+          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C503" s="3" t="n"/>
@@ -39404,12 +39433,12 @@
     <row r="504">
       <c r="A504" s="2" t="inlineStr">
         <is>
-          <t>Y788</t>
+          <t>Y785</t>
         </is>
       </c>
       <c r="B504" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
+          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n"/>
@@ -39418,12 +39447,12 @@
     <row r="505">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>Y789</t>
+          <t>Y786</t>
         </is>
       </c>
       <c r="B505" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C505" s="3" t="n"/>
@@ -39432,12 +39461,12 @@
     <row r="506">
       <c r="A506" s="2" t="inlineStr">
         <is>
-          <t>Y790</t>
+          <t>Y787</t>
         </is>
       </c>
       <c r="B506" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C506" s="2" t="n"/>
@@ -39446,12 +39475,12 @@
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>Y793</t>
+          <t>Y788</t>
         </is>
       </c>
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C507" s="3" t="n"/>
@@ -39460,12 +39489,12 @@
     <row r="508">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>Y794</t>
+          <t>Y789</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
         <is>
-          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C508" s="2" t="n"/>
@@ -39474,12 +39503,12 @@
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>Y795</t>
+          <t>Y790</t>
         </is>
       </c>
       <c r="B509" s="3" t="inlineStr">
         <is>
-          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
+          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C509" s="3" t="n"/>
@@ -39488,12 +39517,12 @@
     <row r="510">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>Y796</t>
+          <t>Y793</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
         <is>
-          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
+          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n"/>
@@ -39502,12 +39531,12 @@
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>Y839</t>
+          <t>Y794</t>
         </is>
       </c>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
+          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C511" s="3" t="n"/>
@@ -39516,12 +39545,12 @@
     <row r="512">
       <c r="A512" s="2" t="inlineStr">
         <is>
-          <t>Y844</t>
+          <t>Y795</t>
         </is>
       </c>
       <c r="B512" s="2" t="inlineStr">
         <is>
-          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
+          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
         </is>
       </c>
       <c r="C512" s="2" t="n"/>
@@ -39530,12 +39559,12 @@
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>Y852</t>
+          <t>Y796</t>
         </is>
       </c>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
+          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C513" s="3" t="n"/>
@@ -39544,12 +39573,12 @@
     <row r="514">
       <c r="A514" s="2" t="inlineStr">
         <is>
-          <t>Y864</t>
+          <t>Y839</t>
         </is>
       </c>
       <c r="B514" s="2" t="inlineStr">
         <is>
-          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
+          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
         </is>
       </c>
       <c r="C514" s="2" t="n"/>
@@ -39558,12 +39587,12 @@
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>Y865</t>
+          <t>Y844</t>
         </is>
       </c>
       <c r="B515" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
+          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
         </is>
       </c>
       <c r="C515" s="3" t="n"/>
@@ -39572,12 +39601,12 @@
     <row r="516">
       <c r="A516" s="2" t="inlineStr">
         <is>
-          <t>Y866</t>
+          <t>Y852</t>
         </is>
       </c>
       <c r="B516" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n"/>
@@ -39586,12 +39615,12 @@
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>Y867</t>
+          <t>Y864</t>
         </is>
       </c>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
+          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
         </is>
       </c>
       <c r="C517" s="3" t="n"/>
@@ -39600,12 +39629,12 @@
     <row r="518">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>Y868</t>
+          <t>Y865</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n"/>
@@ -39614,12 +39643,12 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>Y869</t>
+          <t>Y866</t>
         </is>
       </c>
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
         </is>
       </c>
       <c r="C519" s="3" t="n"/>
@@ -39628,12 +39657,12 @@
     <row r="520">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>Y870</t>
+          <t>Y867</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
         <is>
-          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
+          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
         </is>
       </c>
       <c r="C520" s="2" t="n"/>
@@ -39642,12 +39671,12 @@
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>Y872</t>
+          <t>Y868</t>
         </is>
       </c>
       <c r="B521" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C521" s="3" t="n"/>
@@ -39656,12 +39685,12 @@
     <row r="522">
       <c r="A522" s="2" t="inlineStr">
         <is>
-          <t>Y873</t>
+          <t>Y869</t>
         </is>
       </c>
       <c r="B522" s="2" t="inlineStr">
         <is>
-          <t>Goods not transited via the territory of Russia</t>
+          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
         </is>
       </c>
       <c r="C522" s="2" t="n"/>
@@ -39670,12 +39699,12 @@
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>Y874</t>
+          <t>Y870</t>
         </is>
       </c>
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
+          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
         </is>
       </c>
       <c r="C523" s="3" t="n"/>
@@ -39684,12 +39713,12 @@
     <row r="524">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>Y875</t>
+          <t>Y872</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C524" s="2" t="n"/>
@@ -39698,12 +39727,12 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>Y876</t>
+          <t>Y873</t>
         </is>
       </c>
       <c r="B525" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
+          <t>Goods not transited via the territory of Russia</t>
         </is>
       </c>
       <c r="C525" s="3" t="n"/>
@@ -39712,12 +39741,12 @@
     <row r="526">
       <c r="A526" s="2" t="inlineStr">
         <is>
-          <t>Y877</t>
+          <t>Y874</t>
         </is>
       </c>
       <c r="B526" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
         </is>
       </c>
       <c r="C526" s="2" t="n"/>
@@ -39726,12 +39755,12 @@
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>Y878</t>
+          <t>Y875</t>
         </is>
       </c>
       <c r="B527" s="3" t="inlineStr">
         <is>
-          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
         </is>
       </c>
       <c r="C527" s="3" t="n"/>
@@ -39740,12 +39769,12 @@
     <row r="528">
       <c r="A528" s="2" t="inlineStr">
         <is>
-          <t>Y879</t>
+          <t>Y876</t>
         </is>
       </c>
       <c r="B528" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C528" s="2" t="n"/>
@@ -39754,12 +39783,12 @@
     <row r="529">
       <c r="A529" s="3" t="inlineStr">
         <is>
-          <t>Y890</t>
+          <t>Y877</t>
         </is>
       </c>
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
         </is>
       </c>
       <c r="C529" s="3" t="n"/>
@@ -39768,12 +39797,12 @@
     <row r="530">
       <c r="A530" s="2" t="inlineStr">
         <is>
-          <t>Y891</t>
+          <t>Y878</t>
         </is>
       </c>
       <c r="B530" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
+          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C530" s="2" t="n"/>
@@ -39782,12 +39811,12 @@
     <row r="531">
       <c r="A531" s="3" t="inlineStr">
         <is>
-          <t>Y892</t>
+          <t>Y879</t>
         </is>
       </c>
       <c r="B531" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C531" s="3" t="n"/>
@@ -39796,12 +39825,12 @@
     <row r="532">
       <c r="A532" s="2" t="inlineStr">
         <is>
-          <t>Y893</t>
+          <t>Y890</t>
         </is>
       </c>
       <c r="B532" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
         </is>
       </c>
       <c r="C532" s="2" t="n"/>
@@ -39810,12 +39839,12 @@
     <row r="533">
       <c r="A533" s="3" t="inlineStr">
         <is>
-          <t>Y894</t>
+          <t>Y891</t>
         </is>
       </c>
       <c r="B533" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
         </is>
       </c>
       <c r="C533" s="3" t="n"/>
@@ -39824,12 +39853,12 @@
     <row r="534">
       <c r="A534" s="2" t="inlineStr">
         <is>
-          <t>Y895</t>
+          <t>Y892</t>
         </is>
       </c>
       <c r="B534" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
+          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
         </is>
       </c>
       <c r="C534" s="2" t="n"/>
@@ -39838,12 +39867,12 @@
     <row r="535">
       <c r="A535" s="3" t="inlineStr">
         <is>
-          <t>Y896</t>
+          <t>Y893</t>
         </is>
       </c>
       <c r="B535" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
         </is>
       </c>
       <c r="C535" s="3" t="n"/>
@@ -39852,12 +39881,12 @@
     <row r="536">
       <c r="A536" s="2" t="inlineStr">
         <is>
-          <t>Y897</t>
+          <t>Y894</t>
         </is>
       </c>
       <c r="B536" s="2" t="inlineStr">
         <is>
-          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
         </is>
       </c>
       <c r="C536" s="2" t="n"/>
@@ -39866,12 +39895,12 @@
     <row r="537">
       <c r="A537" s="3" t="inlineStr">
         <is>
-          <t>Y898</t>
+          <t>Y895</t>
         </is>
       </c>
       <c r="B537" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
         </is>
       </c>
       <c r="C537" s="3" t="n"/>
@@ -39880,12 +39909,12 @@
     <row r="538">
       <c r="A538" s="2" t="inlineStr">
         <is>
-          <t>Y900</t>
+          <t>Y896</t>
         </is>
       </c>
       <c r="B538" s="2" t="inlineStr">
         <is>
-          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
         </is>
       </c>
       <c r="C538" s="2" t="n"/>
@@ -39894,12 +39923,12 @@
     <row r="539">
       <c r="A539" s="3" t="inlineStr">
         <is>
-          <t>Y902</t>
+          <t>Y897</t>
         </is>
       </c>
       <c r="B539" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
+          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
         </is>
       </c>
       <c r="C539" s="3" t="n"/>
@@ -39908,12 +39937,12 @@
     <row r="540">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>Y904</t>
+          <t>Y898</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure</t>
+          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n"/>
@@ -39922,12 +39951,12 @@
     <row r="541">
       <c r="A541" s="3" t="inlineStr">
         <is>
-          <t>Y906</t>
+          <t>Y900</t>
         </is>
       </c>
       <c r="B541" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
+          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
         </is>
       </c>
       <c r="C541" s="3" t="n"/>
@@ -39936,12 +39965,12 @@
     <row r="542">
       <c r="A542" s="2" t="inlineStr">
         <is>
-          <t>Y907</t>
+          <t>Y902</t>
         </is>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
+          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C542" s="2" t="n"/>
@@ -39950,12 +39979,12 @@
     <row r="543">
       <c r="A543" s="3" t="inlineStr">
         <is>
-          <t>Y910</t>
+          <t>Y904</t>
         </is>
       </c>
       <c r="B543" s="3" t="inlineStr">
         <is>
-          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C543" s="3" t="n"/>
@@ -39964,12 +39993,12 @@
     <row r="544">
       <c r="A544" s="2" t="inlineStr">
         <is>
-          <t>Y915</t>
+          <t>Y906</t>
         </is>
       </c>
       <c r="B544" s="2" t="inlineStr">
         <is>
-          <t>Reference Identification Number</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
         </is>
       </c>
       <c r="C544" s="2" t="n"/>
@@ -39978,12 +40007,12 @@
     <row r="545">
       <c r="A545" s="3" t="inlineStr">
         <is>
-          <t>Y916</t>
+          <t>Y907</t>
         </is>
       </c>
       <c r="B545" s="3" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
+          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
         </is>
       </c>
       <c r="C545" s="3" t="n"/>
@@ -39992,12 +40021,12 @@
     <row r="546">
       <c r="A546" s="2" t="inlineStr">
         <is>
-          <t>Y917</t>
+          <t>Y910</t>
         </is>
       </c>
       <c r="B546" s="2" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
+          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
         </is>
       </c>
       <c r="C546" s="2" t="n"/>
@@ -40006,12 +40035,12 @@
     <row r="547">
       <c r="A547" s="3" t="inlineStr">
         <is>
-          <t>Y918</t>
+          <t>Y915</t>
         </is>
       </c>
       <c r="B547" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
+          <t>Reference Identification Number</t>
         </is>
       </c>
       <c r="C547" s="3" t="n"/>
@@ -40020,12 +40049,12 @@
     <row r="548">
       <c r="A548" s="2" t="inlineStr">
         <is>
-          <t>Y919</t>
+          <t>Y916</t>
         </is>
       </c>
       <c r="B548" s="2" t="inlineStr">
         <is>
-          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
         </is>
       </c>
       <c r="C548" s="2" t="n"/>
@@ -40034,12 +40063,12 @@
     <row r="549">
       <c r="A549" s="3" t="inlineStr">
         <is>
-          <t>Y920</t>
+          <t>Y917</t>
         </is>
       </c>
       <c r="B549" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
         </is>
       </c>
       <c r="C549" s="3" t="n"/>
@@ -40048,12 +40077,12 @@
     <row r="550">
       <c r="A550" s="2" t="inlineStr">
         <is>
-          <t>Y921</t>
+          <t>Y918</t>
         </is>
       </c>
       <c r="B550" s="2" t="inlineStr">
         <is>
-          <t>Goods exempted from the prohibition</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
         </is>
       </c>
       <c r="C550" s="2" t="n"/>
@@ -40062,12 +40091,12 @@
     <row r="551">
       <c r="A551" s="3" t="inlineStr">
         <is>
-          <t>Y922</t>
+          <t>Y919</t>
         </is>
       </c>
       <c r="B551" s="3" t="inlineStr">
         <is>
-          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
+          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
         </is>
       </c>
       <c r="C551" s="3" t="n"/>
@@ -40076,12 +40105,12 @@
     <row r="552">
       <c r="A552" s="2" t="inlineStr">
         <is>
-          <t>Y923</t>
+          <t>Y920</t>
         </is>
       </c>
       <c r="B552" s="2" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
+          <t>Goods other than those described in the footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C552" s="2" t="n"/>
@@ -40090,12 +40119,12 @@
     <row r="553">
       <c r="A553" s="3" t="inlineStr">
         <is>
-          <t>Y924</t>
+          <t>Y921</t>
         </is>
       </c>
       <c r="B553" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2017/852</t>
+          <t>Goods exempted from the prohibition</t>
         </is>
       </c>
       <c r="C553" s="3" t="n"/>
@@ -40104,12 +40133,12 @@
     <row r="554">
       <c r="A554" s="2" t="inlineStr">
         <is>
-          <t>Y926</t>
+          <t>Y922</t>
         </is>
       </c>
       <c r="B554" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
+          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n"/>
@@ -40118,12 +40147,12 @@
     <row r="555">
       <c r="A555" s="3" t="inlineStr">
         <is>
-          <t>Y927</t>
+          <t>Y923</t>
         </is>
       </c>
       <c r="B555" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
+          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
         </is>
       </c>
       <c r="C555" s="3" t="n"/>
@@ -40132,12 +40161,12 @@
     <row r="556">
       <c r="A556" s="2" t="inlineStr">
         <is>
-          <t>Y928</t>
+          <t>Y924</t>
         </is>
       </c>
       <c r="B556" s="2" t="inlineStr">
         <is>
-          <t>De angivne varer er ikke omfattet af Kommissionens Gennemførselsforordning (EU) 2021/1533 (en)</t>
+          <t>Goods not concerned by Regulation (EU) 2017/852</t>
         </is>
       </c>
       <c r="C556" s="2" t="n"/>
@@ -40146,12 +40175,12 @@
     <row r="557">
       <c r="A557" s="3" t="inlineStr">
         <is>
-          <t>Y929</t>
+          <t>Y926</t>
         </is>
       </c>
       <c r="B557" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
+          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C557" s="3" t="n"/>
@@ -40160,12 +40189,12 @@
     <row r="558">
       <c r="A558" s="2" t="inlineStr">
         <is>
-          <t>Y930</t>
+          <t>Y927</t>
         </is>
       </c>
       <c r="B558" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
         </is>
       </c>
       <c r="C558" s="2" t="n"/>
@@ -40174,12 +40203,12 @@
     <row r="559">
       <c r="A559" s="3" t="inlineStr">
         <is>
-          <t>Y931</t>
+          <t>Y928</t>
         </is>
       </c>
       <c r="B559" s="3" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
+          <t>De angivne varer er ikke omfattet af Kommissionens Gennemførselsforordning (EU) 2021/1533 (en)</t>
         </is>
       </c>
       <c r="C559" s="3" t="n"/>
@@ -40188,12 +40217,12 @@
     <row r="560">
       <c r="A560" s="2" t="inlineStr">
         <is>
-          <t>Y932</t>
+          <t>Y929</t>
         </is>
       </c>
       <c r="B560" s="2" t="inlineStr">
         <is>
-          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
+          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
         </is>
       </c>
       <c r="C560" s="2" t="n"/>
@@ -40202,12 +40231,12 @@
     <row r="561">
       <c r="A561" s="3" t="inlineStr">
         <is>
-          <t>Y935</t>
+          <t>Y930</t>
         </is>
       </c>
       <c r="B561" s="3" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
         </is>
       </c>
       <c r="C561" s="3" t="n"/>
@@ -40216,12 +40245,12 @@
     <row r="562">
       <c r="A562" s="2" t="inlineStr">
         <is>
-          <t>Y937</t>
+          <t>Y931</t>
         </is>
       </c>
       <c r="B562" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
         </is>
       </c>
       <c r="C562" s="2" t="n"/>
@@ -40230,12 +40259,12 @@
     <row r="563">
       <c r="A563" s="3" t="inlineStr">
         <is>
-          <t>Y939</t>
+          <t>Y932</t>
         </is>
       </c>
       <c r="B563" s="3" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
+          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
         </is>
       </c>
       <c r="C563" s="3" t="n"/>
@@ -40244,12 +40273,12 @@
     <row r="564">
       <c r="A564" s="2" t="inlineStr">
         <is>
-          <t>Y942</t>
+          <t>Y935</t>
         </is>
       </c>
       <c r="B564" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
+          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n"/>
@@ -40258,12 +40287,12 @@
     <row r="565">
       <c r="A565" s="3" t="inlineStr">
         <is>
-          <t>Y944</t>
+          <t>Y937</t>
         </is>
       </c>
       <c r="B565" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C565" s="3" t="n"/>
@@ -40272,12 +40301,12 @@
     <row r="566">
       <c r="A566" s="2" t="inlineStr">
         <is>
-          <t>Y945</t>
+          <t>Y939</t>
         </is>
       </c>
       <c r="B566" s="2" t="inlineStr">
         <is>
-          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
+          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
         </is>
       </c>
       <c r="C566" s="2" t="n"/>
@@ -40286,12 +40315,12 @@
     <row r="567">
       <c r="A567" s="3" t="inlineStr">
         <is>
-          <t>Y946</t>
+          <t>Y942</t>
         </is>
       </c>
       <c r="B567" s="3" t="inlineStr">
         <is>
-          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
         </is>
       </c>
       <c r="C567" s="3" t="n"/>
@@ -40300,12 +40329,12 @@
     <row r="568">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>Y947</t>
+          <t>Y944</t>
         </is>
       </c>
       <c r="B568" s="2" t="inlineStr">
         <is>
-          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C568" s="2" t="n"/>
@@ -40314,12 +40343,12 @@
     <row r="569">
       <c r="A569" s="3" t="inlineStr">
         <is>
-          <t>Y948</t>
+          <t>Y945</t>
         </is>
       </c>
       <c r="B569" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
+          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C569" s="3" t="n"/>
@@ -40328,12 +40357,12 @@
     <row r="570">
       <c r="A570" s="2" t="inlineStr">
         <is>
-          <t>Y949</t>
+          <t>Y946</t>
         </is>
       </c>
       <c r="B570" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
+          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n"/>
@@ -40342,12 +40371,12 @@
     <row r="571">
       <c r="A571" s="3" t="inlineStr">
         <is>
-          <t>Y950</t>
+          <t>Y947</t>
         </is>
       </c>
       <c r="B571" s="3" t="inlineStr">
         <is>
-          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
+          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C571" s="3" t="n"/>
@@ -40356,12 +40385,12 @@
     <row r="572">
       <c r="A572" s="2" t="inlineStr">
         <is>
-          <t>Y951</t>
+          <t>Y948</t>
         </is>
       </c>
       <c r="B572" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2.(f) of Regulation (EU) 517/2014 or 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
+          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C572" s="2" t="n"/>
@@ -40370,12 +40399,12 @@
     <row r="573">
       <c r="A573" s="3" t="inlineStr">
         <is>
-          <t>Y952</t>
+          <t>Y949</t>
         </is>
       </c>
       <c r="B573" s="3" t="inlineStr">
         <is>
-          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
+          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
         </is>
       </c>
       <c r="C573" s="3" t="n"/>
@@ -40384,12 +40413,12 @@
     <row r="574">
       <c r="A574" s="2" t="inlineStr">
         <is>
-          <t>Y953</t>
+          <t>Y950</t>
         </is>
       </c>
       <c r="B574" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
+          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
         </is>
       </c>
       <c r="C574" s="2" t="n"/>
@@ -40398,12 +40427,12 @@
     <row r="575">
       <c r="A575" s="3" t="inlineStr">
         <is>
-          <t>Y955</t>
+          <t>Y951</t>
         </is>
       </c>
       <c r="B575" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2.(f) of Regulation (EU) 517/2014 or 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C575" s="3" t="n"/>
@@ -40412,12 +40441,12 @@
     <row r="576">
       <c r="A576" s="2" t="inlineStr">
         <is>
-          <t>Y956</t>
+          <t>Y952</t>
         </is>
       </c>
       <c r="B576" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
+          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
         </is>
       </c>
       <c r="C576" s="2" t="n"/>
@@ -40426,12 +40455,12 @@
     <row r="577">
       <c r="A577" s="3" t="inlineStr">
         <is>
-          <t>Y957</t>
+          <t>Y953</t>
         </is>
       </c>
       <c r="B577" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
+          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
         </is>
       </c>
       <c r="C577" s="3" t="n"/>
@@ -40440,12 +40469,12 @@
     <row r="578">
       <c r="A578" s="2" t="inlineStr">
         <is>
-          <t>Y958</t>
+          <t>Y955</t>
         </is>
       </c>
       <c r="B578" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C578" s="2" t="n"/>
@@ -40454,12 +40483,12 @@
     <row r="579">
       <c r="A579" s="3" t="inlineStr">
         <is>
-          <t>Y959</t>
+          <t>Y956</t>
         </is>
       </c>
       <c r="B579" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C579" s="3" t="n"/>
@@ -40468,12 +40497,12 @@
     <row r="580">
       <c r="A580" s="2" t="inlineStr">
         <is>
-          <t>Y960</t>
+          <t>Y957</t>
         </is>
       </c>
       <c r="B580" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n"/>
@@ -40482,12 +40511,12 @@
     <row r="581">
       <c r="A581" s="3" t="inlineStr">
         <is>
-          <t>Y961</t>
+          <t>Y958</t>
         </is>
       </c>
       <c r="B581" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C581" s="3" t="n"/>
@@ -40496,12 +40525,12 @@
     <row r="582">
       <c r="A582" s="2" t="inlineStr">
         <is>
-          <t>Y962</t>
+          <t>Y959</t>
         </is>
       </c>
       <c r="B582" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C582" s="2" t="n"/>
@@ -40510,12 +40539,12 @@
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
         <is>
-          <t>Y963</t>
+          <t>Y960</t>
         </is>
       </c>
       <c r="B583" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C583" s="3" t="n"/>
@@ -40524,12 +40553,12 @@
     <row r="584">
       <c r="A584" s="2" t="inlineStr">
         <is>
-          <t>Y964</t>
+          <t>Y961</t>
         </is>
       </c>
       <c r="B584" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C584" s="2" t="n"/>
@@ -40538,12 +40567,12 @@
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
         <is>
-          <t>Y965</t>
+          <t>Y962</t>
         </is>
       </c>
       <c r="B585" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C585" s="3" t="n"/>
@@ -40552,12 +40581,12 @@
     <row r="586">
       <c r="A586" s="2" t="inlineStr">
         <is>
-          <t>Y969</t>
+          <t>Y963</t>
         </is>
       </c>
       <c r="B586" s="2" t="inlineStr">
         <is>
-          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n"/>
@@ -40566,12 +40595,12 @@
     <row r="587">
       <c r="A587" s="3" t="inlineStr">
         <is>
-          <t>Y970</t>
+          <t>Y964</t>
         </is>
       </c>
       <c r="B587" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C587" s="3" t="n"/>
@@ -40580,12 +40609,12 @@
     <row r="588">
       <c r="A588" s="2" t="inlineStr">
         <is>
-          <t>Y971</t>
+          <t>Y965</t>
         </is>
       </c>
       <c r="B588" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C588" s="2" t="n"/>
@@ -40594,12 +40623,12 @@
     <row r="589">
       <c r="A589" s="3" t="inlineStr">
         <is>
-          <t>Y972</t>
+          <t>Y969</t>
         </is>
       </c>
       <c r="B589" s="3" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
+          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
         </is>
       </c>
       <c r="C589" s="3" t="n"/>
@@ -40608,12 +40637,12 @@
     <row r="590">
       <c r="A590" s="2" t="inlineStr">
         <is>
-          <t>Y976</t>
+          <t>Y970</t>
         </is>
       </c>
       <c r="B590" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C590" s="2" t="n"/>
@@ -40622,12 +40651,12 @@
     <row r="591">
       <c r="A591" s="3" t="inlineStr">
         <is>
-          <t>Y978</t>
+          <t>Y971</t>
         </is>
       </c>
       <c r="B591" s="3" t="inlineStr">
         <is>
-          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C591" s="3" t="n"/>
@@ -40636,12 +40665,12 @@
     <row r="592">
       <c r="A592" s="2" t="inlineStr">
         <is>
-          <t>Y980</t>
+          <t>Y972</t>
         </is>
       </c>
       <c r="B592" s="2" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C592" s="2" t="n"/>
@@ -40650,12 +40679,12 @@
     <row r="593">
       <c r="A593" s="3" t="inlineStr">
         <is>
-          <t>Y983</t>
+          <t>Y976</t>
         </is>
       </c>
       <c r="B593" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
+          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
         </is>
       </c>
       <c r="C593" s="3" t="n"/>
@@ -40664,12 +40693,12 @@
     <row r="594">
       <c r="A594" s="2" t="inlineStr">
         <is>
-          <t>Y984</t>
+          <t>Y978</t>
         </is>
       </c>
       <c r="B594" s="2" t="inlineStr">
         <is>
-          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
+          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C594" s="2" t="n"/>
@@ -40678,12 +40707,12 @@
     <row r="595">
       <c r="A595" s="3" t="inlineStr">
         <is>
-          <t>Y986</t>
+          <t>Y980</t>
         </is>
       </c>
       <c r="B595" s="3" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
         </is>
       </c>
       <c r="C595" s="3" t="n"/>
@@ -40692,12 +40721,12 @@
     <row r="596">
       <c r="A596" s="2" t="inlineStr">
         <is>
-          <t>Y987</t>
+          <t>Y983</t>
         </is>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
+          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
         </is>
       </c>
       <c r="C596" s="2" t="n"/>
@@ -40706,16 +40735,58 @@
     <row r="597">
       <c r="A597" s="3" t="inlineStr">
         <is>
-          <t>Y988</t>
+          <t>Y984</t>
         </is>
       </c>
       <c r="B597" s="3" t="inlineStr">
         <is>
-          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
+          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
         </is>
       </c>
       <c r="C597" s="3" t="n"/>
       <c r="D597" s="3" t="n"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="inlineStr">
+        <is>
+          <t>Y986</t>
+        </is>
+      </c>
+      <c r="B598" s="2" t="inlineStr">
+        <is>
+          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
+        </is>
+      </c>
+      <c r="C598" s="2" t="n"/>
+      <c r="D598" s="2" t="n"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="3" t="inlineStr">
+        <is>
+          <t>Y987</t>
+        </is>
+      </c>
+      <c r="B599" s="3" t="inlineStr">
+        <is>
+          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
+        </is>
+      </c>
+      <c r="C599" s="3" t="n"/>
+      <c r="D599" s="3" t="n"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="inlineStr">
+        <is>
+          <t>Y988</t>
+        </is>
+      </c>
+      <c r="B600" s="2" t="inlineStr">
+        <is>
+          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
+        </is>
+      </c>
+      <c r="C600" s="2" t="n"/>
+      <c r="D600" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42226,7 +42297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42253,12 +42324,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>C057</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Copy of the declaration of conformity - Option A, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
+          <t>Received</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -42267,12 +42338,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>C079</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Copy of the declaration of conformity - Option B, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
+          <t>Provisional Customs Debt Covered</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -42281,12 +42352,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>C082</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Copy of the declaration of conformity - Option C, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
+          <t>Goods Released</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -42295,12 +42366,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>C085</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>CHED-PP - Common Health Entry Document for Plants and Plant Products</t>
+          <t>Preparing for Clearance</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -42309,12 +42380,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>C400</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Presentation of the required 'CITES' certificate</t>
+          <t>Final Customs Debt Determined</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -42323,12 +42394,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CITES Export permit or Re-export certificate issued by a third country</t>
+          <t>Final Customs Debt Covered</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -42337,12 +42408,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>C638</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CITES Import permit</t>
+          <t>Clearance Provided</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -42351,12 +42422,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>C640</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CHED-A - Common Health Entry Document for Animals</t>
+          <t>Completed Successfully</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -42365,12 +42436,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>C644</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>COI - Certificate of inspection for organic products</t>
+          <t>Handled externally (no clearance)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -42379,12 +42450,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>C646</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>NOA - Notification of Arrival (Common Health Entry Document for Food and Feed of Non-Animal Origin, Food Contact Materials and Plant Protection Products)</t>
+          <t>Invalidated</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -42393,12 +42464,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>C678</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CHED-D - Common Health Entry Document for Feed and Food of Non-Animal Origin</t>
+          <t>Rejected</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -42407,12 +42478,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>C690</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>FLEGT - Forest Law Enforcement, Governance and Trade</t>
+          <t>Irregularity Detected</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -42421,12 +42492,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>ODS Export - Export license "controlled substances" (ozone), issued by the Commission</t>
+          <t>Functional Exception Detected</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -42435,12 +42506,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>L049</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ICGL - Import licence for cultural goods, issued in accordance with Article 4 of Regulation (EU) 2019/880</t>
+          <t>Received - Pending Validation</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -42449,12 +42520,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>L050</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ICGS - Importer statement for cultural goods (Article 5 of Regulation (EU) 2019/880)</t>
+          <t>Registered</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -42463,12 +42534,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>L065</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ICGS - Importer statement for cultural goods, presented in lieu of a licence, for cultural goods that have been placed under the temporary admission procedure (Article 3.5 of Regulation (EU) 2019/880)</t>
+          <t>Not Yet Requested</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -42477,12 +42548,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>L100</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>ODS Import - Import license "controlled substances" (ozone), issued by the Commission</t>
+          <t>Not Yet Calculated</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
@@ -42491,12 +42562,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>N853</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CHED-P - Common Health Entry Document for Animal Products</t>
+          <t>Not Released</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -42505,12 +42576,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>X060</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>DUES Individual Export Authorisation - Article 12(1)(a) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>No control</t>
         </is>
       </c>
       <c r="C20" s="2" t="n"/>
@@ -42519,12 +42590,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>X061</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU001 - ANNEX II A - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Indicative Customs Debt Determined</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -42533,12 +42604,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>X062</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU002 - ANNEX II B - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Final Coverage Requested</t>
         </is>
       </c>
       <c r="C22" s="2" t="n"/>
@@ -42547,12 +42618,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>X063</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU003 - ANNEX II C - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Provisional Coverage Requested</t>
         </is>
       </c>
       <c r="C23" s="3" t="n"/>
@@ -42561,12 +42632,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>X064</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU004 - ANNEX II D - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Control in progress</t>
         </is>
       </c>
       <c r="C24" s="2" t="n"/>
@@ -42575,12 +42646,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>X065</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU005 - ANNEX II E - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Control finalized</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -42589,12 +42660,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>X066</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU006 - ANNEX II F - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Under risk assessment</t>
         </is>
       </c>
       <c r="C26" s="2" t="n"/>
@@ -42603,12 +42674,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>X067</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU007 - ANNEX II G - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Accepted</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -42617,12 +42688,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>X068</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>DUES Union General Export Authorisation No EU008 - ANNEX II H - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Pending - Manual Acceptance</t>
         </is>
       </c>
       <c r="C28" s="2" t="n"/>
@@ -42631,12 +42702,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>X070</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>DUES Global Export Authorisation - referred to in Article 12(1)(b) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Declaration queued for manual case handling</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
@@ -42645,12 +42716,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>X071</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>DUES National General Export Authorisations in national Official Journals - ANNEX III C - referred to in Article 12(6) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Manual Case handling in progress</t>
         </is>
       </c>
       <c r="C30" s="2" t="n"/>
@@ -42659,12 +42730,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>X072</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DUES Transit Licence for dual Use Items - referred to in Article 7 of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+          <t>Manual Case handling completed</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
@@ -42673,12 +42744,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Y120</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Undertaking importing less than 100 tonnes of CO2 equivalent of hydrofluorocarbons per year and exempted from the reduction of the quantity of hydrofluorocarbons placed on the EU market according to article 15.2 first sub paragraph</t>
+          <t>Intention to Control</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -42687,12 +42758,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Y123</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>FGAS - Undertaking registered in the F-Gas Portal according to Article 20 of Regulation (EU) 2024/573/573</t>
+          <t>Under Control</t>
         </is>
       </c>
       <c r="C33" s="3" t="n"/>
@@ -42701,12 +42772,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Y124</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Undertaking importing smaller amount of fluorinated greenhouse gases per year than that specified in Article 19.1 for bulk imports and 19.4 for products and equipment imports, and therefore not covered by the registration requirement</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="C34" s="2" t="n"/>
@@ -42715,12 +42786,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Y125</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Import falling under Article 15.1 of Regulation (EU) N° 517/2014 on the reduction of the quantity of hydrofluorocarbons placed on the EU market</t>
+          <t>Paper Based Registered</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -42729,12 +42800,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Y128</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>CBAM - Unique Account Number of the Authorised CBAM Declarant, in accordance with Article 16.1 of Regulation (EU) 2023/956</t>
+          <t>Paper Based Rejected</t>
         </is>
       </c>
       <c r="C36" s="2" t="n"/>
@@ -42743,12 +42814,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Y138</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
+          <t>Paper Based Cancelled</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
@@ -42757,12 +42828,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Y139</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods imported as per Article 3.4(b) and (c) of Regulation (EU) 2019/880</t>
+          <t>Under Partial Release</t>
         </is>
       </c>
       <c r="C38" s="2" t="n"/>
@@ -42771,12 +42842,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Y152</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>FGAS - Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
+          <t>Partial Goods Released</t>
         </is>
       </c>
       <c r="C39" s="3" t="n"/>
@@ -42785,12 +42856,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Y154</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>FGAS - Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Art.11.3 Reg. 2024/573</t>
+          <t>Under Exit Confirmation Request</t>
         </is>
       </c>
       <c r="C40" s="2" t="n"/>
@@ -42799,12 +42870,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Y161</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>FGAS - Exemption from export prohibition according to Article 22.3, second subparagraph of Regulation (EU) 2024/573</t>
+          <t>Partial Goods Not Released</t>
         </is>
       </c>
       <c r="C41" s="3" t="n"/>
@@ -42813,12 +42884,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Y951</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2 (a) to (f) of Regulation (EU) No 517/2014</t>
+          <t>Control Not Satisfactory</t>
         </is>
       </c>
       <c r="C42" s="2" t="n"/>
@@ -42827,12 +42898,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Y972</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>FGAS - Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
+          <t>Under Storage</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
@@ -42841,16 +42912,366 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Y986</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) N° 517/2014</t>
+          <t>Under Customs Supervision</t>
         </is>
       </c>
       <c r="C44" s="2" t="n"/>
       <c r="D44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Under Amendment</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Preparing for Release</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Provisional Customs Debt Determined</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>AER Created</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>AER Requested</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Goods Presented at Exit</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Diversion Rejected</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Arrived Elsewhere</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Goods Not Allowed to Exit</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>G08</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Exited</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>Invalidated</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>G10</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Registered</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Summary Declaration Requested</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Partially Exited</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Under Control</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>G14</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Goods Presented at Transit</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n"/>
+      <c r="D62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>Handled Elsewhere</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>G16</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Goods Ready to be released</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n"/>
+      <c r="D64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>G50</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Goods Released for Immediate Leave (Partial)</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>G51</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Goods Released for Immediate Leave</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n"/>
+      <c r="D66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>G52</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Goods Held for Storing</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>G99</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Completed Successfully</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Assumed Exited</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42863,7 +43284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42890,12 +43311,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Y121</t>
+          <t>C057</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>FGAS Tones of CO2 equivalent of bulk gases and of gases contained in products or equipment, and parts thereof</t>
+          <t>Copy of the declaration of conformity - Option A, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -42904,12 +43325,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Y163</t>
+          <t>C079</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FGAS Net mass of F-gases charged in products and equipment</t>
+          <t>Copy of the declaration of conformity - Option B, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -42918,12 +43339,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Y797</t>
+          <t>C082</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ODS - Licensing system registration identification number as defined in Article 17.3 (a)</t>
+          <t>Copy of the declaration of conformity - Option C, as referred to in Article 1.2 and in the Annex to Commission Implementing Regulation (EU) 2016/879</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -42932,12 +43353,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Y798</t>
+          <t>C085</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ODS - Declaration of net mass of ozone -depleting substance(s), when included in products and equipment</t>
+          <t>CHED-PP - Common Health Entry Document for Plants and Plant Products</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -42946,16 +43367,562 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Y799</t>
+          <t>C400</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>ODS - net mass of the ODS multiplied by the ODP of the ozone-depleting substance(s), also when included in products and equipment</t>
+          <t>Presentation of the required 'CITES' certificate</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>CITES Export permit or Re-export certificate issued by a third country</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>C638</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>CITES Import permit</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>C640</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>CHED-A - Common Health Entry Document for Animals</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>C644</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>COI - Certificate of inspection for organic products</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>C646</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>NOA - Notification of Arrival (Common Health Entry Document for Food and Feed of Non-Animal Origin, Food Contact Materials and Plant Protection Products)</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>C678</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>CHED-D - Common Health Entry Document for Feed and Food of Non-Animal Origin</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>C690</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>FLEGT - Forest Law Enforcement, Governance and Trade</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>E013</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>ODS Export - Export license "controlled substances" (ozone), issued by the Commission</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>L049</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ICGL - Import licence for cultural goods, issued in accordance with Article 4 of Regulation (EU) 2019/880</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>L050</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>ICGS - Importer statement for cultural goods (Article 5 of Regulation (EU) 2019/880)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>L065</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ICGS - Importer statement for cultural goods, presented in lieu of a licence, for cultural goods that have been placed under the temporary admission procedure (Article 3.5 of Regulation (EU) 2019/880)</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>L100</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>ODS Import - Import license "controlled substances" (ozone), issued by the Commission</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>N853</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>CHED-P - Common Health Entry Document for Animal Products</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>X060</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>DUES Individual Export Authorisation - Article 12(1)(a) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>X061</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU001 - ANNEX II A - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>X062</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU002 - ANNEX II B - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>X063</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU003 - ANNEX II C - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>X064</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU004 - ANNEX II D - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>X065</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU005 - ANNEX II E - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>X066</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU006 - ANNEX II F - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>X067</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU007 - ANNEX II G - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>X068</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>DUES Union General Export Authorisation No EU008 - ANNEX II H - referred to in Article 12(1)(d) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>X070</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>DUES Global Export Authorisation - referred to in Article 12(1)(b) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>X071</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>DUES National General Export Authorisations in national Official Journals - ANNEX III C - referred to in Article 12(6) of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>X072</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>DUES Transit Licence for dual Use Items - referred to in Article 7 of the Regulation (EU) 2021/821 of the European Parliament and of the Council</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Y120</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Undertaking importing less than 100 tonnes of CO2 equivalent of hydrofluorocarbons per year and exempted from the reduction of the quantity of hydrofluorocarbons placed on the EU market according to article 15.2 first sub paragraph</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Y123</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>FGAS - Undertaking registered in the F-Gas Portal according to Article 20 of Regulation (EU) 2024/573/573</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Y124</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Undertaking importing smaller amount of fluorinated greenhouse gases per year than that specified in Article 19.1 for bulk imports and 19.4 for products and equipment imports, and therefore not covered by the registration requirement</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Y125</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Import falling under Article 15.1 of Regulation (EU) N° 517/2014 on the reduction of the quantity of hydrofluorocarbons placed on the EU market</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Y128</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>CBAM - Unique Account Number of the Authorised CBAM Declarant, in accordance with Article 16.1 of Regulation (EU) 2023/956</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Y138</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Y139</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>ICGD - Derogation for goods imported as per Article 3.4(b) and (c) of Regulation (EU) 2019/880</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Y152</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Y154</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Art.11.3 Reg. 2024/573</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Y161</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from export prohibition according to Article 22.3 of Regulation (EU) 2024/573</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Y168</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>FGAS - Military exemption from export prohibition (Article 22.3. para 2 of Reg (EU) 2024/573)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Y951</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2 (a) to (f) of Regulation (EU) No 517/2014</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Y972</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>FGAS - Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Y986</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) N° 517/2014</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -43227,6 +44194,111 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Y121</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>FGAS Tones of CO2 equivalent of bulk gases and of gases contained in products or equipment, and parts thereof</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Y163</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>FGAS Net mass of F-gases charged in products and equipment</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Y797</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>ODS - Licensing system registration identification number as defined in Article 17.3 (a)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Y798</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>ODS - Declaration of net mass of ozone -depleting substance(s), when included in products and equipment</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Y799</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>ODS - net mass of the ODS multiplied by the ODP of the ozone-depleting substance(s), also when included in products and equipment</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Codelists/Codelists - Import.xlsx
+++ b/Codelists/Codelists - Import.xlsx
@@ -1264,7 +1264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,12 +1347,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation</t>
+          <t>Quota Allocation</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -1361,12 +1361,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 22 Goods, which has been sold under a distance contract and have been released for free circulation, have been returned</t>
+          <t>Partial invalidation</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -1375,12 +1375,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 23 Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
+          <t>Partial invalidation - IM 22 Goods, which has been sold under a distance contract and have been released for free circulation, have been returned</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -1389,12 +1389,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 24 Where goods have been erroneously declared under more than one customs declaration</t>
+          <t>Partial invalidation - IM EX TR 23 Where union goods have been declared in error for a customs procedure applicable to non-union goods, and their customs status as union goods have been proved afterwards by means of a T2L, T2LF or a customs goods manifest</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -1403,12 +1403,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 25 Postal low value consignments returned on basis of barcode S10</t>
+          <t>Partial invalidation - IM EX TR 24 Where goods have been erroneously declared under more than one customs declaration</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -1417,12 +1417,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 26 Accepted declaration with goods to be placed under another customs procedure</t>
+          <t>Partial invalidation - IM 25 Postal low value consignments returned on basis of barcode S10</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -1431,12 +1431,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 27 Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
+          <t>Partial invalidation - IM EX TR 26 Accepted declaration with goods to be placed under another customs procedure</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -1445,12 +1445,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX TR 28 Where goods to be destroyed, abandoned to the State, seized or confiscated are already subject to a customs declaration.</t>
+          <t>Partial invalidation - IM 27 Accepted declaration where the customs procedure is no longer justified due to special circumstances</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -1459,12 +1459,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 29 Goods declared in error to a customs procedure incurring a customs debt</t>
+          <t>Partial invalidation - IM EX TR 28 Where goods to be destroyed, abandoned to the State, seized or confiscated are already subject to a customs declaration.</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -1473,12 +1473,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM 30 Goods declared in error instead of other goods incurring a customs debt</t>
+          <t>Partial invalidation - IM 29 Goods declared in error to a customs procedure incurring a customs debt</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -1487,12 +1487,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Partial invalidation - IM EX 31 Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+          <t>Partial invalidation - IM 30 Goods declared in error instead of other goods incurring a customs debt</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -1501,12 +1501,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Corrected by declarant</t>
+          <t>Partial invalidation - IM EX 31 Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -1515,12 +1515,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Addition of missing data element (obsolete- no longer needed)</t>
+          <t>Corrected by declarant</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
@@ -1529,12 +1529,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Mistaken Customs Procedure</t>
+          <t>Addition of missing data element (obsolete- no longer needed)</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -1543,16 +1543,30 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Special circumstances that do not justify placement</t>
+          <t>Mistaken Customs Procedure</t>
         </is>
       </c>
       <c r="C20" s="2" t="n"/>
       <c r="D20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Special circumstances that do not justify placement</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5104,7 +5118,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Multiple Supplement for Import Simplified Declaration</t>
+          <t>Supplementary Recapitulative Declaration for I1</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -5251,7 +5265,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Request Invalidation &amp; Remission (4c)</t>
+          <t>Request Invalidation &amp; Remission (RRM)</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -5293,7 +5307,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Repayment/Remission 4c</t>
+          <t>Repayment/Remission RRM</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -5324,7 +5338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5435,12 +5449,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>IM 129 - Goods declared in error to a customs procedure incurring a customs debt</t>
+          <t>IM, EX, TR 128 - Where goods to be destroyed, abandoned to the State, seized or confiscated are already subject to a customs declaration</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -5449,12 +5463,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IM 130 - Goods declared in error instead of other goods incurring a customs debt</t>
+          <t>IM 129 - Goods declared in error to a customs procedure incurring a customs debt</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -5463,12 +5477,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>IM, EX 131 - Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
+          <t>IM 130 - Goods declared in error instead of other goods incurring a customs debt</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -5477,12 +5491,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>EX 134 - The declarant informs the customs office of export, that the goods released for export, re-export or outwards processing, will not leave the Union</t>
+          <t>IM, EX 131 - Where an authorization with retroactive effect is granted in accordance with Article 211(2) of the Code</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -5491,12 +5505,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>EX 135 - Where union goods have been placed under the customs warehousing procedure in accordance with article 237(2) of the code and can no longer be placed under that procedure in accordance with article 237(2) of the code</t>
+          <t>EX 134 - The declarant informs the customs office of export, that the goods released for export, re-export or outwards processing, will not leave the Union</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -5505,12 +5519,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>EX 138 - Goods for which an exit summary declaration has been lodged, which have not yet left the Union</t>
+          <t>EX 135 - Where union goods have been placed under the customs warehousing procedure in accordance with article 237(2) of the code and can no longer be placed under that procedure in accordance with article 237(2) of the code</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -5519,12 +5533,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>EX 139 - Goods for which a re-export notification has been lodged, which have not yet left the Union</t>
+          <t>EX 138 - Goods for which an exit summary declaration has been lodged, which have not yet left the Union</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -5533,12 +5547,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IM 145 Invalidation of declaration for temperary storage, where the goods has not yet been presented to the customs authorities, upon application by the declarant</t>
+          <t>EX 139 - Goods for which a re-export notification has been lodged, which have not yet left the Union</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -5547,16 +5561,30 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>IM Goods, which have been released for free circulation and evidence is provided to the satisfaction of the customs authorities, that the goods have not been used or consumed in the customs territory of the Union</t>
+          <t>IM 145 Invalidation of declaration for temperary storage, where the goods has not yet been presented to the customs authorities, upon application by the declarant</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>IM Goods, which have been released for free circulation and evidence is provided to the satisfaction of the customs authorities, that the goods have not been used or consumed in the customs territory of the Union</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9132,7 +9160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9159,12 +9187,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ASV</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>% vol</t>
+          <t>CIF price</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -9173,12 +9201,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>ASVX</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>%vol per hectolitre</t>
+          <t>Alternative VAT base</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -9187,12 +9215,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>CCT</t>
+          <t>ASV</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ct/l</t>
+          <t>% vol</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -9201,12 +9229,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>CEN</t>
+          <t>ASVX</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>100 p/st</t>
+          <t>%vol per hectolitre</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -9215,12 +9243,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>CMQ</t>
+          <t>CCT</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Cubic centimeter</t>
+          <t>ct/l</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -9229,12 +9257,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>CEN</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>100 p/st</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -9243,12 +9271,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CTM</t>
+          <t>CMQ</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>c/k Carats</t>
+          <t>Cubic centimeter</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -9257,12 +9285,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>DAP</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Decatonne, corrected according to polarisation</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -9271,12 +9299,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>DHS</t>
+          <t>CTM</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>kg DHS</t>
+          <t>c/k Carats</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -9285,12 +9313,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>DKK</t>
+          <t>DAP</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Danish Krone</t>
+          <t>Decatonne, corrected according to polarisation</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -9299,12 +9327,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>DTN</t>
+          <t>DHS</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>100 kg</t>
+          <t>kg DHS</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -9313,12 +9341,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>DTNE</t>
+          <t>DKK</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Hectokilogram of drained net weight</t>
+          <t>Danish Krone</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -9327,12 +9355,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>DTNF</t>
+          <t>DTN</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Hectokilogram of common wheat</t>
+          <t>100 kg</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -9341,12 +9369,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>DTNG</t>
+          <t>DTNA</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Hectokilogram , gross</t>
+          <t>Hectokilogram/total alcohol</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -9355,12 +9383,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>DTNL</t>
+          <t>DTNE</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Hectokilogram of live weight</t>
+          <t>Hectokilogram of drained net weight</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -9369,12 +9397,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>DTNM</t>
+          <t>DTNF</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Hectokilogram net of dry matter</t>
+          <t>Hectokilogram of common wheat</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -9383,12 +9411,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>DTNR</t>
+          <t>DTNG</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Hectokilogram of the standard quality</t>
+          <t>Hectokilogram , gross</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
@@ -9397,12 +9425,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>DTNS</t>
+          <t>DTNI</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Hectokilogram of sugar with a yield in white sugar of 92%</t>
+          <t>Hectokilogram of biodiesel content</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -9411,12 +9439,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>DTNZ</t>
+          <t>DTNJ</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Hectokilogram per 1% by weight of sucrose</t>
+          <t>Hectokilogram of fuel content (usually in form of tallow, stearin, paraffin wax or other waxes, including the wick)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n"/>
@@ -9425,12 +9453,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>ENP</t>
+          <t>DTNL</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>For each Euro or Member State national currency of the net, free-at-Union-frontier price, before duty of the product concerned</t>
+          <t>Hectokilogram of live weight</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -9439,12 +9467,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>ETN</t>
+          <t>DTNM</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>EUR / 100 kg</t>
+          <t>Hectokilogram net of dry matter</t>
         </is>
       </c>
       <c r="C22" s="2" t="n"/>
@@ -9453,12 +9481,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>DTNP</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>Hectokilogram/of lactic matter</t>
         </is>
       </c>
       <c r="C23" s="3" t="n"/>
@@ -9467,12 +9495,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>DTNR</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>gi F/S</t>
+          <t>Hectokilogram of the standard quality</t>
         </is>
       </c>
       <c r="C24" s="2" t="n"/>
@@ -9481,12 +9509,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>GRM</t>
+          <t>DTNS</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>Hectokilogram of sugar with a yield in white sugar of 92%</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -9495,12 +9523,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>DTNT</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Hectokilogram/of dry lactic matter</t>
         </is>
       </c>
       <c r="C26" s="2" t="n"/>
@@ -9509,12 +9537,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>HLT</t>
+          <t>DTNZ</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>Hectokilogram per 1% by weight of sucrose</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -9523,12 +9551,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>HMT</t>
+          <t>ENP</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>100 m</t>
+          <t>For each Euro or Member State national currency of the net, free-at-Union-frontier price, before duty of the product concerned</t>
         </is>
       </c>
       <c r="C28" s="2" t="n"/>
@@ -9537,12 +9565,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>KAC</t>
+          <t>ETN</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Kilogram net of acesulfame potassium</t>
+          <t>EUR / 100 kg</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
@@ -9551,12 +9579,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>KCC</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>kg C@5H@1@4</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C30" s="2" t="n"/>
@@ -9565,12 +9593,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>KCL</t>
+          <t>GFI</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>tonne KCl</t>
+          <t>gi F/S</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
@@ -9579,12 +9607,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>KGM</t>
+          <t>GRM</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>g</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -9593,12 +9621,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>KGMA</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Kilogram total alcohol</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C33" s="3" t="n"/>
@@ -9607,12 +9635,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>KGME</t>
+          <t>HLT</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Kilogram of drained net weight</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="C34" s="2" t="n"/>
@@ -9621,12 +9649,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>KGMG</t>
+          <t>HMT</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Kilogram , gross</t>
+          <t>100 m</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -9635,12 +9663,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>KGMP</t>
+          <t>KAC</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Kilogram of lactic matter</t>
+          <t>Kilogram net of acesulfame potassium</t>
         </is>
       </c>
       <c r="C36" s="2" t="n"/>
@@ -9649,12 +9677,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>KGMS</t>
+          <t>KCC</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Kilogram of sugar with a yield in white sugar of 92%</t>
+          <t>kg C@5H@1@4</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
@@ -9663,12 +9691,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>KGMT</t>
+          <t>KCL</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Kilogram of dry lactic matter</t>
+          <t>tonne KCl</t>
         </is>
       </c>
       <c r="C38" s="2" t="n"/>
@@ -9677,12 +9705,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>KLT</t>
+          <t>KGM</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>1000 l</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="C39" s="3" t="n"/>
@@ -9691,12 +9719,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>KMA</t>
+          <t>KGMA</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>kg methylamines</t>
+          <t>Kilogram total alcohol</t>
         </is>
       </c>
       <c r="C40" s="2" t="n"/>
@@ -9705,12 +9733,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>KMT</t>
+          <t>KGME</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Kilometre</t>
+          <t>Kilogram of drained net weight</t>
         </is>
       </c>
       <c r="C41" s="3" t="n"/>
@@ -9719,12 +9747,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>KNI</t>
+          <t>KGMF</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>kg N</t>
+          <t>Kilogram/of common wheat</t>
         </is>
       </c>
       <c r="C42" s="2" t="n"/>
@@ -9733,12 +9761,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>KNS</t>
+          <t>KGMG</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>kg H@2O@2</t>
+          <t>Kilogram , gross</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
@@ -9747,12 +9775,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>KGMI</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>kg P@2O@5</t>
+          <t>Kilogram of biodiesel content</t>
         </is>
       </c>
       <c r="C44" s="2" t="n"/>
@@ -9761,12 +9789,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>KPH</t>
+          <t>KGMJ</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>kg KOH</t>
+          <t>Kilogram of fuel content (usually in form of tallow, stearin, paraffin wax or other waxes, including the wick)</t>
         </is>
       </c>
       <c r="C45" s="3" t="n"/>
@@ -9775,12 +9803,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>KPO</t>
+          <t>KGMK</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>kg K@2O</t>
+          <t>Kilogram/of bioethanol content</t>
         </is>
       </c>
       <c r="C46" s="2" t="n"/>
@@ -9789,12 +9817,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>KPP</t>
+          <t>KGML</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Kilogram of diphosphorus pentaoxide</t>
+          <t>Kilogram of live weight</t>
         </is>
       </c>
       <c r="C47" s="3" t="n"/>
@@ -9803,12 +9831,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>KSD</t>
+          <t>KGMM</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>kg 90% sdt</t>
+          <t>Kilogram/net of dry matter</t>
         </is>
       </c>
       <c r="C48" s="2" t="n"/>
@@ -9817,12 +9845,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>KSH</t>
+          <t>KGMP</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>kg NaOH</t>
+          <t>Kilogram of lactic matter</t>
         </is>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -9831,12 +9859,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>KUR</t>
+          <t>KGMR</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>kg U</t>
+          <t>Kilogram of the standard quality</t>
         </is>
       </c>
       <c r="C50" s="2" t="n"/>
@@ -9845,12 +9873,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>LEF</t>
+          <t>KGMS</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Leaf</t>
+          <t>Kilogram of sugar with a yield in white sugar of 92%</t>
         </is>
       </c>
       <c r="C51" s="3" t="n"/>
@@ -9859,12 +9887,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>LPA</t>
+          <t>KGMT</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>l alc.</t>
+          <t>Kilogram of dry lactic matter</t>
         </is>
       </c>
       <c r="C52" s="2" t="n"/>
@@ -9873,12 +9901,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>LTR</t>
+          <t>KGMZ</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>Kilogram/per 1% by weight of sucrose</t>
         </is>
       </c>
       <c r="C53" s="3" t="n"/>
@@ -9887,12 +9915,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>LTRA</t>
+          <t>KLT</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Litre total alcohol</t>
+          <t>1000 l</t>
         </is>
       </c>
       <c r="C54" s="2" t="n"/>
@@ -9901,12 +9929,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>KMA</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>1000 p/st</t>
+          <t>kg methylamines</t>
         </is>
       </c>
       <c r="C55" s="3" t="n"/>
@@ -9915,12 +9943,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>KMT</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Milliliter</t>
+          <t>Kilometre</t>
         </is>
       </c>
       <c r="C56" s="2" t="n"/>
@@ -9929,12 +9957,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>KNI</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>kg N</t>
         </is>
       </c>
       <c r="C57" s="3" t="n"/>
@@ -9943,12 +9971,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>MPR</t>
+          <t>KNS</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>1000 pa</t>
+          <t>kg H@2O@2</t>
         </is>
       </c>
       <c r="C58" s="2" t="n"/>
@@ -9957,12 +9985,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>MTC</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>1000 m$3</t>
+          <t>kg P@2O@5</t>
         </is>
       </c>
       <c r="C59" s="3" t="n"/>
@@ -9971,12 +9999,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>MTK</t>
+          <t>KPH</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>m$2</t>
+          <t>kg KOH</t>
         </is>
       </c>
       <c r="C60" s="2" t="n"/>
@@ -9985,12 +10013,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>MTQ</t>
+          <t>KPO</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>m$3</t>
+          <t>kg K@2O</t>
         </is>
       </c>
       <c r="C61" s="3" t="n"/>
@@ -9999,12 +10027,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>MTQC</t>
+          <t>KPP</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Cubic metre 1 000</t>
+          <t>Kilogram of diphosphorus pentaoxide</t>
         </is>
       </c>
       <c r="C62" s="2" t="n"/>
@@ -10013,12 +10041,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>MTR</t>
+          <t>KSD</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>kg 90% sdt</t>
         </is>
       </c>
       <c r="C63" s="3" t="n"/>
@@ -10027,12 +10055,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>MWH</t>
+          <t>KSH</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>1000 kWh</t>
+          <t>kg NaOH</t>
         </is>
       </c>
       <c r="C64" s="2" t="n"/>
@@ -10041,12 +10069,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>NAR</t>
+          <t>KUR</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>p/st</t>
+          <t>kg U</t>
         </is>
       </c>
       <c r="C65" s="3" t="n"/>
@@ -10055,12 +10083,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>NARB</t>
+          <t>LEF</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Number of items per flask</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="C66" s="2" t="n"/>
@@ -10069,12 +10097,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>NCL</t>
+          <t>LPA</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>ce/el</t>
+          <t>l alc.</t>
         </is>
       </c>
       <c r="C67" s="3" t="n"/>
@@ -10083,12 +10111,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>NPR</t>
+          <t>LTR</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>pa</t>
+          <t>l</t>
         </is>
       </c>
       <c r="C68" s="2" t="n"/>
@@ -10097,12 +10125,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>LTRA</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Litre total alcohol</t>
         </is>
       </c>
       <c r="C69" s="3" t="n"/>
@@ -10111,12 +10139,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>STW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Straw</t>
+          <t>1000 p/st</t>
         </is>
       </c>
       <c r="C70" s="2" t="n"/>
@@ -10125,12 +10153,12 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>TCE</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Tonne of CO₂ equivalent of hydrofluorocarbons (HFCs)</t>
+          <t>Milliliter</t>
         </is>
       </c>
       <c r="C71" s="3" t="n"/>
@@ -10139,12 +10167,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>TJO</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>TJ</t>
+          <t>mm</t>
         </is>
       </c>
       <c r="C72" s="2" t="n"/>
@@ -10153,12 +10181,12 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>TNE</t>
+          <t>MPR</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>1000 kg</t>
+          <t>1000 pa</t>
         </is>
       </c>
       <c r="C73" s="3" t="n"/>
@@ -10167,12 +10195,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>TNEE</t>
+          <t>MTC</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Tonne of drained net weight</t>
+          <t>1000 m$3</t>
         </is>
       </c>
       <c r="C74" s="2" t="n"/>
@@ -10181,12 +10209,12 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>TNEI</t>
+          <t>MTK</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Tonne of biodiesel content</t>
+          <t>m$2</t>
         </is>
       </c>
       <c r="C75" s="3" t="n"/>
@@ -10195,12 +10223,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>TNEJ</t>
+          <t>MTQ</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Tonne of fuel content (usually in form of tallow, stearin, paraffin wax or other waxes, including the wick)</t>
+          <t>m$3</t>
         </is>
       </c>
       <c r="C76" s="2" t="n"/>
@@ -10209,12 +10237,12 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>TNEK</t>
+          <t>MTQC</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Tonne of bioethanol content</t>
+          <t>Cubic metre 1 000</t>
         </is>
       </c>
       <c r="C77" s="3" t="n"/>
@@ -10223,12 +10251,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>TNEM</t>
+          <t>MTR</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Tonne net of dry matter</t>
+          <t>m</t>
         </is>
       </c>
       <c r="C78" s="2" t="n"/>
@@ -10237,12 +10265,12 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>TNER</t>
+          <t>MWH</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Tonne of the standard quality</t>
+          <t>1000 kWh</t>
         </is>
       </c>
       <c r="C79" s="3" t="n"/>
@@ -10251,12 +10279,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>TNEZ</t>
+          <t>NAR</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Tonne per 1% by weight of sucrose</t>
+          <t>p/st</t>
         </is>
       </c>
       <c r="C80" s="2" t="n"/>
@@ -10265,16 +10293,310 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>NARB</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Number of Watt</t>
+          <t>Number of items per flask</t>
         </is>
       </c>
       <c r="C81" s="3" t="n"/>
       <c r="D81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>NCL</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>ce/el</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n"/>
+      <c r="D82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>NPR</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>pa</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>STW</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Straw</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>TCE</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Tonne of CO₂ equivalent of hydrofluorocarbons (HFCs)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>TJO</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>TJ</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>TNE</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>1000 kg</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n"/>
+      <c r="D88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>TNEA</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Tonne/total alcohol</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>TNEE</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Tonne of drained net weight</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>TNEF</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Tonne/of common wheat</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>TNEI</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Tonne of biodiesel content</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n"/>
+      <c r="D92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>TNEJ</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Tonne of fuel content (usually in form of tallow, stearin, paraffin wax or other waxes, including the wick)</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>TNEK</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Tonne of bioethanol content</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n"/>
+      <c r="D94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>TNEL</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Tonne of live weight</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>TNEM</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Tonne net of dry matter</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n"/>
+      <c r="D96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>TNEP</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Tonne/of lactic matter</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>TNER</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Tonne of the standard quality</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>TNES</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>Tonne/of sugar with a yield in white sugar of 92%</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>TNET</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Tonne/of dry lactic matter</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>TNEZ</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Tonne per 1% by weight of sucrose</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Number of Watt</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n"/>
+      <c r="D102" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11211,7 +11533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11350,12 +11672,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Supplementary occasional declaration</t>
+          <t>Supplementary recapitulative declaration under the procedure covered under Article 182 of the Code</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -11364,12 +11686,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Supplementary regular</t>
+          <t>Supplementary occasional declaration</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -11378,16 +11700,30 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Local Clearance declaration</t>
+          <t>Supplementary regular</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Local Clearance declaration</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26198,7 +26534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27387,12 +27723,12 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>Y138</t>
+          <t>Y134</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
+          <t>Goods originating in Büsingen, Heligoland, or Livigno (Article 2.4 of Regulation (EU) 2023/956)</t>
         </is>
       </c>
       <c r="C85" s="3" t="n"/>
@@ -27401,12 +27737,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>Y139</t>
+          <t>Y135</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>ICGD - Derogation for goods under temporary admission as per Article 3.4(c) of Regulation (EU) 2019/880</t>
+          <t>Exemption by virtue Article 2.(3) of Regulation (EU) 2023/956</t>
         </is>
       </c>
       <c r="C86" s="2" t="n"/>
@@ -27415,12 +27751,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>Y141</t>
+          <t>Y136</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Exemption for operators, as defined in Article 38(3) of Regulation (EU) 2023/1115</t>
+          <t>Exemption by virtue Article 2.(3b.) of Regulation (EU) 2023/956</t>
         </is>
       </c>
       <c r="C87" s="3" t="n"/>
@@ -27429,12 +27765,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Y142</t>
+          <t>Y137</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Exemption for non-commercial activity (Article 2 (15), 2(17) and 2(18) of Regulation (EU) 2023/1115)</t>
+          <t>Exemption by virtue Article 2a. of Regulation (EU) 2023/956</t>
         </is>
       </c>
       <c r="C88" s="2" t="n"/>
@@ -27443,12 +27779,12 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>Y150</t>
+          <t>Y138</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Exemption by virtue paragraph 2 Article 2 of Regulation (EU) 649/2012</t>
+          <t>ICGD - Derogation for goods imported for the exclusive purpose of ensuring their safekeeping, as per Article 3.4(b) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C89" s="3" t="n"/>
@@ -27457,12 +27793,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Y151</t>
+          <t>Y139</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Goods with EU origin coming from outermost regions, according to the relevant EU legislation</t>
+          <t>ICGD - Derogation for goods under temporary admission as per Article 3.4(c) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C90" s="2" t="n"/>
@@ -27471,12 +27807,12 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>Y152</t>
+          <t>Y141</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
+          <t>Exemption for operators, as defined in Article 38(3) of Regulation (EU) 2023/1115</t>
         </is>
       </c>
       <c r="C91" s="3" t="n"/>
@@ -27485,12 +27821,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Y154</t>
+          <t>Y142</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Article 11.3 of Regulation (EU) 2024/573</t>
+          <t>Exemption for non-commercial activity (Article 2 (15), 2(17) and 2(18) of Regulation (EU) 2023/1115)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n"/>
@@ -27499,12 +27835,12 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>Y155</t>
+          <t>Y150</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Products exported directly or indirectly from the Russian Federation or Belarus</t>
+          <t>Exemption by virtue paragraph 2 Article 2 of Regulation (EU) 649/2012</t>
         </is>
       </c>
       <c r="C93" s="3" t="n"/>
@@ -27513,12 +27849,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Y160</t>
+          <t>Y151</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the provisions of Regulation (EU) 2024/573</t>
+          <t>Goods with EU origin coming from outermost regions, according to the relevant EU legislation</t>
         </is>
       </c>
       <c r="C94" s="2" t="n"/>
@@ -27527,12 +27863,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Y162</t>
+          <t>Y152</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Exemption from the presentation of a valid licence to the customs authorities for the import or exports of products and equipment that are personal effects (Article 22(1), second subparagraph of Regulation (UE) 2024/573)</t>
+          <t>Exemption from import prohibition, granted for repair or servicing of existing equipment, according to the second paragraph of Article 11.1 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C95" s="3" t="n"/>
@@ -27541,12 +27877,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Y163</t>
+          <t>Y154</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Net mass of fluorinated greenhouse gases charged in products and equipment</t>
+          <t>Exemption from import/export prohibition on containers, non-refillable or without refilling provisions, for fluorinated greenhouse gases, empty or fully or partially filled, for laboratory or analytical uses according to Article 11.3 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C96" s="2" t="n"/>
@@ -27555,12 +27891,12 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>Y164</t>
+          <t>Y155</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Goods labelled according to the provisions of Article 12, paragraph 1 and 9 of Regulation (EU) 2024/573</t>
+          <t>Products exported directly or indirectly from the Russian Federation or Belarus</t>
         </is>
       </c>
       <c r="C97" s="3" t="n"/>
@@ -27569,12 +27905,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Y165</t>
+          <t>Y160</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Special entries on the statement on origin made out by the exporter</t>
+          <t>Goods other than those falling under the provisions of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C98" s="2" t="n"/>
@@ -27583,12 +27919,12 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>Y166</t>
+          <t>Y162</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Metered dose inhalers labelling according to the provisions of Article 12 of Regulation (EU) 2024/573, submitted to special approval by the European Medicines Agency or national authorities - See footnote CD807</t>
+          <t>Exemption from the presentation of a valid licence to the customs authorities for the import or exports of products and equipment that are personal effects (Article 22(1), second subparagraph of Regulation (UE) 2024/573)</t>
         </is>
       </c>
       <c r="C99" s="3" t="n"/>
@@ -27597,12 +27933,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>Y167</t>
+          <t>Y163</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition according to Article 11.5 of Regulation (EU) 2024/573 (goods described in the associated TM footnote)</t>
+          <t>Net mass of fluorinated greenhouse gases charged in products and equipment</t>
         </is>
       </c>
       <c r="C100" s="2" t="n"/>
@@ -27611,12 +27947,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>Y170</t>
+          <t>Y164</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
+          <t>Goods labelled according to the provisions of Article 12, paragraph 1 and 9 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C101" s="3" t="n"/>
@@ -27625,12 +27961,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>Y171</t>
+          <t>Y165</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
+          <t>Special entries on the statement on origin made out by the exporter</t>
         </is>
       </c>
       <c r="C102" s="2" t="n"/>
@@ -27639,12 +27975,12 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>Y172</t>
+          <t>Y166</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
+          <t>Metered dose inhalers labelling according to the provisions of Article 12 of Regulation (EU) 2024/573, submitted to special approval by the European Medicines Agency or national authorities - See footnote CD807</t>
         </is>
       </c>
       <c r="C103" s="3" t="n"/>
@@ -27653,12 +27989,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>Y173</t>
+          <t>Y167</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
+          <t>Exemption from import prohibition according to Article 11.5 of Regulation (EU) 2024/573 (goods described in the associated TM footnote)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n"/>
@@ -27667,12 +28003,12 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>Y174</t>
+          <t>Y168</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
+          <t>FGAS - Military exemption from export prohibition (Article 22.3. of Reg (EU) 2024/573)</t>
         </is>
       </c>
       <c r="C105" s="3" t="n"/>
@@ -27681,12 +28017,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>Y175</t>
+          <t>Y170</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C106" s="2" t="n"/>
@@ -27695,12 +28031,12 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>Y176</t>
+          <t>Y171</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C107" s="3" t="n"/>
@@ -27709,12 +28045,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>Y177</t>
+          <t>Y172</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C108" s="2" t="n"/>
@@ -27723,12 +28059,12 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>Y178</t>
+          <t>Y173</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Dental amalgam used for specific medical needs</t>
+          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C109" s="3" t="n"/>
@@ -27737,12 +28073,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>Y185</t>
+          <t>Y174</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
+          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C110" s="2" t="n"/>
@@ -27751,12 +28087,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>Y200</t>
+          <t>Y175</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Belgium - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C111" s="3" t="n"/>
@@ -27765,12 +28101,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>Y201</t>
+          <t>Y176</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Bulgaria - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C112" s="2" t="n"/>
@@ -27779,12 +28115,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>Y202</t>
+          <t>Y177</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Denmark - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C113" s="3" t="n"/>
@@ -27793,12 +28129,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>Y203</t>
+          <t>Y178</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Germany - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Dental amalgam used for specific medical needs</t>
         </is>
       </c>
       <c r="C114" s="2" t="n"/>
@@ -27807,12 +28143,12 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>Y204</t>
+          <t>Y185</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Estonia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
         </is>
       </c>
       <c r="C115" s="3" t="n"/>
@@ -27821,12 +28157,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>Y205</t>
+          <t>Y200</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Ireland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Belgium - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n"/>
@@ -27835,12 +28171,12 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>Y206</t>
+          <t>Y201</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Greece - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Bulgaria - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C117" s="3" t="n"/>
@@ -27849,12 +28185,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>Y207</t>
+          <t>Y202</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>Spain - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Denmark - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n"/>
@@ -27863,12 +28199,12 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>Y208</t>
+          <t>Y203</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>France - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Germany - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C119" s="3" t="n"/>
@@ -27877,12 +28213,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>Y209</t>
+          <t>Y204</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Croatia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Estonia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n"/>
@@ -27891,12 +28227,12 @@
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>Y210</t>
+          <t>Y205</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Italy - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Ireland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C121" s="3" t="n"/>
@@ -27905,12 +28241,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>Y211</t>
+          <t>Y206</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Cyprus - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Greece - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n"/>
@@ -27919,12 +28255,12 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>Y212</t>
+          <t>Y207</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Latvia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Spain - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C123" s="3" t="n"/>
@@ -27933,12 +28269,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>Y213</t>
+          <t>Y208</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Lithuania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>France - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n"/>
@@ -27947,12 +28283,12 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>Y214</t>
+          <t>Y209</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Malta - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Croatia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C125" s="3" t="n"/>
@@ -27961,12 +28297,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Y215</t>
+          <t>Y210</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>The Netherlands - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Italy - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n"/>
@@ -27975,12 +28311,12 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>Y216</t>
+          <t>Y211</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Poland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Cyprus - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C127" s="3" t="n"/>
@@ -27989,12 +28325,12 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>Y217</t>
+          <t>Y212</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Portugal - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Latvia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n"/>
@@ -28003,12 +28339,12 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>Y218</t>
+          <t>Y213</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Romania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Lithuania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C129" s="3" t="n"/>
@@ -28017,12 +28353,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>Y219</t>
+          <t>Y214</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Slovenia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Malta - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n"/>
@@ -28031,12 +28367,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>Y220</t>
+          <t>Y215</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Finland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>The Netherlands - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C131" s="3" t="n"/>
@@ -28045,12 +28381,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>Y221</t>
+          <t>Y216</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Sweden - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
+          <t>Poland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n"/>
@@ -28059,12 +28395,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>Y223</t>
+          <t>Y217</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Exemption from safeguard measure by virtue of Art. 2 of Reg. (EU) 2019/67</t>
+          <t>Portugal - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C133" s="3" t="n"/>
@@ -28073,12 +28409,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>Y227</t>
+          <t>Y218</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
+          <t>Romania - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n"/>
@@ -28087,12 +28423,12 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>Y228</t>
+          <t>Y219</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
+          <t>Slovenia - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C135" s="3" t="n"/>
@@ -28101,12 +28437,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>Y229</t>
+          <t>Y220</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
+          <t>Finland - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C136" s="2" t="n"/>
@@ -28115,12 +28451,12 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>Y230</t>
+          <t>Y221</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
+          <t>Sweden - Continental shelf or Exclusive Economic Zone (Regulation 2019/1131 establishing a customs tool, OJ L 179, p. 12)</t>
         </is>
       </c>
       <c r="C137" s="3" t="n"/>
@@ -28129,12 +28465,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>Y231</t>
+          <t>Y223</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
+          <t>Exemption from safeguard measure by virtue of Art. 2 of Reg. (EU) 2019/67</t>
         </is>
       </c>
       <c r="C138" s="2" t="n"/>
@@ -28143,12 +28479,12 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>Y232</t>
+          <t>Y227</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
+          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C139" s="3" t="n"/>
@@ -28157,12 +28493,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>Y235</t>
+          <t>Y228</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
+          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n"/>
@@ -28171,12 +28507,12 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>Y300</t>
+          <t>Y229</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Council Decision 2013/798/CFSP concerning restrictive measures against the Central African Republic</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C141" s="3" t="n"/>
@@ -28185,12 +28521,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>Y301</t>
+          <t>Y230</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Goods excepted from the prohibition, according to Article 2.1 of Council Decision 2013/798/CFSP</t>
+          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C142" s="2" t="n"/>
@@ -28199,12 +28535,12 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>Y698</t>
+          <t>Y231</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
+          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
         </is>
       </c>
       <c r="C143" s="3" t="n"/>
@@ -28213,12 +28549,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>Y699</t>
+          <t>Y232</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C144" s="2" t="n"/>
@@ -28227,12 +28563,12 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>Y703</t>
+          <t>Y235</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
+          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C145" s="3" t="n"/>
@@ -28241,12 +28577,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>Y704</t>
+          <t>Y237</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
+          <t>Goods of EU origin (CBAM)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n"/>
@@ -28255,12 +28591,12 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>Y705</t>
+          <t>Y238</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
+          <t>Application to obtain the status of authorised CBAM declarant has been submitted</t>
         </is>
       </c>
       <c r="C147" s="3" t="n"/>
@@ -28269,12 +28605,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>Y706</t>
+          <t>Y300</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
+          <t>Goods not concerned by Council Decision 2013/798/CFSP concerning restrictive measures against the Central African Republic</t>
         </is>
       </c>
       <c r="C148" s="2" t="n"/>
@@ -28283,12 +28619,12 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Y707</t>
+          <t>Y301</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
+          <t>Goods excepted from the prohibition, according to Article 2.1 of Council Decision 2013/798/CFSP</t>
         </is>
       </c>
       <c r="C149" s="3" t="n"/>
@@ -28297,12 +28633,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>Y708</t>
+          <t>Y698</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
+          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n"/>
@@ -28311,12 +28647,12 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Y709</t>
+          <t>Y699</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the European Union</t>
+          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C151" s="3" t="n"/>
@@ -28325,12 +28661,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>Y710</t>
+          <t>Y703</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the third country</t>
+          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
         </is>
       </c>
       <c r="C152" s="2" t="n"/>
@@ -28339,12 +28675,12 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>Y711</t>
+          <t>Y704</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Evidence of the date of final processing or manufacturing in the third country</t>
+          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
         </is>
       </c>
       <c r="C153" s="3" t="n"/>
@@ -28353,12 +28689,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>Y712</t>
+          <t>Y705</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
+          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
         </is>
       </c>
       <c r="C154" s="2" t="n"/>
@@ -28367,12 +28703,12 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>Y713</t>
+          <t>Y706</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
         </is>
       </c>
       <c r="C155" s="3" t="n"/>
@@ -28381,12 +28717,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>Y714</t>
+          <t>Y707</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n"/>
@@ -28395,12 +28731,12 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>Y715</t>
+          <t>Y708</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Goods exported from Ukraine prior to 1 March 2014</t>
+          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
         </is>
       </c>
       <c r="C157" s="3" t="n"/>
@@ -28409,12 +28745,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>Y716</t>
+          <t>Y709</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Goods returned to their legitimate owners in Ukraine</t>
+          <t>Evidence of the date of initial importation into the European Union</t>
         </is>
       </c>
       <c r="C158" s="2" t="n"/>
@@ -28423,12 +28759,12 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>Y717</t>
+          <t>Y710</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
+          <t>Evidence of the date of initial importation into the third country</t>
         </is>
       </c>
       <c r="C159" s="3" t="n"/>
@@ -28437,12 +28773,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>Y718</t>
+          <t>Y711</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
+          <t>Evidence of the date of final processing or manufacturing in the third country</t>
         </is>
       </c>
       <c r="C160" s="2" t="n"/>
@@ -28451,12 +28787,12 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>Y719</t>
+          <t>Y712</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
+          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
         </is>
       </c>
       <c r="C161" s="3" t="n"/>
@@ -28465,12 +28801,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>Y720</t>
+          <t>Y713</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
+          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
         </is>
       </c>
       <c r="C162" s="2" t="n"/>
@@ -28479,12 +28815,12 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>Y721</t>
+          <t>Y714</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
+          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
         </is>
       </c>
       <c r="C163" s="3" t="n"/>
@@ -28493,12 +28829,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>Y722</t>
+          <t>Y715</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
+          <t>Goods exported from Ukraine prior to 1 March 2014</t>
         </is>
       </c>
       <c r="C164" s="2" t="n"/>
@@ -28507,12 +28843,12 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>Y723</t>
+          <t>Y716</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
+          <t>Goods returned to their legitimate owners in Ukraine</t>
         </is>
       </c>
       <c r="C165" s="3" t="n"/>
@@ -28521,12 +28857,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>Y724</t>
+          <t>Y717</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
+          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n"/>
@@ -28535,12 +28871,12 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>Y725</t>
+          <t>Y718</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
         </is>
       </c>
       <c r="C167" s="3" t="n"/>
@@ -28549,12 +28885,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>Y726</t>
+          <t>Y719</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n"/>
@@ -28563,12 +28899,12 @@
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>Y727</t>
+          <t>Y720</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
+          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
         </is>
       </c>
       <c r="C169" s="3" t="n"/>
@@ -28577,12 +28913,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>Y728</t>
+          <t>Y721</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n"/>
@@ -28591,12 +28927,12 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>Y729</t>
+          <t>Y722</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
         </is>
       </c>
       <c r="C171" s="3" t="n"/>
@@ -28605,12 +28941,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>Y730</t>
+          <t>Y723</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
+          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n"/>
@@ -28619,12 +28955,12 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>Y731</t>
+          <t>Y724</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
         </is>
       </c>
       <c r="C173" s="3" t="n"/>
@@ -28633,12 +28969,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>Y732</t>
+          <t>Y725</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
+          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n"/>
@@ -28647,12 +28983,12 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>Y733</t>
+          <t>Y726</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
+          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
         </is>
       </c>
       <c r="C175" s="3" t="n"/>
@@ -28661,12 +28997,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>Y734</t>
+          <t>Y727</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n"/>
@@ -28675,12 +29011,12 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>Y735</t>
+          <t>Y728</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
         </is>
       </c>
       <c r="C177" s="3" t="n"/>
@@ -28689,12 +29025,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>Y736</t>
+          <t>Y729</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n"/>
@@ -28703,12 +29039,12 @@
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>Y737</t>
+          <t>Y730</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
         </is>
       </c>
       <c r="C179" s="3" t="n"/>
@@ -28717,12 +29053,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>Y738</t>
+          <t>Y731</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n"/>
@@ -28731,12 +29067,12 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>Y739</t>
+          <t>Y732</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
         </is>
       </c>
       <c r="C181" s="3" t="n"/>
@@ -28745,12 +29081,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>Y740</t>
+          <t>Y733</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n"/>
@@ -28759,12 +29095,12 @@
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>Y741</t>
+          <t>Y734</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
+          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
         </is>
       </c>
       <c r="C183" s="3" t="n"/>
@@ -28773,12 +29109,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>Y742</t>
+          <t>Y735</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C184" s="2" t="n"/>
@@ -28787,12 +29123,12 @@
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>Y743</t>
+          <t>Y736</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C185" s="3" t="n"/>
@@ -28801,12 +29137,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>Y744</t>
+          <t>Y737</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C186" s="2" t="n"/>
@@ -28815,12 +29151,12 @@
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>Y745</t>
+          <t>Y738</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C187" s="3" t="n"/>
@@ -28829,12 +29165,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>Y746</t>
+          <t>Y739</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C188" s="2" t="n"/>
@@ -28843,12 +29179,12 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>Y747</t>
+          <t>Y740</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C189" s="3" t="n"/>
@@ -28857,12 +29193,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>Y748</t>
+          <t>Y741</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n"/>
@@ -28871,12 +29207,12 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>Y750</t>
+          <t>Y742</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 267/2012, Annex II</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
         </is>
       </c>
       <c r="C191" s="3" t="n"/>
@@ -28885,12 +29221,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>Y784</t>
+          <t>Y743</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n"/>
@@ -28899,12 +29235,12 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>Y785</t>
+          <t>Y744</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
         </is>
       </c>
       <c r="C193" s="3" t="n"/>
@@ -28913,12 +29249,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>Y786</t>
+          <t>Y745</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n"/>
@@ -28927,12 +29263,12 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>Y787</t>
+          <t>Y746</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C195" s="3" t="n"/>
@@ -28941,12 +29277,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>Y788</t>
+          <t>Y747</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C196" s="2" t="n"/>
@@ -28955,12 +29291,12 @@
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>Y789</t>
+          <t>Y748</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C197" s="3" t="n"/>
@@ -28969,12 +29305,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>Y790</t>
+          <t>Y750</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 267/2012, Annex II</t>
         </is>
       </c>
       <c r="C198" s="2" t="n"/>
@@ -28983,12 +29319,12 @@
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>Y791</t>
+          <t>Y784</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used for essential laboratory and analytical uses (articles 8, 13.1(c) (import) and article 14.1(a) (export) of regulation (EU) 2024/590), and for products and equipment (articles 11.1 and 13.1(j) (import) and 14.1(g) (export) of regulation (EU) 2024/590)</t>
+          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C199" s="3" t="n"/>
@@ -28997,12 +29333,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>Y792</t>
+          <t>Y785</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Substances, products, equipment, other than those falling within the scope of Regulation (EU) 2024/590</t>
+          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n"/>
@@ -29011,12 +29347,12 @@
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>Y793</t>
+          <t>Y786</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C201" s="3" t="n"/>
@@ -29025,12 +29361,12 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>Y794</t>
+          <t>Y787</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n"/>
@@ -29039,12 +29375,12 @@
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>Y795</t>
+          <t>Y788</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
+          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C203" s="3" t="n"/>
@@ -29053,12 +29389,12 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>Y796</t>
+          <t>Y789</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
+          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n"/>
@@ -29067,12 +29403,12 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>Y797</t>
+          <t>Y790</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Licensing system registration identification number as defined in Article 17.3 (a) of Regulation (EU) 2024/590</t>
+          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C205" s="3" t="n"/>
@@ -29081,12 +29417,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>Y798</t>
+          <t>Y791</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>Declaration of net mass of ozone-depleting substance(s), when included in products and equipment</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used for essential laboratory and analytical uses (articles 8, 13.1(c) (import) and article 14.1(a) (export) of regulation (EU) 2024/590), and for products and equipment (articles 11.1 and 13.1(j) (import) and 14.1(g) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n"/>
@@ -29095,12 +29431,12 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>Y799</t>
+          <t>Y792</t>
         </is>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Net mass of the ozone-depleting substance multiplied by the ODP of the ozone-depleting substance(s), also when included in products and equipment</t>
+          <t>Substances, products, equipment, other than those falling within the scope of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C207" s="3" t="n"/>
@@ -29109,12 +29445,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>Y800</t>
+          <t>Y793</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>Goods not consigned from Bangladesh</t>
+          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n"/>
@@ -29123,12 +29459,12 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>Y801</t>
+          <t>Y794</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006</t>
+          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C209" s="3" t="n"/>
@@ -29137,12 +29473,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>Y802</t>
+          <t>Y795</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006 do not apply (see exemptions in articles 1e.3 and 1f.3)</t>
+          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
         </is>
       </c>
       <c r="C210" s="2" t="n"/>
@@ -29151,12 +29487,12 @@
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>Y805</t>
+          <t>Y796</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1o of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1o.2)</t>
+          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C211" s="3" t="n"/>
@@ -29165,12 +29501,12 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>Y806</t>
+          <t>Y797</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1p of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1p.2)</t>
+          <t>Licensing system registration identification number as defined in Article 17.3 (a) of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C212" s="2" t="n"/>
@@ -29179,12 +29515,12 @@
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>Y807</t>
+          <t>Y798</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1q of Council Regulation (EC) No765/2006apply (see contractual exemptions in article 1q.2)</t>
+          <t>Declaration of net mass of ozone-depleting substance(s), when included in products and equipment</t>
         </is>
       </c>
       <c r="C213" s="3" t="n"/>
@@ -29193,12 +29529,12 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>Y808</t>
+          <t>Y799</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1r of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1r.2)</t>
+          <t>Net mass of the ozone-depleting substance multiplied by the ODP of the ozone-depleting substance(s), also when included in products and equipment</t>
         </is>
       </c>
       <c r="C214" s="2" t="n"/>
@@ -29207,12 +29543,12 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>Y809</t>
+          <t>Y800</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1s of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1s.2)</t>
+          <t>Goods not consigned from Bangladesh</t>
         </is>
       </c>
       <c r="C215" s="3" t="n"/>
@@ -29221,12 +29557,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>Y810</t>
+          <t>Y801</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 5i.1 of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C216" s="2" t="n"/>
@@ -29235,12 +29571,12 @@
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>Y811</t>
+          <t>Y802</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1s.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1s.2)</t>
+          <t>The prohibitions defined in articles 1e.1 and 1f.1 of Regulation (EC) No 765/2006 do not apply (see exemptions in articles 1e.3 and 1f.3)</t>
         </is>
       </c>
       <c r="C217" s="3" t="n"/>
@@ -29249,12 +29585,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>Y812</t>
+          <t>Y805</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5i paragraph 1 of Council Regulation (EU) No 2014/833 do not apply (see exemptions in article 5i paragraph 2)</t>
+          <t>The prohibitions defined in article 1o of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1o.2)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n"/>
@@ -29263,12 +29599,12 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>Y813</t>
+          <t>Y806</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1za.1 of Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 1p of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1p.2)</t>
         </is>
       </c>
       <c r="C219" s="3" t="n"/>
@@ -29277,12 +29613,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>Y814</t>
+          <t>Y807</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1za paragraph 1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1za paragraph 2)</t>
+          <t>The prohibitions defined in article 1q of Council Regulation (EC) No765/2006apply (see contractual exemptions in article 1q.2)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n"/>
@@ -29291,12 +29627,12 @@
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>Y815</t>
+          <t>Y808</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3f paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 1r of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1r.2)</t>
         </is>
       </c>
       <c r="C221" s="3" t="n"/>
@@ -29305,12 +29641,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>Y816</t>
+          <t>Y809</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3f paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3f paragraph 3)</t>
+          <t>The prohibitions defined in article 1s of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1s.2)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n"/>
@@ -29319,12 +29655,12 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>Y818</t>
+          <t>Y810</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3 paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3 paragraph 6)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 5i.1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C223" s="3" t="n"/>
@@ -29333,12 +29669,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>Y820</t>
+          <t>Y811</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 3.1 and 3.2 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3.4)</t>
+          <t>The prohibitions defined in article 1s.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1s.2)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n"/>
@@ -29347,12 +29683,12 @@
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>Y821</t>
+          <t>Y812</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3h.1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 5i paragraph 1 of Council Regulation (EU) No 2014/833 do not apply (see exemptions in article 5i paragraph 2)</t>
         </is>
       </c>
       <c r="C225" s="3" t="n"/>
@@ -29361,12 +29697,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>Y822</t>
+          <t>Y813</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3h.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 3h.2 and 3h.3)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1za.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C226" s="2" t="n"/>
@@ -29375,12 +29711,12 @@
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>Y824</t>
+          <t>Y814</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>Evidence of the country of origin of the iron and steel inputs used for processing of the product in a third country</t>
+          <t>The prohibitions defined in article 1za paragraph 1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1za paragraph 2)</t>
         </is>
       </c>
       <c r="C227" s="3" t="n"/>
@@ -29389,12 +29725,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>Y825</t>
+          <t>Y815</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.2)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3f paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C228" s="2" t="n"/>
@@ -29403,12 +29739,12 @@
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>Y831</t>
+          <t>Y816</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3)</t>
+          <t>The prohibitions defined in article 3f paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3f paragraph 3)</t>
         </is>
       </c>
       <c r="C229" s="3" t="n"/>
@@ -29417,12 +29753,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>Y832</t>
+          <t>Y818</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3a)</t>
+          <t>The prohibitions defined in article 3 paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3 paragraph 6)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n"/>
@@ -29431,12 +29767,12 @@
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>Y833</t>
+          <t>Y820</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4)</t>
+          <t>The prohibitions defined in articles 3.1 and 3.2 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3.4)</t>
         </is>
       </c>
       <c r="C231" s="3" t="n"/>
@@ -29445,12 +29781,12 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>Y835</t>
+          <t>Y821</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3i paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3h.1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C232" s="2" t="n"/>
@@ -29459,12 +29795,12 @@
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>Y838</t>
+          <t>Y822</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3j.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3j.3)</t>
+          <t>The prohibitions defined in article 3h.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 3h.2 and 3h.3)</t>
         </is>
       </c>
       <c r="C233" s="3" t="n"/>
@@ -29473,12 +29809,12 @@
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>Y839</t>
+          <t>Y824</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
+          <t>Evidence of the country of origin of the iron and steel inputs used for processing of the product in a third country</t>
         </is>
       </c>
       <c r="C234" s="2" t="n"/>
@@ -29487,12 +29823,12 @@
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>Y840</t>
+          <t>Y825</t>
         </is>
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3m.3)</t>
+          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.2)</t>
         </is>
       </c>
       <c r="C235" s="3" t="n"/>
@@ -29501,12 +29837,12 @@
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>Y841</t>
+          <t>Y831</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.3 (d) and 3m.4)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3)</t>
         </is>
       </c>
       <c r="C236" s="2" t="n"/>
@@ -29515,12 +29851,12 @@
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>Y842</t>
+          <t>Y832</t>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.9)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3a)</t>
         </is>
       </c>
       <c r="C237" s="3" t="n"/>
@@ -29529,12 +29865,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>Y843</t>
+          <t>Y833</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3o.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3o.5,6,7)</t>
+          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n"/>
@@ -29543,12 +29879,12 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>Y844</t>
+          <t>Y835</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3i paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C239" s="3" t="n"/>
@@ -29557,12 +29893,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>Y845</t>
+          <t>Y838</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3o of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3j.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3j.3)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n"/>
@@ -29571,12 +29907,12 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>Y846</t>
+          <t>Y839</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 2aa of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
         </is>
       </c>
       <c r="C241" s="3" t="n"/>
@@ -29585,12 +29921,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>Y847</t>
+          <t>Y840</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3c of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3m.3)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n"/>
@@ -29599,12 +29935,12 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>Y848</t>
+          <t>Y841</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5a)</t>
+          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.3 (d) and 3m.4)</t>
         </is>
       </c>
       <c r="C243" s="3" t="n"/>
@@ -29613,12 +29949,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>Y849</t>
+          <t>Y842</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.3)</t>
+          <t>The prohibitions defined in article 3m.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3m.9)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n"/>
@@ -29627,12 +29963,12 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>Y850</t>
+          <t>Y843</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3b)</t>
+          <t>The prohibitions defined in article 3o.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3o.5,6,7)</t>
         </is>
       </c>
       <c r="C245" s="3" t="n"/>
@@ -29641,12 +29977,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>Y851</t>
+          <t>Y844</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3a)</t>
+          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
         </is>
       </c>
       <c r="C246" s="2" t="n"/>
@@ -29655,12 +29991,12 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>Y852</t>
+          <t>Y845</t>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3o of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C247" s="3" t="n"/>
@@ -29669,12 +30005,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>Y853</t>
+          <t>Y846</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cb)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 2aa of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C248" s="2" t="n"/>
@@ -29683,12 +30019,12 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>Y854</t>
+          <t>Y847</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2020/1158.</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3c of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C249" s="3" t="n"/>
@@ -29697,12 +30033,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>Y855</t>
+          <t>Y848</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import restrictions by virtue of Article 1(2) of Commission Implementing Regulation (EU) 2020/1158 (Chernobyl accident).</t>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5a)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n"/>
@@ -29711,12 +30047,12 @@
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>Y856</t>
+          <t>Y849</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5c)</t>
+          <t>The prohibitions defined in article 3g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3g.3)</t>
         </is>
       </c>
       <c r="C251" s="3" t="n"/>
@@ -29725,12 +30061,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>Y857</t>
+          <t>Y850</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3d)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3b)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n"/>
@@ -29739,12 +30075,12 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>Y858</t>
+          <t>Y851</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3c)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3a)</t>
         </is>
       </c>
       <c r="C253" s="3" t="n"/>
@@ -29753,12 +30089,12 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>Y859</t>
+          <t>Y852</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 12e of Regulation (EU) No 833/2014)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n"/>
@@ -29767,12 +30103,12 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>Y860</t>
+          <t>Y853</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5b)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cb)</t>
         </is>
       </c>
       <c r="C255" s="3" t="n"/>
@@ -29781,12 +30117,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>Y861</t>
+          <t>Y854</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3ba)</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2020/1158.</t>
         </is>
       </c>
       <c r="C256" s="2" t="n"/>
@@ -29795,12 +30131,12 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>Y862</t>
+          <t>Y855</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
+          <t>Exemption from import restrictions by virtue of Article 1(2) of Commission Implementing Regulation (EU) 2020/1158 (Chernobyl accident).</t>
         </is>
       </c>
       <c r="C257" s="3" t="n"/>
@@ -29809,12 +30145,12 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>Y863</t>
+          <t>Y856</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3k paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5c)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n"/>
@@ -29823,12 +30159,12 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>Y864</t>
+          <t>Y857</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3d)</t>
         </is>
       </c>
       <c r="C259" s="3" t="n"/>
@@ -29837,12 +30173,12 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>Y865</t>
+          <t>Y858</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3c)</t>
         </is>
       </c>
       <c r="C260" s="2" t="n"/>
@@ -29851,12 +30187,12 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>Y866</t>
+          <t>Y859</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
+          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 12e of Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C261" s="3" t="n"/>
@@ -29865,12 +30201,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>Y867</t>
+          <t>Y860</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3c.5b)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n"/>
@@ -29879,12 +30215,12 @@
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>Y868</t>
+          <t>Y861</t>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3ba)</t>
         </is>
       </c>
       <c r="C263" s="3" t="n"/>
@@ -29893,12 +30229,12 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>Y869</t>
+          <t>Y862</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n"/>
@@ -29907,12 +30243,12 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>Y870</t>
+          <t>Y863</t>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3k paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C265" s="3" t="n"/>
@@ -29921,12 +30257,12 @@
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>Y872</t>
+          <t>Y864</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
         </is>
       </c>
       <c r="C266" s="2" t="n"/>
@@ -29935,12 +30271,12 @@
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>Y873</t>
+          <t>Y865</t>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>Goods not transited via the territory of Russia</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
         </is>
       </c>
       <c r="C267" s="3" t="n"/>
@@ -29949,12 +30285,12 @@
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>Y874</t>
+          <t>Y866</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
         </is>
       </c>
       <c r="C268" s="2" t="n"/>
@@ -29963,12 +30299,12 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>Y875</t>
+          <t>Y867</t>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
+          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
         </is>
       </c>
       <c r="C269" s="3" t="n"/>
@@ -29977,12 +30313,12 @@
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>Y876</t>
+          <t>Y868</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C270" s="2" t="n"/>
@@ -29991,12 +30327,12 @@
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t>Y877</t>
+          <t>Y869</t>
         </is>
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
+          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
         </is>
       </c>
       <c r="C271" s="3" t="n"/>
@@ -30005,12 +30341,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>Y878</t>
+          <t>Y870</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
+          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
         </is>
       </c>
       <c r="C272" s="2" t="n"/>
@@ -30019,12 +30355,12 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>Y879</t>
+          <t>Y872</t>
         </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C273" s="3" t="n"/>
@@ -30033,12 +30369,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>Y882</t>
+          <t>Y873</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>Goods not imported via a terminal (Article 3u of Council Regulation (EU) No 833/2014)</t>
+          <t>Goods not transited via the territory of Russia</t>
         </is>
       </c>
       <c r="C274" s="2" t="n"/>
@@ -30047,12 +30383,12 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>Y890</t>
+          <t>Y874</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
         </is>
       </c>
       <c r="C275" s="3" t="n"/>
@@ -30061,12 +30397,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>Y891</t>
+          <t>Y875</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n"/>
@@ -30075,12 +30411,12 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>Y892</t>
+          <t>Y876</t>
         </is>
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C277" s="3" t="n"/>
@@ -30089,12 +30425,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>Y893</t>
+          <t>Y877</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n"/>
@@ -30103,12 +30439,12 @@
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
         <is>
-          <t>Y894</t>
+          <t>Y878</t>
         </is>
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
+          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C279" s="3" t="n"/>
@@ -30117,12 +30453,12 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>Y895</t>
+          <t>Y879</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C280" s="2" t="n"/>
@@ -30131,12 +30467,12 @@
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
         <is>
-          <t>Y896</t>
+          <t>Y882</t>
         </is>
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
+          <t>Goods not imported via a terminal (Article 3u of Council Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C281" s="3" t="n"/>
@@ -30145,12 +30481,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>Y897</t>
+          <t>Y890</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
         </is>
       </c>
       <c r="C282" s="2" t="n"/>
@@ -30159,12 +30495,12 @@
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>Y898</t>
+          <t>Y891</t>
         </is>
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
         </is>
       </c>
       <c r="C283" s="3" t="n"/>
@@ -30173,12 +30509,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>Y900</t>
+          <t>Y892</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
+          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n"/>
@@ -30187,12 +30523,12 @@
     <row r="285">
       <c r="A285" s="3" t="inlineStr">
         <is>
-          <t>Y901</t>
+          <t>Y893</t>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>Product not included in the dual use list</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
         </is>
       </c>
       <c r="C285" s="3" t="n"/>
@@ -30201,12 +30537,12 @@
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>Y902</t>
+          <t>Y894</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n"/>
@@ -30215,12 +30551,12 @@
     <row r="287">
       <c r="A287" s="3" t="inlineStr">
         <is>
-          <t>Y903</t>
+          <t>Y895</t>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
         <is>
-          <t>Declared goods are not included in the list of cultural goods</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
         </is>
       </c>
       <c r="C287" s="3" t="n"/>
@@ -30229,12 +30565,12 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>Y904</t>
+          <t>Y896</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n"/>
@@ -30243,12 +30579,12 @@
     <row r="289">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>Y906</t>
+          <t>Y897</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
+          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
         </is>
       </c>
       <c r="C289" s="3" t="n"/>
@@ -30257,12 +30593,12 @@
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>Y907</t>
+          <t>Y898</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
+          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
         </is>
       </c>
       <c r="C290" s="2" t="n"/>
@@ -30271,12 +30607,12 @@
     <row r="291">
       <c r="A291" s="3" t="inlineStr">
         <is>
-          <t>Y908</t>
+          <t>Y900</t>
         </is>
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>Export to the following territories of Member States (Greenland, New Caledonia and Dependencies, French Polynesia, French Southern and Antarctic Territories, Wallis and Futuna Islands, Mayotte, St Pierre and Miquelon, Büsingen), provided that the goods are used by an authority in charge of law enforcement in both the country or territory of destination and the metropolitan part of the Member State to which that territory belongs</t>
+          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
         </is>
       </c>
       <c r="C291" s="3" t="n"/>
@@ -30285,12 +30621,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>Y909</t>
+          <t>Y901</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EC) No. 1984/2003</t>
+          <t>Product not included in the dual use list</t>
         </is>
       </c>
       <c r="C292" s="2" t="n"/>
@@ -30299,12 +30635,12 @@
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
         <is>
-          <t>Y910</t>
+          <t>Y902</t>
         </is>
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
+          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C293" s="3" t="n"/>
@@ -30313,12 +30649,12 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>Y915</t>
+          <t>Y903</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>Reference Identification Number</t>
+          <t>Declared goods are not included in the list of cultural goods</t>
         </is>
       </c>
       <c r="C294" s="2" t="n"/>
@@ -30327,12 +30663,12 @@
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
         <is>
-          <t>Y916</t>
+          <t>Y904</t>
         </is>
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C295" s="3" t="n"/>
@@ -30341,12 +30677,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>Y917</t>
+          <t>Y906</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n"/>
@@ -30355,12 +30691,12 @@
     <row r="297">
       <c r="A297" s="3" t="inlineStr">
         <is>
-          <t>Y918</t>
+          <t>Y907</t>
         </is>
       </c>
       <c r="B297" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
+          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
         </is>
       </c>
       <c r="C297" s="3" t="n"/>
@@ -30369,12 +30705,12 @@
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>Y919</t>
+          <t>Y908</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
+          <t>Export to the following territories of Member States (Greenland, New Caledonia and Dependencies, French Polynesia, French Southern and Antarctic Territories, Wallis and Futuna Islands, Mayotte, St Pierre and Miquelon, Büsingen), provided that the goods are used by an authority in charge of law enforcement in both the country or territory of destination and the metropolitan part of the Member State to which that territory belongs</t>
         </is>
       </c>
       <c r="C298" s="2" t="n"/>
@@ -30383,12 +30719,12 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>Y920</t>
+          <t>Y909</t>
         </is>
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure</t>
+          <t>Goods not concerned by Regulation (EC) No. 1984/2003</t>
         </is>
       </c>
       <c r="C299" s="3" t="n"/>
@@ -30397,12 +30733,12 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>Y921</t>
+          <t>Y910</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>Goods exempted from the prohibition</t>
+          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
         </is>
       </c>
       <c r="C300" s="2" t="n"/>
@@ -30411,12 +30747,12 @@
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
         <is>
-          <t>Y922</t>
+          <t>Y915</t>
         </is>
       </c>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
+          <t>Reference Identification Number</t>
         </is>
       </c>
       <c r="C301" s="3" t="n"/>
@@ -30425,12 +30761,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>Y923</t>
+          <t>Y916</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
         </is>
       </c>
       <c r="C302" s="2" t="n"/>
@@ -30439,12 +30775,12 @@
     <row r="303">
       <c r="A303" s="3" t="inlineStr">
         <is>
-          <t>Y924</t>
+          <t>Y917</t>
         </is>
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2017/852</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
         </is>
       </c>
       <c r="C303" s="3" t="n"/>
@@ -30453,12 +30789,12 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>Y925</t>
+          <t>Y918</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>Export for laboratory-scale research or laboratory analysis (Article 3 (3) of Regulation (EU) 2017/852)</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
         </is>
       </c>
       <c r="C304" s="2" t="n"/>
@@ -30467,12 +30803,12 @@
     <row r="305">
       <c r="A305" s="3" t="inlineStr">
         <is>
-          <t>Y926</t>
+          <t>Y919</t>
         </is>
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
+          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
         </is>
       </c>
       <c r="C305" s="3" t="n"/>
@@ -30481,12 +30817,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>Y927</t>
+          <t>Y920</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
+          <t>Goods other than those described in the footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C306" s="2" t="n"/>
@@ -30495,12 +30831,12 @@
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>Y928</t>
+          <t>Y921</t>
         </is>
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1787</t>
+          <t>Goods exempted from the prohibition</t>
         </is>
       </c>
       <c r="C307" s="3" t="n"/>
@@ -30509,12 +30845,12 @@
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>Y929</t>
+          <t>Y922</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
+          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
         </is>
       </c>
       <c r="C308" s="2" t="n"/>
@@ -30523,12 +30859,12 @@
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
         <is>
-          <t>Y930</t>
+          <t>Y923</t>
         </is>
       </c>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
+          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
         </is>
       </c>
       <c r="C309" s="3" t="n"/>
@@ -30537,12 +30873,12 @@
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>Y931</t>
+          <t>Y924</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
+          <t>Goods not concerned by Regulation (EU) 2017/852</t>
         </is>
       </c>
       <c r="C310" s="2" t="n"/>
@@ -30551,12 +30887,12 @@
     <row r="311">
       <c r="A311" s="3" t="inlineStr">
         <is>
-          <t>Y932</t>
+          <t>Y925</t>
         </is>
       </c>
       <c r="B311" s="3" t="inlineStr">
         <is>
-          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
+          <t>Export for laboratory-scale research or laboratory analysis (Article 3 (3) of Regulation (EU) 2017/852)</t>
         </is>
       </c>
       <c r="C311" s="3" t="n"/>
@@ -30565,12 +30901,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>Y934</t>
+          <t>Y926</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 258/2012 for export of firearms, their parts and components and ammunition</t>
+          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C312" s="2" t="n"/>
@@ -30579,12 +30915,12 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>Y935</t>
+          <t>Y927</t>
         </is>
       </c>
       <c r="B313" s="3" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
         </is>
       </c>
       <c r="C313" s="3" t="n"/>
@@ -30593,12 +30929,12 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>Y937</t>
+          <t>Y928</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1787</t>
         </is>
       </c>
       <c r="C314" s="2" t="n"/>
@@ -30607,12 +30943,12 @@
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>Y939</t>
+          <t>Y929</t>
         </is>
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
+          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
         </is>
       </c>
       <c r="C315" s="3" t="n"/>
@@ -30621,12 +30957,12 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>Y942</t>
+          <t>Y930</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
         </is>
       </c>
       <c r="C316" s="2" t="n"/>
@@ -30635,12 +30971,12 @@
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>Y944</t>
+          <t>Y931</t>
         </is>
       </c>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
         </is>
       </c>
       <c r="C317" s="3" t="n"/>
@@ -30649,12 +30985,12 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>Y945</t>
+          <t>Y932</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
+          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
         </is>
       </c>
       <c r="C318" s="2" t="n"/>
@@ -30663,12 +30999,12 @@
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>Y946</t>
+          <t>Y934</t>
         </is>
       </c>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 258/2012 for export of firearms, their parts and components and ammunition</t>
         </is>
       </c>
       <c r="C319" s="3" t="n"/>
@@ -30677,12 +31013,12 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>Y947</t>
+          <t>Y935</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
+          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n"/>
@@ -30691,12 +31027,12 @@
     <row r="321">
       <c r="A321" s="3" t="inlineStr">
         <is>
-          <t>Y948</t>
+          <t>Y937</t>
         </is>
       </c>
       <c r="B321" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C321" s="3" t="n"/>
@@ -30705,12 +31041,12 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>Y949</t>
+          <t>Y939</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
+          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
         </is>
       </c>
       <c r="C322" s="2" t="n"/>
@@ -30719,12 +31055,12 @@
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>Y950</t>
+          <t>Y942</t>
         </is>
       </c>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
         </is>
       </c>
       <c r="C323" s="3" t="n"/>
@@ -30733,12 +31069,12 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>Y951</t>
+          <t>Y944</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
+          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C324" s="2" t="n"/>
@@ -30747,12 +31083,12 @@
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>Y952</t>
+          <t>Y945</t>
         </is>
       </c>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
+          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C325" s="3" t="n"/>
@@ -30761,12 +31097,12 @@
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>Y953</t>
+          <t>Y946</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
+          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n"/>
@@ -30775,12 +31111,12 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>Y955</t>
+          <t>Y947</t>
         </is>
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
+          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C327" s="3" t="n"/>
@@ -30789,12 +31125,12 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>Y956</t>
+          <t>Y948</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
+          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C328" s="2" t="n"/>
@@ -30803,12 +31139,12 @@
     <row r="329">
       <c r="A329" s="3" t="inlineStr">
         <is>
-          <t>Y957</t>
+          <t>Y949</t>
         </is>
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
         </is>
       </c>
       <c r="C329" s="3" t="n"/>
@@ -30817,12 +31153,12 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>Y958</t>
+          <t>Y950</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
         </is>
       </c>
       <c r="C330" s="2" t="n"/>
@@ -30831,12 +31167,12 @@
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>Y959</t>
+          <t>Y951</t>
         </is>
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C331" s="3" t="n"/>
@@ -30845,12 +31181,12 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>Y960</t>
+          <t>Y952</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
+          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
         </is>
       </c>
       <c r="C332" s="2" t="n"/>
@@ -30859,12 +31195,12 @@
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>Y961</t>
+          <t>Y953</t>
         </is>
       </c>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
+          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
         </is>
       </c>
       <c r="C333" s="3" t="n"/>
@@ -30873,12 +31209,12 @@
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>Y962</t>
+          <t>Y955</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C334" s="2" t="n"/>
@@ -30887,12 +31223,12 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>Y963</t>
+          <t>Y956</t>
         </is>
       </c>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C335" s="3" t="n"/>
@@ -30901,12 +31237,12 @@
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>Y964</t>
+          <t>Y957</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C336" s="2" t="n"/>
@@ -30915,12 +31251,12 @@
     <row r="337">
       <c r="A337" s="3" t="inlineStr">
         <is>
-          <t>Y965</t>
+          <t>Y958</t>
         </is>
       </c>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C337" s="3" t="n"/>
@@ -30929,12 +31265,12 @@
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>Y966</t>
+          <t>Y959</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Missile Technology Control Regime list - Annex III of Reg. (EU) 267/2012)</t>
+          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C338" s="2" t="n"/>
@@ -30943,12 +31279,12 @@
     <row r="339">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>Y967</t>
+          <t>Y960</t>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XId (Refined petroleum products) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C339" s="3" t="n"/>
@@ -30957,12 +31293,12 @@
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>Y968</t>
+          <t>Y961</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>Goods not exceeding a sales price of 50 € per litre</t>
+          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C340" s="2" t="n"/>
@@ -30971,12 +31307,12 @@
     <row r="341">
       <c r="A341" s="3" t="inlineStr">
         <is>
-          <t>Y969</t>
+          <t>Y962</t>
         </is>
       </c>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
+          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C341" s="3" t="n"/>
@@ -30985,12 +31321,12 @@
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>Y970</t>
+          <t>Y963</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n"/>
@@ -30999,12 +31335,12 @@
     <row r="343">
       <c r="A343" s="3" t="inlineStr">
         <is>
-          <t>Y971</t>
+          <t>Y964</t>
         </is>
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C343" s="3" t="n"/>
@@ -31013,12 +31349,12 @@
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>Y972</t>
+          <t>Y965</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
+          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C344" s="2" t="n"/>
@@ -31027,12 +31363,12 @@
     <row r="345">
       <c r="A345" s="3" t="inlineStr">
         <is>
-          <t>Y976</t>
+          <t>Y966</t>
         </is>
       </c>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Missile Technology Control Regime list - Annex III of Reg. (EU) 267/2012)</t>
         </is>
       </c>
       <c r="C345" s="3" t="n"/>
@@ -31041,12 +31377,12 @@
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>Y978</t>
+          <t>Y967</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
+          <t>Goods other than those described in Annex XId (Refined petroleum products) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C346" s="2" t="n"/>
@@ -31055,12 +31391,12 @@
     <row r="347">
       <c r="A347" s="3" t="inlineStr">
         <is>
-          <t>Y980</t>
+          <t>Y968</t>
         </is>
       </c>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
+          <t>Goods not exceeding a sales price of 50 € per litre</t>
         </is>
       </c>
       <c r="C347" s="3" t="n"/>
@@ -31069,12 +31405,12 @@
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>Y981</t>
+          <t>Y969</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>Exemption by virtue of Article 1(9) of Regulation (EU) 2021/442: (c) exports of goods purchased and/or delivered through COVAX, UNICEF and PAHO with destination to any other COVAX participating country, (d) donation or resale, (e) humanitarian emergency response</t>
+          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n"/>
@@ -31083,12 +31419,12 @@
     <row r="349">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>Y983</t>
+          <t>Y970</t>
         </is>
       </c>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C349" s="3" t="n"/>
@@ -31097,12 +31433,12 @@
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>Y984</t>
+          <t>Y971</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n"/>
@@ -31111,12 +31447,12 @@
     <row r="351">
       <c r="A351" s="3" t="inlineStr">
         <is>
-          <t>Y986</t>
+          <t>Y972</t>
         </is>
       </c>
       <c r="B351" s="3" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C351" s="3" t="n"/>
@@ -31125,12 +31461,12 @@
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>Y987</t>
+          <t>Y976</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
+          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
         </is>
       </c>
       <c r="C352" s="2" t="n"/>
@@ -31139,12 +31475,12 @@
     <row r="353">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>Y988</t>
+          <t>Y978</t>
         </is>
       </c>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
+          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C353" s="3" t="n"/>
@@ -31153,12 +31489,12 @@
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>Y993</t>
+          <t>Y980</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3b.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3b.3)</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
         </is>
       </c>
       <c r="C354" s="2" t="n"/>
@@ -31167,12 +31503,12 @@
     <row r="355">
       <c r="A355" s="3" t="inlineStr">
         <is>
-          <t>Y994</t>
+          <t>Y981</t>
         </is>
       </c>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3c.5)</t>
+          <t>Exemption by virtue of Article 1(9) of Regulation (EU) 2021/442: (c) exports of goods purchased and/or delivered through COVAX, UNICEF and PAHO with destination to any other COVAX participating country, (d) donation or resale, (e) humanitarian emergency response</t>
         </is>
       </c>
       <c r="C355" s="3" t="n"/>
@@ -31181,12 +31517,12 @@
     <row r="356">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>Y995</t>
+          <t>Y983</t>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in articles 2.1 and 2a.1 of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
         </is>
       </c>
       <c r="C356" s="2" t="n"/>
@@ -31195,12 +31531,12 @@
     <row r="357">
       <c r="A357" s="3" t="inlineStr">
         <is>
-          <t>Y996</t>
+          <t>Y984</t>
         </is>
       </c>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3b.1 of Regulation (EU) No 833/2014</t>
+          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
         </is>
       </c>
       <c r="C357" s="3" t="n"/>
@@ -31209,12 +31545,12 @@
     <row r="358">
       <c r="A358" s="2" t="inlineStr">
         <is>
-          <t>Y997</t>
+          <t>Y986</t>
         </is>
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>Goods not originating from or destined to Crimea or Sevastopol (Articles 2.a and 2b.1 of Council Regulation (EU) No 692/2014)</t>
+          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C358" s="2" t="n"/>
@@ -31223,16 +31559,114 @@
     <row r="359">
       <c r="A359" s="3" t="inlineStr">
         <is>
-          <t>Y998</t>
+          <t>Y987</t>
         </is>
       </c>
       <c r="B359" s="3" t="inlineStr">
         <is>
-          <t>There are no reasonable grounds to determine that the goods are to be used in Crimea or Sevastopol (Article 2b.3 of Council Regulation (EU) No 692/2014)</t>
+          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
         </is>
       </c>
       <c r="C359" s="3" t="n"/>
       <c r="D359" s="3" t="n"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="inlineStr">
+        <is>
+          <t>Y988</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
+        </is>
+      </c>
+      <c r="C360" s="2" t="n"/>
+      <c r="D360" s="2" t="n"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="inlineStr">
+        <is>
+          <t>Y993</t>
+        </is>
+      </c>
+      <c r="B361" s="3" t="inlineStr">
+        <is>
+          <t>The prohibitions defined in article 3b.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3b.3)</t>
+        </is>
+      </c>
+      <c r="C361" s="3" t="n"/>
+      <c r="D361" s="3" t="n"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="inlineStr">
+        <is>
+          <t>Y994</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="inlineStr">
+        <is>
+          <t>The prohibitions defined in article 3c.1 of Council Regulation (EU) No 2014/833 do not apply (see contractual exemptions in article 3c.5)</t>
+        </is>
+      </c>
+      <c r="C362" s="2" t="n"/>
+      <c r="D362" s="2" t="n"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="inlineStr">
+        <is>
+          <t>Y995</t>
+        </is>
+      </c>
+      <c r="B363" s="3" t="inlineStr">
+        <is>
+          <t>Goods other than those concerned by the prohibitions defined in articles 2.1 and 2a.1 of Regulation (EU) No 833/2014</t>
+        </is>
+      </c>
+      <c r="C363" s="3" t="n"/>
+      <c r="D363" s="3" t="n"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="inlineStr">
+        <is>
+          <t>Y996</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="inlineStr">
+        <is>
+          <t>Goods other than those concerned by the prohibitions defined in article 3b.1 of Regulation (EU) No 833/2014</t>
+        </is>
+      </c>
+      <c r="C364" s="2" t="n"/>
+      <c r="D364" s="2" t="n"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="inlineStr">
+        <is>
+          <t>Y997</t>
+        </is>
+      </c>
+      <c r="B365" s="3" t="inlineStr">
+        <is>
+          <t>Goods not originating from or destined to Crimea or Sevastopol (Articles 2.a and 2b.1 of Council Regulation (EU) No 692/2014)</t>
+        </is>
+      </c>
+      <c r="C365" s="3" t="n"/>
+      <c r="D365" s="3" t="n"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="inlineStr">
+        <is>
+          <t>Y998</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="inlineStr">
+        <is>
+          <t>There are no reasonable grounds to determine that the goods are to be used in Crimea or Sevastopol (Article 2b.3 of Council Regulation (EU) No 692/2014)</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="n"/>
+      <c r="D366" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -32372,7 +32806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D600"/>
+  <dimension ref="A1:D599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38495,12 +38929,12 @@
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>Y168</t>
+          <t>Y170</t>
         </is>
       </c>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>FGAS - Military exemption from export prohibition (Article 22.3. para 2 of Reg (EU) 2024/573)</t>
+          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C437" s="3" t="n"/>
@@ -38509,12 +38943,12 @@
     <row r="438">
       <c r="A438" s="2" t="inlineStr">
         <is>
-          <t>Y170</t>
+          <t>Y171</t>
         </is>
       </c>
       <c r="B438" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Andorra, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C438" s="2" t="n"/>
@@ -38523,12 +38957,12 @@
     <row r="439">
       <c r="A439" s="3" t="inlineStr">
         <is>
-          <t>Y171</t>
+          <t>Y172</t>
         </is>
       </c>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Switzerland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C439" s="3" t="n"/>
@@ -38537,12 +38971,12 @@
     <row r="440">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>Y172</t>
+          <t>Y173</t>
         </is>
       </c>
       <c r="B440" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Faroe Islands, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C440" s="2" t="n"/>
@@ -38551,12 +38985,12 @@
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>Y173</t>
+          <t>Y174</t>
         </is>
       </c>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Greenland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C441" s="3" t="n"/>
@@ -38565,12 +38999,12 @@
     <row r="442">
       <c r="A442" s="2" t="inlineStr">
         <is>
-          <t>Y174</t>
+          <t>Y175</t>
         </is>
       </c>
       <c r="B442" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Iceland, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C442" s="2" t="n"/>
@@ -38579,12 +39013,12 @@
     <row r="443">
       <c r="A443" s="3" t="inlineStr">
         <is>
-          <t>Y175</t>
+          <t>Y176</t>
         </is>
       </c>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Liechtenstein, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C443" s="3" t="n"/>
@@ -38593,12 +39027,12 @@
     <row r="444">
       <c r="A444" s="2" t="inlineStr">
         <is>
-          <t>Y176</t>
+          <t>Y177</t>
         </is>
       </c>
       <c r="B444" s="2" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from Norway, according to the relevant EU legislation.</t>
+          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
         </is>
       </c>
       <c r="C444" s="2" t="n"/>
@@ -38607,12 +39041,12 @@
     <row r="445">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>Y177</t>
+          <t>Y185</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>Goods with third country origin coming from San Marino, according to the relevant EU legislation.</t>
+          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
         </is>
       </c>
       <c r="C445" s="3" t="n"/>
@@ -38621,12 +39055,12 @@
     <row r="446">
       <c r="A446" s="2" t="inlineStr">
         <is>
-          <t>Y185</t>
+          <t>Y199</t>
         </is>
       </c>
       <c r="B446" s="2" t="inlineStr">
         <is>
-          <t>Goods declared in one of the customs procedures referred to in Article 2(3)(b) of Regulation (EU) 2019/880 before 28.06.2025 and exempted from the presentation of an import licence or an importer statement</t>
+          <t>Goods not concerned by Regulation (EU) 2019/880 on import of cultural goods</t>
         </is>
       </c>
       <c r="C446" s="2" t="n"/>
@@ -38635,12 +39069,12 @@
     <row r="447">
       <c r="A447" s="3" t="inlineStr">
         <is>
-          <t>Y199</t>
+          <t>Y227</t>
         </is>
       </c>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2019/880 on import of cultural goods</t>
+          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C447" s="3" t="n"/>
@@ -38649,12 +39083,12 @@
     <row r="448">
       <c r="A448" s="2" t="inlineStr">
         <is>
-          <t>Y227</t>
+          <t>Y228</t>
         </is>
       </c>
       <c r="B448" s="2" t="inlineStr">
         <is>
-          <t>The contract prohibits re-exportation to Russia and re-exportation for use in Russia – Article 12g paragraph 1 of Regulation (EU) 833/2014</t>
+          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
         </is>
       </c>
       <c r="C448" s="2" t="n"/>
@@ -38663,12 +39097,12 @@
     <row r="449">
       <c r="A449" s="3" t="inlineStr">
         <is>
-          <t>Y228</t>
+          <t>Y229</t>
         </is>
       </c>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 12g.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 12g.2 b)</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
         </is>
       </c>
       <c r="C449" s="3" t="n"/>
@@ -38677,12 +39111,12 @@
     <row r="450">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>Y229</t>
+          <t>Y230</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 12g paragraph 2a of Regulation (EU) 833/2014</t>
+          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C450" s="2" t="n"/>
@@ -38691,12 +39125,12 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>Y230</t>
+          <t>Y231</t>
         </is>
       </c>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>Contract prohibits re-exportation to Belarus and re-exportation for use in Belarus – Article 8g paragraph 1 of Council Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
         </is>
       </c>
       <c r="C451" s="3" t="n"/>
@@ -38705,12 +39139,12 @@
     <row r="452">
       <c r="A452" s="2" t="inlineStr">
         <is>
-          <t>Y231</t>
+          <t>Y232</t>
         </is>
       </c>
       <c r="B452" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 8g.1 of Council Regulation (EC) No 765/2006   do not apply (see contractual exemptions in article 8g.2)</t>
+          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C452" s="2" t="n"/>
@@ -38719,12 +39153,12 @@
     <row r="453">
       <c r="A453" s="3" t="inlineStr">
         <is>
-          <t>Y232</t>
+          <t>Y235</t>
         </is>
       </c>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>Public contracts concluded with a public authority in a third country or with an international organisation - Article 8g paragraph 3 of Council Regulation (EC) No 765/2006</t>
+          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
         </is>
       </c>
       <c r="C453" s="3" t="n"/>
@@ -38733,12 +39167,12 @@
     <row r="454">
       <c r="A454" s="2" t="inlineStr">
         <is>
-          <t>Y235</t>
+          <t>Y698</t>
         </is>
       </c>
       <c r="B454" s="2" t="inlineStr">
         <is>
-          <t>Cultural goods removed from the territory of the country where they were created or discovered in full respect of the law, as per Article 3(1) of Regulation (EU) 2019/880</t>
+          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n"/>
@@ -38747,12 +39181,12 @@
     <row r="455">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>Y698</t>
+          <t>Y699</t>
         </is>
       </c>
       <c r="B455" s="3" t="inlineStr">
         <is>
-          <t>Goods exported from Russia before 22 July 2022 (Article 3o paragraph 1 of Regulation No 833/2014)</t>
+          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
         </is>
       </c>
       <c r="C455" s="3" t="n"/>
@@ -38761,12 +39195,12 @@
     <row r="456">
       <c r="A456" s="2" t="inlineStr">
         <is>
-          <t>Y699</t>
+          <t>Y703</t>
         </is>
       </c>
       <c r="B456" s="2" t="inlineStr">
         <is>
-          <t>Products that had been physically located in a processed or manufactured state in a third country before the date of applicability of the respective prohibition (Article 3p paragraph 12 of Council Regulation (EU) No 833/2014)</t>
+          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
         </is>
       </c>
       <c r="C456" s="2" t="n"/>
@@ -38775,12 +39209,12 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>Y703</t>
+          <t>Y704</t>
         </is>
       </c>
       <c r="B457" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/1100</t>
+          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
         </is>
       </c>
       <c r="C457" s="3" t="n"/>
@@ -38789,12 +39223,12 @@
     <row r="458">
       <c r="A458" s="2" t="inlineStr">
         <is>
-          <t>Y704</t>
+          <t>Y705</t>
         </is>
       </c>
       <c r="B458" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 1 to 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 6)</t>
+          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
         </is>
       </c>
       <c r="C458" s="2" t="n"/>
@@ -38803,12 +39237,12 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>Y705</t>
+          <t>Y706</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
         <is>
-          <t>Diamonds with a weight less than 0.5 carats or 0.1 grams</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
         </is>
       </c>
       <c r="C459" s="3" t="n"/>
@@ -38817,12 +39251,12 @@
     <row r="460">
       <c r="A460" s="2" t="inlineStr">
         <is>
-          <t>Y706</t>
+          <t>Y707</t>
         </is>
       </c>
       <c r="B460" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3i.3cf)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n"/>
@@ -38831,12 +39265,12 @@
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>Y707</t>
+          <t>Y708</t>
         </is>
       </c>
       <c r="B461" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ad)</t>
+          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
         </is>
       </c>
       <c r="C461" s="3" t="n"/>
@@ -38845,12 +39279,12 @@
     <row r="462">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>Y708</t>
+          <t>Y709</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3k paragraph 4a)</t>
+          <t>Evidence of the date of initial importation into the European Union</t>
         </is>
       </c>
       <c r="C462" s="2" t="n"/>
@@ -38859,12 +39293,12 @@
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>Y709</t>
+          <t>Y710</t>
         </is>
       </c>
       <c r="B463" s="3" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the European Union</t>
+          <t>Evidence of the date of initial importation into the third country</t>
         </is>
       </c>
       <c r="C463" s="3" t="n"/>
@@ -38873,12 +39307,12 @@
     <row r="464">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>Y710</t>
+          <t>Y711</t>
         </is>
       </c>
       <c r="B464" s="2" t="inlineStr">
         <is>
-          <t>Evidence of the date of initial importation into the third country</t>
+          <t>Evidence of the date of final processing or manufacturing in the third country</t>
         </is>
       </c>
       <c r="C464" s="2" t="n"/>
@@ -38887,12 +39321,12 @@
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>Y711</t>
+          <t>Y712</t>
         </is>
       </c>
       <c r="B465" s="3" t="inlineStr">
         <is>
-          <t>Evidence of the date of final processing or manufacturing in the third country</t>
+          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
         </is>
       </c>
       <c r="C465" s="3" t="n"/>
@@ -38901,12 +39335,12 @@
     <row r="466">
       <c r="A466" s="2" t="inlineStr">
         <is>
-          <t>Y712</t>
+          <t>Y713</t>
         </is>
       </c>
       <c r="B466" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3p paragraph 4 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3p paragraph 13)</t>
+          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
         </is>
       </c>
       <c r="C466" s="2" t="n"/>
@@ -38915,12 +39349,12 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>Y713</t>
+          <t>Y714</t>
         </is>
       </c>
       <c r="B467" s="3" t="inlineStr">
         <is>
-          <t>Goods imported through terminals in the Union connected to the European gas grid</t>
+          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
         </is>
       </c>
       <c r="C467" s="3" t="n"/>
@@ -38929,12 +39363,12 @@
     <row r="468">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>Y714</t>
+          <t>Y715</t>
         </is>
       </c>
       <c r="B468" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3u paragraph 1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3u paragraph 3)</t>
+          <t>Goods exported from Ukraine prior to 1 March 2014</t>
         </is>
       </c>
       <c r="C468" s="2" t="n"/>
@@ -38943,12 +39377,12 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>Y715</t>
+          <t>Y716</t>
         </is>
       </c>
       <c r="B469" s="3" t="inlineStr">
         <is>
-          <t>Goods exported from Ukraine prior to 1 March 2014</t>
+          <t>Goods returned to their legitimate owners in Ukraine</t>
         </is>
       </c>
       <c r="C469" s="3" t="n"/>
@@ -38957,12 +39391,12 @@
     <row r="470">
       <c r="A470" s="2" t="inlineStr">
         <is>
-          <t>Y716</t>
+          <t>Y717</t>
         </is>
       </c>
       <c r="B470" s="2" t="inlineStr">
         <is>
-          <t>Goods returned to their legitimate owners in Ukraine</t>
+          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
         </is>
       </c>
       <c r="C470" s="2" t="n"/>
@@ -38971,12 +39405,12 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>Y717</t>
+          <t>Y718</t>
         </is>
       </c>
       <c r="B471" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3t paragraphs 1 and 2 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3t paragraph 3)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
         </is>
       </c>
       <c r="C471" s="3" t="n"/>
@@ -38985,12 +39419,12 @@
     <row r="472">
       <c r="A472" s="2" t="inlineStr">
         <is>
-          <t>Y718</t>
+          <t>Y719</t>
         </is>
       </c>
       <c r="B472" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.4)</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n"/>
@@ -38999,12 +39433,12 @@
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>Y719</t>
+          <t>Y720</t>
         </is>
       </c>
       <c r="B473" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 7)</t>
+          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
         </is>
       </c>
       <c r="C473" s="3" t="n"/>
@@ -39013,12 +39447,12 @@
     <row r="474">
       <c r="A474" s="2" t="inlineStr">
         <is>
-          <t>Y720</t>
+          <t>Y721</t>
         </is>
       </c>
       <c r="B474" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1fd paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1fd paragraph 3)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n"/>
@@ -39027,12 +39461,12 @@
     <row r="475">
       <c r="A475" s="3" t="inlineStr">
         <is>
-          <t>Y721</t>
+          <t>Y722</t>
         </is>
       </c>
       <c r="B475" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 4)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
         </is>
       </c>
       <c r="C475" s="3" t="n"/>
@@ -39041,12 +39475,12 @@
     <row r="476">
       <c r="A476" s="2" t="inlineStr">
         <is>
-          <t>Y722</t>
+          <t>Y723</t>
         </is>
       </c>
       <c r="B476" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 5)</t>
+          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
         </is>
       </c>
       <c r="C476" s="2" t="n"/>
@@ -39055,12 +39489,12 @@
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>Y723</t>
+          <t>Y724</t>
         </is>
       </c>
       <c r="B477" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1gc.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1gc.3)</t>
+          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
         </is>
       </c>
       <c r="C477" s="3" t="n"/>
@@ -39069,12 +39503,12 @@
     <row r="478">
       <c r="A478" s="2" t="inlineStr">
         <is>
-          <t>Y724</t>
+          <t>Y725</t>
         </is>
       </c>
       <c r="B478" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ga paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ga paragraph 3)</t>
+          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
         </is>
       </c>
       <c r="C478" s="2" t="n"/>
@@ -39083,12 +39517,12 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>Y725</t>
+          <t>Y726</t>
         </is>
       </c>
       <c r="B479" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1h.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1h.4)</t>
+          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
         </is>
       </c>
       <c r="C479" s="3" t="n"/>
@@ -39097,12 +39531,12 @@
     <row r="480">
       <c r="A480" s="2" t="inlineStr">
         <is>
-          <t>Y726</t>
+          <t>Y727</t>
         </is>
       </c>
       <c r="B480" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1jc paragraph 4 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1jc paragraph 6)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n"/>
@@ -39111,12 +39545,12 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>Y727</t>
+          <t>Y728</t>
         </is>
       </c>
       <c r="B481" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 3)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
         </is>
       </c>
       <c r="C481" s="3" t="n"/>
@@ -39125,12 +39559,12 @@
     <row r="482">
       <c r="A482" s="2" t="inlineStr">
         <is>
-          <t>Y728</t>
+          <t>Y729</t>
         </is>
       </c>
       <c r="B482" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 4)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
         </is>
       </c>
       <c r="C482" s="2" t="n"/>
@@ -39139,12 +39573,12 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>Y729</t>
+          <t>Y730</t>
         </is>
       </c>
       <c r="B483" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 6)</t>
+          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
         </is>
       </c>
       <c r="C483" s="3" t="n"/>
@@ -39153,12 +39587,12 @@
     <row r="484">
       <c r="A484" s="2" t="inlineStr">
         <is>
-          <t>Y730</t>
+          <t>Y731</t>
         </is>
       </c>
       <c r="B484" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1ra.9)</t>
+          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
         </is>
       </c>
       <c r="C484" s="2" t="n"/>
@@ -39167,12 +39601,12 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>Y731</t>
+          <t>Y732</t>
         </is>
       </c>
       <c r="B485" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1ra paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1ra paragraph 8)</t>
+          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
         </is>
       </c>
       <c r="C485" s="3" t="n"/>
@@ -39181,12 +39615,12 @@
     <row r="486">
       <c r="A486" s="2" t="inlineStr">
         <is>
-          <t>Y732</t>
+          <t>Y733</t>
         </is>
       </c>
       <c r="B486" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 1-2-3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 5)</t>
+          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
         </is>
       </c>
       <c r="C486" s="2" t="n"/>
@@ -39195,12 +39629,12 @@
     <row r="487">
       <c r="A487" s="3" t="inlineStr">
         <is>
-          <t>Y733</t>
+          <t>Y734</t>
         </is>
       </c>
       <c r="B487" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rb paragraph 3 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rb paragraph 6)</t>
+          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
         </is>
       </c>
       <c r="C487" s="3" t="n"/>
@@ -39209,12 +39643,12 @@
     <row r="488">
       <c r="A488" s="2" t="inlineStr">
         <is>
-          <t>Y734</t>
+          <t>Y735</t>
         </is>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1rc paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1rc paragraph 4)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C488" s="2" t="n"/>
@@ -39223,12 +39657,12 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>Y735</t>
+          <t>Y736</t>
         </is>
       </c>
       <c r="B489" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1fd paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C489" s="3" t="n"/>
@@ -39237,12 +39671,12 @@
     <row r="490">
       <c r="A490" s="2" t="inlineStr">
         <is>
-          <t>Y736</t>
+          <t>Y737</t>
         </is>
       </c>
       <c r="B490" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1gc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C490" s="2" t="n"/>
@@ -39251,12 +39685,12 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>Y737</t>
+          <t>Y738</t>
         </is>
       </c>
       <c r="B491" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1jc paragraph 4 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C491" s="3" t="n"/>
@@ -39265,12 +39699,12 @@
     <row r="492">
       <c r="A492" s="2" t="inlineStr">
         <is>
-          <t>Y738</t>
+          <t>Y739</t>
         </is>
       </c>
       <c r="B492" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 1-2 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C492" s="2" t="n"/>
@@ -39279,12 +39713,12 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>Y739</t>
+          <t>Y740</t>
         </is>
       </c>
       <c r="B493" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rb paragraph 3 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C493" s="3" t="n"/>
@@ -39293,12 +39727,12 @@
     <row r="494">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>Y740</t>
+          <t>Y741</t>
         </is>
       </c>
       <c r="B494" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1rc paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
         </is>
       </c>
       <c r="C494" s="2" t="n"/>
@@ -39307,12 +39741,12 @@
     <row r="495">
       <c r="A495" s="3" t="inlineStr">
         <is>
-          <t>Y741</t>
+          <t>Y742</t>
         </is>
       </c>
       <c r="B495" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ae)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
         </is>
       </c>
       <c r="C495" s="3" t="n"/>
@@ -39321,12 +39755,12 @@
     <row r="496">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>Y742</t>
+          <t>Y743</t>
         </is>
       </c>
       <c r="B496" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3af)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
         </is>
       </c>
       <c r="C496" s="2" t="n"/>
@@ -39335,12 +39769,12 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>Y743</t>
+          <t>Y744</t>
         </is>
       </c>
       <c r="B497" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.5)</t>
+          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
         </is>
       </c>
       <c r="C497" s="3" t="n"/>
@@ -39349,12 +39783,12 @@
     <row r="498">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>Y744</t>
+          <t>Y745</t>
         </is>
       </c>
       <c r="B498" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb.1 of Council Regulation (EU) No 765/2006 do not apply (see contractual exemptions in article 1bb.6)</t>
+          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
         </is>
       </c>
       <c r="C498" s="2" t="n"/>
@@ -39363,12 +39797,12 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>Y745</t>
+          <t>Y746</t>
         </is>
       </c>
       <c r="B499" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1bb paragraph 1 of Council Regulation (EU) No 765/2006 do not apply (see exemptions in article 1bb paragraph 11)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C499" s="3" t="n"/>
@@ -39377,12 +39811,12 @@
     <row r="500">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>Y746</t>
+          <t>Y747</t>
         </is>
       </c>
       <c r="B500" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1bb paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C500" s="2" t="n"/>
@@ -39391,12 +39825,12 @@
     <row r="501">
       <c r="A501" s="3" t="inlineStr">
         <is>
-          <t>Y747</t>
+          <t>Y748</t>
         </is>
       </c>
       <c r="B501" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ra paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
         </is>
       </c>
       <c r="C501" s="3" t="n"/>
@@ -39405,12 +39839,12 @@
     <row r="502">
       <c r="A502" s="2" t="inlineStr">
         <is>
-          <t>Y748</t>
+          <t>Y784</t>
         </is>
       </c>
       <c r="B502" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ga paragraph 1 of Regulation (EU) No  765/2006</t>
+          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C502" s="2" t="n"/>
@@ -39419,12 +39853,12 @@
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>Y784</t>
+          <t>Y785</t>
         </is>
       </c>
       <c r="B503" s="3" t="inlineStr">
         <is>
-          <t>Containers other than those falling under the import/export prohibitions defined in Regulation (EU) 2024/590</t>
+          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C503" s="3" t="n"/>
@@ -39433,12 +39867,12 @@
     <row r="504">
       <c r="A504" s="2" t="inlineStr">
         <is>
-          <t>Y785</t>
+          <t>Y786</t>
         </is>
       </c>
       <c r="B504" s="2" t="inlineStr">
         <is>
-          <t>Refillable container for ozone-depleting substances (article 15.1 of Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n"/>
@@ -39447,12 +39881,12 @@
     <row r="505">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>Y786</t>
+          <t>Y787</t>
         </is>
       </c>
       <c r="B505" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as feedstock (Articles 6 and 13.1(a) (import) and article 14.1(b) (export) of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C505" s="3" t="n"/>
@@ -39461,12 +39895,12 @@
     <row r="506">
       <c r="A506" s="2" t="inlineStr">
         <is>
-          <t>Y787</t>
+          <t>Y788</t>
         </is>
       </c>
       <c r="B506" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances to be used as process agents (Articles 7 and 13.1(b) (import) and article 14.1(c) (export) of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C506" s="2" t="n"/>
@@ -39475,12 +39909,12 @@
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
         <is>
-          <t>Y788</t>
+          <t>Y789</t>
         </is>
       </c>
       <c r="B507" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for recovered, recycled or reclaimed halons to be used for critical uses, (see articles 9 and 13.1(g) (import) and 14.1(e) (export) of regulation (EU) 2024/590), with presentation of the required certificate (article 17.7 of regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C507" s="3" t="n"/>
@@ -39489,12 +39923,12 @@
     <row r="508">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>Y789</t>
+          <t>Y790</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for products and equipment containing halons or whose functioning relies upon halons (see articles 13.1(h) (import) and 14.1(f) (export) of Regulation (EU) 2024/590)</t>
+          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C508" s="2" t="n"/>
@@ -39503,12 +39937,12 @@
     <row r="509">
       <c r="A509" s="3" t="inlineStr">
         <is>
-          <t>Y790</t>
+          <t>Y793</t>
         </is>
       </c>
       <c r="B509" s="3" t="inlineStr">
         <is>
-          <t>Exemption from prohibition for ozone-depleting substances destined to destruction or reclamation (see articles 12, 13.1(d), 13.1(e) (import) of Regulation (EU) 2024/590), and for products and equipment (see articles 12, 13.1(i) (import) of Regulation (EU) 2024/590)</t>
+          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C509" s="3" t="n"/>
@@ -39517,12 +39951,12 @@
     <row r="510">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>Y793</t>
+          <t>Y794</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
         <is>
-          <t>Products and equipment containing ozone-depleting substances or whose functioning relies upon those substances, imported/exported as personal effects (Article 5(2) Regulation (EU) 2024/590)</t>
+          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n"/>
@@ -39531,12 +39965,12 @@
     <row r="511">
       <c r="A511" s="3" t="inlineStr">
         <is>
-          <t>Y794</t>
+          <t>Y795</t>
         </is>
       </c>
       <c r="B511" s="3" t="inlineStr">
         <is>
-          <t>Exemption from export prohibition for virgin or reclaimed hydrochlorofluorocarbons (article 14.1(d) of regulation (EU) 2024/590)</t>
+          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
         </is>
       </c>
       <c r="C511" s="3" t="n"/>
@@ -39545,12 +39979,12 @@
     <row r="512">
       <c r="A512" s="2" t="inlineStr">
         <is>
-          <t>Y795</t>
+          <t>Y796</t>
         </is>
       </c>
       <c r="B512" s="2" t="inlineStr">
         <is>
-          <t>Goods imported in respect with the provisions of article 15.4 of regulation 2024/590 on the production of trifluoromethane as a by-product</t>
+          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
         </is>
       </c>
       <c r="C512" s="2" t="n"/>
@@ -39559,12 +39993,12 @@
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>Y796</t>
+          <t>Y839</t>
         </is>
       </c>
       <c r="B513" s="3" t="inlineStr">
         <is>
-          <t>Containers labelled according to Article 15.5 of regulation (EU) 2024/590 and containing the ozone-depleting substances for uses referred to in Articles 6, 7, 8 and 12 of Regulation (EU) 2024/590</t>
+          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
         </is>
       </c>
       <c r="C513" s="3" t="n"/>
@@ -39573,12 +40007,12 @@
     <row r="514">
       <c r="A514" s="2" t="inlineStr">
         <is>
-          <t>Y839</t>
+          <t>Y844</t>
         </is>
       </c>
       <c r="B514" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1 of Commission Implementing Regulation (EU) 2023/903 do not apply (see contractual exemptions in article 1)</t>
+          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
         </is>
       </c>
       <c r="C514" s="2" t="n"/>
@@ -39587,12 +40021,12 @@
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>Y844</t>
+          <t>Y852</t>
         </is>
       </c>
       <c r="B515" s="3" t="inlineStr">
         <is>
-          <t>Goods not released for free circulation in Bulgaria, Hungary, Poland, Romania or Slovakia</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
         </is>
       </c>
       <c r="C515" s="3" t="n"/>
@@ -39601,12 +40035,12 @@
     <row r="516">
       <c r="A516" s="2" t="inlineStr">
         <is>
-          <t>Y852</t>
+          <t>Y864</t>
         </is>
       </c>
       <c r="B516" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3)</t>
+          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
         </is>
       </c>
       <c r="C516" s="2" t="n"/>
@@ -39615,12 +40049,12 @@
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>Y864</t>
+          <t>Y865</t>
         </is>
       </c>
       <c r="B517" s="3" t="inlineStr">
         <is>
-          <t>The proof of origin indicates that the production conferring originating status has not taken place in a location within the territories brought under Israeli administration since June 1967.</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
         </is>
       </c>
       <c r="C517" s="3" t="n"/>
@@ -39629,12 +40063,12 @@
     <row r="518">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>Y865</t>
+          <t>Y866</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3b)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
         </is>
       </c>
       <c r="C518" s="2" t="n"/>
@@ -39643,12 +40077,12 @@
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>Y866</t>
+          <t>Y867</t>
         </is>
       </c>
       <c r="B519" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1ba of Regulation (EU) No 765/2006</t>
+          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
         </is>
       </c>
       <c r="C519" s="3" t="n"/>
@@ -39657,12 +40091,12 @@
     <row r="520">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>Y867</t>
+          <t>Y868</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1f.1 of Council Regulation (EC) No 765/2006 do not apply (see exemptions in article 1f.4a)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
         </is>
       </c>
       <c r="C520" s="2" t="n"/>
@@ -39671,12 +40105,12 @@
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>Y868</t>
+          <t>Y869</t>
         </is>
       </c>
       <c r="B521" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 1sa.1 of Regulation (EC) No 765/2006</t>
+          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
         </is>
       </c>
       <c r="C521" s="3" t="n"/>
@@ -39685,12 +40119,12 @@
     <row r="522">
       <c r="A522" s="2" t="inlineStr">
         <is>
-          <t>Y869</t>
+          <t>Y870</t>
         </is>
       </c>
       <c r="B522" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 1sa  of Council Regulation (EC) No 765/2006 do not apply (see contractual exemptions in article 1sa.5)</t>
+          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
         </is>
       </c>
       <c r="C522" s="2" t="n"/>
@@ -39699,12 +40133,12 @@
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>Y870</t>
+          <t>Y872</t>
         </is>
       </c>
       <c r="B523" s="3" t="inlineStr">
         <is>
-          <t>Goods entered the territory of the customs union of the EU and presented to customs authorities prior to the entry into force or to applicability date of the present sanction, whichever is latest (see Article 8f of Regulation (EU) No 765/2006)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C523" s="3" t="n"/>
@@ -39713,12 +40147,12 @@
     <row r="524">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>Y872</t>
+          <t>Y873</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3p paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>Goods not transited via the territory of Russia</t>
         </is>
       </c>
       <c r="C524" s="2" t="n"/>
@@ -39727,12 +40161,12 @@
     <row r="525">
       <c r="A525" s="3" t="inlineStr">
         <is>
-          <t>Y873</t>
+          <t>Y874</t>
         </is>
       </c>
       <c r="B525" s="3" t="inlineStr">
         <is>
-          <t>Goods not transited via the territory of Russia</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
         </is>
       </c>
       <c r="C525" s="3" t="n"/>
@@ -39741,12 +40175,12 @@
     <row r="526">
       <c r="A526" s="2" t="inlineStr">
         <is>
-          <t>Y874</t>
+          <t>Y875</t>
         </is>
       </c>
       <c r="B526" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3aa)</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
         </is>
       </c>
       <c r="C526" s="2" t="n"/>
@@ -39755,12 +40189,12 @@
     <row r="527">
       <c r="A527" s="3" t="inlineStr">
         <is>
-          <t>Y875</t>
+          <t>Y876</t>
         </is>
       </c>
       <c r="B527" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ab)</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C527" s="3" t="n"/>
@@ -39769,12 +40203,12 @@
     <row r="528">
       <c r="A528" s="2" t="inlineStr">
         <is>
-          <t>Y876</t>
+          <t>Y877</t>
         </is>
       </c>
       <c r="B528" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 5n paragraph 2b of Regulation (EU) No 833/2014</t>
+          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
         </is>
       </c>
       <c r="C528" s="2" t="n"/>
@@ -39783,12 +40217,12 @@
     <row r="529">
       <c r="A529" s="3" t="inlineStr">
         <is>
-          <t>Y877</t>
+          <t>Y878</t>
         </is>
       </c>
       <c r="B529" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3i.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 3i.3ac)</t>
+          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C529" s="3" t="n"/>
@@ -39797,12 +40231,12 @@
     <row r="530">
       <c r="A530" s="2" t="inlineStr">
         <is>
-          <t>Y878</t>
+          <t>Y879</t>
         </is>
       </c>
       <c r="B530" s="2" t="inlineStr">
         <is>
-          <t>The product is imported from a partner country for importation of iron and steel as listed in Annex XXXVI to Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
         </is>
       </c>
       <c r="C530" s="2" t="n"/>
@@ -39811,12 +40245,12 @@
     <row r="531">
       <c r="A531" s="3" t="inlineStr">
         <is>
-          <t>Y879</t>
+          <t>Y890</t>
         </is>
       </c>
       <c r="B531" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 3v paragraph 1 of Regulation (EU) No 833/2014</t>
+          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
         </is>
       </c>
       <c r="C531" s="3" t="n"/>
@@ -39825,12 +40259,12 @@
     <row r="532">
       <c r="A532" s="2" t="inlineStr">
         <is>
-          <t>Y890</t>
+          <t>Y891</t>
         </is>
       </c>
       <c r="B532" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those concerned by the prohibitions defined in article 2.1 of Regulation (EU) 2023/1529</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
         </is>
       </c>
       <c r="C532" s="2" t="n"/>
@@ -39839,12 +40273,12 @@
     <row r="533">
       <c r="A533" s="3" t="inlineStr">
         <is>
-          <t>Y891</t>
+          <t>Y892</t>
         </is>
       </c>
       <c r="B533" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3aa)</t>
+          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
         </is>
       </c>
       <c r="C533" s="3" t="n"/>
@@ -39853,12 +40287,12 @@
     <row r="534">
       <c r="A534" s="2" t="inlineStr">
         <is>
-          <t>Y892</t>
+          <t>Y893</t>
         </is>
       </c>
       <c r="B534" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 2.1 of Council Regulation (EU) 2023/1529 do not apply (see contractual exemptions in article 2.7)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
         </is>
       </c>
       <c r="C534" s="2" t="n"/>
@@ -39867,12 +40301,12 @@
     <row r="535">
       <c r="A535" s="3" t="inlineStr">
         <is>
-          <t>Y893</t>
+          <t>Y894</t>
         </is>
       </c>
       <c r="B535" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ab)</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
         </is>
       </c>
       <c r="C535" s="3" t="n"/>
@@ -39881,12 +40315,12 @@
     <row r="536">
       <c r="A536" s="2" t="inlineStr">
         <is>
-          <t>Y894</t>
+          <t>Y895</t>
         </is>
       </c>
       <c r="B536" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see exemptions in article 5n.7)</t>
+          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
         </is>
       </c>
       <c r="C536" s="2" t="n"/>
@@ -39895,12 +40329,12 @@
     <row r="537">
       <c r="A537" s="3" t="inlineStr">
         <is>
-          <t>Y895</t>
+          <t>Y896</t>
         </is>
       </c>
       <c r="B537" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 5n paragraph 2b of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 5n.4b)</t>
+          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
         </is>
       </c>
       <c r="C537" s="3" t="n"/>
@@ -39909,12 +40343,12 @@
     <row r="538">
       <c r="A538" s="2" t="inlineStr">
         <is>
-          <t>Y896</t>
+          <t>Y897</t>
         </is>
       </c>
       <c r="B538" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in article 3k.1 of Council Regulation (EU) No 833/2014 do not apply (see contractual exemptions in article 3k.3ac)</t>
+          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
         </is>
       </c>
       <c r="C538" s="2" t="n"/>
@@ -39923,12 +40357,12 @@
     <row r="539">
       <c r="A539" s="3" t="inlineStr">
         <is>
-          <t>Y897</t>
+          <t>Y898</t>
         </is>
       </c>
       <c r="B539" s="3" t="inlineStr">
         <is>
-          <t>Goods not containing gold originating in Russia listed in Annex XXVI to Regulation No 833/2014 originating in Russia listed in Annex XXVI</t>
+          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
         </is>
       </c>
       <c r="C539" s="3" t="n"/>
@@ -39937,12 +40371,12 @@
     <row r="540">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>Y898</t>
+          <t>Y900</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2023/2833 (Thunnus thynnus)</t>
+          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n"/>
@@ -39951,12 +40385,12 @@
     <row r="541">
       <c r="A541" s="3" t="inlineStr">
         <is>
-          <t>Y900</t>
+          <t>Y902</t>
         </is>
       </c>
       <c r="B541" s="3" t="inlineStr">
         <is>
-          <t>Declared goods do not belong to the Washington Convention (CITES)</t>
+          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C541" s="3" t="n"/>
@@ -39965,12 +40399,12 @@
     <row r="542">
       <c r="A542" s="2" t="inlineStr">
         <is>
-          <t>Y902</t>
+          <t>Y904</t>
         </is>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the OZ footnotes linked to the measure</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C542" s="2" t="n"/>
@@ -39979,12 +40413,12 @@
     <row r="543">
       <c r="A543" s="3" t="inlineStr">
         <is>
-          <t>Y904</t>
+          <t>Y906</t>
         </is>
       </c>
       <c r="B543" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure</t>
+          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
         </is>
       </c>
       <c r="C543" s="3" t="n"/>
@@ -39993,12 +40427,12 @@
     <row r="544">
       <c r="A544" s="2" t="inlineStr">
         <is>
-          <t>Y906</t>
+          <t>Y907</t>
         </is>
       </c>
       <c r="B544" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the TR footnotes linked to the measure (708)</t>
+          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
         </is>
       </c>
       <c r="C544" s="2" t="n"/>
@@ -40007,12 +40441,12 @@
     <row r="545">
       <c r="A545" s="3" t="inlineStr">
         <is>
-          <t>Y907</t>
+          <t>Y910</t>
         </is>
       </c>
       <c r="B545" s="3" t="inlineStr">
         <is>
-          <t>Goods that will be used by military or civil personnel of a Member State, if such personnel is taking part in an EU or UN peace keeping or crisis management operation in the third country of destination, or in an operation based on agreements between Member States and third countries in the field of defence</t>
+          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
         </is>
       </c>
       <c r="C545" s="3" t="n"/>
@@ -40021,12 +40455,12 @@
     <row r="546">
       <c r="A546" s="2" t="inlineStr">
         <is>
-          <t>Y910</t>
+          <t>Y915</t>
         </is>
       </c>
       <c r="B546" s="2" t="inlineStr">
         <is>
-          <t>Bigeye tuna caught by purse seiners and bait boats and destined principally for further processing by tuna canneries</t>
+          <t>Reference Identification Number</t>
         </is>
       </c>
       <c r="C546" s="2" t="n"/>
@@ -40035,12 +40469,12 @@
     <row r="547">
       <c r="A547" s="3" t="inlineStr">
         <is>
-          <t>Y915</t>
+          <t>Y916</t>
         </is>
       </c>
       <c r="B547" s="3" t="inlineStr">
         <is>
-          <t>Reference Identification Number</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
         </is>
       </c>
       <c r="C547" s="3" t="n"/>
@@ -40049,12 +40483,12 @@
     <row r="548">
       <c r="A548" s="2" t="inlineStr">
         <is>
-          <t>Y916</t>
+          <t>Y917</t>
         </is>
       </c>
       <c r="B548" s="2" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex I</t>
+          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
         </is>
       </c>
       <c r="C548" s="2" t="n"/>
@@ -40063,12 +40497,12 @@
     <row r="549">
       <c r="A549" s="3" t="inlineStr">
         <is>
-          <t>Y917</t>
+          <t>Y918</t>
         </is>
       </c>
       <c r="B549" s="3" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EU) No 649/2012 on the export and import of dangerous chemicals, Annex V</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
         </is>
       </c>
       <c r="C549" s="3" t="n"/>
@@ -40077,12 +40511,12 @@
     <row r="550">
       <c r="A550" s="2" t="inlineStr">
         <is>
-          <t>Y918</t>
+          <t>Y919</t>
         </is>
       </c>
       <c r="B550" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 147/2003, Annex III</t>
+          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
         </is>
       </c>
       <c r="C550" s="2" t="n"/>
@@ -40091,12 +40525,12 @@
     <row r="551">
       <c r="A551" s="3" t="inlineStr">
         <is>
-          <t>Y919</t>
+          <t>Y920</t>
         </is>
       </c>
       <c r="B551" s="3" t="inlineStr">
         <is>
-          <t>Reference Identification Number for chemicals subject to the provisions of Art. 2(3) of Regulation (EU) No 649/2012</t>
+          <t>Goods other than those described in the footnotes linked to the measure</t>
         </is>
       </c>
       <c r="C551" s="3" t="n"/>
@@ -40105,12 +40539,12 @@
     <row r="552">
       <c r="A552" s="2" t="inlineStr">
         <is>
-          <t>Y920</t>
+          <t>Y921</t>
         </is>
       </c>
       <c r="B552" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure</t>
+          <t>Goods exempted from the prohibition</t>
         </is>
       </c>
       <c r="C552" s="2" t="n"/>
@@ -40119,12 +40553,12 @@
     <row r="553">
       <c r="A553" s="3" t="inlineStr">
         <is>
-          <t>Y921</t>
+          <t>Y922</t>
         </is>
       </c>
       <c r="B553" s="3" t="inlineStr">
         <is>
-          <t>Goods exempted from the prohibition</t>
+          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
         </is>
       </c>
       <c r="C553" s="3" t="n"/>
@@ -40133,12 +40567,12 @@
     <row r="554">
       <c r="A554" s="2" t="inlineStr">
         <is>
-          <t>Y922</t>
+          <t>Y923</t>
         </is>
       </c>
       <c r="B554" s="2" t="inlineStr">
         <is>
-          <t>Other than cats and dogs fur as mentioned by Regulation (EC) No 1523/2007 (OJ L 343)</t>
+          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
         </is>
       </c>
       <c r="C554" s="2" t="n"/>
@@ -40147,12 +40581,12 @@
     <row r="555">
       <c r="A555" s="3" t="inlineStr">
         <is>
-          <t>Y923</t>
+          <t>Y924</t>
         </is>
       </c>
       <c r="B555" s="3" t="inlineStr">
         <is>
-          <t>Product not subjected to the provisions of Regulation (EC) No 1013/2006 (OJ L 190)</t>
+          <t>Goods not concerned by Regulation (EU) 2017/852</t>
         </is>
       </c>
       <c r="C555" s="3" t="n"/>
@@ -40161,12 +40595,12 @@
     <row r="556">
       <c r="A556" s="2" t="inlineStr">
         <is>
-          <t>Y924</t>
+          <t>Y926</t>
         </is>
       </c>
       <c r="B556" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2017/852</t>
+          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C556" s="2" t="n"/>
@@ -40175,12 +40609,12 @@
     <row r="557">
       <c r="A557" s="3" t="inlineStr">
         <is>
-          <t>Y926</t>
+          <t>Y927</t>
         </is>
       </c>
       <c r="B557" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in Article 11.1 of Regulation (EU) N° 517/2014</t>
+          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
         </is>
       </c>
       <c r="C557" s="3" t="n"/>
@@ -40189,12 +40623,12 @@
     <row r="558">
       <c r="A558" s="2" t="inlineStr">
         <is>
-          <t>Y927</t>
+          <t>Y928</t>
         </is>
       </c>
       <c r="B558" s="2" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Council Regulation (EC) No. 1005/2008</t>
+          <t>De angivne varer er ikke omfattet af Kommissionens Gennemførselsforordning (EU) 2021/1533 (en)</t>
         </is>
       </c>
       <c r="C558" s="2" t="n"/>
@@ -40203,12 +40637,12 @@
     <row r="559">
       <c r="A559" s="3" t="inlineStr">
         <is>
-          <t>Y928</t>
+          <t>Y929</t>
         </is>
       </c>
       <c r="B559" s="3" t="inlineStr">
         <is>
-          <t>De angivne varer er ikke omfattet af Kommissionens Gennemførselsforordning (EU) 2021/1533 (en)</t>
+          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
         </is>
       </c>
       <c r="C559" s="3" t="n"/>
@@ -40217,12 +40651,12 @@
     <row r="560">
       <c r="A560" s="2" t="inlineStr">
         <is>
-          <t>Y929</t>
+          <t>Y930</t>
         </is>
       </c>
       <c r="B560" s="2" t="inlineStr">
         <is>
-          <t>Goods not concerned by Regulation (EU) 2018/848 (organic products)</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
         </is>
       </c>
       <c r="C560" s="2" t="n"/>
@@ -40231,12 +40665,12 @@
     <row r="561">
       <c r="A561" s="3" t="inlineStr">
         <is>
-          <t>Y930</t>
+          <t>Y931</t>
         </is>
       </c>
       <c r="B561" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2021/632</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
         </is>
       </c>
       <c r="C561" s="3" t="n"/>
@@ -40245,12 +40679,12 @@
     <row r="562">
       <c r="A562" s="2" t="inlineStr">
         <is>
-          <t>Y931</t>
+          <t>Y932</t>
         </is>
       </c>
       <c r="B562" s="2" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 3 of Commission Delegated Regulation (EU) 2021/630</t>
+          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
         </is>
       </c>
       <c r="C562" s="2" t="n"/>
@@ -40259,12 +40693,12 @@
     <row r="563">
       <c r="A563" s="3" t="inlineStr">
         <is>
-          <t>Y932</t>
+          <t>Y935</t>
         </is>
       </c>
       <c r="B563" s="3" t="inlineStr">
         <is>
-          <t>Goods benefitting from a derogation to CITES controls according to Article 7(3) of Council Regulation (EC) No 338/97</t>
+          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
         </is>
       </c>
       <c r="C563" s="3" t="n"/>
@@ -40273,12 +40707,12 @@
     <row r="564">
       <c r="A564" s="2" t="inlineStr">
         <is>
-          <t>Y935</t>
+          <t>Y937</t>
         </is>
       </c>
       <c r="B564" s="2" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) 1332/2013 (OJ L 335)</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C564" s="2" t="n"/>
@@ -40287,12 +40721,12 @@
     <row r="565">
       <c r="A565" s="3" t="inlineStr">
         <is>
-          <t>Y937</t>
+          <t>Y939</t>
         </is>
       </c>
       <c r="B565" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2019/1793</t>
+          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
         </is>
       </c>
       <c r="C565" s="3" t="n"/>
@@ -40301,12 +40735,12 @@
     <row r="566">
       <c r="A566" s="2" t="inlineStr">
         <is>
-          <t>Y939</t>
+          <t>Y942</t>
         </is>
       </c>
       <c r="B566" s="2" t="inlineStr">
         <is>
-          <t>Goods not covered by the provisions of Regulation (EU) No 833/2014, Annex II</t>
+          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
         </is>
       </c>
       <c r="C566" s="2" t="n"/>
@@ -40315,12 +40749,12 @@
     <row r="567">
       <c r="A567" s="3" t="inlineStr">
         <is>
-          <t>Y942</t>
+          <t>Y944</t>
         </is>
       </c>
       <c r="B567" s="3" t="inlineStr">
         <is>
-          <t>The declared goods are not concerned by Commission Implementing Regulation (EU) 2016/1141</t>
+          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C567" s="3" t="n"/>
@@ -40329,12 +40763,12 @@
     <row r="568">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>Y944</t>
+          <t>Y945</t>
         </is>
       </c>
       <c r="B568" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VI (Petroleum products) of Reg. (EU) 2017/1509</t>
+          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C568" s="2" t="n"/>
@@ -40343,12 +40777,12 @@
     <row r="569">
       <c r="A569" s="3" t="inlineStr">
         <is>
-          <t>Y945</t>
+          <t>Y946</t>
         </is>
       </c>
       <c r="B569" s="3" t="inlineStr">
         <is>
-          <t>Travellers' personal effects or goods of a non-commercial nature for travellers' personal use contained in their luggage (Art 10.2 of Regulation (EU) 2017/1509)</t>
+          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C569" s="3" t="n"/>
@@ -40357,12 +40791,12 @@
     <row r="570">
       <c r="A570" s="2" t="inlineStr">
         <is>
-          <t>Y946</t>
+          <t>Y947</t>
         </is>
       </c>
       <c r="B570" s="2" t="inlineStr">
         <is>
-          <t>Goods necessary for the official purposes of diplomatic or consular missions of Member States in the DPRK or international organisations enjoying immunities in accordance with international law, or to the personal effects of their staff (Art 10.3 of Regulation (EU) 2017/1509)</t>
+          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n"/>
@@ -40371,12 +40805,12 @@
     <row r="571">
       <c r="A571" s="3" t="inlineStr">
         <is>
-          <t>Y947</t>
+          <t>Y948</t>
         </is>
       </c>
       <c r="B571" s="3" t="inlineStr">
         <is>
-          <t>Transaction authorised by the competent authority of the Member State for humanitarian purposes (Art 10.4 of Regulation (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C571" s="3" t="n"/>
@@ -40385,12 +40819,12 @@
     <row r="572">
       <c r="A572" s="2" t="inlineStr">
         <is>
-          <t>Y948</t>
+          <t>Y949</t>
         </is>
       </c>
       <c r="B572" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VIII (Luxury goods) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
         </is>
       </c>
       <c r="C572" s="2" t="n"/>
@@ -40399,12 +40833,12 @@
     <row r="573">
       <c r="A573" s="3" t="inlineStr">
         <is>
-          <t>Y949</t>
+          <t>Y950</t>
         </is>
       </c>
       <c r="B573" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the footnotes linked to the measure (Reg 267/2012)</t>
+          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
         </is>
       </c>
       <c r="C573" s="3" t="n"/>
@@ -40413,12 +40847,12 @@
     <row r="574">
       <c r="A574" s="2" t="inlineStr">
         <is>
-          <t>Y950</t>
+          <t>Y951</t>
         </is>
       </c>
       <c r="B574" s="2" t="inlineStr">
         <is>
-          <t>Goods other than pre-charged equipment with hydrofluorocarbons, as defined in article 14.1 of Regulation (EU) No 517/2014</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2.(f) of Regulation (EU) 517/2014 or 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C574" s="2" t="n"/>
@@ -40427,12 +40861,12 @@
     <row r="575">
       <c r="A575" s="3" t="inlineStr">
         <is>
-          <t>Y951</t>
+          <t>Y952</t>
         </is>
       </c>
       <c r="B575" s="3" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 15.2.(f) of Regulation (EU) 517/2014 or 16.2 (a), (b), (d), (e) of Regulation (EU) 2024/573</t>
+          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
         </is>
       </c>
       <c r="C575" s="3" t="n"/>
@@ -40441,12 +40875,12 @@
     <row r="576">
       <c r="A576" s="2" t="inlineStr">
         <is>
-          <t>Y952</t>
+          <t>Y953</t>
         </is>
       </c>
       <c r="B576" s="2" t="inlineStr">
         <is>
-          <t>Goods exempted from Article 2a, paragraph 1 of Council Regulation (EU) No 2016/44</t>
+          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
         </is>
       </c>
       <c r="C576" s="2" t="n"/>
@@ -40455,12 +40889,12 @@
     <row r="577">
       <c r="A577" s="3" t="inlineStr">
         <is>
-          <t>Y953</t>
+          <t>Y955</t>
         </is>
       </c>
       <c r="B577" s="3" t="inlineStr">
         <is>
-          <t>Goods not concerned by Council Regulation (EU) No 2016/44 concerning restrictive measures in view of the situation in Libya</t>
+          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C577" s="3" t="n"/>
@@ -40469,12 +40903,12 @@
     <row r="578">
       <c r="A578" s="2" t="inlineStr">
         <is>
-          <t>Y955</t>
+          <t>Y956</t>
         </is>
       </c>
       <c r="B578" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the import prohibitions defined in article 4.6 of Regulation (EU) 2024/573</t>
+          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
         </is>
       </c>
       <c r="C578" s="2" t="n"/>
@@ -40483,12 +40917,12 @@
     <row r="579">
       <c r="A579" s="3" t="inlineStr">
         <is>
-          <t>Y956</t>
+          <t>Y957</t>
         </is>
       </c>
       <c r="B579" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the reduction of the quantity of hydrofluorocarbons placed on the EU market defined in article 15 of Regulation (EU) N° 517/2014</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C579" s="3" t="n"/>
@@ -40497,12 +40931,12 @@
     <row r="580">
       <c r="A580" s="2" t="inlineStr">
         <is>
-          <t>Y957</t>
+          <t>Y958</t>
         </is>
       </c>
       <c r="B580" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part V of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C580" s="2" t="n"/>
@@ -40511,12 +40945,12 @@
     <row r="581">
       <c r="A581" s="3" t="inlineStr">
         <is>
-          <t>Y958</t>
+          <t>Y959</t>
         </is>
       </c>
       <c r="B581" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IV (Gold, titanium, vanadium ore, rare-earth minerals) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C581" s="3" t="n"/>
@@ -40525,12 +40959,12 @@
     <row r="582">
       <c r="A582" s="2" t="inlineStr">
         <is>
-          <t>Y959</t>
+          <t>Y960</t>
         </is>
       </c>
       <c r="B582" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex V (Coal, iron and iron ore) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C582" s="2" t="n"/>
@@ -40539,12 +40973,12 @@
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
         <is>
-          <t>Y960</t>
+          <t>Y961</t>
         </is>
       </c>
       <c r="B583" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex VII (Copper, nickel, silver and zinc) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C583" s="3" t="n"/>
@@ -40553,12 +40987,12 @@
     <row r="584">
       <c r="A584" s="2" t="inlineStr">
         <is>
-          <t>Y961</t>
+          <t>Y962</t>
         </is>
       </c>
       <c r="B584" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex IX (Gold, precious metals and diamonds) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C584" s="2" t="n"/>
@@ -40567,12 +41001,12 @@
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
         <is>
-          <t>Y962</t>
+          <t>Y963</t>
         </is>
       </c>
       <c r="B585" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex X (Statues) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C585" s="3" t="n"/>
@@ -40581,12 +41015,12 @@
     <row r="586">
       <c r="A586" s="2" t="inlineStr">
         <is>
-          <t>Y963</t>
+          <t>Y964</t>
         </is>
       </c>
       <c r="B586" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part IV of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C586" s="2" t="n"/>
@@ -40595,12 +41029,12 @@
     <row r="587">
       <c r="A587" s="3" t="inlineStr">
         <is>
-          <t>Y964</t>
+          <t>Y965</t>
         </is>
       </c>
       <c r="B587" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIa (Seafood) of Reg. (EU) 2017/1509</t>
+          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
         </is>
       </c>
       <c r="C587" s="3" t="n"/>
@@ -40609,12 +41043,12 @@
     <row r="588">
       <c r="A588" s="2" t="inlineStr">
         <is>
-          <t>Y965</t>
+          <t>Y969</t>
         </is>
       </c>
       <c r="B588" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in Annex XIb (Lead and lead ore) of Reg. (EU) 2017/1509</t>
+          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n"/>
@@ -40623,12 +41057,12 @@
     <row r="589">
       <c r="A589" s="3" t="inlineStr">
         <is>
-          <t>Y969</t>
+          <t>Y970</t>
         </is>
       </c>
       <c r="B589" s="3" t="inlineStr">
         <is>
-          <t>Mercury-added products essential for civil protection and military uses; or intended for research, calibration of instrumentation or for use as reference standard (Article 5 (2) of Regulation (EU) 2017/852)</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C589" s="3" t="n"/>
@@ -40637,12 +41071,12 @@
     <row r="590">
       <c r="A590" s="2" t="inlineStr">
         <is>
-          <t>Y970</t>
+          <t>Y971</t>
         </is>
       </c>
       <c r="B590" s="2" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VI of Reg. (EU) 2017/1509)</t>
+          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
         </is>
       </c>
       <c r="C590" s="2" t="n"/>
@@ -40651,12 +41085,12 @@
     <row r="591">
       <c r="A591" s="3" t="inlineStr">
         <is>
-          <t>Y971</t>
+          <t>Y972</t>
         </is>
       </c>
       <c r="B591" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those described in the MG footnotes linked to the measure (Annex II, Part VIII of Reg. (EU) 2017/1509)</t>
+          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C591" s="3" t="n"/>
@@ -40665,12 +41099,12 @@
     <row r="592">
       <c r="A592" s="2" t="inlineStr">
         <is>
-          <t>Y972</t>
+          <t>Y976</t>
         </is>
       </c>
       <c r="B592" s="2" t="inlineStr">
         <is>
-          <t>Exemption from the reduction of the quantity of hydrofluorocarbons placed on the market by virtue of Article 16.2 (c) of Regulation (EU) 2024/573</t>
+          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
         </is>
       </c>
       <c r="C592" s="2" t="n"/>
@@ -40679,12 +41113,12 @@
     <row r="593">
       <c r="A593" s="3" t="inlineStr">
         <is>
-          <t>Y976</t>
+          <t>Y978</t>
         </is>
       </c>
       <c r="B593" s="3" t="inlineStr">
         <is>
-          <t>Goods other than those falling under the registration obligation defined in Article 1.2 of Regulation (EU) 1191/2014 as amended by Commission Implementing Regulation (EU) 2017/1375</t>
+          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
         </is>
       </c>
       <c r="C593" s="3" t="n"/>
@@ -40693,12 +41127,12 @@
     <row r="594">
       <c r="A594" s="2" t="inlineStr">
         <is>
-          <t>Y978</t>
+          <t>Y980</t>
         </is>
       </c>
       <c r="B594" s="2" t="inlineStr">
         <is>
-          <t>Exemption by virtue paragraph 3 of Article 1 of Regulation (EU) 2019/1793</t>
+          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
         </is>
       </c>
       <c r="C594" s="2" t="n"/>
@@ -40707,12 +41141,12 @@
     <row r="595">
       <c r="A595" s="3" t="inlineStr">
         <is>
-          <t>Y980</t>
+          <t>Y983</t>
         </is>
       </c>
       <c r="B595" s="3" t="inlineStr">
         <is>
-          <t>Goods benefitting from derogation to veterinary controls according to Article 4 of Commission Delegated Regulation (EU) 2019/2126</t>
+          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
         </is>
       </c>
       <c r="C595" s="3" t="n"/>
@@ -40721,12 +41155,12 @@
     <row r="596">
       <c r="A596" s="2" t="inlineStr">
         <is>
-          <t>Y983</t>
+          <t>Y984</t>
         </is>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 4.1 of Council Regulation (EU) 2022/263 do not apply (see exemptions in articles 2.2 and 4.3)</t>
+          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
         </is>
       </c>
       <c r="C596" s="2" t="n"/>
@@ -40735,12 +41169,12 @@
     <row r="597">
       <c r="A597" s="3" t="inlineStr">
         <is>
-          <t>Y984</t>
+          <t>Y986</t>
         </is>
       </c>
       <c r="B597" s="3" t="inlineStr">
         <is>
-          <t>Goods not originating from or not destined for the non-government controlled areas of Ukraine in the oblasts of Donetsk, Kherson, Luhansk and Zaporizhzhia</t>
+          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
         </is>
       </c>
       <c r="C597" s="3" t="n"/>
@@ -40749,12 +41183,12 @@
     <row r="598">
       <c r="A598" s="2" t="inlineStr">
         <is>
-          <t>Y986</t>
+          <t>Y987</t>
         </is>
       </c>
       <c r="B598" s="2" t="inlineStr">
         <is>
-          <t>Exemption from import prohibition according to Article 11.1 and 11.2 of Regulation (EU) 2024/573</t>
+          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
         </is>
       </c>
       <c r="C598" s="2" t="n"/>
@@ -40763,30 +41197,16 @@
     <row r="599">
       <c r="A599" s="3" t="inlineStr">
         <is>
-          <t>Y987</t>
+          <t>Y988</t>
         </is>
       </c>
       <c r="B599" s="3" t="inlineStr">
         <is>
-          <t>The prohibitions defined in articles 2.1 and 2a.1 of Council Regulation (EU) No 833/2014 do not apply (see exemptions in articles 2.3 and 2a.3)</t>
+          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
         </is>
       </c>
       <c r="C599" s="3" t="n"/>
       <c r="D599" s="3" t="n"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="2" t="inlineStr">
-        <is>
-          <t>Y988</t>
-        </is>
-      </c>
-      <c r="B600" s="2" t="inlineStr">
-        <is>
-          <t>A proof that the product has been exported from the United States to the Union prior to 10.11.2020 ( Reg. 2020/1646)</t>
-        </is>
-      </c>
-      <c r="C600" s="2" t="n"/>
-      <c r="D600" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42297,7 +42717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42674,12 +43094,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3_PRELODGED</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Registered and Waiting for Presentation of Goods</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -42688,12 +43108,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Pending - Manual Acceptance</t>
+          <t>Accepted</t>
         </is>
       </c>
       <c r="C28" s="2" t="n"/>
@@ -42702,12 +43122,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Declaration queued for manual case handling</t>
+          <t>Pending - Manual Acceptance</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
@@ -42716,12 +43136,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Manual Case handling in progress</t>
+          <t>Declaration queued for manual case handling</t>
         </is>
       </c>
       <c r="C30" s="2" t="n"/>
@@ -42730,12 +43150,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Manual Case handling completed</t>
+          <t>Manual Case handling in progress</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
@@ -42744,12 +43164,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Intention to Control</t>
+          <t>Manual Case handling completed</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
@@ -42758,12 +43178,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Under Control</t>
+          <t>Intention to Control</t>
         </is>
       </c>
       <c r="C33" s="3" t="n"/>
@@ -42772,12 +43192,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Cancelled</t>
+          <t>Under Control</t>
         </is>
       </c>
       <c r="C34" s="2" t="n"/>
@@ -42786,12 +43206,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Paper Based Registered</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -42800,12 +43220,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Paper Based Rejected</t>
+          <t>Paper Based Registered</t>
         </is>
       </c>
       <c r="C36" s="2" t="n"/>
@@ -42814,12 +43234,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Paper Based Cancelled</t>
+          <t>Paper Based Rejected</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
@@ -42828,12 +43248,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Under Partial Release</t>
+          <t>Paper Based Cancelled</t>
         </is>
       </c>
       <c r="C38" s="2" t="n"/>
@@ -42842,12 +43262,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Partial Goods Released</t>
+          <t>Under Partial Release</t>
         </is>
       </c>
       <c r="C39" s="3" t="n"/>
@@ -42856,12 +43276,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Under Exit Confirmation Request</t>
+          <t>Partial Goods Released</t>
         </is>
       </c>
       <c r="C40" s="2" t="n"/>
@@ -42870,12 +43290,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Partial Goods Not Released</t>
+          <t>Under Exit Confirmation Request</t>
         </is>
       </c>
       <c r="C41" s="3" t="n"/>
@@ -42884,12 +43304,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Control Not Satisfactory</t>
+          <t>Partial Goods Not Released</t>
         </is>
       </c>
       <c r="C42" s="2" t="n"/>
@@ -42898,12 +43318,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Under Storage</t>
+          <t>Control Not Satisfactory</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
@@ -42912,12 +43332,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Under Customs Supervision</t>
+          <t>Under Storage</t>
         </is>
       </c>
       <c r="C44" s="2" t="n"/>
@@ -42926,12 +43346,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Under Customs Supervision</t>
         </is>
       </c>
       <c r="C45" s="3" t="n"/>
@@ -42940,12 +43360,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Under Amendment</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="C46" s="2" t="n"/>
@@ -42954,12 +43374,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Preparing for Release</t>
+          <t>Under Amendment</t>
         </is>
       </c>
       <c r="C47" s="3" t="n"/>
@@ -42968,12 +43388,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Provisional Customs Debt Determined</t>
+          <t>Preparing for Release</t>
         </is>
       </c>
       <c r="C48" s="2" t="n"/>
@@ -42982,12 +43402,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provisional Customs Debt Determined</t>
         </is>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -42996,12 +43416,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>G02</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>AER Created</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C50" s="2" t="n"/>
@@ -43010,12 +43430,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>G03</t>
+          <t>G02</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>AER Requested</t>
+          <t>AER Created</t>
         </is>
       </c>
       <c r="C51" s="3" t="n"/>
@@ -43024,12 +43444,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>G04</t>
+          <t>G03</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Goods Presented at Exit</t>
+          <t>AER Requested</t>
         </is>
       </c>
       <c r="C52" s="2" t="n"/>
@@ -43038,12 +43458,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>G05</t>
+          <t>G04</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Diversion Rejected</t>
+          <t>Goods Presented at Exit</t>
         </is>
       </c>
       <c r="C53" s="3" t="n"/>
@@ -43052,12 +43472,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>G06</t>
+          <t>G05</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Arrived Elsewhere</t>
+          <t>Diversion Rejected</t>
         </is>
       </c>
       <c r="C54" s="2" t="n"/>
@@ -43066,12 +43486,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>G07</t>
+          <t>G06</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Goods Not Allowed to Exit</t>
+          <t>Arrived Elsewhere</t>
         </is>
       </c>
       <c r="C55" s="3" t="n"/>
@@ -43080,12 +43500,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>G08</t>
+          <t>G07</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Exited</t>
+          <t>Goods Not Allowed to Exit</t>
         </is>
       </c>
       <c r="C56" s="2" t="n"/>
@@ -43094,12 +43514,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>G09</t>
+          <t>G08</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Invalidated</t>
+          <t>Exited</t>
         </is>
       </c>
       <c r="C57" s="3" t="n"/>
@@ -43108,12 +43528,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>G10</t>
+          <t>G09</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Registered</t>
+          <t>Invalidated</t>
         </is>
       </c>
       <c r="C58" s="2" t="n"/>
@@ -43122,12 +43542,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>G11</t>
+          <t>G10</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Summary Declaration Requested</t>
+          <t>Registered</t>
         </is>
       </c>
       <c r="C59" s="3" t="n"/>
@@ -43136,12 +43556,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>G12</t>
+          <t>G11</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Partially Exited</t>
+          <t>Summary Declaration Requested</t>
         </is>
       </c>
       <c r="C60" s="2" t="n"/>
@@ -43150,12 +43570,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>G13</t>
+          <t>G12</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Under Control</t>
+          <t>Partially Exited</t>
         </is>
       </c>
       <c r="C61" s="3" t="n"/>
@@ -43164,12 +43584,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>G14</t>
+          <t>G13</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Goods Presented at Transit</t>
+          <t>Under Control</t>
         </is>
       </c>
       <c r="C62" s="2" t="n"/>
@@ -43178,12 +43598,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>G15</t>
+          <t>G14</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Handled Elsewhere</t>
+          <t>Goods Presented at Transit</t>
         </is>
       </c>
       <c r="C63" s="3" t="n"/>
@@ -43192,12 +43612,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>G16</t>
+          <t>G15</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Goods Ready to be released</t>
+          <t>Handled Elsewhere</t>
         </is>
       </c>
       <c r="C64" s="2" t="n"/>
@@ -43206,12 +43626,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>G50</t>
+          <t>G16</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Goods Released for Immediate Leave (Partial)</t>
+          <t>Goods Ready to be released</t>
         </is>
       </c>
       <c r="C65" s="3" t="n"/>
@@ -43220,12 +43640,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>G51</t>
+          <t>G50</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Goods Released for Immediate Leave</t>
+          <t>Goods Released for Immediate Leave (Partial)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n"/>
@@ -43234,12 +43654,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>G52</t>
+          <t>G51</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Goods Held for Storing</t>
+          <t>Goods Released for Immediate Leave</t>
         </is>
       </c>
       <c r="C67" s="3" t="n"/>
@@ -43248,12 +43668,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>G99</t>
+          <t>G52</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Completed Successfully</t>
+          <t>Goods Held for Storing</t>
         </is>
       </c>
       <c r="C68" s="2" t="n"/>
@@ -43262,16 +43682,30 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>L03</t>
+          <t>G99</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Assumed Exited</t>
+          <t>Completed Successfully</t>
         </is>
       </c>
       <c r="C69" s="3" t="n"/>
       <c r="D69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Assumed Exited</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -51971,7 +52405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51998,12 +52432,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Transactions involving actual change of ownership with financial compensation</t>
+          <t>Transactions involving actual change of ownership with financial compensation - Outright sale/purchase except direct trade with/by private consumers</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
@@ -52012,12 +52446,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Transactions involving actual change of ownership with financial compensation - Outright sale/purchase except direct trade with/by private consumers</t>
+          <t>Transactions involving actual change of ownership with financial compensation - Direct trade with/by private consumers (incl. distance sale)</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -52026,12 +52460,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Transactions involving actual change of ownership with financial compensation - Direct trade with/by private consumers (incl. distance sale)</t>
+          <t>Return and replacement of goods free of charge after registration of the original transaction - Return of goods</t>
         </is>
       </c>
       <c r="C4" s="2" t="n"/>
@@ -52040,12 +52474,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Return and replacement of goods free of charge after registration of the original transaction</t>
+          <t>Return and replacement of goods free of charge after registration of the original transaction - Replacement for returned goods</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
@@ -52054,12 +52488,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Return and replacement of goods free of charge after registration of the original transaction - Return of goods</t>
+          <t>Return and replacement of goods free of charge after registration of the original transaction - Replacement (e.g. under warranty) for goods not being returned</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -52068,12 +52502,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Return and replacement of goods free of charge after registration of the original transaction - Replacement for returned goods</t>
+          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Movements to/from a warehouse (excluding call-off and consignment stock)</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -52082,12 +52516,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Return and replacement of goods free of charge after registration of the original transaction - Replacement (e.g. under warranty) for goods not being returned</t>
+          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Supply for sale on approval or after trial (including call-off and consignment stock)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -52096,12 +52530,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Transactions involving intended change of ownership or change of ownership without financial compensation</t>
+          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Financial leasing</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -52110,12 +52544,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Movements to/from a warehouse (excluding call-off and consignment stock)</t>
+          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Transactions involving transfer of ownership without financial compensation</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -52124,12 +52558,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Supply for sale on approval or after trial (including call-off and consignment stock)</t>
+          <t>Transactions with a view to processing under contract (not involving change of ownership) - Goods expected to return to the initial Member State/country of export</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
@@ -52138,12 +52572,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Financial leasing</t>
+          <t>Transactions with a view to processing under contract (not involving change of ownership) - Goods not expected to return to the initial Member State/country of export</t>
         </is>
       </c>
       <c r="C12" s="2" t="n"/>
@@ -52152,12 +52586,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Transactions involving intended change of ownership or change of ownership without financial compensation - Transactions involving transfer of ownership without financial compensation</t>
+          <t>Transactions following processing under contract (not involving change of ownership) - Goods returning to the initial Member State/country of export</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -52166,12 +52600,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Transactions with a view to processing under contract (not involving change of ownership)</t>
+          <t>Transactions following processing under contract (not involving change of ownership) - Goods not returning to the initial Member State/country of export</t>
         </is>
       </c>
       <c r="C14" s="2" t="n"/>
@@ -52180,12 +52614,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Transactions with a view to processing under contract (not involving change of ownership) - Goods expected to return to the initial Member State/country of export</t>
+          <t>Transactions with a view to/following customs clearance (not involving change of ownership, related to goods in quasi-import or export) - Release of goods for free circulation in a Member State with a subsequent export to another Member State</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
@@ -52194,12 +52628,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Transactions with a view to processing under contract (not involving change of ownership) - Goods not expected to return to the initial Member State/country of export</t>
+          <t>Transactions involving the supply of building materials and technical equipment under a general construction or civil engineering contract for which no separate invoicing of the goods is required and an invoice for the total contract is issued</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -52208,12 +52642,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Transactions following processing under contract (not involving change of ownership)</t>
+          <t>Other transactions which cannot be classified under other codes - Hire, loan, and operational leasing longer than 24 months</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
@@ -52222,142 +52656,16 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Transactions following processing under contract (not involving change of ownership) - Goods returning to the initial Member State/country of export</t>
+          <t>Other transactions which cannot be classified under other codes - Other</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Transactions following processing under contract (not involving change of ownership) - Goods not returning to the initial Member State/country of export</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Particular transactions recorded for national purposes</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Transactions with a view to/following customs clearance (not involving change of ownership, related to goods in quasi-import or export)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Transactions with a view to/following customs clearance (not involving change of ownership, related to goods in quasi-import or export) - Release of goods for free circulation in a Member State with a subsequent export to another Member State</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Transactions with a view to/following customs clearance (not involving change of ownership, related to goods in quasi-import or export) - Transportation of goods from one Member State to another Member State to place the goods under the export procedure</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Transactions involving the supply of building materials and technical equipment under a general construction or civil engineering contract for which no separate invoicing of the goods is required and an invoice for the total contract is issued</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Other transactions which cannot be classified under other codes</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Other transactions which cannot be classified under other codes - Hire, loan, and operational leasing longer than 24 months</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Other transactions which cannot be classified under other codes - Other</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
